--- a/src/test/resources/topics/Классификатор методики МИЦИАР.xlsx
+++ b/src/test/resources/topics/Классификатор методики МИЦИАР.xlsx
@@ -18,6 +18,30 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="C453">
+      <text>
+        <t xml:space="preserve">что значит понятие? :)
+	-Сллóуйссгóрт Смаай-Гррийсс</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B398">
+      <text>
+        <t xml:space="preserve">странная тема
+	-Сллóуйссгóрт Смаай-Гррийсс</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C386">
+      <text>
+        <t xml:space="preserve">не однозначная тема
+	-Сллóуйссгóрт Смаай-Гррийсс</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D344">
+      <text>
+        <t xml:space="preserve">не понятная тема
+	-Сллóуйссгóрт Смаай-Гррийсс</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="C313">
       <text>
         <t xml:space="preserve">сократить
@@ -230,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="1274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="1279">
   <si>
     <t>СТРУКТУРА МЕТОДИКИ МИЦИАР</t>
   </si>
@@ -289,7 +313,10 @@
       <t>15-2,</t>
     </r>
     <r>
-      <t xml:space="preserve"> 75-3</t>
+      <rPr>
+        <color rgb="FF0000FF"/>
+      </rPr>
+      <t xml:space="preserve"> 75-3,</t>
     </r>
   </si>
   <si>
@@ -758,7 +785,10 @@
       <rPr>
         <color rgb="FF0000FF"/>
       </rPr>
-      <t>319-3</t>
+      <t xml:space="preserve">319-3, </t>
+    </r>
+    <r>
+      <t xml:space="preserve">155-3, </t>
     </r>
   </si>
   <si>
@@ -997,7 +1027,7 @@
       <rPr>
         <color rgb="FFFF00FF"/>
       </rPr>
-      <t>143-3</t>
+      <t xml:space="preserve">143-3, 144-3, 145-2, </t>
     </r>
   </si>
   <si>
@@ -1283,6 +1313,9 @@
     <t>LC</t>
   </si>
   <si>
+    <t xml:space="preserve">155-2, </t>
+  </si>
+  <si>
     <t>Механизм кураторства</t>
   </si>
   <si>
@@ -1475,13 +1508,24 @@
     <t>GR</t>
   </si>
   <si>
+    <t xml:space="preserve">155-1, </t>
+  </si>
+  <si>
     <t>Принципы организации фокусной Конфигурации. Межуровневые взаимосвязи. По-Уровневая интеграция Опыта</t>
   </si>
   <si>
     <t>QO</t>
   </si>
   <si>
-    <t>149-1, 150-1</t>
+    <r>
+      <t xml:space="preserve">149-1, 150-1, </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF00FF"/>
+      </rPr>
+      <t xml:space="preserve">155-2, </t>
+    </r>
   </si>
   <si>
     <t>Эволюционная трасформация Формы проявления НУУ-ВВУ-Формотипа</t>
@@ -1715,7 +1759,13 @@
       <t xml:space="preserve">298-2, </t>
     </r>
     <r>
-      <t>117-2</t>
+      <t xml:space="preserve">117-2, </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF00FF"/>
+      </rPr>
+      <t>145-2,</t>
     </r>
   </si>
   <si>
@@ -1891,6 +1941,9 @@
   </si>
   <si>
     <t>QP</t>
+  </si>
+  <si>
+    <t>155-1,</t>
   </si>
   <si>
     <t>Арглаамуни</t>
@@ -2073,7 +2126,7 @@
       <rPr>
         <color rgb="FFFF00FF"/>
       </rPr>
-      <t xml:space="preserve">12-1, </t>
+      <t>12-1, 153-1,</t>
     </r>
   </si>
   <si>
@@ -2212,7 +2265,7 @@
     <t>MM</t>
   </si>
   <si>
-    <t>34-3</t>
+    <t>34-1</t>
   </si>
   <si>
     <t>Понятие Служения</t>
@@ -2222,118 +2275,109 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">26-2, </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF00B0F0"/>
-      </rPr>
-      <t>34-2</t>
-    </r>
-  </si>
-  <si>
-    <t>корреляция с PB</t>
-  </si>
-  <si>
-    <t>Иммунитантная Ответственность</t>
-  </si>
-  <si>
-    <t>ZL</t>
-  </si>
-  <si>
-    <t>12-3,</t>
-  </si>
-  <si>
-    <t>Гуманитарная Свобода</t>
-  </si>
-  <si>
-    <t>DG</t>
-  </si>
-  <si>
-    <t>13-3</t>
-  </si>
-  <si>
-    <t>Творческая Космическая Потенциальность</t>
-  </si>
-  <si>
-    <t>Эмоциональный интеллект</t>
-  </si>
-  <si>
-    <t>НУУЛЛ-ВВУ, как Образ человека, лишённого активности первых 4-ёх Уровней первых двух ИИ-Центров</t>
-  </si>
-  <si>
-    <t>PV</t>
-  </si>
-  <si>
-    <t>Роль Аспектов Качества ВСЕ-Единство в ллууввумической Схеме Синтеза</t>
-  </si>
-  <si>
-    <t>YD</t>
-  </si>
-  <si>
-    <t>Поуровневое проявление Аспектов ВСЕ-Единства</t>
-  </si>
-  <si>
-    <t>JA</t>
-  </si>
-  <si>
-    <t>Параллели между Ответственностью и ВСЕ-Единством</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>Альтернативные направления развития человечества</t>
-  </si>
-  <si>
-    <t>EM</t>
-  </si>
-  <si>
-    <t>О необходимости реализации фоновых Качеств и фонового Синтеза</t>
-  </si>
-  <si>
-    <t>LV</t>
-  </si>
-  <si>
-    <t>143-3</t>
-  </si>
-  <si>
-    <t>корреляция с TL</t>
-  </si>
-  <si>
-    <t>Ллууввумическая модель поведения</t>
-  </si>
-  <si>
-    <t>FF</t>
-  </si>
-  <si>
-    <t>81-2,</t>
-  </si>
-  <si>
-    <t>корреляция с "Айфааровские правила и принципы, TK"
-корреляция с OY</t>
-  </si>
-  <si>
-    <t>О необходимости трансформации эгоизма</t>
-  </si>
-  <si>
-    <t>XI</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">26-2, </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF00B0F0"/>
-      </rPr>
-      <t>81-3,</t>
+      <t>26-2,</t>
     </r>
     <r>
       <rPr>
         <color rgb="FFFF00FF"/>
       </rPr>
-      <t xml:space="preserve"> 15-3,13-2</t>
+      <t xml:space="preserve"> 34-2,</t>
+    </r>
+  </si>
+  <si>
+    <t>корреляция с PB</t>
+  </si>
+  <si>
+    <t>Иммунитантная Ответственность</t>
+  </si>
+  <si>
+    <t>ZL</t>
+  </si>
+  <si>
+    <t>12-3,</t>
+  </si>
+  <si>
+    <t>Гуманитарная Свобода</t>
+  </si>
+  <si>
+    <t>DG</t>
+  </si>
+  <si>
+    <t>13-3</t>
+  </si>
+  <si>
+    <t>Творческая Космическая Потенциальность</t>
+  </si>
+  <si>
+    <t>Эмоциональный интеллект</t>
+  </si>
+  <si>
+    <t>НУУЛЛ-ВВУ, как Образ человека, лишённого активности первых 4-ёх Уровней первых двух ИИ-Центров</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>Роль Аспектов Качества ВСЕ-Единство в ллууввумической Схеме Синтеза</t>
+  </si>
+  <si>
+    <t>YD</t>
+  </si>
+  <si>
+    <t>Поуровневое проявление Аспектов ВСЕ-Единства</t>
+  </si>
+  <si>
+    <t>JA</t>
+  </si>
+  <si>
+    <t>Параллели между Ответственностью и ВСЕ-Единством</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Альтернативные направления развития человечества</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>О необходимости реализации фоновых Качеств и фонового Синтеза</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143-3, 144-3, </t>
+  </si>
+  <si>
+    <t>корреляция с TL</t>
+  </si>
+  <si>
+    <t>Ллууввумическая модель поведения</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>корреляция с "Айфааровские правила и принципы, TK"
+корреляция с OY</t>
+  </si>
+  <si>
+    <t>О необходимости трансформации эгоизма</t>
+  </si>
+  <si>
+    <t>XI</t>
+  </si>
+  <si>
+    <r>
+      <t>26-2,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF00FF"/>
+      </rPr>
+      <t xml:space="preserve"> 81-2, 15-3,13-2</t>
     </r>
   </si>
   <si>
@@ -2348,27 +2392,25 @@
     </r>
     <r>
       <rPr>
-        <color rgb="FF00B0F0"/>
+        <color rgb="FF9900FF"/>
       </rPr>
-      <t>37-3, 56-3</t>
-    </r>
-  </si>
-  <si>
-    <t>О ллууввумических Выборах</t>
-  </si>
-  <si>
-    <t>MZ</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5-1, </t>
+      <t xml:space="preserve">56-3, </t>
     </r>
     <r>
       <rPr>
-        <color rgb="FF00B0F0"/>
+        <color rgb="FFFF00FF"/>
       </rPr>
-      <t xml:space="preserve">56-3, </t>
+      <t>38-1,</t>
     </r>
+  </si>
+  <si>
+    <t>О ллууввумических Выборах</t>
+  </si>
+  <si>
+    <t>MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-1, 56-2, </t>
   </si>
   <si>
     <t>корреляция с NH</t>
@@ -2412,6 +2454,9 @@
   </si>
   <si>
     <t>NX</t>
+  </si>
+  <si>
+    <t>153-2,</t>
   </si>
   <si>
     <t>Моделирование в Самосознании своей более качественной Конфигурации, как механизм направленной перефокусировки. Постановка Целей</t>
@@ -2487,7 +2532,10 @@
       <rPr>
         <color rgb="FF0000FF"/>
       </rPr>
-      <t xml:space="preserve"> 148-1</t>
+      <t xml:space="preserve"> 148-1, </t>
+    </r>
+    <r>
+      <t>153-3,</t>
     </r>
   </si>
   <si>
@@ -2660,15 +2708,7 @@
     <t>XC</t>
   </si>
   <si>
-    <r>
-      <t>56-3, 81-2,</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FFFF00FF"/>
-      </rPr>
-      <t xml:space="preserve"> 12-1</t>
-    </r>
+    <t>56-1, 81-2 ,12-1, 38-1,</t>
   </si>
   <si>
     <t>возможна корреляция с MS</t>
@@ -2717,6 +2757,9 @@
   </si>
   <si>
     <t>TJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145-2, </t>
   </si>
   <si>
     <t>О помощи в Духе</t>
@@ -2808,8 +2851,11 @@
       <rPr>
         <color rgb="FF9900FF"/>
       </rPr>
-      <t>111-2,</t>
+      <t xml:space="preserve">111-2, </t>
     </r>
+    <r>
+      <t>153-1, 38-3,</t>
+    </r>
   </si>
   <si>
     <t>Что такое «работа над собой» (внутренняя работа) и чем она отличается от понятия «духовности»</t>
@@ -2830,7 +2876,7 @@
     <t>QK</t>
   </si>
   <si>
-    <t>5-3, 8-2</t>
+    <t>5-3, 8-2, 38-2,</t>
   </si>
   <si>
     <t>О влиянии низкочастотных несинтезированностей на процесс самосовершенствования</t>
@@ -2968,13 +3014,10 @@
     <t>TX</t>
   </si>
   <si>
-    <t>49-1,</t>
+    <t>49-2,</t>
   </si>
   <si>
     <t>Заниженная самооценка, комплекс жертвы</t>
-  </si>
-  <si>
-    <t>49-2,</t>
   </si>
   <si>
     <t>Завышенная самооценка, высокомерие</t>
@@ -3000,19 +3043,19 @@
 Согласовать классификацию с Граалглас.</t>
   </si>
   <si>
-    <t>Раздражение, возмущение, несогласие.</t>
+    <t>Раздражение, возмущение, несогласие</t>
   </si>
   <si>
     <t>QR</t>
   </si>
   <si>
-    <t>Жадность, жаба, скаредность, скупость, жмотство, алчность.</t>
+    <t>Жадность, жаба, скаредность, скупость, жмотство, алчность</t>
   </si>
   <si>
     <t>ZJ</t>
   </si>
   <si>
-    <t>Ревность. Чувство собственничества.</t>
+    <t>Ревность. Чувство собственничества</t>
   </si>
   <si>
     <t>JR</t>
@@ -3021,7 +3064,7 @@
     <t>9-2</t>
   </si>
   <si>
-    <t>Обида (обидчивость) + вина. Чувство вины как эгллеролифтивный мотивационный механизм.</t>
+    <t>Обида (обидчивость) + вина. Чувство вины как эгллеролифтивный мотивационный механизм</t>
   </si>
   <si>
     <t>YS</t>
@@ -3030,25 +3073,28 @@
     <t>внеш.источники: Психология: Орлов, "Psychologies, 2014-02, p.82"</t>
   </si>
   <si>
-    <t>Медлительность.</t>
+    <t>Медлительность</t>
   </si>
   <si>
     <t>HZ</t>
   </si>
   <si>
-    <t>Лень.</t>
+    <t>Лень</t>
   </si>
   <si>
     <t>IH</t>
   </si>
   <si>
-    <t>Неверие в себя.</t>
+    <t>Неверие в себя</t>
   </si>
   <si>
     <t>QM</t>
   </si>
   <si>
-    <t>Подозрительность. Сомнительность. Неуверенность.</t>
+    <t>49-3,</t>
+  </si>
+  <si>
+    <t>Подозрительность. Сомнительность. Неуверенность</t>
   </si>
   <si>
     <t>ZE</t>
@@ -3060,55 +3106,55 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Осуждение.</t>
+    <t>Осуждение</t>
   </si>
   <si>
     <t>CP</t>
   </si>
   <si>
-    <t>Противопоставление. Отгораживание. Игнорирование. Неприятие. Состояние защиты (колючки). Сопротивление.</t>
+    <t>Противопоставление. Отгораживание. Игнорирование. Неприятие. Состояние защиты (колючки). Сопротивление</t>
   </si>
   <si>
     <t>MG</t>
   </si>
   <si>
-    <t>Непонимание.</t>
+    <t>Непонимание</t>
   </si>
   <si>
     <t>AH</t>
   </si>
   <si>
-    <t>Честолюбие.</t>
+    <t>Честолюбие</t>
   </si>
   <si>
     <t>YF</t>
   </si>
   <si>
-    <t>Высокомерие. Тщеславие. Самодовольство. Самомнение. Напыщенность. Губооттопыреность.</t>
+    <t>Высокомерие. Тщеславие. Самодовольство. Самомнение. Напыщенность. Губооттопыреность</t>
   </si>
   <si>
     <t>US</t>
   </si>
   <si>
-    <t>Сарказм, издёвки, насмешки.</t>
+    <t>Сарказм, издёвки, насмешки</t>
   </si>
   <si>
     <t>OG</t>
   </si>
   <si>
-    <t>Лицемерие, двуличие, ложь.</t>
+    <t>Лицемерие, двуличие, ложь</t>
   </si>
   <si>
     <t>SP</t>
   </si>
   <si>
-    <t>Жалость к себе. Саможаление.</t>
+    <t>Жалость к себе. Саможаление</t>
   </si>
   <si>
     <t>GM</t>
   </si>
   <si>
-    <t>Фанатизм.</t>
+    <t>Фанатизм</t>
   </si>
   <si>
     <t>UH</t>
@@ -3117,13 +3163,13 @@
     <t>125-3, 136-3</t>
   </si>
   <si>
-    <t>Борьба.</t>
+    <t>Борьба</t>
   </si>
   <si>
     <t>PN</t>
   </si>
   <si>
-    <t>Самолюбование. Нарцисизм.</t>
+    <t>Самолюбование. Нарцисизм</t>
   </si>
   <si>
     <t>YC</t>
@@ -3132,49 +3178,49 @@
     <t>внеш.источники: нарцисизм "Psychologies, 2014-02, p.77"</t>
   </si>
   <si>
-    <t>Навешивание ярлыков. Поверхностность суждений.  Поспешность выводов. Надуманность. Субъективизм.</t>
+    <t>Навешивание ярлыков. Поверхностность суждений.  Поспешность выводов. Надуманность. Субъективизм</t>
   </si>
   <si>
     <t>EC</t>
   </si>
   <si>
-    <t>Своеволие.</t>
+    <t>Своеволие</t>
   </si>
   <si>
     <t>DN</t>
   </si>
   <si>
-    <t>Мстительность.</t>
+    <t>Мстительность</t>
   </si>
   <si>
     <t>AO</t>
   </si>
   <si>
-    <t>Закрытость.</t>
+    <t>Закрытость</t>
   </si>
   <si>
     <t>VJ</t>
   </si>
   <si>
-    <t>Усталость.</t>
+    <t>Усталость</t>
   </si>
   <si>
     <t>GS</t>
   </si>
   <si>
-    <t>Предательство.</t>
+    <t>Предательство</t>
   </si>
   <si>
     <t>LT</t>
   </si>
   <si>
-    <t>Цинизм.</t>
+    <t>Цинизм</t>
   </si>
   <si>
     <t>AW</t>
   </si>
   <si>
-    <t>Гнев. Ярость. Злость.</t>
+    <t>Гнев. Ярость. Злость</t>
   </si>
   <si>
     <t>JP</t>
@@ -3183,19 +3229,19 @@
     <t>AB</t>
   </si>
   <si>
-    <t>Общие принципы проявления болезненного самолюбия, выражающегося через психологические защитные реакции. Лицемерие, игра в хорошего. Я не такая, я жду трамвая...</t>
+    <t>Общие принципы проявления болезненного самолюбия, выражающегося через психологические защитные реакции. Лицемерие, игра в хорошего. Я не такая, я жду трамвая</t>
   </si>
   <si>
     <t>KT</t>
   </si>
   <si>
-    <t>Страхи в своих проявлениях.</t>
+    <t>Страхи в своих проявлениях</t>
   </si>
   <si>
     <t>PD</t>
   </si>
   <si>
-    <t>Страх смерти.</t>
+    <t>Страх смерти</t>
   </si>
   <si>
     <t>QA</t>
@@ -3204,13 +3250,13 @@
     <t>78-2, 113-2, 114-3</t>
   </si>
   <si>
-    <t>Выход из непозитивного состояния.</t>
+    <t>Выход из непозитивного состояния</t>
   </si>
   <si>
     <t>TA</t>
   </si>
   <si>
-    <t>О первых "20" секундах "незатуманненого мышления". Время "чистого клексования". Время, пока мы не стали "лепить шаблоны" и сопоставлять со старым опытом. Сколько у нас времени на то, чтобы "не попасть на реакцию".</t>
+    <t>О первых "20" секундах "незатуманненого мышления". Время "чистого клексования". Время, пока мы не стали "лепить шаблоны" и сопоставлять со старым опытом. Сколько у нас времени на то, чтобы "не попасть на реакцию"</t>
   </si>
   <si>
     <t>Разотождествление с внешними проявлениями и поиск причин негативного состояния в себе. (пример, модель "я - Фокус")</t>
@@ -3222,13 +3268,13 @@
     <t>корреляция с ST</t>
   </si>
   <si>
-    <t>Примеры разборов конфликтных ситуаций.</t>
+    <t>Примеры разборов конфликтных ситуаций</t>
   </si>
   <si>
     <t>GE</t>
   </si>
   <si>
-    <t>Выход из непозитивного состояния как перефокусировка (принцип радиоприёмника, взять инфо из латыш сценария). Необходимость совершения радикального Выбора и отсечение низкочастотных конгломератов.</t>
+    <t>Выход из непозитивного состояния как перефокусировка (принцип радиоприёмника, взять инфо из латыш сценария). Необходимость совершения радикального Выбора и отсечение низкочастотных конгломератов</t>
   </si>
   <si>
     <t>UP</t>
@@ -3240,7 +3286,7 @@
     <t>RT</t>
   </si>
   <si>
-    <t>Определение типа негативизма (состояния психики). Алгоритм анализа по признакам.</t>
+    <t>Определение типа негативизма (состояния психики). Алгоритм анализа по признакам</t>
   </si>
   <si>
     <t>KD</t>
@@ -3250,7 +3296,7 @@
 Примеры определения обиды-обидчивости, закрытости и др.</t>
   </si>
   <si>
-    <t>Принцип Наблюдателя (осознанность, разотождествление). Наблюдатель в скррууллерртной системе, анализ возможных Выборов.</t>
+    <t>Принцип Наблюдателя (осознанность, разотождествление). Наблюдатель в скррууллерртной системе, анализ возможных Выборов</t>
   </si>
   <si>
     <t>DY</t>
@@ -3262,43 +3308,43 @@
     <t>Состояние Наблюдателя</t>
   </si>
   <si>
-    <t>Механизм совести. Механизм стыда.</t>
+    <t>Механизм совести. Механизм стыда</t>
   </si>
   <si>
     <t>YT</t>
   </si>
   <si>
-    <t>Работа с мотивациями и мотивационными цепочками.</t>
+    <t>Работа с мотивациями и мотивационными цепочками</t>
   </si>
   <si>
     <t>RV</t>
   </si>
   <si>
-    <t>Мотивационные цепочки – энергоинформационные взаимосвязи между различными Уровнями Формо-Творцов.</t>
+    <t>Мотивационные цепочки – энергоинформационные взаимосвязи между различными Уровнями Формо-Творцов</t>
   </si>
   <si>
     <t>AF</t>
   </si>
   <si>
-    <t>Роль Творцов-Кураторов в формировании Направления ФД.</t>
+    <t>Роль Творцов-Кураторов в формировании Направления ФД</t>
   </si>
   <si>
     <t>WG</t>
   </si>
   <si>
-    <t>Условия и механизмы формирования мотивационных цепочек.</t>
+    <t>Условия и механизмы формирования мотивационных цепочек</t>
   </si>
   <si>
     <t>GZ</t>
   </si>
   <si>
-    <t>Примеры разнокачественных мотивационных цепочек.</t>
+    <t>Примеры разнокачественных мотивационных цепочек</t>
   </si>
   <si>
     <t>QN</t>
   </si>
   <si>
-    <t>Механизмы аннигиляции тензоров:</t>
+    <t>Механизмы аннигиляции тензоров</t>
   </si>
   <si>
     <t>ZC</t>
@@ -3313,13 +3359,13 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Самоуничижение.</t>
+    <t>Самоуничижение</t>
   </si>
   <si>
     <t>NW</t>
   </si>
   <si>
-    <t>Раскаяние.</t>
+    <t>Раскаяние</t>
   </si>
   <si>
     <t>SI</t>
@@ -3334,13 +3380,10 @@
     <t>SK</t>
   </si>
   <si>
-    <t>Благодарность.</t>
-  </si>
-  <si>
     <t>FT</t>
   </si>
   <si>
-    <t>Работа с депрессиями.</t>
+    <t>Работа с депрессиями</t>
   </si>
   <si>
     <t>JZ</t>
@@ -3349,13 +3392,13 @@
     <t>20-3,</t>
   </si>
   <si>
-    <t>Работа со страхами и фобиями.</t>
+    <t>Работа со страхами и фобиями</t>
   </si>
   <si>
     <t>SE</t>
   </si>
   <si>
-    <t>Механизмы трансформации и трансмутации. Комплиментарные (подчакрамные) перефокусировки.</t>
+    <t>Механизмы трансформации и трансмутации. Комплиментарные (подчакрамные) перефокусировки</t>
   </si>
   <si>
     <t>TH</t>
@@ -3364,19 +3407,19 @@
     <t>Необходимо заменять "подчакрамные" на "комплиментарные"</t>
   </si>
   <si>
-    <t>Арглаамунные трансмутации.</t>
+    <t>Арглаамунные трансмутации</t>
   </si>
   <si>
     <t>QZ</t>
   </si>
   <si>
-    <t>Инглимилиссные трансмутации.</t>
+    <t>Инглимилиссные трансмутации</t>
   </si>
   <si>
     <t>HF</t>
   </si>
   <si>
-    <t>Отслеживание негативных (непозитивных) психических реакций.</t>
+    <t>Отслеживание негативных (непозитивных) психических реакций</t>
   </si>
   <si>
     <t>WV</t>
@@ -3385,7 +3428,7 @@
     <t>возможен перенос пункта в "Ллууввумич.модель поведения"</t>
   </si>
   <si>
-    <t>Анализ причины возникновения негативизма (уточнить: после выхода из негативизма).</t>
+    <t>Анализ причины возникновения негативизма (уточнить: после выхода из негативизма)</t>
   </si>
   <si>
     <t>KM</t>
@@ -3395,7 +3438,7 @@
 возможен перенос пункта в "Ллууввумич.модель поведения"</t>
   </si>
   <si>
-    <t>"Подводные камни" в работе над собой. О "препятствиях" на Пути.</t>
+    <t>"Подводные камни" в работе над собой. О "препятствиях" на Пути</t>
   </si>
   <si>
     <t>XM</t>
@@ -3404,7 +3447,7 @@
     <t>корреляция с EP</t>
   </si>
   <si>
-    <t>Самообман. Игра в Айфаар.</t>
+    <t>Самообман. Игра в Айфаар</t>
   </si>
   <si>
     <t>MP</t>
@@ -3416,7 +3459,7 @@
     <t>ZY</t>
   </si>
   <si>
-    <t>Воспринимать всё, как благо! Часто мы не способны понять ценность происходящих с нами непозитивных событий.</t>
+    <t>Воспринимать всё, как благо! Часто мы не способны понять ценность происходящих с нами непозитивных событий</t>
   </si>
   <si>
     <t>HH</t>
@@ -3428,13 +3471,13 @@
     <t>YE</t>
   </si>
   <si>
-    <t>О суициде.</t>
+    <t>О суициде</t>
   </si>
   <si>
     <t>RX</t>
   </si>
   <si>
-    <t>О привязках на 1-ых АИГЛЛИЛЛИАА.</t>
+    <t>О привязках на 1-ых АИГЛЛИЛЛИАА</t>
   </si>
   <si>
     <t>CR</t>
@@ -3482,7 +3525,7 @@
     <t>HD</t>
   </si>
   <si>
-    <t>Процессы гармонизации.</t>
+    <t>Процессы гармонизации</t>
   </si>
   <si>
     <t>UE</t>
@@ -3578,7 +3621,7 @@
     <t>WI</t>
   </si>
   <si>
-    <t>Полярности (по Славинскому).</t>
+    <t>Полярности (по Славинскому)</t>
   </si>
   <si>
     <t>VA</t>
@@ -3599,7 +3642,7 @@
     <t>СУТЬ: описание образа жизни айфааровцев и конкретика методик. ||| Старое название: "Возможности, предоставляемые Айфааром для работы над собой".</t>
   </si>
   <si>
-    <t>Песенные медитации. Айфааровские песни. Песенные вечера.</t>
+    <t>Песенные медитации. Айфааровские песни. Песенные вечера</t>
   </si>
   <si>
     <t>ZT</t>
@@ -3611,7 +3654,7 @@
     <t>О пользе хорового пения</t>
   </si>
   <si>
-    <t>Практика изучения Ииссиидиологии.</t>
+    <t>Практика изучения Ииссиидиологии</t>
   </si>
   <si>
     <t>IY</t>
@@ -3623,7 +3666,7 @@
     <t>корреляция с RC, LQ</t>
   </si>
   <si>
-    <t>Айфааровские Уроки.</t>
+    <t>Айфааровские Уроки</t>
   </si>
   <si>
     <t>SY</t>
@@ -3641,13 +3684,13 @@
     <t>Корреляция с WD</t>
   </si>
   <si>
-    <t>Примеры уроковых ситуаций.</t>
+    <t>Примеры уроковых ситуаций</t>
   </si>
   <si>
     <t>GL</t>
   </si>
   <si>
-    <t>Физическая работа на Айфааре.</t>
+    <t>Физическая работа на Айфааре</t>
   </si>
   <si>
     <t>ZP</t>
@@ -3656,19 +3699,19 @@
     <t>Рассмотреть: выход из комфортной зоны, смена сфуурмм-форм) (Ответ: 2013-04-10-Каким образом помогают физические нагрузки при работе с арглаамуни.</t>
   </si>
   <si>
-    <t>Об Уровнях Самосознания, реализующихся через био-Творцов. Роль «личностного» бессознательного в структуре Совокупного Сознания.</t>
+    <t>Об Уровнях Самосознания, реализующихся через био-Творцов. Роль «личностного» бессознательного в структуре Совокупного Сознания</t>
   </si>
   <si>
     <t>FE</t>
   </si>
   <si>
-    <t>О необходимости физической работы для полноценной трансформации Уровней «личностного» бессознательного. Загрузка деплиативных уровней, чтобы увидеть амплиативные, и возможность подчакрамных перефокусировок. Практика состояния Наблюдателя.</t>
+    <t>О необходимости физической работы для полноценной трансформации Уровней «личностного» бессознательного. Загрузка деплиативных уровней, чтобы увидеть амплиативные, и возможность подчакрамных перефокусировок. Практика состояния Наблюдателя</t>
   </si>
   <si>
     <t>JY</t>
   </si>
   <si>
-    <t>Наработка Альтруизма и ВСЕ-Единства.</t>
+    <t>Наработка Альтруизма и ВСЕ-Единства</t>
   </si>
   <si>
     <t>PA</t>
@@ -3686,7 +3729,7 @@
     <t>BE</t>
   </si>
   <si>
-    <t>Стресс как механизм выявления тензоров.</t>
+    <t>Стресс как механизм выявления тензоров</t>
   </si>
   <si>
     <t>LL</t>
@@ -3701,19 +3744,19 @@
     <t>Физическая работа как методика улучшения тонуса организма и повышения качества ФД - статьи из журналов.</t>
   </si>
   <si>
-    <t>Отличие айфааровского физического труда от других систем - мотивация Альтруизмом и Интеллектом.</t>
+    <t>Отличие айфааровского физического труда от других систем - мотивация Альтруизмом и Интеллектом</t>
   </si>
   <si>
     <t>XU</t>
   </si>
   <si>
-    <t>"Неубиваемость" био-Творцов. Практика спортсменов.</t>
+    <t>"Неубиваемость" био-Творцов. Практика спортсменов</t>
   </si>
   <si>
     <t>WP</t>
   </si>
   <si>
-    <t>Правило «2-х минут».</t>
+    <t>Правило «2-х минут»</t>
   </si>
   <si>
     <t>AC</t>
@@ -3722,19 +3765,19 @@
     <t>5-2</t>
   </si>
   <si>
-    <t>Что такое правило «2-х минут».</t>
+    <t>Что такое правило «2-х минут»</t>
   </si>
   <si>
     <t>PW</t>
   </si>
   <si>
-    <t>Принцип честности перед самим собой – работа с реакциями, это вопрос Совести каждого.</t>
+    <t>Принцип честности перед самим собой – работа с реакциями, это вопрос Совести каждого</t>
   </si>
   <si>
     <t>DK</t>
   </si>
   <si>
-    <t>Ответственность за свои состояния перед Айфааром, как мотивация для СД.</t>
+    <t>Ответственность за свои состояния перед Айфааром, как мотивация для СД</t>
   </si>
   <si>
     <t>SL</t>
@@ -3746,6 +3789,9 @@
     <t>BW</t>
   </si>
   <si>
+    <t xml:space="preserve">153-1, </t>
+  </si>
+  <si>
     <t>Что происходит в Самосознании во время «солнечных дней»</t>
   </si>
   <si>
@@ -3834,25 +3880,25 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">32-3,35-3,26-3,55-3,22-2,31-3, </t>
+      <rPr>
+        <color rgb="FFFF00FF"/>
+      </rPr>
+      <t>32-3,35-3,26-3,55-3,22-2,31-3,</t>
     </r>
     <r>
       <rPr>
         <color rgb="FF00B0F0"/>
       </rPr>
-      <t>38-1, 34-1,</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF0000FF"/>
-      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <color rgb="FF00B0F0"/>
+        <color rgb="FFFF00FF"/>
       </rPr>
-      <t xml:space="preserve">37-1, 56-1, 81-1, </t>
+      <t>38-1,  37-1, 81-1,</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -3862,7 +3908,7 @@
     </r>
   </si>
   <si>
-    <t>Об идее 144.000 городов Света и Знаний</t>
+    <t>Об идее 144000 городов Света и Знаний</t>
   </si>
   <si>
     <t>YN</t>
@@ -3877,7 +3923,21 @@
     <t>TZ</t>
   </si>
   <si>
-    <t>37-3, 56-1, 81-2,</t>
+    <r>
+      <rPr>
+        <color rgb="FFFF00FF"/>
+      </rPr>
+      <t>37-2,</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF00FF"/>
+      </rPr>
+      <t>56-2, 81-2, 38-2,</t>
+    </r>
   </si>
   <si>
     <t>История образования Айфаара, как духовной школы</t>
@@ -3901,7 +3961,7 @@
     <t>PB</t>
   </si>
   <si>
-    <t>34-2,</t>
+    <t>34-2, 38-1, 56-2, 81-2.</t>
   </si>
   <si>
     <t>Чем Айфаар и ИИ отличается от религии и сект</t>
@@ -3922,7 +3982,7 @@
     <t>KN</t>
   </si>
   <si>
-    <t>38-2,</t>
+    <t xml:space="preserve">81-1, </t>
   </si>
   <si>
     <t>Архитектурные решения</t>
@@ -3937,7 +3997,7 @@
     <t>YK</t>
   </si>
   <si>
-    <t>56-3,</t>
+    <t>56-1, 38-2,</t>
   </si>
   <si>
     <t>О требованиях к устроителям новых Айфааров</t>
@@ -3970,7 +4030,21 @@
     <t>KG</t>
   </si>
   <si>
-    <t>34-1, 37-1</t>
+    <r>
+      <rPr>
+        <color rgb="FFFF00FF"/>
+      </rPr>
+      <t>34-3,</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF00FF"/>
+      </rPr>
+      <t>37-3,</t>
+    </r>
   </si>
   <si>
     <t>Путь ученичества</t>
@@ -3988,13 +4062,30 @@
     <t>PZ</t>
   </si>
   <si>
+    <t>34-1, 37-3,</t>
+  </si>
+  <si>
     <t>Айфааровцы - не ангелы!</t>
   </si>
   <si>
     <t>DZ</t>
   </si>
   <si>
-    <t>34-2, 81-1,</t>
+    <r>
+      <rPr>
+        <color rgb="FFFF00FF"/>
+      </rPr>
+      <t>34-1,</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF00FF"/>
+      </rPr>
+      <t>81-1,</t>
+    </r>
   </si>
   <si>
     <t>Почему люди стремятся стать Айфааровцами?</t>
@@ -4009,7 +4100,7 @@
     <t>DU</t>
   </si>
   <si>
-    <t>37-3,</t>
+    <t>37-3,34-1,</t>
   </si>
   <si>
     <t>Звёздные Имена</t>
@@ -4059,7 +4150,7 @@
     <t>OC</t>
   </si>
   <si>
-    <t>37-1,</t>
+    <t>37-3,</t>
   </si>
   <si>
     <t>Принципы обеспечения хозяйственно бытовой сферы</t>
@@ -4623,7 +4714,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="73">
+  <fonts count="76">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -4961,6 +5052,23 @@
     <font>
       <b/>
       <sz val="7.0"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8.0"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7.0"/>
       <color rgb="FF9900FF"/>
       <name val="Verdana"/>
     </font>
@@ -4992,7 +5100,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5027,12 +5135,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4285F4"/>
         <bgColor rgb="FF4285F4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
@@ -5095,7 +5197,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="175">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -5475,14 +5577,11 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="61" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5503,14 +5602,23 @@
     <xf borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="67" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="48" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5518,60 +5626,60 @@
     <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="68" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="8" fontId="69" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="71" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="72" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="69" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="72" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="68" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="71" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="69" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="72" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="69" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="72" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="69" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="72" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="71" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="74" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="71" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="74" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="69" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="72" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7351,7 +7459,9 @@
       <c r="H110" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="I110" s="82"/>
+      <c r="I110" s="86" t="s">
+        <v>272</v>
+      </c>
       <c r="J110" s="80"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
@@ -7360,10 +7470,10 @@
       <c r="A111" s="24"/>
       <c r="B111" s="24"/>
       <c r="C111" s="29" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H111" s="19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I111" s="82"/>
       <c r="J111" s="80"/>
@@ -7374,13 +7484,13 @@
       <c r="A112" s="24"/>
       <c r="B112" s="28"/>
       <c r="C112" s="29" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H112" s="19" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I112" s="84" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J112" s="80"/>
       <c r="K112" s="22"/>
@@ -7389,13 +7499,13 @@
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="24"/>
       <c r="B113" s="62" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H113" s="19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I113" s="41" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J113" s="77"/>
       <c r="K113" s="22"/>
@@ -7405,10 +7515,10 @@
       <c r="A114" s="24"/>
       <c r="B114" s="28"/>
       <c r="C114" s="29" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H114" s="19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I114" s="82"/>
       <c r="J114" s="80"/>
@@ -7419,13 +7529,13 @@
       <c r="A115" s="24"/>
       <c r="B115" s="24"/>
       <c r="C115" s="29" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H115" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I115" s="86" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J115" s="80"/>
       <c r="K115" s="22"/>
@@ -7436,13 +7546,13 @@
       <c r="B116" s="24"/>
       <c r="C116" s="24"/>
       <c r="D116" s="58" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H116" s="19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I116" s="86" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J116" s="80"/>
       <c r="K116" s="22"/>
@@ -7453,13 +7563,13 @@
       <c r="B117" s="24"/>
       <c r="C117" s="49"/>
       <c r="D117" s="50" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H117" s="19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I117" s="86" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J117" s="80"/>
       <c r="K117" s="22"/>
@@ -7470,10 +7580,10 @@
       <c r="B118" s="24"/>
       <c r="C118" s="49"/>
       <c r="D118" s="50" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H118" s="19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I118" s="82"/>
       <c r="J118" s="80"/>
@@ -7484,10 +7594,10 @@
       <c r="A119" s="24"/>
       <c r="B119" s="24"/>
       <c r="C119" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H119" s="19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I119" s="82"/>
       <c r="J119" s="80"/>
@@ -7499,13 +7609,13 @@
       <c r="B120" s="24"/>
       <c r="C120" s="49"/>
       <c r="D120" s="50" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H120" s="19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I120" s="84" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J120" s="80"/>
       <c r="K120" s="22"/>
@@ -7516,10 +7626,10 @@
       <c r="B121" s="24"/>
       <c r="C121" s="49"/>
       <c r="D121" s="50" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H121" s="19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I121" s="88"/>
       <c r="J121" s="80"/>
@@ -7531,17 +7641,17 @@
       <c r="B122" s="24"/>
       <c r="C122" s="49"/>
       <c r="D122" s="50" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H122" s="19" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I122" s="84" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J122" s="80"/>
       <c r="K122" s="22" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L122" s="23"/>
     </row>
@@ -7550,13 +7660,13 @@
       <c r="B123" s="24"/>
       <c r="C123" s="49"/>
       <c r="D123" s="50" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H123" s="19" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I123" s="86" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J123" s="80"/>
       <c r="K123" s="22"/>
@@ -7567,15 +7677,15 @@
       <c r="B124" s="24"/>
       <c r="C124" s="49"/>
       <c r="D124" s="50" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H124" s="19" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I124" s="82"/>
       <c r="J124" s="80"/>
       <c r="K124" s="22" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L124" s="23"/>
     </row>
@@ -7584,10 +7694,10 @@
       <c r="B125" s="24"/>
       <c r="C125" s="24"/>
       <c r="D125" s="50" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H125" s="19" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I125" s="82"/>
       <c r="J125" s="80"/>
@@ -7599,13 +7709,13 @@
       <c r="B126" s="28"/>
       <c r="C126" s="49"/>
       <c r="D126" s="50" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H126" s="89" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I126" s="84" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J126" s="80"/>
       <c r="K126" s="22"/>
@@ -7615,10 +7725,10 @@
       <c r="A127" s="24"/>
       <c r="B127" s="28"/>
       <c r="C127" s="29" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H127" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I127" s="82"/>
       <c r="J127" s="80"/>
@@ -7630,13 +7740,13 @@
       <c r="B128" s="28"/>
       <c r="C128" s="49"/>
       <c r="D128" s="50" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H128" s="19" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I128" s="41" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J128" s="77"/>
       <c r="K128" s="22"/>
@@ -7647,13 +7757,13 @@
       <c r="B129" s="28"/>
       <c r="C129" s="49"/>
       <c r="D129" s="50" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H129" s="19" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I129" s="84" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J129" s="80"/>
       <c r="K129" s="22"/>
@@ -7664,15 +7774,15 @@
       <c r="B130" s="28"/>
       <c r="C130" s="49"/>
       <c r="D130" s="50" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H130" s="19" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I130" s="82"/>
       <c r="J130" s="80"/>
       <c r="K130" s="22" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L130" s="23"/>
     </row>
@@ -7681,12 +7791,14 @@
       <c r="B131" s="28"/>
       <c r="C131" s="49"/>
       <c r="D131" s="50" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H131" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="I131" s="82"/>
+        <v>328</v>
+      </c>
+      <c r="I131" s="86" t="s">
+        <v>329</v>
+      </c>
       <c r="J131" s="80"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
@@ -7696,13 +7808,13 @@
       <c r="B132" s="28"/>
       <c r="C132" s="49"/>
       <c r="D132" s="50" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H132" s="19" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I132" s="84" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="J132" s="80"/>
       <c r="K132" s="22"/>
@@ -7713,15 +7825,15 @@
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
       <c r="D133" s="50" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H133" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I133" s="82"/>
       <c r="J133" s="80"/>
       <c r="K133" s="90" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L133" s="23"/>
     </row>
@@ -7729,15 +7841,15 @@
       <c r="A134" s="24"/>
       <c r="B134" s="24"/>
       <c r="C134" s="29" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H134" s="19" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I134" s="82"/>
       <c r="J134" s="80"/>
       <c r="K134" s="22" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L134" s="23"/>
     </row>
@@ -7745,10 +7857,10 @@
       <c r="A135" s="24"/>
       <c r="B135" s="24"/>
       <c r="C135" s="29" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H135" s="19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="I135" s="82"/>
       <c r="J135" s="80"/>
@@ -7759,10 +7871,10 @@
       <c r="A136" s="24"/>
       <c r="B136" s="24"/>
       <c r="C136" s="29" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H136" s="19" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I136" s="82"/>
       <c r="J136" s="80"/>
@@ -7773,10 +7885,10 @@
       <c r="A137" s="24"/>
       <c r="B137" s="24"/>
       <c r="C137" s="29" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H137" s="19" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I137" s="82"/>
       <c r="J137" s="80"/>
@@ -7787,13 +7899,13 @@
       <c r="A138" s="24"/>
       <c r="B138" s="24"/>
       <c r="C138" s="29" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H138" s="19" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I138" s="41" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="J138" s="77"/>
       <c r="K138" s="22"/>
@@ -7803,17 +7915,17 @@
       <c r="A139" s="24"/>
       <c r="B139" s="24"/>
       <c r="C139" s="29" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H139" s="19" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I139" s="84" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J139" s="80"/>
       <c r="K139" s="22" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L139" s="23"/>
     </row>
@@ -7822,10 +7934,10 @@
       <c r="B140" s="24"/>
       <c r="C140" s="49"/>
       <c r="D140" s="50" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H140" s="19" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I140" s="82"/>
       <c r="J140" s="80"/>
@@ -7836,10 +7948,10 @@
       <c r="A141" s="24"/>
       <c r="B141" s="24"/>
       <c r="C141" s="49" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H141" s="19" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I141" s="82"/>
       <c r="J141" s="80"/>
@@ -7850,13 +7962,13 @@
       <c r="A142" s="24"/>
       <c r="B142" s="28"/>
       <c r="C142" s="29" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H142" s="19" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I142" s="84" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J142" s="80"/>
       <c r="K142" s="90"/>
@@ -7865,13 +7977,13 @@
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="24"/>
       <c r="B143" s="62" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H143" s="19" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I143" s="41" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="J143" s="77"/>
       <c r="K143" s="22"/>
@@ -7881,15 +7993,15 @@
       <c r="A144" s="24"/>
       <c r="B144" s="24"/>
       <c r="C144" s="29" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H144" s="19" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I144" s="82"/>
       <c r="J144" s="80"/>
       <c r="K144" s="22" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L144" s="23"/>
     </row>
@@ -7898,13 +8010,13 @@
       <c r="B145" s="24"/>
       <c r="C145" s="49"/>
       <c r="D145" s="58" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H145" s="19" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="I145" s="86" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="J145" s="80"/>
       <c r="K145" s="22"/>
@@ -7915,17 +8027,17 @@
       <c r="B146" s="24"/>
       <c r="C146" s="49"/>
       <c r="D146" s="50" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H146" s="19" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="I146" s="84" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J146" s="80"/>
       <c r="K146" s="91" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L146" s="23"/>
     </row>
@@ -7935,13 +8047,13 @@
       <c r="C147" s="49"/>
       <c r="D147" s="58"/>
       <c r="E147" s="92" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H147" s="19" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="I147" s="41" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="J147" s="77"/>
       <c r="K147" s="22"/>
@@ -7953,10 +8065,10 @@
       <c r="C148" s="49"/>
       <c r="D148" s="58"/>
       <c r="E148" s="92" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H148" s="19" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I148" s="82"/>
       <c r="J148" s="80"/>
@@ -7969,13 +8081,13 @@
       <c r="C149" s="49"/>
       <c r="D149" s="58"/>
       <c r="E149" s="92" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H149" s="19" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="I149" s="39" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="J149" s="27"/>
       <c r="K149" s="22"/>
@@ -7987,10 +8099,10 @@
       <c r="C150" s="49"/>
       <c r="D150" s="58"/>
       <c r="E150" s="92" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H150" s="19" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="I150" s="82"/>
       <c r="J150" s="80"/>
@@ -8003,13 +8115,13 @@
       <c r="C151" s="49"/>
       <c r="D151" s="58"/>
       <c r="E151" s="92" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H151" s="19" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="I151" s="86" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J151" s="80"/>
       <c r="K151" s="22"/>
@@ -8021,10 +8133,10 @@
       <c r="C152" s="28"/>
       <c r="D152" s="58"/>
       <c r="E152" s="92" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H152" s="19" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="I152" s="82"/>
       <c r="J152" s="80"/>
@@ -8036,10 +8148,10 @@
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
       <c r="D153" s="50" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H153" s="19" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="I153" s="82"/>
       <c r="J153" s="80"/>
@@ -8049,10 +8161,10 @@
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="24"/>
       <c r="B154" s="25" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H154" s="19" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I154" s="82"/>
       <c r="J154" s="80"/>
@@ -8063,13 +8175,13 @@
       <c r="A155" s="24"/>
       <c r="B155" s="24"/>
       <c r="C155" s="29" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H155" s="19" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="I155" s="41" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="J155" s="27"/>
       <c r="K155" s="22"/>
@@ -8080,10 +8192,10 @@
       <c r="B156" s="24"/>
       <c r="C156" s="29"/>
       <c r="D156" s="50" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H156" s="93" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I156" s="41"/>
       <c r="J156" s="27"/>
@@ -8095,10 +8207,10 @@
       <c r="B157" s="24"/>
       <c r="C157" s="29"/>
       <c r="D157" s="50" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H157" s="93" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I157" s="41"/>
       <c r="J157" s="27"/>
@@ -8110,12 +8222,12 @@
       <c r="B158" s="24"/>
       <c r="C158" s="29"/>
       <c r="D158" s="50" t="s">
+        <v>396</v>
+      </c>
+      <c r="H158" s="93" t="s">
         <v>394</v>
       </c>
-      <c r="H158" s="93" t="s">
-        <v>392</v>
-      </c>
-      <c r="I158" s="41"/>
+      <c r="I158" s="78"/>
       <c r="J158" s="27"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
@@ -8125,10 +8237,10 @@
       <c r="B159" s="24"/>
       <c r="C159" s="29"/>
       <c r="D159" s="50" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H159" s="93" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I159" s="41"/>
       <c r="J159" s="27"/>
@@ -8140,10 +8252,10 @@
       <c r="B160" s="24"/>
       <c r="C160" s="29"/>
       <c r="D160" s="50" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H160" s="93" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I160" s="41"/>
       <c r="J160" s="27"/>
@@ -8154,10 +8266,10 @@
       <c r="A161" s="94"/>
       <c r="B161" s="94"/>
       <c r="C161" s="29" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H161" s="19" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="I161" s="95"/>
       <c r="J161" s="96"/>
@@ -8167,10 +8279,10 @@
     <row r="162" ht="27.75" customHeight="1">
       <c r="A162" s="24"/>
       <c r="B162" s="25" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H162" s="19" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I162" s="82"/>
       <c r="J162" s="80"/>
@@ -8181,15 +8293,15 @@
       <c r="A163" s="24"/>
       <c r="B163" s="24"/>
       <c r="C163" s="29" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H163" s="19" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="I163" s="82"/>
       <c r="J163" s="80"/>
       <c r="K163" s="99" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L163" s="23"/>
     </row>
@@ -8198,17 +8310,17 @@
       <c r="B164" s="28"/>
       <c r="C164" s="28"/>
       <c r="D164" s="58" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H164" s="19" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="I164" s="41" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="J164" s="77"/>
       <c r="K164" s="22" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L164" s="23"/>
     </row>
@@ -8217,13 +8329,13 @@
       <c r="B165" s="28"/>
       <c r="C165" s="28"/>
       <c r="D165" s="58" t="s">
+        <v>410</v>
+      </c>
+      <c r="H165" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="I165" s="100" t="s">
         <v>408</v>
-      </c>
-      <c r="H165" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="I165" s="100" t="s">
-        <v>406</v>
       </c>
       <c r="J165" s="101"/>
       <c r="K165" s="22"/>
@@ -8234,13 +8346,13 @@
       <c r="B166" s="28"/>
       <c r="C166" s="28"/>
       <c r="D166" s="58" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H166" s="19" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I166" s="100" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="J166" s="101"/>
       <c r="K166" s="22"/>
@@ -8251,10 +8363,10 @@
       <c r="B167" s="28"/>
       <c r="C167" s="28"/>
       <c r="D167" s="50" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H167" s="19" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="I167" s="82"/>
       <c r="J167" s="80"/>
@@ -8265,13 +8377,13 @@
       <c r="A168" s="24"/>
       <c r="B168" s="28"/>
       <c r="C168" s="29" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H168" s="19" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="I168" s="41" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="J168" s="77"/>
       <c r="K168" s="22"/>
@@ -8282,10 +8394,10 @@
       <c r="B169" s="24"/>
       <c r="C169" s="49"/>
       <c r="D169" s="50" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H169" s="19" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="I169" s="82"/>
       <c r="J169" s="80"/>
@@ -8297,10 +8409,10 @@
       <c r="B170" s="24"/>
       <c r="C170" s="49"/>
       <c r="D170" s="50" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H170" s="19" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="I170" s="82"/>
       <c r="J170" s="80"/>
@@ -8312,13 +8424,13 @@
       <c r="B171" s="24"/>
       <c r="C171" s="49"/>
       <c r="D171" s="50" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="I171" s="84" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="J171" s="80"/>
       <c r="K171" s="22"/>
@@ -8330,10 +8442,10 @@
       <c r="C172" s="24"/>
       <c r="D172" s="58"/>
       <c r="E172" s="92" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H172" s="19" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I172" s="82"/>
       <c r="J172" s="80"/>
@@ -8345,10 +8457,10 @@
       <c r="B173" s="24"/>
       <c r="C173" s="24"/>
       <c r="D173" s="50" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="I173" s="82"/>
       <c r="J173" s="80"/>
@@ -8359,17 +8471,17 @@
       <c r="A174" s="24"/>
       <c r="B174" s="24"/>
       <c r="C174" s="29" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="I174" s="41" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J174" s="77"/>
       <c r="K174" s="102" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L174" s="23"/>
     </row>
@@ -8378,10 +8490,10 @@
       <c r="B175" s="24"/>
       <c r="C175" s="24"/>
       <c r="D175" s="50" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="I175" s="82"/>
       <c r="J175" s="80"/>
@@ -8394,10 +8506,10 @@
       <c r="C176" s="49"/>
       <c r="D176" s="49"/>
       <c r="E176" s="92" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="I176" s="82"/>
       <c r="J176" s="80"/>
@@ -8410,10 +8522,10 @@
       <c r="C177" s="49"/>
       <c r="D177" s="49"/>
       <c r="E177" s="92" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="I177" s="82"/>
       <c r="J177" s="80"/>
@@ -8425,10 +8537,10 @@
       <c r="B178" s="24"/>
       <c r="C178" s="49"/>
       <c r="D178" s="50" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H178" s="19" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="I178" s="82"/>
       <c r="J178" s="80"/>
@@ -8441,7 +8553,7 @@
       <c r="C179" s="49"/>
       <c r="D179" s="58"/>
       <c r="E179" s="92" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="82"/>
@@ -8455,7 +8567,7 @@
       <c r="C180" s="49"/>
       <c r="D180" s="58"/>
       <c r="E180" s="92" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="82"/>
@@ -8468,10 +8580,10 @@
       <c r="B181" s="24"/>
       <c r="C181" s="49"/>
       <c r="D181" s="50" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="I181" s="82"/>
       <c r="J181" s="80"/>
@@ -8484,12 +8596,14 @@
       <c r="C182" s="49"/>
       <c r="D182" s="58"/>
       <c r="E182" s="92" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>444</v>
-      </c>
-      <c r="I182" s="82"/>
+        <v>446</v>
+      </c>
+      <c r="I182" s="86" t="s">
+        <v>447</v>
+      </c>
       <c r="J182" s="80"/>
       <c r="K182" s="22"/>
       <c r="L182" s="23"/>
@@ -8500,12 +8614,14 @@
       <c r="C183" s="49"/>
       <c r="D183" s="58"/>
       <c r="E183" s="92" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="I183" s="82"/>
+        <v>449</v>
+      </c>
+      <c r="I183" s="86" t="s">
+        <v>447</v>
+      </c>
       <c r="J183" s="80"/>
       <c r="K183" s="22"/>
       <c r="L183" s="23"/>
@@ -8516,10 +8632,10 @@
       <c r="C184" s="24"/>
       <c r="D184" s="58"/>
       <c r="E184" s="92" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="I184" s="82"/>
       <c r="J184" s="80"/>
@@ -8531,17 +8647,17 @@
       <c r="B185" s="24"/>
       <c r="C185" s="24"/>
       <c r="D185" s="50" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="I185" s="39" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="J185" s="27"/>
       <c r="K185" s="22" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="L185" s="23"/>
     </row>
@@ -8550,10 +8666,10 @@
       <c r="B186" s="24"/>
       <c r="C186" s="24"/>
       <c r="D186" s="50" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="H186" s="19" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="I186" s="82"/>
       <c r="J186" s="80"/>
@@ -8565,10 +8681,10 @@
       <c r="B187" s="24"/>
       <c r="C187" s="24"/>
       <c r="D187" s="50" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H187" s="19" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="I187" s="82"/>
       <c r="J187" s="80"/>
@@ -8580,15 +8696,15 @@
       <c r="B188" s="24"/>
       <c r="C188" s="24"/>
       <c r="D188" s="50" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H188" s="19" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="I188" s="82"/>
       <c r="J188" s="80"/>
       <c r="K188" s="22" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="L188" s="23"/>
     </row>
@@ -8596,10 +8712,10 @@
       <c r="A189" s="6"/>
       <c r="B189" s="28"/>
       <c r="C189" s="29" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H189" s="103" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="I189" s="95"/>
       <c r="J189" s="96"/>
@@ -8611,13 +8727,13 @@
       <c r="B190" s="24"/>
       <c r="C190" s="49"/>
       <c r="D190" s="50" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="H190" s="103" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="I190" s="105" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="J190" s="96"/>
       <c r="K190" s="97"/>
@@ -8628,17 +8744,17 @@
       <c r="B191" s="24"/>
       <c r="C191" s="49"/>
       <c r="D191" s="50" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="H191" s="103" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="I191" s="106" t="s">
         <v>169</v>
       </c>
       <c r="J191" s="107"/>
       <c r="K191" s="97" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="L191" s="104"/>
     </row>
@@ -8647,10 +8763,10 @@
       <c r="B192" s="24"/>
       <c r="C192" s="49"/>
       <c r="D192" s="50" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H192" s="103" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="I192" s="95"/>
       <c r="J192" s="96"/>
@@ -8673,16 +8789,16 @@
     </row>
     <row r="194" ht="18.75" customHeight="1">
       <c r="A194" s="18" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="H194" s="108" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="I194" s="109" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="J194" s="110" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K194" s="111"/>
       <c r="L194" s="104"/>
@@ -8690,13 +8806,13 @@
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="112"/>
       <c r="B195" s="25" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="H195" s="113" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="I195" s="114" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="J195" s="96"/>
       <c r="K195" s="97"/>
@@ -8706,10 +8822,10 @@
       <c r="A196" s="112"/>
       <c r="B196" s="28"/>
       <c r="C196" s="29" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="H196" s="113" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="I196" s="95"/>
       <c r="J196" s="96"/>
@@ -8720,10 +8836,10 @@
       <c r="A197" s="112"/>
       <c r="B197" s="28"/>
       <c r="C197" s="29" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="H197" s="113" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="I197" s="95"/>
       <c r="J197" s="96"/>
@@ -8733,17 +8849,17 @@
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="112"/>
       <c r="B198" s="25" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="H198" s="108" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="I198" s="115" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="J198" s="96"/>
       <c r="K198" s="97" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="L198" s="104"/>
     </row>
@@ -8751,13 +8867,13 @@
       <c r="A199" s="112"/>
       <c r="B199" s="28"/>
       <c r="C199" s="29" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H199" s="108" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="I199" s="109" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="J199" s="96"/>
       <c r="K199" s="111"/>
@@ -8767,13 +8883,13 @@
       <c r="A200" s="112"/>
       <c r="B200" s="28"/>
       <c r="C200" s="49" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H200" s="108" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="I200" s="105" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="J200" s="96"/>
       <c r="K200" s="111"/>
@@ -8783,17 +8899,17 @@
       <c r="A201" s="112"/>
       <c r="B201" s="28"/>
       <c r="C201" s="29" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H201" s="108" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="I201" s="109" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="J201" s="96"/>
       <c r="K201" s="111" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="L201" s="104"/>
     </row>
@@ -8801,13 +8917,13 @@
       <c r="A202" s="112"/>
       <c r="B202" s="28"/>
       <c r="C202" s="29" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="H202" s="108" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="I202" s="116" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="J202" s="96"/>
       <c r="K202" s="111"/>
@@ -8816,10 +8932,10 @@
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="112"/>
       <c r="B203" s="25" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="H203" s="108" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="I203" s="95"/>
       <c r="J203" s="96"/>
@@ -8830,13 +8946,13 @@
       <c r="A204" s="112"/>
       <c r="B204" s="23"/>
       <c r="C204" s="29" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="H204" s="108" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="I204" s="116" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="J204" s="96"/>
       <c r="K204" s="111"/>
@@ -8847,11 +8963,11 @@
       <c r="B205" s="23"/>
       <c r="C205" s="28"/>
       <c r="D205" s="50" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="H205" s="117"/>
       <c r="I205" s="118" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="J205" s="96"/>
       <c r="K205" s="111"/>
@@ -8862,10 +8978,10 @@
       <c r="B206" s="23"/>
       <c r="C206" s="28"/>
       <c r="D206" s="50" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="H206" s="108" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="I206" s="95"/>
       <c r="J206" s="96"/>
@@ -8877,10 +8993,10 @@
       <c r="B207" s="23"/>
       <c r="C207" s="28"/>
       <c r="D207" s="50" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H207" s="108" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="I207" s="95"/>
       <c r="J207" s="96"/>
@@ -8893,13 +9009,13 @@
       <c r="C208" s="119"/>
       <c r="D208" s="58"/>
       <c r="E208" s="120" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="H208" s="108" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="I208" s="109" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="J208" s="96"/>
       <c r="K208" s="111"/>
@@ -8910,10 +9026,10 @@
       <c r="B209" s="23"/>
       <c r="C209" s="119"/>
       <c r="D209" s="50" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="H209" s="108" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="I209" s="95"/>
       <c r="J209" s="96"/>
@@ -8924,10 +9040,10 @@
       <c r="A210" s="112"/>
       <c r="B210" s="23"/>
       <c r="C210" s="29" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="H210" s="108" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="I210" s="95"/>
       <c r="J210" s="96"/>
@@ -8939,15 +9055,15 @@
       <c r="B211" s="49"/>
       <c r="C211" s="49"/>
       <c r="D211" s="50" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="H211" s="108" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="I211" s="95"/>
       <c r="J211" s="96"/>
       <c r="K211" s="121" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="L211" s="104"/>
     </row>
@@ -8956,10 +9072,10 @@
       <c r="B212" s="49"/>
       <c r="C212" s="49"/>
       <c r="D212" s="50" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H212" s="108" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="I212" s="122"/>
       <c r="J212" s="96"/>
@@ -8971,10 +9087,10 @@
       <c r="B213" s="49"/>
       <c r="C213" s="49"/>
       <c r="D213" s="50" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="H213" s="108" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="I213" s="95"/>
       <c r="J213" s="96"/>
@@ -8986,13 +9102,13 @@
       <c r="B214" s="49"/>
       <c r="C214" s="49"/>
       <c r="D214" s="50" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="H214" s="108" t="s">
-        <v>524</v>
-      </c>
-      <c r="I214" s="122" t="s">
-        <v>525</v>
+        <v>527</v>
+      </c>
+      <c r="I214" s="116" t="s">
+        <v>528</v>
       </c>
       <c r="J214" s="96"/>
       <c r="K214" s="111"/>
@@ -9002,17 +9118,17 @@
       <c r="A215" s="112"/>
       <c r="B215" s="28"/>
       <c r="C215" s="29" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H215" s="108" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="I215" s="109" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="J215" s="96"/>
       <c r="K215" s="111" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="L215" s="104"/>
     </row>
@@ -9020,13 +9136,13 @@
       <c r="A216" s="112"/>
       <c r="B216" s="62"/>
       <c r="C216" s="29" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H216" s="113" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="I216" s="123" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="J216" s="96"/>
       <c r="K216" s="111"/>
@@ -9036,13 +9152,13 @@
       <c r="A217" s="112"/>
       <c r="B217" s="62"/>
       <c r="C217" s="29" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H217" s="113" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="I217" s="123" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="J217" s="96"/>
       <c r="K217" s="111"/>
@@ -9052,7 +9168,7 @@
       <c r="A218" s="112"/>
       <c r="B218" s="62"/>
       <c r="C218" s="29" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H218" s="124"/>
       <c r="I218" s="123"/>
@@ -9064,7 +9180,7 @@
       <c r="A219" s="112"/>
       <c r="B219" s="62"/>
       <c r="C219" s="29" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="H219" s="124"/>
       <c r="I219" s="123"/>
@@ -9075,10 +9191,10 @@
     <row r="220" ht="30.0" customHeight="1">
       <c r="A220" s="112"/>
       <c r="B220" s="25" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H220" s="108" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="I220" s="95"/>
       <c r="J220" s="96"/>
@@ -9088,10 +9204,10 @@
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="112"/>
       <c r="B221" s="25" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="H221" s="108" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="I221" s="95"/>
       <c r="J221" s="96"/>
@@ -9102,10 +9218,10 @@
       <c r="A222" s="112"/>
       <c r="B222" s="49"/>
       <c r="C222" s="29" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="H222" s="108" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="I222" s="95"/>
       <c r="J222" s="96"/>
@@ -9116,10 +9232,10 @@
       <c r="A223" s="112"/>
       <c r="B223" s="49"/>
       <c r="C223" s="29" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="H223" s="108" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="I223" s="95"/>
       <c r="J223" s="96"/>
@@ -9129,10 +9245,10 @@
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="119"/>
       <c r="B224" s="25" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="H224" s="108" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="I224" s="95"/>
       <c r="J224" s="96"/>
@@ -9142,34 +9258,32 @@
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="119"/>
       <c r="B225" s="25" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="H225" s="108" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="I225" s="123" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="J225" s="96"/>
       <c r="K225" s="97" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="L225" s="104"/>
     </row>
     <row r="226" ht="22.5" customHeight="1">
       <c r="A226" s="119"/>
       <c r="B226" s="25" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="H226" s="108" t="s">
-        <v>553</v>
-      </c>
-      <c r="I226" s="125" t="s">
-        <v>554</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="I226" s="125"/>
       <c r="J226" s="96"/>
       <c r="K226" s="97" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="L226" s="104"/>
     </row>
@@ -9177,13 +9291,13 @@
       <c r="A227" s="119"/>
       <c r="B227" s="28"/>
       <c r="C227" s="29" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H227" s="108" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="I227" s="109" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="J227" s="96"/>
       <c r="K227" s="111"/>
@@ -9193,13 +9307,13 @@
       <c r="A228" s="119"/>
       <c r="B228" s="28"/>
       <c r="C228" s="29" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H228" s="108" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="I228" s="109" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="J228" s="96"/>
       <c r="K228" s="111"/>
@@ -9209,17 +9323,17 @@
       <c r="A229" s="119"/>
       <c r="B229" s="28"/>
       <c r="C229" s="29" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H229" s="108" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="I229" s="116" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="J229" s="96"/>
       <c r="K229" s="111" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="L229" s="104"/>
     </row>
@@ -9227,10 +9341,10 @@
       <c r="A230" s="119"/>
       <c r="B230" s="28"/>
       <c r="C230" s="29" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H230" s="108" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I230" s="95"/>
       <c r="J230" s="96"/>
@@ -9241,13 +9355,13 @@
       <c r="A231" s="119"/>
       <c r="B231" s="28"/>
       <c r="C231" s="49" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H231" s="108" t="s">
-        <v>569</v>
-      </c>
-      <c r="I231" s="125" t="s">
-        <v>570</v>
+        <v>571</v>
+      </c>
+      <c r="I231" s="114" t="s">
+        <v>572</v>
       </c>
       <c r="J231" s="96"/>
       <c r="K231" s="97"/>
@@ -9257,17 +9371,17 @@
       <c r="A232" s="119"/>
       <c r="B232" s="28"/>
       <c r="C232" s="29" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H232" s="108" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="I232" s="114" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J232" s="96"/>
       <c r="K232" s="97" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="L232" s="104"/>
     </row>
@@ -9275,10 +9389,10 @@
       <c r="A233" s="119"/>
       <c r="B233" s="28"/>
       <c r="C233" s="49" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H233" s="108" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="I233" s="95"/>
       <c r="J233" s="96"/>
@@ -9289,12 +9403,14 @@
       <c r="A234" s="119"/>
       <c r="B234" s="28"/>
       <c r="C234" s="29" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H234" s="108" t="s">
-        <v>578</v>
-      </c>
-      <c r="I234" s="95"/>
+        <v>580</v>
+      </c>
+      <c r="I234" s="86" t="s">
+        <v>581</v>
+      </c>
       <c r="J234" s="96"/>
       <c r="K234" s="111"/>
       <c r="L234" s="104"/>
@@ -9303,17 +9419,17 @@
       <c r="A235" s="119"/>
       <c r="B235" s="28"/>
       <c r="C235" s="29" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="H235" s="108" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="I235" s="116" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="J235" s="96"/>
       <c r="K235" s="111" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="L235" s="104"/>
     </row>
@@ -9322,13 +9438,13 @@
       <c r="B236" s="28"/>
       <c r="C236" s="28"/>
       <c r="D236" s="50" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="H236" s="108" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="I236" s="123" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="J236" s="96"/>
       <c r="K236" s="111"/>
@@ -9339,7 +9455,7 @@
       <c r="B237" s="28"/>
       <c r="C237" s="28"/>
       <c r="D237" s="50" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="H237" s="117"/>
       <c r="I237" s="95"/>
@@ -9351,15 +9467,15 @@
       <c r="A238" s="119"/>
       <c r="B238" s="28"/>
       <c r="C238" s="29" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="H238" s="108" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="I238" s="95"/>
       <c r="J238" s="96"/>
       <c r="K238" s="111" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="L238" s="104"/>
     </row>
@@ -9368,10 +9484,10 @@
       <c r="B239" s="28"/>
       <c r="C239" s="49"/>
       <c r="D239" s="50" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="H239" s="108" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="I239" s="95"/>
       <c r="J239" s="96"/>
@@ -9383,10 +9499,10 @@
       <c r="B240" s="28"/>
       <c r="C240" s="49"/>
       <c r="D240" s="50" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="H240" s="108" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="I240" s="95"/>
       <c r="J240" s="96"/>
@@ -9398,10 +9514,10 @@
       <c r="B241" s="28"/>
       <c r="C241" s="49"/>
       <c r="D241" s="58" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="H241" s="108" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="I241" s="95"/>
       <c r="J241" s="96"/>
@@ -9413,15 +9529,15 @@
       <c r="B242" s="119"/>
       <c r="C242" s="119"/>
       <c r="D242" s="50" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="H242" s="108" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="I242" s="95"/>
       <c r="J242" s="96"/>
       <c r="K242" s="111" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="L242" s="104"/>
     </row>
@@ -9430,13 +9546,13 @@
       <c r="B243" s="119"/>
       <c r="C243" s="119"/>
       <c r="D243" s="50" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="H243" s="108" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="I243" s="116" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="J243" s="96"/>
       <c r="K243" s="111"/>
@@ -9447,10 +9563,10 @@
       <c r="B244" s="49"/>
       <c r="C244" s="126"/>
       <c r="D244" s="50" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="H244" s="108" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="I244" s="95"/>
       <c r="J244" s="96"/>
@@ -9462,10 +9578,10 @@
       <c r="B245" s="28"/>
       <c r="C245" s="119"/>
       <c r="D245" s="50" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H245" s="108" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="I245" s="95"/>
       <c r="J245" s="96"/>
@@ -9477,10 +9593,10 @@
       <c r="B246" s="28"/>
       <c r="C246" s="119"/>
       <c r="D246" s="50" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="H246" s="108" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="I246" s="116"/>
       <c r="J246" s="96"/>
@@ -9492,10 +9608,10 @@
       <c r="B247" s="28"/>
       <c r="C247" s="119"/>
       <c r="D247" s="50" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="H247" s="108" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="I247" s="95"/>
       <c r="J247" s="96"/>
@@ -9507,10 +9623,10 @@
       <c r="B248" s="28"/>
       <c r="C248" s="119"/>
       <c r="D248" s="50" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="H248" s="108" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="I248" s="95"/>
       <c r="J248" s="96"/>
@@ -9522,15 +9638,15 @@
       <c r="B249" s="28"/>
       <c r="C249" s="119"/>
       <c r="D249" s="50" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="H249" s="108" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="I249" s="95"/>
       <c r="J249" s="96"/>
       <c r="K249" s="111" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="L249" s="104"/>
     </row>
@@ -9539,10 +9655,10 @@
       <c r="B250" s="119"/>
       <c r="C250" s="119"/>
       <c r="D250" s="50" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="H250" s="108" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="I250" s="122"/>
       <c r="J250" s="96"/>
@@ -9554,10 +9670,10 @@
       <c r="B251" s="49"/>
       <c r="C251" s="49"/>
       <c r="D251" s="50" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="H251" s="108" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="I251" s="95"/>
       <c r="J251" s="96"/>
@@ -9569,15 +9685,15 @@
       <c r="B252" s="49"/>
       <c r="C252" s="49"/>
       <c r="D252" s="50" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="H252" s="108" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="I252" s="95"/>
       <c r="J252" s="96"/>
       <c r="K252" s="111" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="L252" s="104"/>
     </row>
@@ -9585,10 +9701,10 @@
       <c r="A253" s="112"/>
       <c r="B253" s="49"/>
       <c r="C253" s="29" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="H253" s="108" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="I253" s="95"/>
       <c r="J253" s="96"/>
@@ -9600,10 +9716,10 @@
       <c r="B254" s="49"/>
       <c r="C254" s="119"/>
       <c r="D254" s="50" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="H254" s="108" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="I254" s="122"/>
       <c r="J254" s="96"/>
@@ -9615,10 +9731,10 @@
       <c r="B255" s="49"/>
       <c r="C255" s="119"/>
       <c r="D255" s="50" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="H255" s="108" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="I255" s="122"/>
       <c r="J255" s="96"/>
@@ -9630,10 +9746,10 @@
       <c r="B256" s="49"/>
       <c r="C256" s="119"/>
       <c r="D256" s="50" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="H256" s="108" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="I256" s="95"/>
       <c r="J256" s="96"/>
@@ -9645,10 +9761,10 @@
       <c r="B257" s="49"/>
       <c r="C257" s="119"/>
       <c r="D257" s="50" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="H257" s="108" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="I257" s="95"/>
       <c r="J257" s="96"/>
@@ -9660,10 +9776,10 @@
       <c r="B258" s="49"/>
       <c r="C258" s="119"/>
       <c r="D258" s="50" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="H258" s="108" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="I258" s="95"/>
       <c r="J258" s="96"/>
@@ -9675,13 +9791,13 @@
       <c r="B259" s="49"/>
       <c r="C259" s="119"/>
       <c r="D259" s="50" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="H259" s="108" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="I259" s="105" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="J259" s="96"/>
       <c r="K259" s="111"/>
@@ -9692,15 +9808,15 @@
       <c r="B260" s="49"/>
       <c r="C260" s="119"/>
       <c r="D260" s="50" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="H260" s="108" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="I260" s="125"/>
       <c r="J260" s="96"/>
       <c r="K260" s="97" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="L260" s="104"/>
     </row>
@@ -9709,10 +9825,10 @@
       <c r="B261" s="49"/>
       <c r="C261" s="119"/>
       <c r="D261" s="50" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="H261" s="108" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="I261" s="95"/>
       <c r="J261" s="96"/>
@@ -9724,10 +9840,10 @@
       <c r="B262" s="49"/>
       <c r="C262" s="119"/>
       <c r="D262" s="50" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="H262" s="108" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="I262" s="122"/>
       <c r="J262" s="96"/>
@@ -9739,15 +9855,15 @@
       <c r="B263" s="49"/>
       <c r="C263" s="119"/>
       <c r="D263" s="50" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="H263" s="108" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="I263" s="95"/>
       <c r="J263" s="96"/>
       <c r="K263" s="127" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="L263" s="104"/>
     </row>
@@ -9756,10 +9872,10 @@
       <c r="B264" s="119"/>
       <c r="C264" s="49"/>
       <c r="D264" s="50" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="H264" s="108" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="I264" s="95"/>
       <c r="J264" s="96"/>
@@ -9771,10 +9887,10 @@
       <c r="B265" s="119"/>
       <c r="C265" s="49"/>
       <c r="D265" s="50" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="H265" s="108" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="I265" s="95"/>
       <c r="J265" s="96"/>
@@ -9786,10 +9902,10 @@
       <c r="B266" s="119"/>
       <c r="C266" s="49"/>
       <c r="D266" s="50" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="H266" s="108" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="I266" s="95"/>
       <c r="J266" s="96"/>
@@ -9801,10 +9917,10 @@
       <c r="B267" s="119"/>
       <c r="C267" s="49"/>
       <c r="D267" s="50" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="H267" s="108" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="I267" s="95"/>
       <c r="J267" s="96"/>
@@ -9816,7 +9932,7 @@
       <c r="B268" s="119"/>
       <c r="C268" s="49"/>
       <c r="D268" s="50" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="H268" s="117"/>
       <c r="I268" s="95"/>
@@ -9828,17 +9944,17 @@
       <c r="A269" s="119"/>
       <c r="B269" s="119"/>
       <c r="C269" s="29" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="H269" s="108" t="s">
-        <v>657</v>
-      </c>
-      <c r="I269" s="122" t="s">
-        <v>658</v>
+        <v>660</v>
+      </c>
+      <c r="I269" s="116" t="s">
+        <v>661</v>
       </c>
       <c r="J269" s="96"/>
       <c r="K269" s="111" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="L269" s="104"/>
     </row>
@@ -9847,13 +9963,13 @@
       <c r="B270" s="119"/>
       <c r="C270" s="49"/>
       <c r="D270" s="50" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="H270" s="108" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="I270" s="116" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="J270" s="96"/>
       <c r="K270" s="111"/>
@@ -9864,13 +9980,13 @@
       <c r="B271" s="119"/>
       <c r="C271" s="49"/>
       <c r="D271" s="50" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="H271" s="108" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="I271" s="109" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="J271" s="96"/>
       <c r="K271" s="111"/>
@@ -9881,15 +9997,15 @@
       <c r="B272" s="28"/>
       <c r="C272" s="49"/>
       <c r="D272" s="50" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="H272" s="108" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="I272" s="95"/>
       <c r="J272" s="96"/>
       <c r="K272" s="111" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="L272" s="104"/>
     </row>
@@ -9898,10 +10014,10 @@
       <c r="B273" s="28"/>
       <c r="C273" s="49"/>
       <c r="D273" s="50" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="H273" s="108" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="I273" s="95"/>
       <c r="J273" s="96"/>
@@ -9912,10 +10028,10 @@
       <c r="A274" s="119"/>
       <c r="B274" s="28"/>
       <c r="C274" s="29" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="H274" s="108" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="I274" s="95"/>
       <c r="J274" s="96"/>
@@ -9927,12 +10043,14 @@
       <c r="B275" s="28"/>
       <c r="C275" s="49"/>
       <c r="D275" s="50" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="H275" s="108" t="s">
-        <v>674</v>
-      </c>
-      <c r="I275" s="95"/>
+        <v>677</v>
+      </c>
+      <c r="I275" s="86" t="s">
+        <v>678</v>
+      </c>
       <c r="J275" s="96"/>
       <c r="K275" s="111"/>
       <c r="L275" s="104"/>
@@ -9941,10 +10059,10 @@
       <c r="A276" s="119"/>
       <c r="B276" s="28"/>
       <c r="C276" s="29" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="H276" s="108" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="I276" s="95"/>
       <c r="J276" s="96"/>
@@ -9955,10 +10073,10 @@
       <c r="A277" s="119"/>
       <c r="B277" s="28"/>
       <c r="C277" s="29" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="H277" s="108" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="I277" s="95"/>
       <c r="J277" s="96"/>
@@ -9969,10 +10087,10 @@
       <c r="A278" s="112"/>
       <c r="B278" s="28"/>
       <c r="C278" s="29" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="H278" s="108" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="I278" s="95"/>
       <c r="J278" s="96"/>
@@ -9984,10 +10102,10 @@
       <c r="B279" s="28"/>
       <c r="C279" s="119"/>
       <c r="D279" s="50" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="H279" s="108" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="I279" s="95"/>
       <c r="J279" s="96"/>
@@ -9999,10 +10117,10 @@
       <c r="B280" s="28"/>
       <c r="C280" s="28"/>
       <c r="D280" s="50" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="H280" s="108" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="I280" s="95"/>
       <c r="J280" s="96"/>
@@ -10012,15 +10130,15 @@
     <row r="281" ht="51.75" customHeight="1">
       <c r="A281" s="112"/>
       <c r="B281" s="25" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="H281" s="108" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="I281" s="95"/>
       <c r="J281" s="96"/>
       <c r="K281" s="97" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="L281" s="104"/>
     </row>
@@ -10040,10 +10158,10 @@
     </row>
     <row r="283" ht="24.0" customHeight="1">
       <c r="A283" s="18" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="H283" s="108" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="I283" s="95"/>
       <c r="J283" s="96"/>
@@ -10053,11 +10171,11 @@
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="119"/>
       <c r="B284" s="32" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="H284" s="108"/>
       <c r="I284" s="116" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="J284" s="96"/>
       <c r="K284" s="111"/>
@@ -10066,10 +10184,10 @@
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="119"/>
       <c r="B285" s="32" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="H285" s="108" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="I285" s="95"/>
       <c r="J285" s="96"/>
@@ -10080,15 +10198,15 @@
       <c r="A286" s="119"/>
       <c r="B286" s="28"/>
       <c r="C286" s="29" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="H286" s="108" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="I286" s="95"/>
       <c r="J286" s="96"/>
       <c r="K286" s="97" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="L286" s="104"/>
     </row>
@@ -10096,13 +10214,13 @@
       <c r="A287" s="119"/>
       <c r="B287" s="28"/>
       <c r="C287" s="49" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="H287" s="108" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="I287" s="116" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="J287" s="96"/>
       <c r="K287" s="111"/>
@@ -10112,10 +10230,10 @@
       <c r="A288" s="112"/>
       <c r="B288" s="28"/>
       <c r="C288" s="29" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="H288" s="108" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="I288" s="95"/>
       <c r="J288" s="96"/>
@@ -10126,10 +10244,10 @@
       <c r="A289" s="119"/>
       <c r="B289" s="28"/>
       <c r="C289" s="29" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="H289" s="108" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="I289" s="95"/>
       <c r="J289" s="96"/>
@@ -10140,13 +10258,13 @@
       <c r="A290" s="119"/>
       <c r="B290" s="28"/>
       <c r="C290" s="29" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="H290" s="108" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="I290" s="114" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="J290" s="96"/>
       <c r="K290" s="97"/>
@@ -10156,15 +10274,15 @@
       <c r="A291" s="119"/>
       <c r="B291" s="28"/>
       <c r="C291" s="29" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="H291" s="108" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="I291" s="95"/>
       <c r="J291" s="96"/>
       <c r="K291" s="97" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="L291" s="104"/>
     </row>
@@ -10173,10 +10291,10 @@
       <c r="B292" s="28"/>
       <c r="C292" s="49"/>
       <c r="D292" s="50" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="H292" s="108" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="I292" s="95"/>
       <c r="J292" s="96"/>
@@ -10188,7 +10306,7 @@
       <c r="B293" s="28"/>
       <c r="C293" s="49"/>
       <c r="D293" s="50" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="H293" s="108"/>
       <c r="I293" s="95"/>
@@ -10201,7 +10319,7 @@
       <c r="B294" s="28"/>
       <c r="C294" s="49"/>
       <c r="D294" s="50" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="H294" s="108"/>
       <c r="I294" s="95"/>
@@ -10213,15 +10331,15 @@
       <c r="A295" s="119"/>
       <c r="B295" s="28"/>
       <c r="C295" s="29" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="H295" s="108" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="I295" s="95"/>
       <c r="J295" s="96"/>
       <c r="K295" s="97" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="L295" s="104"/>
     </row>
@@ -10229,28 +10347,28 @@
       <c r="A296" s="119"/>
       <c r="B296" s="28"/>
       <c r="C296" s="49" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="H296" s="108" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="I296" s="95"/>
       <c r="J296" s="96"/>
       <c r="K296" s="97" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="L296" s="104"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="112"/>
       <c r="B297" s="32" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="H297" s="108" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="I297" s="123" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="J297" s="96"/>
       <c r="K297" s="97"/>
@@ -10260,10 +10378,10 @@
       <c r="A298" s="112"/>
       <c r="B298" s="49"/>
       <c r="C298" s="29" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="H298" s="108" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="I298" s="95"/>
       <c r="J298" s="96"/>
@@ -10274,10 +10392,10 @@
       <c r="A299" s="112"/>
       <c r="B299" s="49"/>
       <c r="C299" s="29" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="H299" s="108" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="I299" s="95"/>
       <c r="J299" s="96"/>
@@ -10289,15 +10407,15 @@
       <c r="B300" s="49"/>
       <c r="C300" s="49"/>
       <c r="D300" s="58" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="H300" s="108" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="I300" s="95"/>
       <c r="J300" s="96"/>
       <c r="K300" s="97" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="L300" s="104"/>
     </row>
@@ -10306,15 +10424,15 @@
       <c r="B301" s="49"/>
       <c r="C301" s="49"/>
       <c r="D301" s="50" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="H301" s="108" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="I301" s="95"/>
       <c r="J301" s="96"/>
       <c r="K301" s="97" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="L301" s="104"/>
     </row>
@@ -10323,10 +10441,10 @@
       <c r="B302" s="49"/>
       <c r="C302" s="49"/>
       <c r="D302" s="58" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="H302" s="108" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="I302" s="95"/>
       <c r="J302" s="96"/>
@@ -10338,10 +10456,10 @@
       <c r="B303" s="49"/>
       <c r="C303" s="49"/>
       <c r="D303" s="50" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="H303" s="108" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="I303" s="95"/>
       <c r="J303" s="96"/>
@@ -10352,15 +10470,15 @@
       <c r="A304" s="112"/>
       <c r="B304" s="49"/>
       <c r="C304" s="29" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="H304" s="108" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="I304" s="95"/>
       <c r="J304" s="96"/>
       <c r="K304" s="97" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="L304" s="104"/>
     </row>
@@ -10368,10 +10486,10 @@
       <c r="A305" s="112"/>
       <c r="B305" s="49"/>
       <c r="C305" s="49" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="H305" s="108" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="I305" s="95"/>
       <c r="J305" s="96"/>
@@ -10383,15 +10501,15 @@
       <c r="B306" s="49"/>
       <c r="C306" s="119"/>
       <c r="D306" s="50" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="H306" s="108" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="I306" s="95"/>
       <c r="J306" s="96"/>
       <c r="K306" s="97" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="L306" s="104"/>
     </row>
@@ -10400,10 +10518,10 @@
       <c r="B307" s="49"/>
       <c r="C307" s="126"/>
       <c r="D307" s="50" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="H307" s="108" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="I307" s="95"/>
       <c r="J307" s="96"/>
@@ -10415,10 +10533,10 @@
       <c r="B308" s="49"/>
       <c r="C308" s="126"/>
       <c r="D308" s="50" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="H308" s="108" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="I308" s="95"/>
       <c r="J308" s="96"/>
@@ -10430,13 +10548,13 @@
       <c r="B309" s="49"/>
       <c r="C309" s="126"/>
       <c r="D309" s="50" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="H309" s="108" t="s">
-        <v>750</v>
-      </c>
-      <c r="I309" s="122" t="s">
-        <v>751</v>
+        <v>754</v>
+      </c>
+      <c r="I309" s="116" t="s">
+        <v>755</v>
       </c>
       <c r="J309" s="96"/>
       <c r="K309" s="111"/>
@@ -10448,11 +10566,11 @@
       <c r="C310" s="126"/>
       <c r="D310" s="58"/>
       <c r="E310" s="120" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="H310" s="108"/>
-      <c r="I310" s="122" t="s">
-        <v>753</v>
+      <c r="I310" s="116" t="s">
+        <v>755</v>
       </c>
       <c r="J310" s="96"/>
       <c r="K310" s="111"/>
@@ -10464,7 +10582,7 @@
       <c r="C311" s="126"/>
       <c r="D311" s="58"/>
       <c r="E311" s="120" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="H311" s="108"/>
       <c r="I311" s="95"/>
@@ -10473,17 +10591,17 @@
       <c r="L311" s="104"/>
     </row>
     <row r="312" ht="22.5" customHeight="1">
-      <c r="A312" s="129"/>
+      <c r="A312" s="112"/>
       <c r="B312" s="32" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="H312" s="108" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="I312" s="95"/>
       <c r="J312" s="96"/>
       <c r="K312" s="97" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="L312" s="104"/>
     </row>
@@ -10491,15 +10609,15 @@
       <c r="A313" s="112"/>
       <c r="B313" s="49"/>
       <c r="C313" s="29" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="H313" s="108" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="I313" s="95"/>
       <c r="J313" s="96"/>
       <c r="K313" s="97" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="L313" s="104"/>
     </row>
@@ -10507,11 +10625,11 @@
       <c r="A314" s="112"/>
       <c r="B314" s="49"/>
       <c r="C314" s="126"/>
-      <c r="D314" s="58" t="s">
-        <v>761</v>
+      <c r="D314" s="50" t="s">
+        <v>764</v>
       </c>
       <c r="H314" s="108" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="I314" s="95"/>
       <c r="J314" s="96"/>
@@ -10522,11 +10640,11 @@
       <c r="A315" s="112"/>
       <c r="B315" s="49"/>
       <c r="C315" s="126"/>
-      <c r="D315" s="58" t="s">
-        <v>763</v>
+      <c r="D315" s="50" t="s">
+        <v>766</v>
       </c>
       <c r="H315" s="108" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="I315" s="95"/>
       <c r="J315" s="96"/>
@@ -10537,14 +10655,14 @@
       <c r="A316" s="112"/>
       <c r="B316" s="49"/>
       <c r="C316" s="126"/>
-      <c r="D316" s="58" t="s">
-        <v>765</v>
+      <c r="D316" s="50" t="s">
+        <v>768</v>
       </c>
       <c r="H316" s="108" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="I316" s="123" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="J316" s="96"/>
       <c r="K316" s="111"/>
@@ -10554,16 +10672,16 @@
       <c r="A317" s="112"/>
       <c r="B317" s="49"/>
       <c r="C317" s="126"/>
-      <c r="D317" s="58" t="s">
-        <v>768</v>
+      <c r="D317" s="50" t="s">
+        <v>771</v>
       </c>
       <c r="H317" s="108" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="I317" s="95"/>
       <c r="J317" s="96"/>
       <c r="K317" s="97" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="L317" s="104"/>
     </row>
@@ -10571,11 +10689,11 @@
       <c r="A318" s="112"/>
       <c r="B318" s="49"/>
       <c r="C318" s="126"/>
-      <c r="D318" s="58" t="s">
-        <v>771</v>
+      <c r="D318" s="50" t="s">
+        <v>774</v>
       </c>
       <c r="H318" s="108" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="I318" s="95"/>
       <c r="J318" s="96"/>
@@ -10586,11 +10704,11 @@
       <c r="A319" s="112"/>
       <c r="B319" s="49"/>
       <c r="C319" s="126"/>
-      <c r="D319" s="58" t="s">
-        <v>773</v>
+      <c r="D319" s="50" t="s">
+        <v>776</v>
       </c>
       <c r="H319" s="108" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="I319" s="95"/>
       <c r="J319" s="96"/>
@@ -10601,14 +10719,14 @@
       <c r="A320" s="112"/>
       <c r="B320" s="49"/>
       <c r="C320" s="126"/>
-      <c r="D320" s="58" t="s">
-        <v>775</v>
+      <c r="D320" s="50" t="s">
+        <v>778</v>
       </c>
       <c r="H320" s="108" t="s">
-        <v>776</v>
-      </c>
-      <c r="I320" s="122" t="s">
-        <v>751</v>
+        <v>779</v>
+      </c>
+      <c r="I320" s="116" t="s">
+        <v>780</v>
       </c>
       <c r="J320" s="96"/>
       <c r="K320" s="111"/>
@@ -10618,11 +10736,11 @@
       <c r="A321" s="112"/>
       <c r="B321" s="49"/>
       <c r="C321" s="126"/>
-      <c r="D321" s="58" t="s">
-        <v>777</v>
+      <c r="D321" s="50" t="s">
+        <v>781</v>
       </c>
       <c r="H321" s="108" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="I321" s="95"/>
       <c r="J321" s="96"/>
@@ -10634,10 +10752,10 @@
       <c r="B322" s="49"/>
       <c r="C322" s="126"/>
       <c r="D322" s="58" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="H322" s="108" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="I322" s="95"/>
       <c r="J322" s="96"/>
@@ -10648,11 +10766,11 @@
       <c r="A323" s="112"/>
       <c r="B323" s="49"/>
       <c r="C323" s="126"/>
-      <c r="D323" s="58" t="s">
-        <v>781</v>
+      <c r="D323" s="50" t="s">
+        <v>785</v>
       </c>
       <c r="H323" s="108" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="I323" s="95"/>
       <c r="J323" s="96"/>
@@ -10663,11 +10781,11 @@
       <c r="A324" s="112"/>
       <c r="B324" s="49"/>
       <c r="C324" s="126"/>
-      <c r="D324" s="58" t="s">
-        <v>783</v>
+      <c r="D324" s="50" t="s">
+        <v>787</v>
       </c>
       <c r="H324" s="108" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="I324" s="95"/>
       <c r="J324" s="96"/>
@@ -10678,11 +10796,11 @@
       <c r="A325" s="112"/>
       <c r="B325" s="49"/>
       <c r="C325" s="126"/>
-      <c r="D325" s="58" t="s">
-        <v>785</v>
+      <c r="D325" s="50" t="s">
+        <v>789</v>
       </c>
       <c r="H325" s="108" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="I325" s="95"/>
       <c r="J325" s="96"/>
@@ -10693,11 +10811,11 @@
       <c r="A326" s="112"/>
       <c r="B326" s="49"/>
       <c r="C326" s="126"/>
-      <c r="D326" s="58" t="s">
-        <v>787</v>
+      <c r="D326" s="50" t="s">
+        <v>791</v>
       </c>
       <c r="H326" s="108" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="I326" s="95"/>
       <c r="J326" s="96"/>
@@ -10708,11 +10826,11 @@
       <c r="A327" s="112"/>
       <c r="B327" s="49"/>
       <c r="C327" s="126"/>
-      <c r="D327" s="58" t="s">
-        <v>789</v>
+      <c r="D327" s="50" t="s">
+        <v>793</v>
       </c>
       <c r="H327" s="108" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="I327" s="95"/>
       <c r="J327" s="96"/>
@@ -10723,11 +10841,11 @@
       <c r="A328" s="112"/>
       <c r="B328" s="49"/>
       <c r="C328" s="126"/>
-      <c r="D328" s="58" t="s">
-        <v>791</v>
+      <c r="D328" s="50" t="s">
+        <v>795</v>
       </c>
       <c r="H328" s="108" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="I328" s="95"/>
       <c r="J328" s="96"/>
@@ -10738,11 +10856,11 @@
       <c r="A329" s="112"/>
       <c r="B329" s="49"/>
       <c r="C329" s="126"/>
-      <c r="D329" s="58" t="s">
-        <v>793</v>
+      <c r="D329" s="50" t="s">
+        <v>797</v>
       </c>
       <c r="H329" s="108" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="I329" s="95"/>
       <c r="J329" s="96"/>
@@ -10753,11 +10871,11 @@
       <c r="A330" s="112"/>
       <c r="B330" s="49"/>
       <c r="C330" s="126"/>
-      <c r="D330" s="58" t="s">
-        <v>795</v>
+      <c r="D330" s="50" t="s">
+        <v>799</v>
       </c>
       <c r="H330" s="108" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="I330" s="95"/>
       <c r="J330" s="96"/>
@@ -10768,14 +10886,14 @@
       <c r="A331" s="112"/>
       <c r="B331" s="49"/>
       <c r="C331" s="126"/>
-      <c r="D331" s="58" t="s">
-        <v>797</v>
+      <c r="D331" s="50" t="s">
+        <v>801</v>
       </c>
       <c r="H331" s="108" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="I331" s="123" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="J331" s="96"/>
       <c r="K331" s="111"/>
@@ -10785,11 +10903,11 @@
       <c r="A332" s="112"/>
       <c r="B332" s="49"/>
       <c r="C332" s="126"/>
-      <c r="D332" s="58" t="s">
-        <v>800</v>
+      <c r="D332" s="50" t="s">
+        <v>804</v>
       </c>
       <c r="H332" s="108" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="I332" s="95"/>
       <c r="J332" s="96"/>
@@ -10800,16 +10918,16 @@
       <c r="A333" s="112"/>
       <c r="B333" s="49"/>
       <c r="C333" s="126"/>
-      <c r="D333" s="58" t="s">
-        <v>802</v>
+      <c r="D333" s="50" t="s">
+        <v>806</v>
       </c>
       <c r="H333" s="108" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="I333" s="95"/>
       <c r="J333" s="96"/>
       <c r="K333" s="97" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="L333" s="104"/>
     </row>
@@ -10817,11 +10935,11 @@
       <c r="A334" s="112"/>
       <c r="B334" s="49"/>
       <c r="C334" s="126"/>
-      <c r="D334" s="58" t="s">
-        <v>805</v>
+      <c r="D334" s="50" t="s">
+        <v>809</v>
       </c>
       <c r="H334" s="108" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="I334" s="95"/>
       <c r="J334" s="96"/>
@@ -10832,11 +10950,11 @@
       <c r="A335" s="112"/>
       <c r="B335" s="49"/>
       <c r="C335" s="126"/>
-      <c r="D335" s="58" t="s">
-        <v>807</v>
+      <c r="D335" s="50" t="s">
+        <v>811</v>
       </c>
       <c r="H335" s="108" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="I335" s="95"/>
       <c r="J335" s="96"/>
@@ -10847,11 +10965,11 @@
       <c r="A336" s="112"/>
       <c r="B336" s="49"/>
       <c r="C336" s="126"/>
-      <c r="D336" s="58" t="s">
-        <v>809</v>
+      <c r="D336" s="50" t="s">
+        <v>813</v>
       </c>
       <c r="H336" s="108" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="I336" s="95"/>
       <c r="J336" s="96"/>
@@ -10862,11 +10980,11 @@
       <c r="A337" s="112"/>
       <c r="B337" s="49"/>
       <c r="C337" s="126"/>
-      <c r="D337" s="58" t="s">
-        <v>811</v>
+      <c r="D337" s="50" t="s">
+        <v>815</v>
       </c>
       <c r="H337" s="108" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="I337" s="95"/>
       <c r="J337" s="96"/>
@@ -10877,11 +10995,11 @@
       <c r="A338" s="112"/>
       <c r="B338" s="49"/>
       <c r="C338" s="126"/>
-      <c r="D338" s="58" t="s">
-        <v>813</v>
+      <c r="D338" s="50" t="s">
+        <v>817</v>
       </c>
       <c r="H338" s="108" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="I338" s="95"/>
       <c r="J338" s="96"/>
@@ -10892,11 +11010,11 @@
       <c r="A339" s="112"/>
       <c r="B339" s="49"/>
       <c r="C339" s="126"/>
-      <c r="D339" s="58" t="s">
-        <v>815</v>
+      <c r="D339" s="50" t="s">
+        <v>819</v>
       </c>
       <c r="H339" s="108" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="I339" s="95"/>
       <c r="J339" s="96"/>
@@ -10907,11 +11025,11 @@
       <c r="A340" s="112"/>
       <c r="B340" s="49"/>
       <c r="C340" s="126"/>
-      <c r="D340" s="58" t="s">
-        <v>817</v>
+      <c r="D340" s="50" t="s">
+        <v>821</v>
       </c>
       <c r="H340" s="108" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="I340" s="95"/>
       <c r="J340" s="96"/>
@@ -10922,11 +11040,11 @@
       <c r="A341" s="112"/>
       <c r="B341" s="49"/>
       <c r="C341" s="126"/>
-      <c r="D341" s="58" t="s">
-        <v>819</v>
+      <c r="D341" s="50" t="s">
+        <v>823</v>
       </c>
       <c r="H341" s="108" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="I341" s="95"/>
       <c r="J341" s="96"/>
@@ -10939,7 +11057,7 @@
       <c r="C342" s="126"/>
       <c r="D342" s="58"/>
       <c r="H342" s="108" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="I342" s="95"/>
       <c r="J342" s="96"/>
@@ -10950,11 +11068,11 @@
       <c r="A343" s="112"/>
       <c r="B343" s="49"/>
       <c r="C343" s="126"/>
-      <c r="D343" s="58" t="s">
-        <v>822</v>
+      <c r="D343" s="50" t="s">
+        <v>826</v>
       </c>
       <c r="H343" s="108" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="I343" s="95"/>
       <c r="J343" s="96"/>
@@ -10965,11 +11083,11 @@
       <c r="A344" s="112"/>
       <c r="B344" s="49"/>
       <c r="C344" s="126"/>
-      <c r="D344" s="58" t="s">
-        <v>824</v>
+      <c r="D344" s="50" t="s">
+        <v>828</v>
       </c>
       <c r="H344" s="108" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="I344" s="95"/>
       <c r="J344" s="96"/>
@@ -10981,14 +11099,14 @@
       <c r="B345" s="49"/>
       <c r="C345" s="119"/>
       <c r="D345" s="119"/>
-      <c r="E345" s="130" t="s">
-        <v>826</v>
+      <c r="E345" s="120" t="s">
+        <v>830</v>
       </c>
       <c r="H345" s="108" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="I345" s="105" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="J345" s="96"/>
       <c r="K345" s="111"/>
@@ -10997,11 +11115,11 @@
     <row r="346" ht="15.75" customHeight="1">
       <c r="A346" s="112"/>
       <c r="B346" s="49"/>
-      <c r="C346" s="49" t="s">
-        <v>829</v>
+      <c r="C346" s="29" t="s">
+        <v>833</v>
       </c>
       <c r="H346" s="108" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="I346" s="95"/>
       <c r="J346" s="96"/>
@@ -11012,8 +11130,8 @@
       <c r="A347" s="112"/>
       <c r="B347" s="49"/>
       <c r="C347" s="126"/>
-      <c r="D347" s="58" t="s">
-        <v>831</v>
+      <c r="D347" s="50" t="s">
+        <v>835</v>
       </c>
       <c r="H347" s="108"/>
       <c r="I347" s="95"/>
@@ -11026,15 +11144,15 @@
       <c r="B348" s="49"/>
       <c r="C348" s="126"/>
       <c r="D348" s="58" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="H348" s="108" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="I348" s="95"/>
       <c r="J348" s="96"/>
       <c r="K348" s="111" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="L348" s="104"/>
     </row>
@@ -11042,11 +11160,11 @@
       <c r="A349" s="112"/>
       <c r="B349" s="49"/>
       <c r="C349" s="126"/>
-      <c r="D349" s="58" t="s">
-        <v>835</v>
+      <c r="D349" s="50" t="s">
+        <v>839</v>
       </c>
       <c r="H349" s="108" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="I349" s="95"/>
       <c r="J349" s="96"/>
@@ -11057,11 +11175,11 @@
       <c r="A350" s="112"/>
       <c r="B350" s="49"/>
       <c r="C350" s="126"/>
-      <c r="D350" s="58" t="s">
-        <v>837</v>
+      <c r="D350" s="50" t="s">
+        <v>841</v>
       </c>
       <c r="H350" s="108" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="I350" s="95"/>
       <c r="J350" s="96"/>
@@ -11073,10 +11191,10 @@
       <c r="B351" s="49"/>
       <c r="C351" s="126"/>
       <c r="D351" s="58" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="H351" s="108" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="I351" s="95"/>
       <c r="J351" s="96"/>
@@ -11087,16 +11205,16 @@
       <c r="A352" s="112"/>
       <c r="B352" s="49"/>
       <c r="C352" s="126"/>
-      <c r="D352" s="58" t="s">
-        <v>841</v>
+      <c r="D352" s="50" t="s">
+        <v>845</v>
       </c>
       <c r="H352" s="108" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="I352" s="95"/>
       <c r="J352" s="96"/>
       <c r="K352" s="97" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="L352" s="104"/>
     </row>
@@ -11104,16 +11222,16 @@
       <c r="A353" s="112"/>
       <c r="B353" s="49"/>
       <c r="C353" s="126"/>
-      <c r="D353" s="58" t="s">
-        <v>844</v>
+      <c r="D353" s="50" t="s">
+        <v>848</v>
       </c>
       <c r="H353" s="108" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="I353" s="95"/>
       <c r="J353" s="96"/>
-      <c r="K353" s="131" t="s">
-        <v>846</v>
+      <c r="K353" s="129" t="s">
+        <v>850</v>
       </c>
       <c r="L353" s="104"/>
     </row>
@@ -11123,23 +11241,23 @@
       <c r="C354" s="126"/>
       <c r="D354" s="58"/>
       <c r="E354" s="130" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="H354" s="117"/>
       <c r="I354" s="95"/>
       <c r="J354" s="96"/>
-      <c r="K354" s="131"/>
+      <c r="K354" s="129"/>
       <c r="L354" s="104"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
       <c r="A355" s="112"/>
       <c r="B355" s="49"/>
       <c r="C355" s="126"/>
-      <c r="D355" s="58" t="s">
-        <v>848</v>
+      <c r="D355" s="50" t="s">
+        <v>852</v>
       </c>
       <c r="H355" s="108" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="I355" s="95"/>
       <c r="J355" s="96"/>
@@ -11150,11 +11268,11 @@
       <c r="A356" s="112"/>
       <c r="B356" s="49"/>
       <c r="C356" s="126"/>
-      <c r="D356" s="58" t="s">
-        <v>850</v>
+      <c r="D356" s="50" t="s">
+        <v>854</v>
       </c>
       <c r="H356" s="108" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="I356" s="95"/>
       <c r="J356" s="96"/>
@@ -11166,11 +11284,11 @@
       <c r="B357" s="49"/>
       <c r="C357" s="49"/>
       <c r="D357" s="49"/>
-      <c r="E357" s="130" t="s">
-        <v>852</v>
+      <c r="E357" s="120" t="s">
+        <v>856</v>
       </c>
       <c r="H357" s="108" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="I357" s="95"/>
       <c r="J357" s="96"/>
@@ -11182,11 +11300,11 @@
       <c r="B358" s="49"/>
       <c r="C358" s="49"/>
       <c r="D358" s="49"/>
-      <c r="E358" s="130" t="s">
-        <v>854</v>
+      <c r="E358" s="120" t="s">
+        <v>858</v>
       </c>
       <c r="H358" s="108" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="I358" s="95"/>
       <c r="J358" s="96"/>
@@ -11198,11 +11316,11 @@
       <c r="B359" s="49"/>
       <c r="C359" s="49"/>
       <c r="D359" s="49"/>
-      <c r="E359" s="130" t="s">
-        <v>856</v>
+      <c r="E359" s="120" t="s">
+        <v>860</v>
       </c>
       <c r="H359" s="108" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="I359" s="95"/>
       <c r="J359" s="96"/>
@@ -11214,11 +11332,11 @@
       <c r="B360" s="49"/>
       <c r="C360" s="119"/>
       <c r="D360" s="119"/>
-      <c r="E360" s="130" t="s">
-        <v>858</v>
+      <c r="E360" s="120" t="s">
+        <v>862</v>
       </c>
       <c r="H360" s="108" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="I360" s="95"/>
       <c r="J360" s="96"/>
@@ -11229,16 +11347,16 @@
       <c r="A361" s="112"/>
       <c r="B361" s="49"/>
       <c r="C361" s="126"/>
-      <c r="D361" s="58" t="s">
-        <v>860</v>
+      <c r="D361" s="50" t="s">
+        <v>864</v>
       </c>
       <c r="H361" s="108" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="I361" s="95"/>
       <c r="J361" s="96"/>
       <c r="K361" s="97" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="L361" s="104"/>
     </row>
@@ -11246,12 +11364,12 @@
       <c r="A362" s="112"/>
       <c r="B362" s="49"/>
       <c r="C362" s="126"/>
-      <c r="D362" s="132"/>
+      <c r="D362" s="131"/>
       <c r="E362" s="120" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="H362" s="108" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="I362" s="95"/>
       <c r="J362" s="96"/>
@@ -11262,12 +11380,12 @@
       <c r="A363" s="112"/>
       <c r="B363" s="49"/>
       <c r="C363" s="126"/>
-      <c r="D363" s="132"/>
-      <c r="E363" s="130" t="s">
-        <v>865</v>
+      <c r="D363" s="131"/>
+      <c r="E363" s="120" t="s">
+        <v>869</v>
       </c>
       <c r="H363" s="108" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="I363" s="95"/>
       <c r="J363" s="96"/>
@@ -11278,17 +11396,17 @@
       <c r="A364" s="112"/>
       <c r="B364" s="49"/>
       <c r="C364" s="126"/>
-      <c r="D364" s="132"/>
-      <c r="E364" s="130" t="s">
-        <v>867</v>
+      <c r="D364" s="131"/>
+      <c r="E364" s="120" t="s">
+        <v>871</v>
       </c>
       <c r="H364" s="108" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="I364" s="95"/>
       <c r="J364" s="96"/>
       <c r="K364" s="111" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="L364" s="104"/>
     </row>
@@ -11296,12 +11414,12 @@
       <c r="A365" s="112"/>
       <c r="B365" s="49"/>
       <c r="C365" s="126"/>
-      <c r="D365" s="132"/>
+      <c r="D365" s="131"/>
       <c r="E365" s="120" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="H365" s="108" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="I365" s="95"/>
       <c r="J365" s="96"/>
@@ -11312,12 +11430,12 @@
       <c r="A366" s="112"/>
       <c r="B366" s="49"/>
       <c r="C366" s="126"/>
-      <c r="D366" s="132"/>
+      <c r="D366" s="131"/>
       <c r="E366" s="120" t="s">
-        <v>872</v>
+        <v>633</v>
       </c>
       <c r="H366" s="108" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="I366" s="95"/>
       <c r="J366" s="96"/>
@@ -11328,14 +11446,14 @@
       <c r="A367" s="112"/>
       <c r="B367" s="49"/>
       <c r="C367" s="126"/>
-      <c r="D367" s="58" t="s">
-        <v>874</v>
+      <c r="D367" s="50" t="s">
+        <v>877</v>
       </c>
       <c r="H367" s="108" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="I367" s="116" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="J367" s="96"/>
       <c r="K367" s="111"/>
@@ -11345,11 +11463,11 @@
       <c r="A368" s="112"/>
       <c r="B368" s="49"/>
       <c r="C368" s="126"/>
-      <c r="D368" s="58" t="s">
-        <v>877</v>
+      <c r="D368" s="50" t="s">
+        <v>880</v>
       </c>
       <c r="H368" s="108" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="I368" s="95"/>
       <c r="J368" s="96"/>
@@ -11360,16 +11478,16 @@
       <c r="A369" s="112"/>
       <c r="B369" s="49"/>
       <c r="C369" s="126"/>
-      <c r="D369" s="58" t="s">
-        <v>879</v>
+      <c r="D369" s="50" t="s">
+        <v>882</v>
       </c>
       <c r="H369" s="108" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="I369" s="95"/>
       <c r="J369" s="96"/>
       <c r="K369" s="111" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="L369" s="104"/>
     </row>
@@ -11377,12 +11495,12 @@
       <c r="A370" s="112"/>
       <c r="B370" s="49"/>
       <c r="C370" s="126"/>
-      <c r="D370" s="132"/>
-      <c r="E370" s="130" t="s">
-        <v>882</v>
+      <c r="D370" s="131"/>
+      <c r="E370" s="120" t="s">
+        <v>885</v>
       </c>
       <c r="H370" s="108" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="I370" s="95"/>
       <c r="J370" s="96"/>
@@ -11393,12 +11511,12 @@
       <c r="A371" s="112"/>
       <c r="B371" s="49"/>
       <c r="C371" s="126"/>
-      <c r="D371" s="132"/>
-      <c r="E371" s="130" t="s">
-        <v>884</v>
+      <c r="D371" s="131"/>
+      <c r="E371" s="120" t="s">
+        <v>887</v>
       </c>
       <c r="H371" s="108" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="I371" s="95"/>
       <c r="J371" s="96"/>
@@ -11409,16 +11527,16 @@
       <c r="A372" s="112"/>
       <c r="B372" s="49"/>
       <c r="C372" s="126"/>
-      <c r="D372" s="58" t="s">
-        <v>886</v>
+      <c r="D372" s="50" t="s">
+        <v>889</v>
       </c>
       <c r="H372" s="108" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="I372" s="95"/>
       <c r="J372" s="96"/>
       <c r="K372" s="111" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="L372" s="104"/>
     </row>
@@ -11426,32 +11544,32 @@
       <c r="A373" s="112"/>
       <c r="B373" s="49"/>
       <c r="C373" s="126"/>
-      <c r="D373" s="58" t="s">
-        <v>889</v>
+      <c r="D373" s="50" t="s">
+        <v>892</v>
       </c>
       <c r="H373" s="108" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="I373" s="95"/>
       <c r="J373" s="96"/>
       <c r="K373" s="97" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="L373" s="104"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
       <c r="A374" s="112"/>
       <c r="B374" s="119"/>
-      <c r="C374" s="49" t="s">
-        <v>892</v>
+      <c r="C374" s="29" t="s">
+        <v>895</v>
       </c>
       <c r="H374" s="108" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="I374" s="95"/>
       <c r="J374" s="96"/>
       <c r="K374" s="97" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="L374" s="104"/>
     </row>
@@ -11459,11 +11577,11 @@
       <c r="A375" s="112"/>
       <c r="B375" s="119"/>
       <c r="C375" s="119"/>
-      <c r="D375" s="58" t="s">
-        <v>895</v>
+      <c r="D375" s="50" t="s">
+        <v>898</v>
       </c>
       <c r="H375" s="108" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="I375" s="95"/>
       <c r="J375" s="96"/>
@@ -11475,10 +11593,10 @@
       <c r="B376" s="119"/>
       <c r="C376" s="119"/>
       <c r="D376" s="58" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="H376" s="108" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="I376" s="95"/>
       <c r="J376" s="96"/>
@@ -11489,11 +11607,11 @@
       <c r="A377" s="112"/>
       <c r="B377" s="119"/>
       <c r="C377" s="119"/>
-      <c r="D377" s="58" t="s">
-        <v>899</v>
+      <c r="D377" s="50" t="s">
+        <v>902</v>
       </c>
       <c r="H377" s="108" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="I377" s="95"/>
       <c r="J377" s="96"/>
@@ -11505,10 +11623,10 @@
       <c r="B378" s="28"/>
       <c r="C378" s="28"/>
       <c r="D378" s="58" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="H378" s="108" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="I378" s="95"/>
       <c r="J378" s="96"/>
@@ -11519,11 +11637,11 @@
       <c r="A379" s="112"/>
       <c r="B379" s="28"/>
       <c r="C379" s="28"/>
-      <c r="D379" s="58" t="s">
-        <v>903</v>
+      <c r="D379" s="50" t="s">
+        <v>906</v>
       </c>
       <c r="H379" s="108" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="I379" s="95"/>
       <c r="J379" s="96"/>
@@ -11534,11 +11652,11 @@
       <c r="A380" s="112"/>
       <c r="B380" s="28"/>
       <c r="C380" s="28"/>
-      <c r="D380" s="58" t="s">
-        <v>905</v>
+      <c r="D380" s="50" t="s">
+        <v>908</v>
       </c>
       <c r="H380" s="108" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="I380" s="95"/>
       <c r="J380" s="96"/>
@@ -11550,10 +11668,10 @@
       <c r="B381" s="28"/>
       <c r="C381" s="28"/>
       <c r="D381" s="58" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="H381" s="108" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="I381" s="95"/>
       <c r="J381" s="96"/>
@@ -11563,32 +11681,34 @@
     <row r="382" ht="15.75" customHeight="1">
       <c r="A382" s="112"/>
       <c r="B382" s="32" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="H382" s="108" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="I382" s="105" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="J382" s="96"/>
       <c r="K382" s="97" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="L382" s="104"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
       <c r="A383" s="112"/>
       <c r="B383" s="32" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="H383" s="108" t="s">
-        <v>914</v>
-      </c>
-      <c r="I383" s="95"/>
+        <v>917</v>
+      </c>
+      <c r="I383" s="86" t="s">
+        <v>581</v>
+      </c>
       <c r="J383" s="96"/>
       <c r="K383" s="97" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="L383" s="104"/>
     </row>
@@ -11596,13 +11716,13 @@
       <c r="A384" s="112"/>
       <c r="B384" s="28"/>
       <c r="C384" s="29" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="H384" s="108" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="I384" s="116" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="J384" s="96"/>
       <c r="K384" s="111"/>
@@ -11611,10 +11731,10 @@
     <row r="385" ht="15.75" customHeight="1">
       <c r="A385" s="112"/>
       <c r="B385" s="32" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="H385" s="108" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="I385" s="95"/>
       <c r="J385" s="96"/>
@@ -11624,11 +11744,11 @@
     <row r="386" ht="15.75" customHeight="1">
       <c r="A386" s="112"/>
       <c r="B386" s="49"/>
-      <c r="C386" s="49" t="s">
-        <v>921</v>
+      <c r="C386" s="29" t="s">
+        <v>924</v>
       </c>
       <c r="H386" s="108" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="I386" s="95"/>
       <c r="J386" s="96"/>
@@ -11639,15 +11759,15 @@
       <c r="A387" s="112"/>
       <c r="B387" s="49"/>
       <c r="C387" s="29" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="H387" s="108" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="I387" s="95"/>
       <c r="J387" s="96"/>
       <c r="K387" s="97" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="L387" s="104"/>
     </row>
@@ -11655,10 +11775,10 @@
       <c r="A388" s="112"/>
       <c r="B388" s="49"/>
       <c r="C388" s="29" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="H388" s="108" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="I388" s="95"/>
       <c r="J388" s="96"/>
@@ -11668,10 +11788,10 @@
     <row r="389" ht="15.75" customHeight="1">
       <c r="A389" s="112"/>
       <c r="B389" s="32" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="H389" s="108" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="I389" s="95"/>
       <c r="J389" s="96"/>
@@ -11682,10 +11802,10 @@
       <c r="A390" s="112"/>
       <c r="B390" s="49"/>
       <c r="C390" s="29" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="H390" s="108" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="I390" s="95"/>
       <c r="J390" s="96"/>
@@ -11696,15 +11816,15 @@
       <c r="A391" s="112"/>
       <c r="B391" s="49"/>
       <c r="C391" s="29" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="H391" s="108" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="I391" s="95"/>
       <c r="J391" s="96"/>
       <c r="K391" s="97" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="L391" s="104"/>
     </row>
@@ -11712,13 +11832,13 @@
       <c r="A392" s="112"/>
       <c r="B392" s="119"/>
       <c r="C392" s="29" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="H392" s="108" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="I392" s="86" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="J392" s="96"/>
       <c r="K392" s="111"/>
@@ -11728,10 +11848,10 @@
       <c r="A393" s="112"/>
       <c r="B393" s="119"/>
       <c r="C393" s="29" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="H393" s="108" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="I393" s="95"/>
       <c r="J393" s="96"/>
@@ -11741,19 +11861,19 @@
     <row r="394" ht="33.75" customHeight="1">
       <c r="A394" s="112"/>
       <c r="B394" s="32" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="H394" s="108" t="s">
-        <v>941</v>
-      </c>
-      <c r="I394" s="133" t="s">
-        <v>942</v>
+        <v>944</v>
+      </c>
+      <c r="I394" s="132" t="s">
+        <v>945</v>
       </c>
       <c r="J394" s="110" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="K394" s="97" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="L394" s="104"/>
     </row>
@@ -11761,13 +11881,13 @@
       <c r="A395" s="112"/>
       <c r="B395" s="28"/>
       <c r="C395" s="29" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="H395" s="108" t="s">
-        <v>946</v>
-      </c>
-      <c r="I395" s="134"/>
-      <c r="J395" s="135"/>
+        <v>949</v>
+      </c>
+      <c r="I395" s="133"/>
+      <c r="J395" s="134"/>
       <c r="K395" s="111"/>
       <c r="L395" s="104"/>
     </row>
@@ -11775,23 +11895,23 @@
       <c r="A396" s="112"/>
       <c r="B396" s="28"/>
       <c r="C396" s="29" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="H396" s="108" t="s">
-        <v>948</v>
-      </c>
-      <c r="I396" s="134"/>
-      <c r="J396" s="135"/>
+        <v>951</v>
+      </c>
+      <c r="I396" s="133"/>
+      <c r="J396" s="134"/>
       <c r="K396" s="111"/>
       <c r="L396" s="104"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
       <c r="A397" s="119"/>
       <c r="B397" s="32" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="H397" s="108" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="I397" s="20"/>
       <c r="J397" s="110"/>
@@ -11801,12 +11921,12 @@
     <row r="398" ht="15.75" customHeight="1">
       <c r="A398" s="119"/>
       <c r="B398" s="32" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="H398" s="108" t="s">
-        <v>952</v>
-      </c>
-      <c r="I398" s="136"/>
+        <v>955</v>
+      </c>
+      <c r="I398" s="135"/>
       <c r="J398" s="110"/>
       <c r="K398" s="111"/>
       <c r="L398" s="104"/>
@@ -11814,13 +11934,13 @@
     <row r="399" ht="15.75" customHeight="1">
       <c r="A399" s="119"/>
       <c r="B399" s="119"/>
-      <c r="C399" s="49" t="s">
-        <v>953</v>
+      <c r="C399" s="29" t="s">
+        <v>956</v>
       </c>
       <c r="H399" s="108" t="s">
-        <v>954</v>
-      </c>
-      <c r="I399" s="136"/>
+        <v>957</v>
+      </c>
+      <c r="I399" s="135"/>
       <c r="J399" s="110"/>
       <c r="K399" s="111"/>
       <c r="L399" s="104"/>
@@ -11828,41 +11948,41 @@
     <row r="400" ht="18.75" customHeight="1">
       <c r="A400" s="128"/>
       <c r="B400" s="32" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="H400" s="117"/>
-      <c r="I400" s="136"/>
+      <c r="I400" s="135"/>
       <c r="J400" s="110"/>
       <c r="K400" s="111"/>
       <c r="L400" s="104"/>
     </row>
     <row r="401" ht="33.75" customHeight="1">
       <c r="A401" s="18" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="H401" s="108" t="s">
-        <v>957</v>
-      </c>
-      <c r="I401" s="136"/>
+        <v>960</v>
+      </c>
+      <c r="I401" s="135"/>
       <c r="J401" s="110" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="K401" s="97" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="L401" s="104"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
       <c r="A402" s="112"/>
-      <c r="B402" s="28" t="s">
-        <v>960</v>
+      <c r="B402" s="32" t="s">
+        <v>963</v>
       </c>
       <c r="H402" s="108" t="s">
-        <v>961</v>
-      </c>
-      <c r="I402" s="137"/>
+        <v>964</v>
+      </c>
+      <c r="I402" s="136"/>
       <c r="J402" s="110" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="K402" s="111"/>
       <c r="L402" s="104"/>
@@ -11871,43 +11991,43 @@
       <c r="A403" s="112"/>
       <c r="B403" s="28"/>
       <c r="C403" s="49" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="H403" s="117"/>
-      <c r="I403" s="137"/>
+      <c r="I403" s="136"/>
       <c r="J403" s="110"/>
       <c r="K403" s="111"/>
       <c r="L403" s="104"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
       <c r="A404" s="112"/>
-      <c r="B404" s="28" t="s">
-        <v>964</v>
+      <c r="B404" s="32" t="s">
+        <v>967</v>
       </c>
       <c r="H404" s="108" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="I404" s="115" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="J404" s="110"/>
       <c r="K404" s="97" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="L404" s="104"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
       <c r="A405" s="112"/>
-      <c r="B405" s="28" t="s">
-        <v>968</v>
+      <c r="B405" s="32" t="s">
+        <v>971</v>
       </c>
       <c r="H405" s="108" t="s">
-        <v>969</v>
-      </c>
-      <c r="I405" s="136"/>
+        <v>972</v>
+      </c>
+      <c r="I405" s="135"/>
       <c r="J405" s="110"/>
       <c r="K405" s="97" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="L405" s="104"/>
     </row>
@@ -11915,57 +12035,57 @@
       <c r="A406" s="112"/>
       <c r="B406" s="28"/>
       <c r="C406" s="49" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="H406" s="108" t="s">
-        <v>972</v>
-      </c>
-      <c r="I406" s="136"/>
+        <v>975</v>
+      </c>
+      <c r="I406" s="135"/>
       <c r="J406" s="110"/>
       <c r="K406" s="111" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="L406" s="104"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
       <c r="A407" s="112"/>
       <c r="B407" s="28"/>
-      <c r="C407" s="49" t="s">
-        <v>974</v>
+      <c r="C407" s="29" t="s">
+        <v>977</v>
       </c>
       <c r="H407" s="108" t="s">
-        <v>975</v>
-      </c>
-      <c r="I407" s="136"/>
+        <v>978</v>
+      </c>
+      <c r="I407" s="135"/>
       <c r="J407" s="110"/>
       <c r="K407" s="97"/>
       <c r="L407" s="104"/>
     </row>
     <row r="408" ht="33.75" customHeight="1">
       <c r="A408" s="112"/>
-      <c r="B408" s="28" t="s">
-        <v>976</v>
+      <c r="B408" s="32" t="s">
+        <v>979</v>
       </c>
       <c r="H408" s="108" t="s">
-        <v>977</v>
-      </c>
-      <c r="I408" s="136"/>
+        <v>980</v>
+      </c>
+      <c r="I408" s="135"/>
       <c r="J408" s="110"/>
       <c r="K408" s="97" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="L408" s="104"/>
     </row>
     <row r="409" ht="30.0" customHeight="1">
       <c r="A409" s="112"/>
       <c r="B409" s="49"/>
-      <c r="C409" s="49" t="s">
-        <v>979</v>
+      <c r="C409" s="29" t="s">
+        <v>982</v>
       </c>
       <c r="H409" s="108" t="s">
-        <v>980</v>
-      </c>
-      <c r="I409" s="136"/>
+        <v>983</v>
+      </c>
+      <c r="I409" s="135"/>
       <c r="J409" s="110"/>
       <c r="K409" s="111"/>
       <c r="L409" s="104"/>
@@ -11973,13 +12093,13 @@
     <row r="410" ht="47.25" customHeight="1">
       <c r="A410" s="112"/>
       <c r="B410" s="49"/>
-      <c r="C410" s="49" t="s">
-        <v>981</v>
+      <c r="C410" s="29" t="s">
+        <v>984</v>
       </c>
       <c r="H410" s="108" t="s">
-        <v>982</v>
-      </c>
-      <c r="I410" s="136"/>
+        <v>985</v>
+      </c>
+      <c r="I410" s="135"/>
       <c r="J410" s="110"/>
       <c r="K410" s="111"/>
       <c r="L410" s="104"/>
@@ -11987,13 +12107,13 @@
     <row r="411" ht="15.75" customHeight="1">
       <c r="A411" s="112"/>
       <c r="B411" s="49"/>
-      <c r="C411" s="49" t="s">
-        <v>983</v>
+      <c r="C411" s="29" t="s">
+        <v>986</v>
       </c>
       <c r="H411" s="108" t="s">
-        <v>984</v>
-      </c>
-      <c r="I411" s="136"/>
+        <v>987</v>
+      </c>
+      <c r="I411" s="135"/>
       <c r="J411" s="110"/>
       <c r="K411" s="111"/>
       <c r="L411" s="104"/>
@@ -12002,12 +12122,12 @@
       <c r="A412" s="112"/>
       <c r="B412" s="49"/>
       <c r="C412" s="49" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="H412" s="108" t="s">
-        <v>986</v>
-      </c>
-      <c r="I412" s="136"/>
+        <v>989</v>
+      </c>
+      <c r="I412" s="135"/>
       <c r="J412" s="110"/>
       <c r="K412" s="111"/>
       <c r="L412" s="104"/>
@@ -12016,12 +12136,12 @@
       <c r="A413" s="112"/>
       <c r="B413" s="49"/>
       <c r="C413" s="49" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="H413" s="108" t="s">
-        <v>988</v>
-      </c>
-      <c r="I413" s="136"/>
+        <v>991</v>
+      </c>
+      <c r="I413" s="135"/>
       <c r="J413" s="110"/>
       <c r="K413" s="111"/>
       <c r="L413" s="104"/>
@@ -12029,13 +12149,13 @@
     <row r="414" ht="15.75" customHeight="1">
       <c r="A414" s="112"/>
       <c r="B414" s="49"/>
-      <c r="C414" s="49" t="s">
-        <v>989</v>
+      <c r="C414" s="29" t="s">
+        <v>992</v>
       </c>
       <c r="H414" s="108" t="s">
-        <v>990</v>
-      </c>
-      <c r="I414" s="136"/>
+        <v>993</v>
+      </c>
+      <c r="I414" s="135"/>
       <c r="J414" s="110"/>
       <c r="K414" s="111"/>
       <c r="L414" s="104"/>
@@ -12044,28 +12164,28 @@
       <c r="A415" s="112"/>
       <c r="B415" s="49"/>
       <c r="C415" s="49" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="H415" s="108" t="s">
-        <v>992</v>
-      </c>
-      <c r="I415" s="136"/>
+        <v>995</v>
+      </c>
+      <c r="I415" s="135"/>
       <c r="J415" s="110"/>
       <c r="K415" s="97" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="L415" s="104"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
       <c r="A416" s="112"/>
       <c r="B416" s="49"/>
-      <c r="C416" s="49" t="s">
-        <v>994</v>
+      <c r="C416" s="29" t="s">
+        <v>997</v>
       </c>
       <c r="H416" s="108" t="s">
-        <v>995</v>
-      </c>
-      <c r="I416" s="136"/>
+        <v>998</v>
+      </c>
+      <c r="I416" s="135"/>
       <c r="J416" s="110"/>
       <c r="K416" s="111"/>
       <c r="L416" s="104"/>
@@ -12073,27 +12193,27 @@
     <row r="417" ht="15.75" customHeight="1">
       <c r="A417" s="112"/>
       <c r="B417" s="49"/>
-      <c r="C417" s="49" t="s">
-        <v>996</v>
+      <c r="C417" s="29" t="s">
+        <v>999</v>
       </c>
       <c r="H417" s="108" t="s">
-        <v>997</v>
-      </c>
-      <c r="I417" s="136"/>
+        <v>1000</v>
+      </c>
+      <c r="I417" s="135"/>
       <c r="J417" s="110"/>
       <c r="K417" s="111"/>
       <c r="L417" s="104"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
       <c r="A418" s="112"/>
-      <c r="B418" s="28" t="s">
-        <v>998</v>
+      <c r="B418" s="32" t="s">
+        <v>1001</v>
       </c>
       <c r="H418" s="108" t="s">
-        <v>999</v>
-      </c>
-      <c r="I418" s="138" t="s">
-        <v>1000</v>
+        <v>1002</v>
+      </c>
+      <c r="I418" s="137" t="s">
+        <v>1003</v>
       </c>
       <c r="J418" s="110"/>
       <c r="K418" s="111"/>
@@ -12102,13 +12222,13 @@
     <row r="419" ht="15.75" customHeight="1">
       <c r="A419" s="112"/>
       <c r="B419" s="49"/>
-      <c r="C419" s="49" t="s">
-        <v>1001</v>
+      <c r="C419" s="29" t="s">
+        <v>1004</v>
       </c>
       <c r="H419" s="108" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I419" s="136"/>
+        <v>1005</v>
+      </c>
+      <c r="I419" s="135"/>
       <c r="J419" s="110"/>
       <c r="K419" s="111"/>
       <c r="L419" s="104"/>
@@ -12116,13 +12236,13 @@
     <row r="420" ht="15.75" customHeight="1">
       <c r="A420" s="112"/>
       <c r="B420" s="49"/>
-      <c r="C420" s="49" t="s">
-        <v>1003</v>
+      <c r="C420" s="29" t="s">
+        <v>1006</v>
       </c>
       <c r="H420" s="108" t="s">
-        <v>1004</v>
-      </c>
-      <c r="I420" s="136"/>
+        <v>1007</v>
+      </c>
+      <c r="I420" s="135"/>
       <c r="J420" s="110"/>
       <c r="K420" s="111"/>
       <c r="L420" s="104"/>
@@ -12130,13 +12250,13 @@
     <row r="421" ht="15.75" customHeight="1">
       <c r="A421" s="112"/>
       <c r="B421" s="49"/>
-      <c r="C421" s="49" t="s">
-        <v>1005</v>
+      <c r="C421" s="29" t="s">
+        <v>1008</v>
       </c>
       <c r="H421" s="108" t="s">
-        <v>1006</v>
-      </c>
-      <c r="I421" s="136"/>
+        <v>1009</v>
+      </c>
+      <c r="I421" s="135"/>
       <c r="J421" s="110"/>
       <c r="K421" s="111"/>
       <c r="L421" s="104"/>
@@ -12144,12 +12264,14 @@
     <row r="422" ht="15.75" customHeight="1">
       <c r="A422" s="112"/>
       <c r="B422" s="32" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="H422" s="108" t="s">
-        <v>1008</v>
-      </c>
-      <c r="I422" s="136"/>
+        <v>1011</v>
+      </c>
+      <c r="I422" s="138" t="s">
+        <v>1012</v>
+      </c>
       <c r="J422" s="110"/>
       <c r="K422" s="111"/>
       <c r="L422" s="104"/>
@@ -12158,12 +12280,12 @@
       <c r="A423" s="112"/>
       <c r="B423" s="49"/>
       <c r="C423" s="29" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="H423" s="108" t="s">
-        <v>1010</v>
-      </c>
-      <c r="I423" s="136"/>
+        <v>1014</v>
+      </c>
+      <c r="I423" s="135"/>
       <c r="J423" s="110"/>
       <c r="K423" s="111"/>
       <c r="L423" s="104"/>
@@ -12172,12 +12294,12 @@
       <c r="A424" s="112"/>
       <c r="B424" s="49"/>
       <c r="C424" s="29" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="H424" s="108" t="s">
-        <v>1012</v>
-      </c>
-      <c r="I424" s="136"/>
+        <v>1016</v>
+      </c>
+      <c r="I424" s="135"/>
       <c r="J424" s="110"/>
       <c r="K424" s="111"/>
       <c r="L424" s="104"/>
@@ -12186,12 +12308,12 @@
       <c r="A425" s="112"/>
       <c r="B425" s="49"/>
       <c r="C425" s="29" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="H425" s="108" t="s">
-        <v>1014</v>
-      </c>
-      <c r="I425" s="136"/>
+        <v>1018</v>
+      </c>
+      <c r="I425" s="135"/>
       <c r="J425" s="110"/>
       <c r="K425" s="111"/>
       <c r="L425" s="104"/>
@@ -12200,12 +12322,12 @@
       <c r="A426" s="112"/>
       <c r="B426" s="49"/>
       <c r="C426" s="29" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="H426" s="108" t="s">
-        <v>1016</v>
-      </c>
-      <c r="I426" s="136"/>
+        <v>1020</v>
+      </c>
+      <c r="I426" s="135"/>
       <c r="J426" s="110"/>
       <c r="K426" s="111"/>
       <c r="L426" s="104"/>
@@ -12214,12 +12336,12 @@
       <c r="A427" s="112"/>
       <c r="B427" s="49"/>
       <c r="C427" s="29" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="H427" s="108" t="s">
-        <v>1018</v>
-      </c>
-      <c r="I427" s="136"/>
+        <v>1022</v>
+      </c>
+      <c r="I427" s="135"/>
       <c r="J427" s="110"/>
       <c r="K427" s="111"/>
       <c r="L427" s="104"/>
@@ -12228,12 +12350,12 @@
       <c r="A428" s="112"/>
       <c r="B428" s="49"/>
       <c r="C428" s="29" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="H428" s="108" t="s">
-        <v>1020</v>
-      </c>
-      <c r="I428" s="136"/>
+        <v>1024</v>
+      </c>
+      <c r="I428" s="135"/>
       <c r="J428" s="110"/>
       <c r="K428" s="111"/>
       <c r="L428" s="104"/>
@@ -12241,13 +12363,13 @@
     <row r="429" ht="15.75" customHeight="1">
       <c r="A429" s="112"/>
       <c r="B429" s="32" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="H429" s="108" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="I429" s="116" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="J429" s="110"/>
       <c r="K429" s="111"/>
@@ -12257,12 +12379,12 @@
       <c r="A430" s="128"/>
       <c r="B430" s="128"/>
       <c r="C430" s="29" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="H430" s="108" t="s">
-        <v>1025</v>
-      </c>
-      <c r="I430" s="136"/>
+        <v>1029</v>
+      </c>
+      <c r="I430" s="135"/>
       <c r="J430" s="110"/>
       <c r="K430" s="111"/>
       <c r="L430" s="104"/>
@@ -12271,13 +12393,13 @@
       <c r="A431" s="128"/>
       <c r="B431" s="28"/>
       <c r="C431" s="29" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="H431" s="108" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="I431" s="139" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="J431" s="110"/>
       <c r="K431" s="111"/>
@@ -12287,12 +12409,12 @@
       <c r="A432" s="128"/>
       <c r="B432" s="28"/>
       <c r="C432" s="29" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="H432" s="108" t="s">
-        <v>1030</v>
-      </c>
-      <c r="I432" s="136"/>
+        <v>1034</v>
+      </c>
+      <c r="I432" s="135"/>
       <c r="J432" s="110"/>
       <c r="K432" s="111"/>
       <c r="L432" s="104"/>
@@ -12300,37 +12422,37 @@
     <row r="433" ht="18.75" customHeight="1">
       <c r="A433" s="128"/>
       <c r="B433" s="32" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="H433" s="108" t="s">
-        <v>1032</v>
-      </c>
-      <c r="I433" s="136"/>
+        <v>1036</v>
+      </c>
+      <c r="I433" s="135"/>
       <c r="J433" s="110"/>
       <c r="K433" s="111" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="L433" s="104"/>
     </row>
     <row r="434" ht="18.75" customHeight="1">
       <c r="A434" s="128"/>
       <c r="B434" s="32" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="H434" s="117"/>
-      <c r="I434" s="136"/>
+      <c r="I434" s="135"/>
       <c r="J434" s="110"/>
       <c r="K434" s="111"/>
       <c r="L434" s="104"/>
     </row>
     <row r="437" ht="18.75" customHeight="1">
       <c r="A437" s="18" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="H437" s="108" t="s">
-        <v>1036</v>
-      </c>
-      <c r="I437" s="136"/>
+        <v>1040</v>
+      </c>
+      <c r="I437" s="116"/>
       <c r="J437" s="110"/>
       <c r="K437" s="111"/>
       <c r="L437" s="104"/>
@@ -12338,11 +12460,11 @@
     <row r="438" ht="15.75" customHeight="1">
       <c r="A438" s="128"/>
       <c r="B438" s="32" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="H438" s="108"/>
-      <c r="I438" s="116" t="s">
-        <v>1038</v>
+      <c r="I438" s="140" t="s">
+        <v>1042</v>
       </c>
       <c r="J438" s="110"/>
       <c r="K438" s="111"/>
@@ -12351,13 +12473,13 @@
     <row r="439" ht="15.75" customHeight="1">
       <c r="A439" s="128"/>
       <c r="B439" s="32" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="H439" s="108" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="I439" s="109" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="J439" s="110"/>
       <c r="K439" s="111"/>
@@ -12367,13 +12489,13 @@
       <c r="A440" s="112"/>
       <c r="B440" s="49"/>
       <c r="C440" s="49" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="H440" s="108" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="I440" s="122" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="J440" s="110"/>
       <c r="K440" s="111"/>
@@ -12383,12 +12505,12 @@
       <c r="A441" s="112"/>
       <c r="B441" s="119"/>
       <c r="C441" s="29" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="H441" s="108" t="s">
-        <v>1046</v>
-      </c>
-      <c r="I441" s="136"/>
+        <v>1050</v>
+      </c>
+      <c r="I441" s="135"/>
       <c r="J441" s="110"/>
       <c r="K441" s="111"/>
       <c r="L441" s="104"/>
@@ -12397,13 +12519,13 @@
       <c r="A442" s="112"/>
       <c r="B442" s="119"/>
       <c r="C442" s="29" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="H442" s="108" t="s">
-        <v>1048</v>
-      </c>
-      <c r="I442" s="140" t="s">
-        <v>1049</v>
+        <v>1052</v>
+      </c>
+      <c r="I442" s="141" t="s">
+        <v>1053</v>
       </c>
       <c r="J442" s="110"/>
       <c r="K442" s="111"/>
@@ -12413,13 +12535,13 @@
       <c r="A443" s="112"/>
       <c r="B443" s="49"/>
       <c r="C443" s="29" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="H443" s="108" t="s">
-        <v>1051</v>
-      </c>
-      <c r="I443" s="141" t="s">
-        <v>1052</v>
+        <v>1055</v>
+      </c>
+      <c r="I443" s="142" t="s">
+        <v>1056</v>
       </c>
       <c r="J443" s="110"/>
       <c r="K443" s="111"/>
@@ -12429,16 +12551,16 @@
       <c r="A444" s="112"/>
       <c r="B444" s="49"/>
       <c r="C444" s="29" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="H444" s="108" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="I444" s="109" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="J444" s="110" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="K444" s="111"/>
       <c r="L444" s="104"/>
@@ -12447,13 +12569,13 @@
       <c r="A445" s="128"/>
       <c r="B445" s="28"/>
       <c r="C445" s="29" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="H445" s="108" t="s">
-        <v>1058</v>
-      </c>
-      <c r="I445" s="122" t="s">
-        <v>1059</v>
+        <v>1062</v>
+      </c>
+      <c r="I445" s="116" t="s">
+        <v>1063</v>
       </c>
       <c r="J445" s="110"/>
       <c r="K445" s="111"/>
@@ -12463,12 +12585,12 @@
       <c r="A446" s="128"/>
       <c r="B446" s="28"/>
       <c r="C446" s="29" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="H446" s="108" t="s">
-        <v>1061</v>
-      </c>
-      <c r="I446" s="136"/>
+        <v>1065</v>
+      </c>
+      <c r="I446" s="135"/>
       <c r="J446" s="110"/>
       <c r="K446" s="111"/>
       <c r="L446" s="104"/>
@@ -12477,13 +12599,13 @@
       <c r="A447" s="119"/>
       <c r="B447" s="28"/>
       <c r="C447" s="29" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="H447" s="108" t="s">
-        <v>1063</v>
-      </c>
-      <c r="I447" s="122" t="s">
-        <v>1064</v>
+        <v>1067</v>
+      </c>
+      <c r="I447" s="116" t="s">
+        <v>1068</v>
       </c>
       <c r="J447" s="110"/>
       <c r="K447" s="111"/>
@@ -12494,13 +12616,13 @@
       <c r="B448" s="28"/>
       <c r="C448" s="49"/>
       <c r="D448" s="50" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="H448" s="108" t="s">
-        <v>1066</v>
-      </c>
-      <c r="I448" s="122" t="s">
-        <v>570</v>
+        <v>1070</v>
+      </c>
+      <c r="I448" s="116" t="s">
+        <v>572</v>
       </c>
       <c r="J448" s="110"/>
       <c r="K448" s="111"/>
@@ -12510,17 +12632,17 @@
       <c r="A449" s="119"/>
       <c r="B449" s="28"/>
       <c r="C449" s="29" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="H449" s="108" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="I449" s="115" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="J449" s="110"/>
       <c r="K449" s="97" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="L449" s="104"/>
     </row>
@@ -12528,14 +12650,12 @@
       <c r="A450" s="119"/>
       <c r="B450" s="28"/>
       <c r="C450" s="29" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="H450" s="108" t="s">
-        <v>1072</v>
-      </c>
-      <c r="I450" s="122" t="s">
-        <v>1064</v>
-      </c>
+        <v>1076</v>
+      </c>
+      <c r="I450" s="122"/>
       <c r="J450" s="110"/>
       <c r="K450" s="111"/>
       <c r="L450" s="104"/>
@@ -12543,13 +12663,13 @@
     <row r="451" ht="15.75" customHeight="1">
       <c r="A451" s="112"/>
       <c r="B451" s="28" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="H451" s="108" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="I451" s="122" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="J451" s="110"/>
       <c r="K451" s="111"/>
@@ -12559,13 +12679,13 @@
       <c r="A452" s="112"/>
       <c r="B452" s="49"/>
       <c r="C452" s="29" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="H452" s="108" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I452" s="122" t="s">
-        <v>1078</v>
+        <v>1081</v>
+      </c>
+      <c r="I452" s="116" t="s">
+        <v>1082</v>
       </c>
       <c r="J452" s="110"/>
       <c r="K452" s="111"/>
@@ -12575,13 +12695,13 @@
       <c r="A453" s="112"/>
       <c r="B453" s="49"/>
       <c r="C453" s="29" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="H453" s="108" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I453" s="122" t="s">
-        <v>1075</v>
+        <v>1084</v>
+      </c>
+      <c r="I453" s="116" t="s">
+        <v>1085</v>
       </c>
       <c r="J453" s="110"/>
       <c r="K453" s="111"/>
@@ -12591,13 +12711,13 @@
       <c r="A454" s="112"/>
       <c r="B454" s="49"/>
       <c r="C454" s="49" t="s">
-        <v>1081</v>
+        <v>1086</v>
       </c>
       <c r="H454" s="108" t="s">
-        <v>1082</v>
+        <v>1087</v>
       </c>
       <c r="I454" s="122" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
       <c r="J454" s="110"/>
       <c r="K454" s="111"/>
@@ -12607,12 +12727,14 @@
       <c r="A455" s="112"/>
       <c r="B455" s="49"/>
       <c r="C455" s="49" t="s">
-        <v>1084</v>
+        <v>1089</v>
       </c>
       <c r="H455" s="108" t="s">
-        <v>1085</v>
-      </c>
-      <c r="I455" s="136"/>
+        <v>1090</v>
+      </c>
+      <c r="I455" s="143" t="s">
+        <v>1082</v>
+      </c>
       <c r="J455" s="110"/>
       <c r="K455" s="111"/>
       <c r="L455" s="104"/>
@@ -12621,13 +12743,13 @@
       <c r="A456" s="112"/>
       <c r="B456" s="49"/>
       <c r="C456" s="49" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="H456" s="108" t="s">
-        <v>1087</v>
-      </c>
-      <c r="I456" s="122" t="s">
-        <v>1088</v>
+        <v>1092</v>
+      </c>
+      <c r="I456" s="116" t="s">
+        <v>1093</v>
       </c>
       <c r="J456" s="110"/>
       <c r="K456" s="111"/>
@@ -12637,13 +12759,13 @@
       <c r="A457" s="112"/>
       <c r="B457" s="49"/>
       <c r="C457" s="29" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="H457" s="108" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="I457" s="116" t="s">
-        <v>1091</v>
+        <v>1096</v>
       </c>
       <c r="J457" s="110"/>
       <c r="K457" s="111"/>
@@ -12652,17 +12774,17 @@
     <row r="458" ht="15.75" customHeight="1">
       <c r="A458" s="112"/>
       <c r="B458" s="32" t="s">
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="H458" s="108" t="s">
-        <v>1093</v>
-      </c>
-      <c r="I458" s="125" t="s">
-        <v>1094</v>
+        <v>1098</v>
+      </c>
+      <c r="I458" s="114" t="s">
+        <v>1099</v>
       </c>
       <c r="J458" s="110"/>
       <c r="K458" s="97" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
       <c r="L458" s="104"/>
     </row>
@@ -12670,12 +12792,12 @@
       <c r="A459" s="112"/>
       <c r="B459" s="49"/>
       <c r="C459" s="29" t="s">
-        <v>1096</v>
+        <v>1101</v>
       </c>
       <c r="H459" s="108" t="s">
-        <v>1097</v>
-      </c>
-      <c r="I459" s="136"/>
+        <v>1102</v>
+      </c>
+      <c r="I459" s="135"/>
       <c r="J459" s="110"/>
       <c r="K459" s="111"/>
       <c r="L459" s="104"/>
@@ -12684,12 +12806,12 @@
       <c r="A460" s="112"/>
       <c r="B460" s="49"/>
       <c r="C460" s="49" t="s">
-        <v>1098</v>
+        <v>1103</v>
       </c>
       <c r="H460" s="108" t="s">
-        <v>1099</v>
-      </c>
-      <c r="I460" s="136"/>
+        <v>1104</v>
+      </c>
+      <c r="I460" s="135"/>
       <c r="J460" s="110"/>
       <c r="K460" s="111"/>
       <c r="L460" s="104"/>
@@ -12698,13 +12820,13 @@
       <c r="A461" s="112"/>
       <c r="B461" s="49"/>
       <c r="C461" s="29" t="s">
-        <v>1100</v>
+        <v>1105</v>
       </c>
       <c r="H461" s="108" t="s">
-        <v>1101</v>
-      </c>
-      <c r="I461" s="122" t="s">
-        <v>1102</v>
+        <v>1106</v>
+      </c>
+      <c r="I461" s="116" t="s">
+        <v>1107</v>
       </c>
       <c r="J461" s="110"/>
       <c r="K461" s="111"/>
@@ -12713,14 +12835,12 @@
     <row r="462" ht="15.75" customHeight="1">
       <c r="A462" s="112"/>
       <c r="B462" s="32" t="s">
-        <v>1103</v>
+        <v>1108</v>
       </c>
       <c r="H462" s="108" t="s">
-        <v>1104</v>
-      </c>
-      <c r="I462" s="122" t="s">
-        <v>1064</v>
-      </c>
+        <v>1109</v>
+      </c>
+      <c r="I462" s="122"/>
       <c r="J462" s="110"/>
       <c r="K462" s="111"/>
       <c r="L462" s="104"/>
@@ -12729,12 +12849,12 @@
       <c r="A463" s="112"/>
       <c r="B463" s="49"/>
       <c r="C463" s="29" t="s">
-        <v>1105</v>
+        <v>1110</v>
       </c>
       <c r="H463" s="108" t="s">
-        <v>1106</v>
-      </c>
-      <c r="I463" s="136"/>
+        <v>1111</v>
+      </c>
+      <c r="I463" s="135"/>
       <c r="J463" s="110"/>
       <c r="K463" s="111"/>
       <c r="L463" s="104"/>
@@ -12743,12 +12863,12 @@
       <c r="A464" s="112"/>
       <c r="B464" s="49"/>
       <c r="C464" s="29" t="s">
-        <v>1107</v>
+        <v>1112</v>
       </c>
       <c r="H464" s="108" t="s">
-        <v>1108</v>
-      </c>
-      <c r="I464" s="136"/>
+        <v>1113</v>
+      </c>
+      <c r="I464" s="135"/>
       <c r="J464" s="110"/>
       <c r="K464" s="111"/>
       <c r="L464" s="104"/>
@@ -12757,12 +12877,12 @@
       <c r="A465" s="112"/>
       <c r="B465" s="49"/>
       <c r="C465" s="29" t="s">
-        <v>1109</v>
+        <v>1114</v>
       </c>
       <c r="H465" s="108" t="s">
-        <v>1110</v>
-      </c>
-      <c r="I465" s="136"/>
+        <v>1115</v>
+      </c>
+      <c r="I465" s="135"/>
       <c r="J465" s="110"/>
       <c r="K465" s="111"/>
       <c r="L465" s="104"/>
@@ -12770,17 +12890,17 @@
     <row r="466" ht="33.75" customHeight="1">
       <c r="A466" s="112"/>
       <c r="B466" s="32" t="s">
-        <v>1111</v>
+        <v>1116</v>
       </c>
       <c r="H466" s="108" t="s">
-        <v>1112</v>
-      </c>
-      <c r="I466" s="125" t="s">
-        <v>1113</v>
+        <v>1117</v>
+      </c>
+      <c r="I466" s="114" t="s">
+        <v>1118</v>
       </c>
       <c r="J466" s="110"/>
       <c r="K466" s="97" t="s">
-        <v>1114</v>
+        <v>1119</v>
       </c>
       <c r="L466" s="104"/>
     </row>
@@ -12788,12 +12908,12 @@
       <c r="A467" s="112"/>
       <c r="B467" s="49"/>
       <c r="C467" s="29" t="s">
-        <v>1115</v>
+        <v>1120</v>
       </c>
       <c r="H467" s="108" t="s">
-        <v>1116</v>
-      </c>
-      <c r="I467" s="136"/>
+        <v>1121</v>
+      </c>
+      <c r="I467" s="135"/>
       <c r="J467" s="110"/>
       <c r="K467" s="111"/>
       <c r="L467" s="104"/>
@@ -12802,12 +12922,12 @@
       <c r="A468" s="112"/>
       <c r="B468" s="49"/>
       <c r="C468" s="29" t="s">
-        <v>1117</v>
+        <v>1122</v>
       </c>
       <c r="H468" s="108" t="s">
-        <v>1118</v>
-      </c>
-      <c r="I468" s="136"/>
+        <v>1123</v>
+      </c>
+      <c r="I468" s="135"/>
       <c r="J468" s="110"/>
       <c r="K468" s="111"/>
       <c r="L468" s="104"/>
@@ -12815,12 +12935,12 @@
     <row r="469" ht="15.75" customHeight="1">
       <c r="A469" s="112"/>
       <c r="B469" s="32" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="H469" s="108" t="s">
-        <v>1120</v>
-      </c>
-      <c r="I469" s="136"/>
+        <v>1125</v>
+      </c>
+      <c r="I469" s="135"/>
       <c r="J469" s="110"/>
       <c r="K469" s="111"/>
       <c r="L469" s="104"/>
@@ -12829,12 +12949,12 @@
       <c r="A470" s="112"/>
       <c r="B470" s="49"/>
       <c r="C470" s="29" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="H470" s="108" t="s">
-        <v>1122</v>
-      </c>
-      <c r="I470" s="136"/>
+        <v>1127</v>
+      </c>
+      <c r="I470" s="135"/>
       <c r="J470" s="110"/>
       <c r="K470" s="111"/>
       <c r="L470" s="104"/>
@@ -12843,12 +12963,12 @@
       <c r="A471" s="112"/>
       <c r="B471" s="49"/>
       <c r="C471" s="29" t="s">
-        <v>1123</v>
+        <v>1128</v>
       </c>
       <c r="H471" s="108" t="s">
-        <v>1124</v>
-      </c>
-      <c r="I471" s="136"/>
+        <v>1129</v>
+      </c>
+      <c r="I471" s="135"/>
       <c r="J471" s="110"/>
       <c r="K471" s="111"/>
       <c r="L471" s="104"/>
@@ -12857,12 +12977,12 @@
       <c r="A472" s="112"/>
       <c r="B472" s="49"/>
       <c r="C472" s="49" t="s">
-        <v>1125</v>
+        <v>1130</v>
       </c>
       <c r="H472" s="108" t="s">
-        <v>1126</v>
-      </c>
-      <c r="I472" s="136"/>
+        <v>1131</v>
+      </c>
+      <c r="I472" s="135"/>
       <c r="J472" s="110"/>
       <c r="K472" s="111"/>
       <c r="L472" s="104"/>
@@ -12870,12 +12990,12 @@
     <row r="473" ht="15.75" customHeight="1">
       <c r="A473" s="112"/>
       <c r="B473" s="32" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="H473" s="108" t="s">
-        <v>1128</v>
-      </c>
-      <c r="I473" s="136"/>
+        <v>1133</v>
+      </c>
+      <c r="I473" s="135"/>
       <c r="J473" s="110"/>
       <c r="K473" s="111"/>
       <c r="L473" s="104"/>
@@ -12883,12 +13003,12 @@
     <row r="474" ht="15.75" customHeight="1">
       <c r="A474" s="119"/>
       <c r="B474" s="32" t="s">
-        <v>1129</v>
+        <v>1134</v>
       </c>
       <c r="H474" s="108" t="s">
-        <v>1130</v>
-      </c>
-      <c r="I474" s="136"/>
+        <v>1135</v>
+      </c>
+      <c r="I474" s="135"/>
       <c r="J474" s="110"/>
       <c r="K474" s="111"/>
       <c r="L474" s="104"/>
@@ -12902,19 +13022,19 @@
       <c r="F475" s="128"/>
       <c r="G475" s="128"/>
       <c r="H475" s="108"/>
-      <c r="I475" s="136"/>
+      <c r="I475" s="135"/>
       <c r="J475" s="110"/>
       <c r="K475" s="111"/>
       <c r="L475" s="104"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="A476" s="142" t="s">
-        <v>1131</v>
+      <c r="A476" s="144" t="s">
+        <v>1136</v>
       </c>
       <c r="H476" s="108" t="s">
-        <v>1132</v>
-      </c>
-      <c r="I476" s="136"/>
+        <v>1137</v>
+      </c>
+      <c r="I476" s="135"/>
       <c r="J476" s="110"/>
       <c r="K476" s="111"/>
       <c r="L476" s="104"/>
@@ -12922,12 +13042,12 @@
     <row r="477" ht="15.75" customHeight="1">
       <c r="A477" s="112"/>
       <c r="B477" s="32" t="s">
-        <v>1133</v>
+        <v>1138</v>
       </c>
       <c r="H477" s="108" t="s">
-        <v>1134</v>
-      </c>
-      <c r="I477" s="136"/>
+        <v>1139</v>
+      </c>
+      <c r="I477" s="135"/>
       <c r="J477" s="110"/>
       <c r="K477" s="111"/>
       <c r="L477" s="104"/>
@@ -12935,13 +13055,13 @@
     <row r="478" ht="15.75" customHeight="1">
       <c r="A478" s="112"/>
       <c r="B478" s="32" t="s">
-        <v>1135</v>
+        <v>1140</v>
       </c>
       <c r="H478" s="108" t="s">
-        <v>1136</v>
-      </c>
-      <c r="I478" s="140" t="s">
-        <v>1137</v>
+        <v>1141</v>
+      </c>
+      <c r="I478" s="141" t="s">
+        <v>1142</v>
       </c>
       <c r="J478" s="110"/>
       <c r="K478" s="111"/>
@@ -12950,12 +13070,12 @@
     <row r="479" ht="15.75" customHeight="1">
       <c r="A479" s="112"/>
       <c r="B479" s="32" t="s">
-        <v>1138</v>
+        <v>1143</v>
       </c>
       <c r="H479" s="108" t="s">
-        <v>1139</v>
-      </c>
-      <c r="I479" s="136"/>
+        <v>1144</v>
+      </c>
+      <c r="I479" s="135"/>
       <c r="J479" s="110"/>
       <c r="K479" s="111"/>
       <c r="L479" s="104"/>
@@ -12963,12 +13083,12 @@
     <row r="480" ht="15.75" customHeight="1">
       <c r="A480" s="112"/>
       <c r="B480" s="32" t="s">
-        <v>1140</v>
+        <v>1145</v>
       </c>
       <c r="H480" s="108" t="s">
-        <v>1141</v>
-      </c>
-      <c r="I480" s="136"/>
+        <v>1146</v>
+      </c>
+      <c r="I480" s="135"/>
       <c r="J480" s="110"/>
       <c r="K480" s="111"/>
       <c r="L480" s="104"/>
@@ -12976,12 +13096,12 @@
     <row r="481" ht="15.75" customHeight="1">
       <c r="A481" s="112"/>
       <c r="B481" s="28" t="s">
-        <v>1142</v>
+        <v>1147</v>
       </c>
       <c r="H481" s="108" t="s">
-        <v>1143</v>
-      </c>
-      <c r="I481" s="136"/>
+        <v>1148</v>
+      </c>
+      <c r="I481" s="135"/>
       <c r="J481" s="110"/>
       <c r="K481" s="111"/>
       <c r="L481" s="104"/>
@@ -12989,12 +13109,12 @@
     <row r="482" ht="15.75" customHeight="1">
       <c r="A482" s="112"/>
       <c r="B482" s="28" t="s">
-        <v>1144</v>
+        <v>1149</v>
       </c>
       <c r="H482" s="108" t="s">
-        <v>1145</v>
-      </c>
-      <c r="I482" s="136"/>
+        <v>1150</v>
+      </c>
+      <c r="I482" s="135"/>
       <c r="J482" s="110"/>
       <c r="K482" s="111"/>
       <c r="L482" s="104"/>
@@ -13002,13 +13122,13 @@
     <row r="483" ht="15.75" customHeight="1">
       <c r="A483" s="112"/>
       <c r="B483" s="32" t="s">
-        <v>1146</v>
+        <v>1151</v>
       </c>
       <c r="H483" s="108" t="s">
-        <v>1147</v>
+        <v>1152</v>
       </c>
       <c r="I483" s="109" t="s">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="J483" s="110"/>
       <c r="K483" s="111"/>
@@ -13017,13 +13137,13 @@
     <row r="484" ht="15.75" customHeight="1">
       <c r="A484" s="112"/>
       <c r="B484" s="32" t="s">
-        <v>1149</v>
+        <v>1154</v>
       </c>
       <c r="H484" s="108" t="s">
-        <v>1150</v>
+        <v>1155</v>
       </c>
       <c r="I484" s="109" t="s">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="J484" s="110"/>
       <c r="K484" s="111"/>
@@ -13032,13 +13152,13 @@
     <row r="485" ht="15.75" customHeight="1">
       <c r="A485" s="112"/>
       <c r="B485" s="32" t="s">
-        <v>1151</v>
+        <v>1156</v>
       </c>
       <c r="H485" s="108" t="s">
-        <v>1152</v>
+        <v>1157</v>
       </c>
       <c r="I485" s="109" t="s">
-        <v>1153</v>
+        <v>1158</v>
       </c>
       <c r="J485" s="110"/>
       <c r="K485" s="111"/>
@@ -13047,12 +13167,12 @@
     <row r="486" ht="15.75" customHeight="1">
       <c r="A486" s="112"/>
       <c r="B486" s="32" t="s">
-        <v>1154</v>
+        <v>1159</v>
       </c>
       <c r="H486" s="108" t="s">
-        <v>1155</v>
-      </c>
-      <c r="I486" s="136"/>
+        <v>1160</v>
+      </c>
+      <c r="I486" s="135"/>
       <c r="J486" s="110"/>
       <c r="K486" s="111"/>
       <c r="L486" s="104"/>
@@ -13061,13 +13181,13 @@
       <c r="A487" s="112"/>
       <c r="B487" s="28"/>
       <c r="C487" s="29" t="s">
-        <v>1156</v>
+        <v>1161</v>
       </c>
       <c r="H487" s="108" t="s">
-        <v>1157</v>
-      </c>
-      <c r="I487" s="143" t="s">
-        <v>1158</v>
+        <v>1162</v>
+      </c>
+      <c r="I487" s="145" t="s">
+        <v>1163</v>
       </c>
       <c r="J487" s="110"/>
       <c r="K487" s="111"/>
@@ -13077,12 +13197,12 @@
       <c r="A488" s="112"/>
       <c r="B488" s="28"/>
       <c r="C488" s="29" t="s">
-        <v>1159</v>
+        <v>1164</v>
       </c>
       <c r="H488" s="108" t="s">
-        <v>1160</v>
-      </c>
-      <c r="I488" s="136"/>
+        <v>1165</v>
+      </c>
+      <c r="I488" s="135"/>
       <c r="J488" s="110"/>
       <c r="K488" s="111"/>
       <c r="L488" s="104"/>
@@ -13091,13 +13211,13 @@
       <c r="A489" s="112"/>
       <c r="B489" s="28"/>
       <c r="C489" s="29" t="s">
-        <v>1161</v>
+        <v>1166</v>
       </c>
       <c r="H489" s="108" t="s">
-        <v>1162</v>
-      </c>
-      <c r="I489" s="144" t="s">
-        <v>1163</v>
+        <v>1167</v>
+      </c>
+      <c r="I489" s="146" t="s">
+        <v>1168</v>
       </c>
       <c r="J489" s="110"/>
       <c r="K489" s="111"/>
@@ -13106,27 +13226,27 @@
     <row r="490" ht="15.75" customHeight="1">
       <c r="A490" s="112"/>
       <c r="B490" s="32" t="s">
-        <v>1164</v>
+        <v>1169</v>
       </c>
       <c r="H490" s="108" t="s">
-        <v>1165</v>
-      </c>
-      <c r="I490" s="136"/>
+        <v>1170</v>
+      </c>
+      <c r="I490" s="135"/>
       <c r="J490" s="110"/>
       <c r="K490" s="111" t="s">
-        <v>1166</v>
+        <v>1171</v>
       </c>
       <c r="L490" s="104"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
       <c r="A491" s="112"/>
       <c r="B491" s="32" t="s">
-        <v>1167</v>
+        <v>1172</v>
       </c>
       <c r="H491" s="108" t="s">
-        <v>1168</v>
-      </c>
-      <c r="I491" s="136"/>
+        <v>1173</v>
+      </c>
+      <c r="I491" s="135"/>
       <c r="J491" s="110"/>
       <c r="K491" s="111"/>
       <c r="L491" s="104"/>
@@ -13135,12 +13255,12 @@
       <c r="A492" s="112"/>
       <c r="B492" s="28"/>
       <c r="C492" s="29" t="s">
-        <v>1169</v>
+        <v>1174</v>
       </c>
       <c r="H492" s="108" t="s">
-        <v>1170</v>
-      </c>
-      <c r="I492" s="136"/>
+        <v>1175</v>
+      </c>
+      <c r="I492" s="135"/>
       <c r="J492" s="110"/>
       <c r="K492" s="111"/>
       <c r="L492" s="104"/>
@@ -13149,12 +13269,12 @@
       <c r="A493" s="112"/>
       <c r="B493" s="28"/>
       <c r="C493" s="29" t="s">
-        <v>1171</v>
+        <v>1176</v>
       </c>
       <c r="H493" s="108" t="s">
-        <v>1172</v>
-      </c>
-      <c r="I493" s="136"/>
+        <v>1177</v>
+      </c>
+      <c r="I493" s="135"/>
       <c r="J493" s="110"/>
       <c r="K493" s="111"/>
       <c r="L493" s="104"/>
@@ -13163,13 +13283,13 @@
       <c r="A494" s="112"/>
       <c r="B494" s="28"/>
       <c r="C494" s="29" t="s">
-        <v>1173</v>
+        <v>1178</v>
       </c>
       <c r="H494" s="108" t="s">
-        <v>1174</v>
-      </c>
-      <c r="I494" s="143" t="s">
-        <v>1175</v>
+        <v>1179</v>
+      </c>
+      <c r="I494" s="145" t="s">
+        <v>1180</v>
       </c>
       <c r="J494" s="110"/>
       <c r="K494" s="111"/>
@@ -13179,12 +13299,12 @@
       <c r="A495" s="112"/>
       <c r="B495" s="28"/>
       <c r="C495" s="29" t="s">
-        <v>1176</v>
+        <v>1181</v>
       </c>
       <c r="H495" s="108" t="s">
-        <v>1177</v>
-      </c>
-      <c r="I495" s="136"/>
+        <v>1182</v>
+      </c>
+      <c r="I495" s="135"/>
       <c r="J495" s="110"/>
       <c r="K495" s="111"/>
       <c r="L495" s="104"/>
@@ -13193,12 +13313,12 @@
       <c r="A496" s="112"/>
       <c r="B496" s="28"/>
       <c r="C496" s="29" t="s">
-        <v>1178</v>
+        <v>1183</v>
       </c>
       <c r="H496" s="108" t="s">
-        <v>1179</v>
-      </c>
-      <c r="I496" s="136"/>
+        <v>1184</v>
+      </c>
+      <c r="I496" s="135"/>
       <c r="J496" s="110"/>
       <c r="K496" s="111"/>
       <c r="L496" s="104"/>
@@ -13207,13 +13327,13 @@
       <c r="A497" s="112"/>
       <c r="B497" s="28"/>
       <c r="C497" s="29" t="s">
-        <v>1180</v>
+        <v>1185</v>
       </c>
       <c r="H497" s="108" t="s">
-        <v>1181</v>
-      </c>
-      <c r="I497" s="143" t="s">
-        <v>1182</v>
+        <v>1186</v>
+      </c>
+      <c r="I497" s="145" t="s">
+        <v>1187</v>
       </c>
       <c r="J497" s="110"/>
       <c r="K497" s="111"/>
@@ -13223,12 +13343,12 @@
       <c r="A498" s="112"/>
       <c r="B498" s="28"/>
       <c r="C498" s="29" t="s">
-        <v>1183</v>
+        <v>1188</v>
       </c>
       <c r="H498" s="108" t="s">
-        <v>1184</v>
-      </c>
-      <c r="I498" s="136"/>
+        <v>1189</v>
+      </c>
+      <c r="I498" s="135"/>
       <c r="J498" s="110"/>
       <c r="K498" s="111"/>
       <c r="L498" s="104"/>
@@ -13237,12 +13357,12 @@
       <c r="A499" s="112"/>
       <c r="B499" s="28"/>
       <c r="C499" s="29" t="s">
-        <v>1185</v>
+        <v>1190</v>
       </c>
       <c r="H499" s="108" t="s">
-        <v>1186</v>
-      </c>
-      <c r="I499" s="136"/>
+        <v>1191</v>
+      </c>
+      <c r="I499" s="135"/>
       <c r="J499" s="110"/>
       <c r="K499" s="111"/>
       <c r="L499" s="104"/>
@@ -13251,12 +13371,12 @@
       <c r="A500" s="112"/>
       <c r="B500" s="28"/>
       <c r="C500" s="29" t="s">
-        <v>1187</v>
+        <v>1192</v>
       </c>
       <c r="H500" s="108" t="s">
-        <v>1188</v>
-      </c>
-      <c r="I500" s="136"/>
+        <v>1193</v>
+      </c>
+      <c r="I500" s="135"/>
       <c r="J500" s="110"/>
       <c r="K500" s="111"/>
       <c r="L500" s="104"/>
@@ -13265,12 +13385,12 @@
       <c r="A501" s="112"/>
       <c r="B501" s="28"/>
       <c r="C501" s="49" t="s">
-        <v>1189</v>
+        <v>1194</v>
       </c>
       <c r="H501" s="108" t="s">
-        <v>1190</v>
-      </c>
-      <c r="I501" s="136"/>
+        <v>1195</v>
+      </c>
+      <c r="I501" s="135"/>
       <c r="J501" s="110"/>
       <c r="K501" s="111"/>
       <c r="L501" s="104"/>
@@ -13278,13 +13398,13 @@
     <row r="502" ht="15.75" customHeight="1">
       <c r="A502" s="112"/>
       <c r="B502" s="32" t="s">
-        <v>1191</v>
+        <v>1196</v>
       </c>
       <c r="H502" s="108" t="s">
-        <v>1192</v>
-      </c>
-      <c r="I502" s="145" t="s">
-        <v>1193</v>
+        <v>1197</v>
+      </c>
+      <c r="I502" s="147" t="s">
+        <v>1198</v>
       </c>
       <c r="J502" s="110"/>
       <c r="K502" s="111"/>
@@ -13294,12 +13414,12 @@
       <c r="A503" s="112"/>
       <c r="B503" s="28"/>
       <c r="C503" s="29" t="s">
-        <v>1194</v>
+        <v>1199</v>
       </c>
       <c r="H503" s="108" t="s">
-        <v>1195</v>
-      </c>
-      <c r="I503" s="146"/>
+        <v>1200</v>
+      </c>
+      <c r="I503" s="148"/>
       <c r="J503" s="110"/>
       <c r="K503" s="111"/>
       <c r="L503" s="104"/>
@@ -13308,12 +13428,12 @@
       <c r="A504" s="112"/>
       <c r="B504" s="28"/>
       <c r="C504" s="29" t="s">
-        <v>1196</v>
+        <v>1201</v>
       </c>
       <c r="H504" s="108" t="s">
-        <v>1197</v>
-      </c>
-      <c r="I504" s="136"/>
+        <v>1202</v>
+      </c>
+      <c r="I504" s="135"/>
       <c r="J504" s="110"/>
       <c r="K504" s="111"/>
       <c r="L504" s="104"/>
@@ -13322,12 +13442,12 @@
       <c r="A505" s="112"/>
       <c r="B505" s="28"/>
       <c r="C505" s="29" t="s">
-        <v>1198</v>
+        <v>1203</v>
       </c>
       <c r="H505" s="108" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I505" s="136"/>
+        <v>1204</v>
+      </c>
+      <c r="I505" s="135"/>
       <c r="J505" s="110"/>
       <c r="K505" s="111"/>
       <c r="L505" s="104"/>
@@ -13336,13 +13456,13 @@
       <c r="A506" s="112"/>
       <c r="B506" s="28"/>
       <c r="C506" s="29" t="s">
-        <v>1200</v>
+        <v>1205</v>
       </c>
       <c r="H506" s="108" t="s">
-        <v>1201</v>
-      </c>
-      <c r="I506" s="140" t="s">
-        <v>1202</v>
+        <v>1206</v>
+      </c>
+      <c r="I506" s="141" t="s">
+        <v>1207</v>
       </c>
       <c r="J506" s="110"/>
       <c r="K506" s="111"/>
@@ -13352,28 +13472,28 @@
       <c r="A507" s="112"/>
       <c r="B507" s="28"/>
       <c r="C507" s="29" t="s">
-        <v>1203</v>
+        <v>1208</v>
       </c>
       <c r="H507" s="108" t="s">
-        <v>1204</v>
-      </c>
-      <c r="I507" s="136"/>
+        <v>1209</v>
+      </c>
+      <c r="I507" s="135"/>
       <c r="J507" s="110"/>
       <c r="K507" s="111" t="s">
-        <v>1205</v>
+        <v>1210</v>
       </c>
       <c r="L507" s="104"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
       <c r="A508" s="112"/>
       <c r="B508" s="32" t="s">
-        <v>1206</v>
+        <v>1211</v>
       </c>
       <c r="H508" s="108" t="s">
-        <v>1207</v>
+        <v>1212</v>
       </c>
       <c r="I508" s="116" t="s">
-        <v>1208</v>
+        <v>1213</v>
       </c>
       <c r="J508" s="110"/>
       <c r="K508" s="111"/>
@@ -13382,12 +13502,12 @@
     <row r="509" ht="15.75" customHeight="1">
       <c r="A509" s="112"/>
       <c r="B509" s="32" t="s">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="H509" s="108" t="s">
-        <v>1210</v>
-      </c>
-      <c r="I509" s="136"/>
+        <v>1215</v>
+      </c>
+      <c r="I509" s="135"/>
       <c r="J509" s="110"/>
       <c r="K509" s="111"/>
       <c r="L509" s="104"/>
@@ -13395,12 +13515,12 @@
     <row r="510" ht="15.75" customHeight="1">
       <c r="A510" s="119"/>
       <c r="B510" s="32" t="s">
-        <v>1211</v>
+        <v>1216</v>
       </c>
       <c r="H510" s="108" t="s">
-        <v>1212</v>
-      </c>
-      <c r="I510" s="136"/>
+        <v>1217</v>
+      </c>
+      <c r="I510" s="135"/>
       <c r="J510" s="110"/>
       <c r="K510" s="111"/>
       <c r="L510" s="104"/>
@@ -13408,13 +13528,13 @@
     <row r="511" ht="15.75" customHeight="1">
       <c r="A511" s="112"/>
       <c r="B511" s="32" t="s">
-        <v>1213</v>
+        <v>1218</v>
       </c>
       <c r="H511" s="108" t="s">
-        <v>1214</v>
-      </c>
-      <c r="I511" s="138" t="s">
-        <v>1215</v>
+        <v>1219</v>
+      </c>
+      <c r="I511" s="137" t="s">
+        <v>1220</v>
       </c>
       <c r="J511" s="110"/>
       <c r="K511" s="111"/>
@@ -13423,12 +13543,12 @@
     <row r="512" ht="15.75" customHeight="1">
       <c r="A512" s="112"/>
       <c r="B512" s="32" t="s">
-        <v>1216</v>
+        <v>1221</v>
       </c>
       <c r="H512" s="108" t="s">
-        <v>1217</v>
-      </c>
-      <c r="I512" s="136"/>
+        <v>1222</v>
+      </c>
+      <c r="I512" s="135"/>
       <c r="J512" s="110"/>
       <c r="K512" s="111"/>
       <c r="L512" s="104"/>
@@ -13436,65 +13556,65 @@
     <row r="513" ht="15.75" customHeight="1">
       <c r="A513" s="112"/>
       <c r="B513" s="32" t="s">
-        <v>1218</v>
+        <v>1223</v>
       </c>
       <c r="H513" s="108" t="s">
-        <v>1219</v>
-      </c>
-      <c r="I513" s="134"/>
-      <c r="J513" s="135"/>
+        <v>1224</v>
+      </c>
+      <c r="I513" s="133"/>
+      <c r="J513" s="134"/>
       <c r="K513" s="111"/>
       <c r="L513" s="104"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
       <c r="A514" s="112"/>
       <c r="B514" s="32" t="s">
-        <v>1220</v>
+        <v>1225</v>
       </c>
       <c r="H514" s="108" t="s">
-        <v>1221</v>
-      </c>
-      <c r="I514" s="134"/>
-      <c r="J514" s="135"/>
+        <v>1226</v>
+      </c>
+      <c r="I514" s="133"/>
+      <c r="J514" s="134"/>
       <c r="K514" s="111"/>
       <c r="L514" s="104"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
       <c r="A515" s="112"/>
       <c r="B515" s="32" t="s">
-        <v>1222</v>
+        <v>1227</v>
       </c>
       <c r="H515" s="108" t="s">
-        <v>1223</v>
-      </c>
-      <c r="I515" s="143" t="s">
-        <v>1224</v>
-      </c>
-      <c r="J515" s="135"/>
+        <v>1228</v>
+      </c>
+      <c r="I515" s="145" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J515" s="134"/>
       <c r="K515" s="111"/>
       <c r="L515" s="104"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
       <c r="A516" s="112"/>
       <c r="B516" s="32" t="s">
-        <v>1225</v>
+        <v>1230</v>
       </c>
       <c r="H516" s="108" t="s">
-        <v>1226</v>
-      </c>
-      <c r="I516" s="135"/>
-      <c r="J516" s="135"/>
+        <v>1231</v>
+      </c>
+      <c r="I516" s="134"/>
+      <c r="J516" s="134"/>
       <c r="K516" s="111"/>
       <c r="L516" s="104"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
       <c r="A517" s="112"/>
       <c r="B517" s="32" t="s">
-        <v>1227</v>
+        <v>1232</v>
       </c>
       <c r="H517" s="117"/>
-      <c r="I517" s="135"/>
-      <c r="J517" s="135"/>
+      <c r="I517" s="134"/>
+      <c r="J517" s="134"/>
       <c r="K517" s="111"/>
       <c r="L517" s="104"/>
     </row>
@@ -13502,327 +13622,327 @@
       <c r="A518" s="112"/>
       <c r="B518" s="28"/>
       <c r="H518" s="108"/>
-      <c r="I518" s="135"/>
-      <c r="J518" s="135"/>
+      <c r="I518" s="134"/>
+      <c r="J518" s="134"/>
       <c r="K518" s="111"/>
       <c r="L518" s="104"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="147" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B519" s="148"/>
-      <c r="C519" s="148"/>
-      <c r="D519" s="148"/>
-      <c r="E519" s="148"/>
-      <c r="F519" s="148"/>
-      <c r="G519" s="148"/>
-      <c r="H519" s="149"/>
-      <c r="I519" s="135"/>
-      <c r="J519" s="135"/>
+      <c r="A519" s="149" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B519" s="150"/>
+      <c r="C519" s="150"/>
+      <c r="D519" s="150"/>
+      <c r="E519" s="150"/>
+      <c r="F519" s="150"/>
+      <c r="G519" s="150"/>
+      <c r="H519" s="151"/>
+      <c r="I519" s="134"/>
+      <c r="J519" s="134"/>
       <c r="K519" s="111"/>
       <c r="L519" s="104"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="150" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B520" s="151"/>
-      <c r="C520" s="152"/>
-      <c r="D520" s="152"/>
-      <c r="E520" s="152"/>
-      <c r="F520" s="152"/>
-      <c r="G520" s="152"/>
-      <c r="I520" s="153" t="s">
-        <v>1230</v>
-      </c>
-      <c r="J520" s="154"/>
-      <c r="K520" s="154"/>
+      <c r="A520" s="152" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B520" s="153"/>
+      <c r="C520" s="154"/>
+      <c r="D520" s="154"/>
+      <c r="E520" s="154"/>
+      <c r="F520" s="154"/>
+      <c r="G520" s="154"/>
+      <c r="I520" s="155" t="s">
+        <v>1235</v>
+      </c>
+      <c r="J520" s="156"/>
+      <c r="K520" s="156"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="155" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B521" s="151"/>
-      <c r="C521" s="152"/>
-      <c r="D521" s="152"/>
-      <c r="E521" s="152"/>
-      <c r="F521" s="152"/>
-      <c r="G521" s="152"/>
-      <c r="I521" s="156" t="s">
-        <v>1232</v>
-      </c>
-      <c r="J521" s="154"/>
-      <c r="K521" s="154"/>
+      <c r="A521" s="157" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B521" s="153"/>
+      <c r="C521" s="154"/>
+      <c r="D521" s="154"/>
+      <c r="E521" s="154"/>
+      <c r="F521" s="154"/>
+      <c r="G521" s="154"/>
+      <c r="I521" s="158" t="s">
+        <v>1237</v>
+      </c>
+      <c r="J521" s="156"/>
+      <c r="K521" s="156"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="155" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B522" s="151"/>
-      <c r="C522" s="152"/>
-      <c r="D522" s="152"/>
-      <c r="E522" s="152"/>
-      <c r="F522" s="152"/>
-      <c r="G522" s="152"/>
-      <c r="I522" s="157" t="s">
-        <v>1234</v>
-      </c>
-      <c r="J522" s="154"/>
-      <c r="K522" s="154"/>
+      <c r="A522" s="157" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B522" s="153"/>
+      <c r="C522" s="154"/>
+      <c r="D522" s="154"/>
+      <c r="E522" s="154"/>
+      <c r="F522" s="154"/>
+      <c r="G522" s="154"/>
+      <c r="I522" s="159" t="s">
+        <v>1239</v>
+      </c>
+      <c r="J522" s="156"/>
+      <c r="K522" s="156"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="155" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B523" s="151"/>
-      <c r="C523" s="152"/>
-      <c r="D523" s="152"/>
-      <c r="E523" s="152"/>
-      <c r="F523" s="152"/>
-      <c r="G523" s="152"/>
-      <c r="I523" s="158" t="s">
-        <v>1236</v>
-      </c>
-      <c r="J523" s="154"/>
-      <c r="K523" s="154"/>
+      <c r="A523" s="157" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B523" s="153"/>
+      <c r="C523" s="154"/>
+      <c r="D523" s="154"/>
+      <c r="E523" s="154"/>
+      <c r="F523" s="154"/>
+      <c r="G523" s="154"/>
+      <c r="I523" s="160" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J523" s="156"/>
+      <c r="K523" s="156"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="155" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B524" s="151"/>
-      <c r="C524" s="152"/>
-      <c r="D524" s="152"/>
-      <c r="E524" s="152"/>
-      <c r="F524" s="152"/>
-      <c r="G524" s="152"/>
-      <c r="I524" s="159" t="s">
-        <v>1238</v>
-      </c>
-      <c r="J524" s="154"/>
-      <c r="K524" s="154"/>
+      <c r="A524" s="157" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B524" s="153"/>
+      <c r="C524" s="154"/>
+      <c r="D524" s="154"/>
+      <c r="E524" s="154"/>
+      <c r="F524" s="154"/>
+      <c r="G524" s="154"/>
+      <c r="I524" s="161" t="s">
+        <v>1243</v>
+      </c>
+      <c r="J524" s="156"/>
+      <c r="K524" s="156"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="155" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B525" s="151"/>
-      <c r="C525" s="152"/>
-      <c r="D525" s="152"/>
-      <c r="E525" s="152"/>
-      <c r="F525" s="152"/>
-      <c r="G525" s="152"/>
-      <c r="I525" s="160" t="s">
-        <v>1240</v>
-      </c>
-      <c r="J525" s="154"/>
-      <c r="K525" s="154"/>
+      <c r="A525" s="157" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B525" s="153"/>
+      <c r="C525" s="154"/>
+      <c r="D525" s="154"/>
+      <c r="E525" s="154"/>
+      <c r="F525" s="154"/>
+      <c r="G525" s="154"/>
+      <c r="I525" s="162" t="s">
+        <v>1245</v>
+      </c>
+      <c r="J525" s="156"/>
+      <c r="K525" s="156"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="161" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B526" s="151"/>
-      <c r="C526" s="152"/>
-      <c r="D526" s="152"/>
-      <c r="E526" s="152"/>
-      <c r="F526" s="152"/>
-      <c r="G526" s="152"/>
-      <c r="I526" s="162" t="s">
-        <v>1242</v>
-      </c>
-      <c r="J526" s="154"/>
-      <c r="K526" s="154"/>
+      <c r="A526" s="163" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B526" s="153"/>
+      <c r="C526" s="154"/>
+      <c r="D526" s="154"/>
+      <c r="E526" s="154"/>
+      <c r="F526" s="154"/>
+      <c r="G526" s="154"/>
+      <c r="I526" s="164" t="s">
+        <v>1247</v>
+      </c>
+      <c r="J526" s="156"/>
+      <c r="K526" s="156"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="155" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B527" s="151"/>
-      <c r="C527" s="152"/>
-      <c r="D527" s="152"/>
-      <c r="E527" s="152"/>
-      <c r="F527" s="152"/>
-      <c r="G527" s="152"/>
-      <c r="I527" s="163" t="s">
-        <v>1244</v>
-      </c>
-      <c r="J527" s="154"/>
-      <c r="K527" s="154"/>
+      <c r="A527" s="157" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B527" s="153"/>
+      <c r="C527" s="154"/>
+      <c r="D527" s="154"/>
+      <c r="E527" s="154"/>
+      <c r="F527" s="154"/>
+      <c r="G527" s="154"/>
+      <c r="I527" s="165" t="s">
+        <v>1249</v>
+      </c>
+      <c r="J527" s="156"/>
+      <c r="K527" s="156"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="164" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B528" s="164"/>
-      <c r="C528" s="154"/>
-      <c r="D528" s="154"/>
-      <c r="E528" s="154"/>
-      <c r="F528" s="154"/>
-      <c r="G528" s="164"/>
-      <c r="H528" s="154"/>
-      <c r="I528" s="165" t="s">
-        <v>1246</v>
-      </c>
-      <c r="J528" s="154"/>
-      <c r="K528" s="154"/>
+      <c r="A528" s="166" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B528" s="166"/>
+      <c r="C528" s="156"/>
+      <c r="D528" s="156"/>
+      <c r="E528" s="156"/>
+      <c r="F528" s="156"/>
+      <c r="G528" s="166"/>
+      <c r="H528" s="156"/>
+      <c r="I528" s="167" t="s">
+        <v>1251</v>
+      </c>
+      <c r="J528" s="156"/>
+      <c r="K528" s="156"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="164" t="s">
-        <v>1247</v>
-      </c>
-      <c r="H529" s="154"/>
-      <c r="I529" s="165" t="s">
-        <v>1248</v>
-      </c>
-      <c r="J529" s="154"/>
-      <c r="K529" s="154"/>
+      <c r="A529" s="166" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H529" s="156"/>
+      <c r="I529" s="167" t="s">
+        <v>1253</v>
+      </c>
+      <c r="J529" s="156"/>
+      <c r="K529" s="156"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="164" t="s">
-        <v>1249</v>
-      </c>
-      <c r="H530" s="154"/>
-      <c r="I530" s="166" t="s">
-        <v>1250</v>
-      </c>
-      <c r="J530" s="154"/>
-      <c r="K530" s="154"/>
+      <c r="A530" s="166" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H530" s="156"/>
+      <c r="I530" s="168" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J530" s="156"/>
+      <c r="K530" s="156"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="167" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B531" s="168"/>
-      <c r="C531" s="169"/>
-      <c r="D531" s="169"/>
-      <c r="E531" s="169"/>
-      <c r="F531" s="169"/>
-      <c r="G531" s="170"/>
-      <c r="H531" s="154"/>
-      <c r="I531" s="166" t="s">
-        <v>1252</v>
-      </c>
-      <c r="J531" s="154"/>
-      <c r="K531" s="154"/>
+      <c r="A531" s="169" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B531" s="170"/>
+      <c r="C531" s="171"/>
+      <c r="D531" s="171"/>
+      <c r="E531" s="171"/>
+      <c r="F531" s="171"/>
+      <c r="G531" s="172"/>
+      <c r="H531" s="156"/>
+      <c r="I531" s="168" t="s">
+        <v>1257</v>
+      </c>
+      <c r="J531" s="156"/>
+      <c r="K531" s="156"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="164" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B532" s="164"/>
-      <c r="C532" s="154"/>
-      <c r="D532" s="154"/>
-      <c r="E532" s="154"/>
-      <c r="F532" s="154"/>
-      <c r="G532" s="154"/>
-      <c r="H532" s="154"/>
-      <c r="I532" s="166" t="s">
-        <v>1254</v>
-      </c>
-      <c r="J532" s="154"/>
-      <c r="K532" s="154"/>
+      <c r="A532" s="166" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B532" s="166"/>
+      <c r="C532" s="156"/>
+      <c r="D532" s="156"/>
+      <c r="E532" s="156"/>
+      <c r="F532" s="156"/>
+      <c r="G532" s="156"/>
+      <c r="H532" s="156"/>
+      <c r="I532" s="168" t="s">
+        <v>1259</v>
+      </c>
+      <c r="J532" s="156"/>
+      <c r="K532" s="156"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="164" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B533" s="164"/>
-      <c r="C533" s="154"/>
-      <c r="D533" s="154"/>
-      <c r="E533" s="154"/>
-      <c r="F533" s="154"/>
-      <c r="G533" s="154"/>
-      <c r="H533" s="154"/>
-      <c r="I533" s="166" t="s">
-        <v>1256</v>
-      </c>
-      <c r="J533" s="154"/>
-      <c r="K533" s="154"/>
+      <c r="A533" s="166" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B533" s="166"/>
+      <c r="C533" s="156"/>
+      <c r="D533" s="156"/>
+      <c r="E533" s="156"/>
+      <c r="F533" s="156"/>
+      <c r="G533" s="156"/>
+      <c r="H533" s="156"/>
+      <c r="I533" s="168" t="s">
+        <v>1261</v>
+      </c>
+      <c r="J533" s="156"/>
+      <c r="K533" s="156"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="164" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B534" s="164"/>
-      <c r="C534" s="154"/>
-      <c r="D534" s="154"/>
-      <c r="E534" s="154"/>
-      <c r="F534" s="154"/>
-      <c r="G534" s="154"/>
-      <c r="H534" s="154"/>
-      <c r="I534" s="171" t="s">
-        <v>1258</v>
-      </c>
-      <c r="J534" s="154"/>
-      <c r="K534" s="154"/>
+      <c r="A534" s="166" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B534" s="166"/>
+      <c r="C534" s="156"/>
+      <c r="D534" s="156"/>
+      <c r="E534" s="156"/>
+      <c r="F534" s="156"/>
+      <c r="G534" s="156"/>
+      <c r="H534" s="156"/>
+      <c r="I534" s="173" t="s">
+        <v>1263</v>
+      </c>
+      <c r="J534" s="156"/>
+      <c r="K534" s="156"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="164" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B535" s="164"/>
-      <c r="C535" s="154"/>
-      <c r="D535" s="154"/>
-      <c r="E535" s="154"/>
-      <c r="F535" s="154"/>
-      <c r="G535" s="154"/>
-      <c r="H535" s="154"/>
-      <c r="I535" s="171" t="s">
-        <v>1260</v>
-      </c>
-      <c r="J535" s="154"/>
-      <c r="K535" s="154"/>
+      <c r="A535" s="166" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B535" s="166"/>
+      <c r="C535" s="156"/>
+      <c r="D535" s="156"/>
+      <c r="E535" s="156"/>
+      <c r="F535" s="156"/>
+      <c r="G535" s="156"/>
+      <c r="H535" s="156"/>
+      <c r="I535" s="173" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J535" s="156"/>
+      <c r="K535" s="156"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="164" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B536" s="164"/>
-      <c r="C536" s="154"/>
-      <c r="D536" s="154"/>
-      <c r="E536" s="154"/>
-      <c r="F536" s="154"/>
-      <c r="G536" s="154"/>
-      <c r="H536" s="154"/>
-      <c r="I536" s="165" t="s">
-        <v>1262</v>
-      </c>
-      <c r="J536" s="154"/>
-      <c r="K536" s="154"/>
+      <c r="A536" s="166" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B536" s="166"/>
+      <c r="C536" s="156"/>
+      <c r="D536" s="156"/>
+      <c r="E536" s="156"/>
+      <c r="F536" s="156"/>
+      <c r="G536" s="156"/>
+      <c r="H536" s="156"/>
+      <c r="I536" s="167" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J536" s="156"/>
+      <c r="K536" s="156"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="164" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B537" s="164"/>
-      <c r="C537" s="154"/>
-      <c r="D537" s="154"/>
-      <c r="E537" s="154"/>
-      <c r="F537" s="154"/>
-      <c r="G537" s="154"/>
-      <c r="H537" s="154"/>
-      <c r="I537" s="165" t="s">
-        <v>1264</v>
-      </c>
-      <c r="J537" s="154"/>
-      <c r="K537" s="154"/>
+      <c r="A537" s="166" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B537" s="166"/>
+      <c r="C537" s="156"/>
+      <c r="D537" s="156"/>
+      <c r="E537" s="156"/>
+      <c r="F537" s="156"/>
+      <c r="G537" s="156"/>
+      <c r="H537" s="156"/>
+      <c r="I537" s="167" t="s">
+        <v>1269</v>
+      </c>
+      <c r="J537" s="156"/>
+      <c r="K537" s="156"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
       <c r="A538" s="15" t="s">
-        <v>1265</v>
-      </c>
-      <c r="H538" s="154"/>
-      <c r="I538" s="172" t="s">
-        <v>1266</v>
-      </c>
-      <c r="J538" s="154"/>
-      <c r="K538" s="154"/>
+        <v>1270</v>
+      </c>
+      <c r="H538" s="156"/>
+      <c r="I538" s="174" t="s">
+        <v>1271</v>
+      </c>
+      <c r="J538" s="156"/>
+      <c r="K538" s="156"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
       <c r="A539" s="15" t="s">
-        <v>1267</v>
+        <v>1272</v>
       </c>
       <c r="B539" s="15"/>
       <c r="C539" s="15"/>
@@ -13830,14 +13950,14 @@
       <c r="E539" s="15"/>
       <c r="F539" s="15"/>
       <c r="G539" s="15"/>
-      <c r="H539" s="154"/>
-      <c r="I539" s="172"/>
-      <c r="J539" s="154"/>
-      <c r="K539" s="154"/>
+      <c r="H539" s="156"/>
+      <c r="I539" s="174"/>
+      <c r="J539" s="156"/>
+      <c r="K539" s="156"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
       <c r="A540" s="15" t="s">
-        <v>1268</v>
+        <v>1273</v>
       </c>
       <c r="B540" s="15"/>
       <c r="C540" s="15"/>
@@ -13845,16 +13965,16 @@
       <c r="E540" s="15"/>
       <c r="F540" s="15"/>
       <c r="G540" s="15"/>
-      <c r="H540" s="154"/>
-      <c r="I540" s="165" t="s">
-        <v>1269</v>
-      </c>
-      <c r="J540" s="154"/>
-      <c r="K540" s="154"/>
+      <c r="H540" s="156"/>
+      <c r="I540" s="167" t="s">
+        <v>1274</v>
+      </c>
+      <c r="J540" s="156"/>
+      <c r="K540" s="156"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
       <c r="A541" s="15" t="s">
-        <v>1270</v>
+        <v>1275</v>
       </c>
       <c r="B541" s="15"/>
       <c r="C541" s="15"/>
@@ -13862,29 +13982,28 @@
       <c r="E541" s="15"/>
       <c r="F541" s="15"/>
       <c r="G541" s="15"/>
-      <c r="H541" s="154"/>
-      <c r="I541" s="165" t="s">
-        <v>1271</v>
-      </c>
-      <c r="J541" s="154"/>
-      <c r="K541" s="154"/>
+      <c r="H541" s="156"/>
+      <c r="I541" s="167" t="s">
+        <v>1276</v>
+      </c>
+      <c r="J541" s="156"/>
+      <c r="K541" s="156"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="A542" s="15"/>
-      <c r="B542" s="15" t="s">
-        <v>1272</v>
+      <c r="A542" s="15" t="s">
+        <v>1277</v>
       </c>
       <c r="C542" s="15"/>
       <c r="D542" s="15"/>
       <c r="E542" s="15"/>
       <c r="F542" s="15"/>
       <c r="G542" s="15"/>
-      <c r="H542" s="154"/>
-      <c r="I542" s="166" t="s">
-        <v>1273</v>
-      </c>
-      <c r="J542" s="154"/>
-      <c r="K542" s="154"/>
+      <c r="H542" s="156"/>
+      <c r="I542" s="168" t="s">
+        <v>1278</v>
+      </c>
+      <c r="J542" s="156"/>
+      <c r="K542" s="156"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
       <c r="A543" s="15"/>
@@ -13894,10 +14013,10 @@
       <c r="E543" s="15"/>
       <c r="F543" s="15"/>
       <c r="G543" s="15"/>
-      <c r="H543" s="154"/>
-      <c r="I543" s="172"/>
-      <c r="J543" s="154"/>
-      <c r="K543" s="154"/>
+      <c r="H543" s="156"/>
+      <c r="I543" s="174"/>
+      <c r="J543" s="156"/>
+      <c r="K543" s="156"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
       <c r="A544" s="15"/>
@@ -13907,10 +14026,10 @@
       <c r="E544" s="15"/>
       <c r="F544" s="15"/>
       <c r="G544" s="15"/>
-      <c r="H544" s="154"/>
-      <c r="I544" s="172"/>
-      <c r="J544" s="154"/>
-      <c r="K544" s="154"/>
+      <c r="H544" s="156"/>
+      <c r="I544" s="174"/>
+      <c r="J544" s="156"/>
+      <c r="K544" s="156"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
       <c r="A545" s="15"/>
@@ -13920,10 +14039,10 @@
       <c r="E545" s="15"/>
       <c r="F545" s="15"/>
       <c r="G545" s="15"/>
-      <c r="H545" s="154"/>
-      <c r="I545" s="172"/>
-      <c r="J545" s="154"/>
-      <c r="K545" s="154"/>
+      <c r="H545" s="156"/>
+      <c r="I545" s="174"/>
+      <c r="J545" s="156"/>
+      <c r="K545" s="156"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
       <c r="A546" s="15"/>
@@ -13933,10 +14052,10 @@
       <c r="E546" s="15"/>
       <c r="F546" s="15"/>
       <c r="G546" s="15"/>
-      <c r="H546" s="154"/>
-      <c r="I546" s="172"/>
-      <c r="J546" s="154"/>
-      <c r="K546" s="154"/>
+      <c r="H546" s="156"/>
+      <c r="I546" s="174"/>
+      <c r="J546" s="156"/>
+      <c r="K546" s="156"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
       <c r="A547" s="15"/>
@@ -13946,10 +14065,10 @@
       <c r="E547" s="15"/>
       <c r="F547" s="15"/>
       <c r="G547" s="15"/>
-      <c r="H547" s="154"/>
-      <c r="I547" s="172"/>
-      <c r="J547" s="154"/>
-      <c r="K547" s="154"/>
+      <c r="H547" s="156"/>
+      <c r="I547" s="174"/>
+      <c r="J547" s="156"/>
+      <c r="K547" s="156"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
       <c r="A548" s="15"/>
@@ -13959,376 +14078,223 @@
       <c r="E548" s="15"/>
       <c r="F548" s="15"/>
       <c r="G548" s="15"/>
-      <c r="H548" s="154"/>
-      <c r="I548" s="172"/>
-      <c r="J548" s="154"/>
-      <c r="K548" s="154"/>
+      <c r="H548" s="156"/>
+      <c r="I548" s="174"/>
+      <c r="J548" s="156"/>
+      <c r="K548" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="515">
+    <mergeCell ref="D120:G120"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="C69:G69"/>
     <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="D67:G67"/>
     <mergeCell ref="C70:G70"/>
     <mergeCell ref="D72:G72"/>
+    <mergeCell ref="D125:G125"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="D121:G121"/>
+    <mergeCell ref="D122:G122"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="C92:G92"/>
     <mergeCell ref="D73:G73"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C94:G94"/>
     <mergeCell ref="D65:G65"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C189:G189"/>
-    <mergeCell ref="C196:G196"/>
-    <mergeCell ref="C202:G202"/>
-    <mergeCell ref="C200:G200"/>
-    <mergeCell ref="C201:G201"/>
-    <mergeCell ref="C199:G199"/>
-    <mergeCell ref="C197:G197"/>
-    <mergeCell ref="D211:G211"/>
-    <mergeCell ref="D212:G212"/>
-    <mergeCell ref="D214:G214"/>
-    <mergeCell ref="D213:G213"/>
-    <mergeCell ref="E208:G208"/>
-    <mergeCell ref="D207:G207"/>
-    <mergeCell ref="C204:G204"/>
-    <mergeCell ref="C210:G210"/>
-    <mergeCell ref="C216:G216"/>
-    <mergeCell ref="C215:G215"/>
-    <mergeCell ref="C219:G219"/>
-    <mergeCell ref="C174:G174"/>
-    <mergeCell ref="C222:G222"/>
-    <mergeCell ref="D175:G175"/>
-    <mergeCell ref="E183:G183"/>
-    <mergeCell ref="E179:G179"/>
-    <mergeCell ref="D173:G173"/>
-    <mergeCell ref="E147:G147"/>
-    <mergeCell ref="B143:G143"/>
-    <mergeCell ref="C142:G142"/>
-    <mergeCell ref="C141:G141"/>
-    <mergeCell ref="D145:G145"/>
-    <mergeCell ref="C144:G144"/>
-    <mergeCell ref="C163:G163"/>
-    <mergeCell ref="B162:G162"/>
-    <mergeCell ref="D166:G166"/>
-    <mergeCell ref="B154:G154"/>
-    <mergeCell ref="D153:G153"/>
-    <mergeCell ref="D156:G156"/>
-    <mergeCell ref="E152:G152"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="D120:G120"/>
-    <mergeCell ref="D121:G121"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="D122:G122"/>
-    <mergeCell ref="C218:G218"/>
-    <mergeCell ref="C217:G217"/>
-    <mergeCell ref="B220:G220"/>
-    <mergeCell ref="B221:G221"/>
-    <mergeCell ref="B203:G203"/>
-    <mergeCell ref="B198:G198"/>
-    <mergeCell ref="B195:G195"/>
-    <mergeCell ref="D131:G131"/>
-    <mergeCell ref="D130:G130"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="D132:G132"/>
-    <mergeCell ref="D133:G133"/>
-    <mergeCell ref="C127:G127"/>
-    <mergeCell ref="D125:G125"/>
-    <mergeCell ref="C168:G168"/>
-    <mergeCell ref="D164:G164"/>
-    <mergeCell ref="D169:G169"/>
-    <mergeCell ref="D171:G171"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="C135:G135"/>
-    <mergeCell ref="C134:G134"/>
-    <mergeCell ref="D140:G140"/>
-    <mergeCell ref="D146:G146"/>
-    <mergeCell ref="C138:G138"/>
-    <mergeCell ref="C139:G139"/>
-    <mergeCell ref="C136:G136"/>
-    <mergeCell ref="C137:G137"/>
-    <mergeCell ref="C161:G161"/>
-    <mergeCell ref="D160:G160"/>
-    <mergeCell ref="D158:G158"/>
-    <mergeCell ref="D159:G159"/>
-    <mergeCell ref="E150:G150"/>
-    <mergeCell ref="E149:G149"/>
-    <mergeCell ref="E148:G148"/>
-    <mergeCell ref="E151:G151"/>
-    <mergeCell ref="C155:G155"/>
-    <mergeCell ref="D157:G157"/>
-    <mergeCell ref="D170:G170"/>
-    <mergeCell ref="E177:G177"/>
-    <mergeCell ref="E176:G176"/>
-    <mergeCell ref="D250:G250"/>
-    <mergeCell ref="D251:G251"/>
-    <mergeCell ref="D252:G252"/>
-    <mergeCell ref="D243:G243"/>
-    <mergeCell ref="D244:G244"/>
-    <mergeCell ref="D249:G249"/>
-    <mergeCell ref="D247:G247"/>
-    <mergeCell ref="D246:G246"/>
-    <mergeCell ref="D245:G245"/>
-    <mergeCell ref="D248:G248"/>
-    <mergeCell ref="D242:G242"/>
-    <mergeCell ref="D240:G240"/>
-    <mergeCell ref="D241:G241"/>
-    <mergeCell ref="D239:G239"/>
-    <mergeCell ref="D236:G236"/>
-    <mergeCell ref="D237:G237"/>
-    <mergeCell ref="D280:G280"/>
-    <mergeCell ref="D279:G279"/>
-    <mergeCell ref="D294:G294"/>
-    <mergeCell ref="D293:G293"/>
-    <mergeCell ref="D292:G292"/>
-    <mergeCell ref="D165:G165"/>
-    <mergeCell ref="D167:G167"/>
-    <mergeCell ref="D326:G326"/>
-    <mergeCell ref="D332:G332"/>
-    <mergeCell ref="D328:G328"/>
-    <mergeCell ref="D327:G327"/>
-    <mergeCell ref="D331:G331"/>
-    <mergeCell ref="D336:G336"/>
-    <mergeCell ref="D335:G335"/>
-    <mergeCell ref="D337:G337"/>
-    <mergeCell ref="D338:G338"/>
-    <mergeCell ref="D339:G339"/>
-    <mergeCell ref="D340:G340"/>
-    <mergeCell ref="D325:G325"/>
-    <mergeCell ref="D324:G324"/>
-    <mergeCell ref="D323:G323"/>
-    <mergeCell ref="D322:G322"/>
-    <mergeCell ref="D314:G314"/>
-    <mergeCell ref="D308:G308"/>
-    <mergeCell ref="D309:G309"/>
-    <mergeCell ref="E310:G310"/>
-    <mergeCell ref="E311:G311"/>
-    <mergeCell ref="D350:G350"/>
-    <mergeCell ref="D344:G344"/>
-    <mergeCell ref="D348:G348"/>
-    <mergeCell ref="D347:G347"/>
-    <mergeCell ref="D349:G349"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="D61:G61"/>
     <mergeCell ref="D66:G66"/>
     <mergeCell ref="D71:G71"/>
     <mergeCell ref="D74:G74"/>
     <mergeCell ref="E75:G75"/>
     <mergeCell ref="E76:G76"/>
-    <mergeCell ref="D117:G117"/>
-    <mergeCell ref="D116:G116"/>
     <mergeCell ref="D88:G88"/>
-    <mergeCell ref="D124:G124"/>
-    <mergeCell ref="D128:G128"/>
-    <mergeCell ref="D129:G129"/>
-    <mergeCell ref="D118:G118"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="D329:G329"/>
-    <mergeCell ref="D330:G330"/>
-    <mergeCell ref="B312:G312"/>
-    <mergeCell ref="C313:G313"/>
-    <mergeCell ref="D333:G333"/>
-    <mergeCell ref="D334:G334"/>
-    <mergeCell ref="E345:G345"/>
-    <mergeCell ref="D342:G342"/>
-    <mergeCell ref="D341:G341"/>
-    <mergeCell ref="D343:G343"/>
-    <mergeCell ref="C346:G346"/>
-    <mergeCell ref="B285:G285"/>
-    <mergeCell ref="B284:G284"/>
-    <mergeCell ref="C290:G290"/>
-    <mergeCell ref="C289:G289"/>
-    <mergeCell ref="C287:G287"/>
-    <mergeCell ref="C288:G288"/>
-    <mergeCell ref="C286:G286"/>
-    <mergeCell ref="C291:G291"/>
-    <mergeCell ref="C296:G296"/>
-    <mergeCell ref="C295:G295"/>
-    <mergeCell ref="B297:G297"/>
-    <mergeCell ref="D300:G300"/>
-    <mergeCell ref="D301:G301"/>
-    <mergeCell ref="D302:G302"/>
-    <mergeCell ref="C299:G299"/>
-    <mergeCell ref="C298:G298"/>
-    <mergeCell ref="C304:G304"/>
-    <mergeCell ref="C305:G305"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C89:G89"/>
     <mergeCell ref="C80:G80"/>
     <mergeCell ref="C81:G81"/>
     <mergeCell ref="C83:G83"/>
     <mergeCell ref="C82:G82"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C103:G103"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="C105:G105"/>
-    <mergeCell ref="C230:G230"/>
-    <mergeCell ref="C228:G228"/>
-    <mergeCell ref="C229:G229"/>
-    <mergeCell ref="C233:G233"/>
-    <mergeCell ref="C232:G232"/>
-    <mergeCell ref="C238:G238"/>
-    <mergeCell ref="C235:G235"/>
-    <mergeCell ref="C234:G234"/>
-    <mergeCell ref="D205:G205"/>
-    <mergeCell ref="D209:G209"/>
-    <mergeCell ref="D206:G206"/>
-    <mergeCell ref="B224:G224"/>
-    <mergeCell ref="B225:G225"/>
-    <mergeCell ref="C231:G231"/>
-    <mergeCell ref="C223:G223"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="D191:G191"/>
+    <mergeCell ref="D190:G190"/>
+    <mergeCell ref="D185:G185"/>
+    <mergeCell ref="E184:G184"/>
+    <mergeCell ref="B195:G195"/>
     <mergeCell ref="D192:G192"/>
-    <mergeCell ref="D191:G191"/>
-    <mergeCell ref="A194:G194"/>
     <mergeCell ref="D186:G186"/>
-    <mergeCell ref="D185:G185"/>
     <mergeCell ref="D187:G187"/>
     <mergeCell ref="D188:G188"/>
-    <mergeCell ref="D190:G190"/>
-    <mergeCell ref="E184:G184"/>
-    <mergeCell ref="D181:G181"/>
-    <mergeCell ref="E180:G180"/>
-    <mergeCell ref="D178:G178"/>
-    <mergeCell ref="E182:G182"/>
-    <mergeCell ref="B226:G226"/>
-    <mergeCell ref="C227:G227"/>
-    <mergeCell ref="D255:G255"/>
-    <mergeCell ref="D254:G254"/>
-    <mergeCell ref="D321:G321"/>
-    <mergeCell ref="D316:G316"/>
-    <mergeCell ref="D319:G319"/>
-    <mergeCell ref="D320:G320"/>
-    <mergeCell ref="D317:G317"/>
-    <mergeCell ref="D318:G318"/>
-    <mergeCell ref="D256:G256"/>
-    <mergeCell ref="D257:G257"/>
-    <mergeCell ref="C253:G253"/>
-    <mergeCell ref="D262:G262"/>
-    <mergeCell ref="D258:G258"/>
-    <mergeCell ref="D261:G261"/>
-    <mergeCell ref="D260:G260"/>
-    <mergeCell ref="D259:G259"/>
+    <mergeCell ref="A194:G194"/>
+    <mergeCell ref="C461:G461"/>
+    <mergeCell ref="B466:G466"/>
+    <mergeCell ref="C505:G505"/>
+    <mergeCell ref="C506:G506"/>
+    <mergeCell ref="C450:G450"/>
+    <mergeCell ref="B451:G451"/>
+    <mergeCell ref="D448:G448"/>
+    <mergeCell ref="C449:G449"/>
+    <mergeCell ref="B458:G458"/>
+    <mergeCell ref="D303:G303"/>
+    <mergeCell ref="D301:G301"/>
+    <mergeCell ref="D302:G302"/>
+    <mergeCell ref="C304:G304"/>
+    <mergeCell ref="C305:G305"/>
+    <mergeCell ref="D306:G306"/>
+    <mergeCell ref="B285:G285"/>
+    <mergeCell ref="B284:G284"/>
+    <mergeCell ref="B297:G297"/>
     <mergeCell ref="A283:G283"/>
+    <mergeCell ref="C313:G313"/>
+    <mergeCell ref="D292:G292"/>
+    <mergeCell ref="D369:G369"/>
+    <mergeCell ref="D368:G368"/>
+    <mergeCell ref="D367:G367"/>
+    <mergeCell ref="E360:G360"/>
+    <mergeCell ref="E371:G371"/>
+    <mergeCell ref="E370:G370"/>
+    <mergeCell ref="E363:G363"/>
+    <mergeCell ref="E364:G364"/>
+    <mergeCell ref="E362:G362"/>
+    <mergeCell ref="E365:G365"/>
+    <mergeCell ref="E366:G366"/>
+    <mergeCell ref="D355:G355"/>
+    <mergeCell ref="D356:G356"/>
+    <mergeCell ref="E358:G358"/>
+    <mergeCell ref="E357:G357"/>
+    <mergeCell ref="D307:G307"/>
+    <mergeCell ref="E310:G310"/>
+    <mergeCell ref="D348:G348"/>
+    <mergeCell ref="D349:G349"/>
+    <mergeCell ref="D344:G344"/>
+    <mergeCell ref="D342:G342"/>
+    <mergeCell ref="E359:G359"/>
+    <mergeCell ref="A401:G401"/>
+    <mergeCell ref="B398:G398"/>
+    <mergeCell ref="C399:G399"/>
+    <mergeCell ref="C390:G390"/>
+    <mergeCell ref="C395:G395"/>
+    <mergeCell ref="C387:G387"/>
+    <mergeCell ref="C388:G388"/>
+    <mergeCell ref="B382:G382"/>
+    <mergeCell ref="B383:G383"/>
+    <mergeCell ref="C403:G403"/>
+    <mergeCell ref="B402:G402"/>
+    <mergeCell ref="B389:G389"/>
     <mergeCell ref="B281:G281"/>
+    <mergeCell ref="C276:G276"/>
+    <mergeCell ref="D280:G280"/>
+    <mergeCell ref="D279:G279"/>
+    <mergeCell ref="B512:G512"/>
+    <mergeCell ref="B513:G513"/>
+    <mergeCell ref="B511:G511"/>
+    <mergeCell ref="B514:G514"/>
+    <mergeCell ref="B515:G515"/>
+    <mergeCell ref="B516:G516"/>
+    <mergeCell ref="B517:G517"/>
+    <mergeCell ref="B518:G518"/>
+    <mergeCell ref="A529:G529"/>
+    <mergeCell ref="A530:G530"/>
+    <mergeCell ref="A538:G538"/>
+    <mergeCell ref="D294:G294"/>
+    <mergeCell ref="D293:G293"/>
+    <mergeCell ref="D361:G361"/>
+    <mergeCell ref="D373:G373"/>
+    <mergeCell ref="C374:G374"/>
+    <mergeCell ref="D372:G372"/>
+    <mergeCell ref="C409:G409"/>
     <mergeCell ref="C414:G414"/>
     <mergeCell ref="C413:G413"/>
     <mergeCell ref="C412:G412"/>
     <mergeCell ref="C411:G411"/>
     <mergeCell ref="C410:G410"/>
-    <mergeCell ref="C409:G409"/>
-    <mergeCell ref="C419:G419"/>
-    <mergeCell ref="C403:G403"/>
-    <mergeCell ref="B402:G402"/>
-    <mergeCell ref="A401:G401"/>
-    <mergeCell ref="B398:G398"/>
-    <mergeCell ref="B397:G397"/>
-    <mergeCell ref="C399:G399"/>
-    <mergeCell ref="C390:G390"/>
-    <mergeCell ref="B389:G389"/>
-    <mergeCell ref="D369:G369"/>
-    <mergeCell ref="E371:G371"/>
-    <mergeCell ref="D373:G373"/>
-    <mergeCell ref="C374:G374"/>
-    <mergeCell ref="D372:G372"/>
-    <mergeCell ref="D355:G355"/>
-    <mergeCell ref="E354:G354"/>
-    <mergeCell ref="D353:G353"/>
-    <mergeCell ref="D356:G356"/>
-    <mergeCell ref="D352:G352"/>
-    <mergeCell ref="D351:G351"/>
-    <mergeCell ref="E359:G359"/>
-    <mergeCell ref="E360:G360"/>
-    <mergeCell ref="D361:G361"/>
-    <mergeCell ref="E370:G370"/>
-    <mergeCell ref="E363:G363"/>
-    <mergeCell ref="E364:G364"/>
-    <mergeCell ref="E358:G358"/>
-    <mergeCell ref="E362:G362"/>
-    <mergeCell ref="E357:G357"/>
-    <mergeCell ref="E365:G365"/>
+    <mergeCell ref="C507:G507"/>
+    <mergeCell ref="B509:G509"/>
+    <mergeCell ref="B508:G508"/>
+    <mergeCell ref="C504:G504"/>
+    <mergeCell ref="B502:G502"/>
+    <mergeCell ref="C503:G503"/>
+    <mergeCell ref="B486:G486"/>
+    <mergeCell ref="C487:G487"/>
     <mergeCell ref="B485:G485"/>
     <mergeCell ref="B479:G479"/>
     <mergeCell ref="B480:G480"/>
@@ -14336,151 +14302,304 @@
     <mergeCell ref="B482:G482"/>
     <mergeCell ref="B484:G484"/>
     <mergeCell ref="B483:G483"/>
-    <mergeCell ref="C454:G454"/>
-    <mergeCell ref="C453:G453"/>
-    <mergeCell ref="C456:G456"/>
-    <mergeCell ref="C457:G457"/>
+    <mergeCell ref="B490:G490"/>
+    <mergeCell ref="B491:G491"/>
+    <mergeCell ref="C493:G493"/>
+    <mergeCell ref="C495:G495"/>
+    <mergeCell ref="C494:G494"/>
+    <mergeCell ref="C496:G496"/>
+    <mergeCell ref="C497:G497"/>
+    <mergeCell ref="C500:G500"/>
+    <mergeCell ref="C498:G498"/>
+    <mergeCell ref="C501:G501"/>
+    <mergeCell ref="C499:G499"/>
+    <mergeCell ref="C488:G488"/>
+    <mergeCell ref="C489:G489"/>
     <mergeCell ref="C459:G459"/>
     <mergeCell ref="C460:G460"/>
+    <mergeCell ref="C454:G454"/>
+    <mergeCell ref="C455:G455"/>
+    <mergeCell ref="B478:G478"/>
+    <mergeCell ref="B477:G477"/>
+    <mergeCell ref="C465:G465"/>
+    <mergeCell ref="B462:G462"/>
+    <mergeCell ref="C463:G463"/>
+    <mergeCell ref="C464:G464"/>
     <mergeCell ref="C471:G471"/>
     <mergeCell ref="B474:G474"/>
     <mergeCell ref="B473:G473"/>
     <mergeCell ref="C472:G472"/>
-    <mergeCell ref="B478:G478"/>
-    <mergeCell ref="B477:G477"/>
     <mergeCell ref="B469:G469"/>
     <mergeCell ref="C470:G470"/>
-    <mergeCell ref="C505:G505"/>
-    <mergeCell ref="C504:G504"/>
-    <mergeCell ref="B439:G439"/>
+    <mergeCell ref="C468:G468"/>
+    <mergeCell ref="C467:G467"/>
+    <mergeCell ref="C453:G453"/>
+    <mergeCell ref="C452:G452"/>
+    <mergeCell ref="C456:G456"/>
+    <mergeCell ref="C457:G457"/>
+    <mergeCell ref="C446:G446"/>
+    <mergeCell ref="A476:G476"/>
     <mergeCell ref="C443:G443"/>
     <mergeCell ref="C444:G444"/>
-    <mergeCell ref="C447:G447"/>
-    <mergeCell ref="B438:G438"/>
-    <mergeCell ref="B517:G517"/>
-    <mergeCell ref="B518:G518"/>
-    <mergeCell ref="A529:G529"/>
-    <mergeCell ref="A530:G530"/>
-    <mergeCell ref="A538:G538"/>
-    <mergeCell ref="B516:G516"/>
-    <mergeCell ref="B512:G512"/>
-    <mergeCell ref="B511:G511"/>
-    <mergeCell ref="B513:G513"/>
-    <mergeCell ref="B514:G514"/>
-    <mergeCell ref="B515:G515"/>
     <mergeCell ref="C445:G445"/>
-    <mergeCell ref="C446:G446"/>
-    <mergeCell ref="C441:G441"/>
-    <mergeCell ref="C442:G442"/>
-    <mergeCell ref="C500:G500"/>
-    <mergeCell ref="C498:G498"/>
-    <mergeCell ref="A476:G476"/>
-    <mergeCell ref="C440:G440"/>
-    <mergeCell ref="C431:G431"/>
-    <mergeCell ref="C430:G430"/>
-    <mergeCell ref="A437:G437"/>
+    <mergeCell ref="B429:G429"/>
     <mergeCell ref="C432:G432"/>
     <mergeCell ref="B434:G434"/>
     <mergeCell ref="B433:G433"/>
+    <mergeCell ref="C441:G441"/>
+    <mergeCell ref="C442:G442"/>
+    <mergeCell ref="C440:G440"/>
+    <mergeCell ref="C428:G428"/>
+    <mergeCell ref="B439:G439"/>
+    <mergeCell ref="B438:G438"/>
+    <mergeCell ref="A437:G437"/>
+    <mergeCell ref="D378:G378"/>
+    <mergeCell ref="D379:G379"/>
+    <mergeCell ref="D377:G377"/>
+    <mergeCell ref="E354:G354"/>
+    <mergeCell ref="D353:G353"/>
+    <mergeCell ref="D376:G376"/>
+    <mergeCell ref="D375:G375"/>
+    <mergeCell ref="D381:G381"/>
+    <mergeCell ref="D380:G380"/>
+    <mergeCell ref="D352:G352"/>
+    <mergeCell ref="D339:G339"/>
+    <mergeCell ref="D340:G340"/>
+    <mergeCell ref="D347:G347"/>
+    <mergeCell ref="E345:G345"/>
+    <mergeCell ref="D350:G350"/>
+    <mergeCell ref="D351:G351"/>
+    <mergeCell ref="D330:G330"/>
+    <mergeCell ref="D337:G337"/>
+    <mergeCell ref="D333:G333"/>
+    <mergeCell ref="D334:G334"/>
+    <mergeCell ref="D341:G341"/>
+    <mergeCell ref="D343:G343"/>
+    <mergeCell ref="D338:G338"/>
+    <mergeCell ref="C393:G393"/>
+    <mergeCell ref="B397:G397"/>
     <mergeCell ref="C396:G396"/>
-    <mergeCell ref="C395:G395"/>
-    <mergeCell ref="B502:G502"/>
-    <mergeCell ref="C503:G503"/>
-    <mergeCell ref="B509:G509"/>
-    <mergeCell ref="C506:G506"/>
-    <mergeCell ref="B508:G508"/>
-    <mergeCell ref="C507:G507"/>
-    <mergeCell ref="C501:G501"/>
-    <mergeCell ref="B510:G510"/>
-    <mergeCell ref="C499:G499"/>
-    <mergeCell ref="C493:G493"/>
-    <mergeCell ref="C495:G495"/>
-    <mergeCell ref="C496:G496"/>
-    <mergeCell ref="C494:G494"/>
-    <mergeCell ref="C497:G497"/>
-    <mergeCell ref="B490:G490"/>
-    <mergeCell ref="B486:G486"/>
-    <mergeCell ref="C487:G487"/>
-    <mergeCell ref="C488:G488"/>
-    <mergeCell ref="C489:G489"/>
-    <mergeCell ref="C468:G468"/>
-    <mergeCell ref="C465:G465"/>
-    <mergeCell ref="C450:G450"/>
-    <mergeCell ref="B451:G451"/>
-    <mergeCell ref="B491:G491"/>
-    <mergeCell ref="C492:G492"/>
-    <mergeCell ref="B462:G462"/>
-    <mergeCell ref="B458:G458"/>
-    <mergeCell ref="C452:G452"/>
-    <mergeCell ref="C455:G455"/>
-    <mergeCell ref="D448:G448"/>
-    <mergeCell ref="C449:G449"/>
-    <mergeCell ref="C461:G461"/>
-    <mergeCell ref="C463:G463"/>
-    <mergeCell ref="C464:G464"/>
-    <mergeCell ref="B466:G466"/>
-    <mergeCell ref="C467:G467"/>
+    <mergeCell ref="B394:G394"/>
+    <mergeCell ref="C406:G406"/>
+    <mergeCell ref="B404:G404"/>
+    <mergeCell ref="B405:G405"/>
+    <mergeCell ref="B418:G418"/>
+    <mergeCell ref="C416:G416"/>
+    <mergeCell ref="C417:G417"/>
+    <mergeCell ref="C415:G415"/>
+    <mergeCell ref="B422:G422"/>
+    <mergeCell ref="C424:G424"/>
+    <mergeCell ref="C423:G423"/>
+    <mergeCell ref="C430:G430"/>
+    <mergeCell ref="C419:G419"/>
     <mergeCell ref="C421:G421"/>
-    <mergeCell ref="B422:G422"/>
     <mergeCell ref="C426:G426"/>
     <mergeCell ref="C425:G425"/>
-    <mergeCell ref="B429:G429"/>
-    <mergeCell ref="C428:G428"/>
     <mergeCell ref="C427:G427"/>
-    <mergeCell ref="C424:G424"/>
     <mergeCell ref="C420:G420"/>
-    <mergeCell ref="B418:G418"/>
-    <mergeCell ref="C423:G423"/>
-    <mergeCell ref="C274:G274"/>
+    <mergeCell ref="C407:G407"/>
+    <mergeCell ref="B408:G408"/>
+    <mergeCell ref="C431:G431"/>
+    <mergeCell ref="C386:G386"/>
+    <mergeCell ref="C384:G384"/>
+    <mergeCell ref="B385:G385"/>
+    <mergeCell ref="C392:G392"/>
+    <mergeCell ref="C391:G391"/>
+    <mergeCell ref="B400:G400"/>
+    <mergeCell ref="D326:G326"/>
+    <mergeCell ref="E311:G311"/>
+    <mergeCell ref="D266:G266"/>
+    <mergeCell ref="D267:G267"/>
+    <mergeCell ref="D329:G329"/>
+    <mergeCell ref="D328:G328"/>
+    <mergeCell ref="D327:G327"/>
     <mergeCell ref="D275:G275"/>
-    <mergeCell ref="D271:G271"/>
-    <mergeCell ref="C269:G269"/>
-    <mergeCell ref="D270:G270"/>
-    <mergeCell ref="D265:G265"/>
-    <mergeCell ref="D266:G266"/>
+    <mergeCell ref="C346:G346"/>
+    <mergeCell ref="D165:G165"/>
+    <mergeCell ref="D167:G167"/>
+    <mergeCell ref="D166:G166"/>
+    <mergeCell ref="D164:G164"/>
+    <mergeCell ref="D173:G173"/>
+    <mergeCell ref="D169:G169"/>
+    <mergeCell ref="D171:G171"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="D170:G170"/>
+    <mergeCell ref="E177:G177"/>
+    <mergeCell ref="E176:G176"/>
+    <mergeCell ref="D140:G140"/>
+    <mergeCell ref="D205:G205"/>
+    <mergeCell ref="D206:G206"/>
+    <mergeCell ref="D211:G211"/>
+    <mergeCell ref="D212:G212"/>
+    <mergeCell ref="D214:G214"/>
+    <mergeCell ref="D213:G213"/>
+    <mergeCell ref="D181:G181"/>
+    <mergeCell ref="E180:G180"/>
+    <mergeCell ref="C204:G204"/>
+    <mergeCell ref="B203:G203"/>
+    <mergeCell ref="C197:G197"/>
+    <mergeCell ref="B198:G198"/>
+    <mergeCell ref="C196:G196"/>
+    <mergeCell ref="C202:G202"/>
+    <mergeCell ref="C200:G200"/>
+    <mergeCell ref="C201:G201"/>
+    <mergeCell ref="C199:G199"/>
+    <mergeCell ref="D146:G146"/>
+    <mergeCell ref="D145:G145"/>
+    <mergeCell ref="C163:G163"/>
+    <mergeCell ref="C168:G168"/>
+    <mergeCell ref="D178:G178"/>
+    <mergeCell ref="E182:G182"/>
+    <mergeCell ref="C189:G189"/>
+    <mergeCell ref="C174:G174"/>
+    <mergeCell ref="D175:G175"/>
+    <mergeCell ref="E183:G183"/>
+    <mergeCell ref="E179:G179"/>
+    <mergeCell ref="C229:G229"/>
+    <mergeCell ref="C227:G227"/>
+    <mergeCell ref="C222:G222"/>
+    <mergeCell ref="C223:G223"/>
+    <mergeCell ref="C228:G228"/>
+    <mergeCell ref="E152:G152"/>
+    <mergeCell ref="E147:G147"/>
+    <mergeCell ref="E150:G150"/>
+    <mergeCell ref="E149:G149"/>
+    <mergeCell ref="E148:G148"/>
+    <mergeCell ref="E151:G151"/>
+    <mergeCell ref="B154:G154"/>
+    <mergeCell ref="D153:G153"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="C155:G155"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="D116:G116"/>
+    <mergeCell ref="D117:G117"/>
+    <mergeCell ref="D118:G118"/>
+    <mergeCell ref="D124:G124"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="D132:G132"/>
+    <mergeCell ref="D131:G131"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="D128:G128"/>
+    <mergeCell ref="D129:G129"/>
+    <mergeCell ref="D133:G133"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="D130:G130"/>
+    <mergeCell ref="B162:G162"/>
+    <mergeCell ref="C161:G161"/>
+    <mergeCell ref="D160:G160"/>
+    <mergeCell ref="D158:G158"/>
+    <mergeCell ref="D159:G159"/>
+    <mergeCell ref="D157:G157"/>
+    <mergeCell ref="D156:G156"/>
+    <mergeCell ref="C218:G218"/>
+    <mergeCell ref="C217:G217"/>
+    <mergeCell ref="B220:G220"/>
+    <mergeCell ref="B221:G221"/>
+    <mergeCell ref="B224:G224"/>
+    <mergeCell ref="B225:G225"/>
+    <mergeCell ref="B226:G226"/>
+    <mergeCell ref="D207:G207"/>
+    <mergeCell ref="E208:G208"/>
+    <mergeCell ref="C210:G210"/>
+    <mergeCell ref="D209:G209"/>
+    <mergeCell ref="C216:G216"/>
+    <mergeCell ref="C215:G215"/>
+    <mergeCell ref="C219:G219"/>
     <mergeCell ref="C278:G278"/>
     <mergeCell ref="C277:G277"/>
-    <mergeCell ref="C276:G276"/>
+    <mergeCell ref="C269:G269"/>
+    <mergeCell ref="D268:G268"/>
+    <mergeCell ref="C274:G274"/>
+    <mergeCell ref="D271:G271"/>
+    <mergeCell ref="D270:G270"/>
     <mergeCell ref="D272:G272"/>
     <mergeCell ref="D273:G273"/>
+    <mergeCell ref="C289:G289"/>
+    <mergeCell ref="C287:G287"/>
+    <mergeCell ref="C288:G288"/>
+    <mergeCell ref="C286:G286"/>
+    <mergeCell ref="C296:G296"/>
+    <mergeCell ref="C295:G295"/>
+    <mergeCell ref="D308:G308"/>
+    <mergeCell ref="D309:G309"/>
+    <mergeCell ref="D300:G300"/>
+    <mergeCell ref="C299:G299"/>
+    <mergeCell ref="C298:G298"/>
+    <mergeCell ref="C290:G290"/>
+    <mergeCell ref="C291:G291"/>
+    <mergeCell ref="C492:G492"/>
+    <mergeCell ref="C447:G447"/>
     <mergeCell ref="D315:G315"/>
-    <mergeCell ref="D303:G303"/>
-    <mergeCell ref="D307:G307"/>
-    <mergeCell ref="D306:G306"/>
-    <mergeCell ref="D368:G368"/>
-    <mergeCell ref="D367:G367"/>
-    <mergeCell ref="E366:G366"/>
-    <mergeCell ref="D268:G268"/>
-    <mergeCell ref="D267:G267"/>
+    <mergeCell ref="D316:G316"/>
+    <mergeCell ref="D319:G319"/>
+    <mergeCell ref="D320:G320"/>
+    <mergeCell ref="D317:G317"/>
+    <mergeCell ref="D318:G318"/>
+    <mergeCell ref="D325:G325"/>
+    <mergeCell ref="D324:G324"/>
+    <mergeCell ref="D323:G323"/>
+    <mergeCell ref="D322:G322"/>
+    <mergeCell ref="D332:G332"/>
+    <mergeCell ref="D331:G331"/>
+    <mergeCell ref="D336:G336"/>
+    <mergeCell ref="D335:G335"/>
+    <mergeCell ref="B312:G312"/>
+    <mergeCell ref="B510:G510"/>
+    <mergeCell ref="D314:G314"/>
+    <mergeCell ref="D321:G321"/>
+    <mergeCell ref="D252:G252"/>
+    <mergeCell ref="D256:G256"/>
+    <mergeCell ref="D255:G255"/>
+    <mergeCell ref="D254:G254"/>
+    <mergeCell ref="D260:G260"/>
+    <mergeCell ref="D259:G259"/>
+    <mergeCell ref="D249:G249"/>
+    <mergeCell ref="D248:G248"/>
+    <mergeCell ref="D247:G247"/>
+    <mergeCell ref="D246:G246"/>
+    <mergeCell ref="D242:G242"/>
+    <mergeCell ref="D240:G240"/>
+    <mergeCell ref="D241:G241"/>
+    <mergeCell ref="D257:G257"/>
+    <mergeCell ref="C253:G253"/>
+    <mergeCell ref="D265:G265"/>
     <mergeCell ref="D264:G264"/>
+    <mergeCell ref="D237:G237"/>
+    <mergeCell ref="C231:G231"/>
+    <mergeCell ref="C238:G238"/>
+    <mergeCell ref="C234:G234"/>
+    <mergeCell ref="C230:G230"/>
+    <mergeCell ref="C233:G233"/>
+    <mergeCell ref="C232:G232"/>
+    <mergeCell ref="D236:G236"/>
+    <mergeCell ref="C235:G235"/>
+    <mergeCell ref="D250:G250"/>
+    <mergeCell ref="D251:G251"/>
+    <mergeCell ref="D239:G239"/>
+    <mergeCell ref="D243:G243"/>
+    <mergeCell ref="D244:G244"/>
+    <mergeCell ref="D245:G245"/>
     <mergeCell ref="D263:G263"/>
-    <mergeCell ref="D376:G376"/>
-    <mergeCell ref="D375:G375"/>
-    <mergeCell ref="C386:G386"/>
-    <mergeCell ref="D378:G378"/>
-    <mergeCell ref="D381:G381"/>
-    <mergeCell ref="C384:G384"/>
-    <mergeCell ref="D379:G379"/>
-    <mergeCell ref="D380:G380"/>
-    <mergeCell ref="D377:G377"/>
-    <mergeCell ref="C407:G407"/>
-    <mergeCell ref="C406:G406"/>
-    <mergeCell ref="C416:G416"/>
-    <mergeCell ref="C417:G417"/>
-    <mergeCell ref="B404:G404"/>
-    <mergeCell ref="B400:G400"/>
-    <mergeCell ref="C415:G415"/>
-    <mergeCell ref="B408:G408"/>
-    <mergeCell ref="B405:G405"/>
-    <mergeCell ref="C387:G387"/>
-    <mergeCell ref="C388:G388"/>
-    <mergeCell ref="B385:G385"/>
-    <mergeCell ref="B382:G382"/>
-    <mergeCell ref="B383:G383"/>
-    <mergeCell ref="C392:G392"/>
-    <mergeCell ref="C393:G393"/>
-    <mergeCell ref="B394:G394"/>
-    <mergeCell ref="C391:G391"/>
+    <mergeCell ref="D262:G262"/>
+    <mergeCell ref="D258:G258"/>
+    <mergeCell ref="D261:G261"/>
   </mergeCells>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/src/test/resources/topics/Классификатор методики МИЦИАР.xlsx
+++ b/src/test/resources/topics/Классификатор методики МИЦИАР.xlsx
@@ -18,6 +18,12 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="B220">
+      <text>
+        <t xml:space="preserve">сократить
+	-Сллóуйссгóрт Смаай-Гррийсс</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="C453">
       <text>
         <t xml:space="preserve">что значит понятие? :)
@@ -254,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="1279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="1281">
   <si>
     <t>СТРУКТУРА МЕТОДИКИ МИЦИАР</t>
   </si>
@@ -660,7 +666,7 @@
       <rPr>
         <color rgb="FFFF00FF"/>
       </rPr>
-      <t>140-1</t>
+      <t>140-1, 152-3,</t>
     </r>
   </si>
   <si>
@@ -709,7 +715,10 @@
       <rPr>
         <color rgb="FF0000FF"/>
       </rPr>
-      <t>82-2,96-2, 123-2</t>
+      <t xml:space="preserve">82-2,96-2, 123-2, </t>
+    </r>
+    <r>
+      <t xml:space="preserve">152 1, </t>
     </r>
   </si>
   <si>
@@ -1280,7 +1289,7 @@
     <t>WE</t>
   </si>
   <si>
-    <t>ИИССИИДИ-Центры и комплиментарной системе (общая инфо, что это такое)</t>
+    <t>ИИССИИДИ-Центры и комплиментарная система (общая информация)</t>
   </si>
   <si>
     <t>UZ</t>
@@ -2126,7 +2135,7 @@
       <rPr>
         <color rgb="FFFF00FF"/>
       </rPr>
-      <t>12-1, 153-1,</t>
+      <t>12-1, 153-1, 154-2,</t>
     </r>
   </si>
   <si>
@@ -2160,7 +2169,7 @@
       <rPr>
         <color rgb="FFFF00FF"/>
       </rPr>
-      <t xml:space="preserve"> 140-3, 12-1,</t>
+      <t xml:space="preserve"> 140-3, 12-1, 154-2,</t>
     </r>
   </si>
   <si>
@@ -2312,7 +2321,7 @@
     <t>Эмоциональный интеллект</t>
   </si>
   <si>
-    <t>НУУЛЛ-ВВУ, как Образ человека, лишённого активности первых 4-ёх Уровней первых двух ИИ-Центров</t>
+    <t>НУУЛЛ-ВВУ, как Образ человека, лишённого активности первых 4-ёх Уровней первых двух ИИ-Центров.НУУЛЛ-ВВУ как Эталон для ориентации направлений перефокусировок и Образ для работы с методиками</t>
   </si>
   <si>
     <t>PV</t>
@@ -2465,7 +2474,7 @@
     <t>OB</t>
   </si>
   <si>
-    <t>15-2, 140-3,</t>
+    <t>15-2, 140-3, 152-2,</t>
   </si>
   <si>
     <t>Возможно дублирование данного пункта в "практиках и методиках"</t>
@@ -2535,7 +2544,7 @@
       <t xml:space="preserve"> 148-1, </t>
     </r>
     <r>
-      <t>153-3,</t>
+      <t xml:space="preserve">153-3, 152-1, </t>
     </r>
   </si>
   <si>
@@ -4411,6 +4420,9 @@
     <t>CX</t>
   </si>
   <si>
+    <t xml:space="preserve">156-3, </t>
+  </si>
+  <si>
     <t>Роль вирусов в процессе перефокусировок</t>
   </si>
   <si>
@@ -4708,6 +4720,9 @@
   </si>
   <si>
     <t>319-1, 320-3</t>
+  </si>
+  <si>
+    <t>О пище будущего</t>
   </si>
 </sst>
 </file>
@@ -5197,7 +5212,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="176">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -5628,6 +5643,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -13348,7 +13366,9 @@
       <c r="H498" s="108" t="s">
         <v>1189</v>
       </c>
-      <c r="I498" s="135"/>
+      <c r="I498" s="147" t="s">
+        <v>1190</v>
+      </c>
       <c r="J498" s="110"/>
       <c r="K498" s="111"/>
       <c r="L498" s="104"/>
@@ -13357,10 +13377,10 @@
       <c r="A499" s="112"/>
       <c r="B499" s="28"/>
       <c r="C499" s="29" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="H499" s="108" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="I499" s="135"/>
       <c r="J499" s="110"/>
@@ -13371,10 +13391,10 @@
       <c r="A500" s="112"/>
       <c r="B500" s="28"/>
       <c r="C500" s="29" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="H500" s="108" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="I500" s="135"/>
       <c r="J500" s="110"/>
@@ -13385,10 +13405,10 @@
       <c r="A501" s="112"/>
       <c r="B501" s="28"/>
       <c r="C501" s="49" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="H501" s="108" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="I501" s="135"/>
       <c r="J501" s="110"/>
@@ -13398,13 +13418,13 @@
     <row r="502" ht="15.75" customHeight="1">
       <c r="A502" s="112"/>
       <c r="B502" s="32" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="H502" s="108" t="s">
-        <v>1197</v>
-      </c>
-      <c r="I502" s="147" t="s">
         <v>1198</v>
+      </c>
+      <c r="I502" s="148" t="s">
+        <v>1199</v>
       </c>
       <c r="J502" s="110"/>
       <c r="K502" s="111"/>
@@ -13414,12 +13434,12 @@
       <c r="A503" s="112"/>
       <c r="B503" s="28"/>
       <c r="C503" s="29" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="H503" s="108" t="s">
-        <v>1200</v>
-      </c>
-      <c r="I503" s="148"/>
+        <v>1201</v>
+      </c>
+      <c r="I503" s="149"/>
       <c r="J503" s="110"/>
       <c r="K503" s="111"/>
       <c r="L503" s="104"/>
@@ -13428,10 +13448,10 @@
       <c r="A504" s="112"/>
       <c r="B504" s="28"/>
       <c r="C504" s="29" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="H504" s="108" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="I504" s="135"/>
       <c r="J504" s="110"/>
@@ -13442,10 +13462,10 @@
       <c r="A505" s="112"/>
       <c r="B505" s="28"/>
       <c r="C505" s="29" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="H505" s="108" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="I505" s="135"/>
       <c r="J505" s="110"/>
@@ -13456,13 +13476,13 @@
       <c r="A506" s="112"/>
       <c r="B506" s="28"/>
       <c r="C506" s="29" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="H506" s="108" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="I506" s="141" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="J506" s="110"/>
       <c r="K506" s="111"/>
@@ -13472,28 +13492,28 @@
       <c r="A507" s="112"/>
       <c r="B507" s="28"/>
       <c r="C507" s="29" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H507" s="108" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="I507" s="135"/>
       <c r="J507" s="110"/>
       <c r="K507" s="111" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="L507" s="104"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
       <c r="A508" s="112"/>
       <c r="B508" s="32" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="H508" s="108" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="I508" s="116" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="J508" s="110"/>
       <c r="K508" s="111"/>
@@ -13502,10 +13522,10 @@
     <row r="509" ht="15.75" customHeight="1">
       <c r="A509" s="112"/>
       <c r="B509" s="32" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H509" s="108" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="I509" s="135"/>
       <c r="J509" s="110"/>
@@ -13515,10 +13535,10 @@
     <row r="510" ht="15.75" customHeight="1">
       <c r="A510" s="119"/>
       <c r="B510" s="32" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="H510" s="108" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="I510" s="135"/>
       <c r="J510" s="110"/>
@@ -13528,13 +13548,13 @@
     <row r="511" ht="15.75" customHeight="1">
       <c r="A511" s="112"/>
       <c r="B511" s="32" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="H511" s="108" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="I511" s="137" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="J511" s="110"/>
       <c r="K511" s="111"/>
@@ -13543,10 +13563,10 @@
     <row r="512" ht="15.75" customHeight="1">
       <c r="A512" s="112"/>
       <c r="B512" s="32" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H512" s="108" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="I512" s="135"/>
       <c r="J512" s="110"/>
@@ -13556,10 +13576,10 @@
     <row r="513" ht="15.75" customHeight="1">
       <c r="A513" s="112"/>
       <c r="B513" s="32" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="H513" s="108" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="I513" s="133"/>
       <c r="J513" s="134"/>
@@ -13569,10 +13589,10 @@
     <row r="514" ht="15.75" customHeight="1">
       <c r="A514" s="112"/>
       <c r="B514" s="32" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H514" s="108" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="I514" s="133"/>
       <c r="J514" s="134"/>
@@ -13582,13 +13602,13 @@
     <row r="515" ht="15.75" customHeight="1">
       <c r="A515" s="112"/>
       <c r="B515" s="32" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="H515" s="108" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="I515" s="145" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="J515" s="134"/>
       <c r="K515" s="111"/>
@@ -13597,10 +13617,10 @@
     <row r="516" ht="15.75" customHeight="1">
       <c r="A516" s="112"/>
       <c r="B516" s="32" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="H516" s="108" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="I516" s="134"/>
       <c r="J516" s="134"/>
@@ -13610,7 +13630,7 @@
     <row r="517" ht="15.75" customHeight="1">
       <c r="A517" s="112"/>
       <c r="B517" s="32" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="H517" s="117"/>
       <c r="I517" s="134"/>
@@ -13628,321 +13648,321 @@
       <c r="L518" s="104"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="149" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B519" s="150"/>
-      <c r="C519" s="150"/>
-      <c r="D519" s="150"/>
-      <c r="E519" s="150"/>
-      <c r="F519" s="150"/>
-      <c r="G519" s="150"/>
-      <c r="H519" s="151"/>
+      <c r="A519" s="150" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B519" s="151"/>
+      <c r="C519" s="151"/>
+      <c r="D519" s="151"/>
+      <c r="E519" s="151"/>
+      <c r="F519" s="151"/>
+      <c r="G519" s="151"/>
+      <c r="H519" s="152"/>
       <c r="I519" s="134"/>
       <c r="J519" s="134"/>
       <c r="K519" s="111"/>
       <c r="L519" s="104"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="152" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B520" s="153"/>
-      <c r="C520" s="154"/>
-      <c r="D520" s="154"/>
-      <c r="E520" s="154"/>
-      <c r="F520" s="154"/>
-      <c r="G520" s="154"/>
-      <c r="I520" s="155" t="s">
+      <c r="A520" s="153" t="s">
         <v>1235</v>
       </c>
-      <c r="J520" s="156"/>
-      <c r="K520" s="156"/>
+      <c r="B520" s="154"/>
+      <c r="C520" s="155"/>
+      <c r="D520" s="155"/>
+      <c r="E520" s="155"/>
+      <c r="F520" s="155"/>
+      <c r="G520" s="155"/>
+      <c r="I520" s="156" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J520" s="157"/>
+      <c r="K520" s="157"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="157" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B521" s="153"/>
-      <c r="C521" s="154"/>
-      <c r="D521" s="154"/>
-      <c r="E521" s="154"/>
-      <c r="F521" s="154"/>
-      <c r="G521" s="154"/>
-      <c r="I521" s="158" t="s">
+      <c r="A521" s="158" t="s">
         <v>1237</v>
       </c>
-      <c r="J521" s="156"/>
-      <c r="K521" s="156"/>
+      <c r="B521" s="154"/>
+      <c r="C521" s="155"/>
+      <c r="D521" s="155"/>
+      <c r="E521" s="155"/>
+      <c r="F521" s="155"/>
+      <c r="G521" s="155"/>
+      <c r="I521" s="159" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J521" s="157"/>
+      <c r="K521" s="157"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="157" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B522" s="153"/>
-      <c r="C522" s="154"/>
-      <c r="D522" s="154"/>
-      <c r="E522" s="154"/>
-      <c r="F522" s="154"/>
-      <c r="G522" s="154"/>
-      <c r="I522" s="159" t="s">
+      <c r="A522" s="158" t="s">
         <v>1239</v>
       </c>
-      <c r="J522" s="156"/>
-      <c r="K522" s="156"/>
+      <c r="B522" s="154"/>
+      <c r="C522" s="155"/>
+      <c r="D522" s="155"/>
+      <c r="E522" s="155"/>
+      <c r="F522" s="155"/>
+      <c r="G522" s="155"/>
+      <c r="I522" s="160" t="s">
+        <v>1240</v>
+      </c>
+      <c r="J522" s="157"/>
+      <c r="K522" s="157"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="157" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B523" s="153"/>
-      <c r="C523" s="154"/>
-      <c r="D523" s="154"/>
-      <c r="E523" s="154"/>
-      <c r="F523" s="154"/>
-      <c r="G523" s="154"/>
-      <c r="I523" s="160" t="s">
+      <c r="A523" s="158" t="s">
         <v>1241</v>
       </c>
-      <c r="J523" s="156"/>
-      <c r="K523" s="156"/>
+      <c r="B523" s="154"/>
+      <c r="C523" s="155"/>
+      <c r="D523" s="155"/>
+      <c r="E523" s="155"/>
+      <c r="F523" s="155"/>
+      <c r="G523" s="155"/>
+      <c r="I523" s="161" t="s">
+        <v>1242</v>
+      </c>
+      <c r="J523" s="157"/>
+      <c r="K523" s="157"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="157" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B524" s="153"/>
-      <c r="C524" s="154"/>
-      <c r="D524" s="154"/>
-      <c r="E524" s="154"/>
-      <c r="F524" s="154"/>
-      <c r="G524" s="154"/>
-      <c r="I524" s="161" t="s">
+      <c r="A524" s="158" t="s">
         <v>1243</v>
       </c>
-      <c r="J524" s="156"/>
-      <c r="K524" s="156"/>
+      <c r="B524" s="154"/>
+      <c r="C524" s="155"/>
+      <c r="D524" s="155"/>
+      <c r="E524" s="155"/>
+      <c r="F524" s="155"/>
+      <c r="G524" s="155"/>
+      <c r="I524" s="162" t="s">
+        <v>1244</v>
+      </c>
+      <c r="J524" s="157"/>
+      <c r="K524" s="157"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="157" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B525" s="153"/>
-      <c r="C525" s="154"/>
-      <c r="D525" s="154"/>
-      <c r="E525" s="154"/>
-      <c r="F525" s="154"/>
-      <c r="G525" s="154"/>
-      <c r="I525" s="162" t="s">
+      <c r="A525" s="158" t="s">
         <v>1245</v>
       </c>
-      <c r="J525" s="156"/>
-      <c r="K525" s="156"/>
+      <c r="B525" s="154"/>
+      <c r="C525" s="155"/>
+      <c r="D525" s="155"/>
+      <c r="E525" s="155"/>
+      <c r="F525" s="155"/>
+      <c r="G525" s="155"/>
+      <c r="I525" s="163" t="s">
+        <v>1246</v>
+      </c>
+      <c r="J525" s="157"/>
+      <c r="K525" s="157"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="163" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B526" s="153"/>
-      <c r="C526" s="154"/>
-      <c r="D526" s="154"/>
-      <c r="E526" s="154"/>
-      <c r="F526" s="154"/>
-      <c r="G526" s="154"/>
-      <c r="I526" s="164" t="s">
+      <c r="A526" s="164" t="s">
         <v>1247</v>
       </c>
-      <c r="J526" s="156"/>
-      <c r="K526" s="156"/>
+      <c r="B526" s="154"/>
+      <c r="C526" s="155"/>
+      <c r="D526" s="155"/>
+      <c r="E526" s="155"/>
+      <c r="F526" s="155"/>
+      <c r="G526" s="155"/>
+      <c r="I526" s="165" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J526" s="157"/>
+      <c r="K526" s="157"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="157" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B527" s="153"/>
-      <c r="C527" s="154"/>
-      <c r="D527" s="154"/>
-      <c r="E527" s="154"/>
-      <c r="F527" s="154"/>
-      <c r="G527" s="154"/>
-      <c r="I527" s="165" t="s">
+      <c r="A527" s="158" t="s">
         <v>1249</v>
       </c>
-      <c r="J527" s="156"/>
-      <c r="K527" s="156"/>
+      <c r="B527" s="154"/>
+      <c r="C527" s="155"/>
+      <c r="D527" s="155"/>
+      <c r="E527" s="155"/>
+      <c r="F527" s="155"/>
+      <c r="G527" s="155"/>
+      <c r="I527" s="166" t="s">
+        <v>1250</v>
+      </c>
+      <c r="J527" s="157"/>
+      <c r="K527" s="157"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="166" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B528" s="166"/>
-      <c r="C528" s="156"/>
-      <c r="D528" s="156"/>
-      <c r="E528" s="156"/>
-      <c r="F528" s="156"/>
-      <c r="G528" s="166"/>
-      <c r="H528" s="156"/>
-      <c r="I528" s="167" t="s">
+      <c r="A528" s="167" t="s">
         <v>1251</v>
       </c>
-      <c r="J528" s="156"/>
-      <c r="K528" s="156"/>
+      <c r="B528" s="167"/>
+      <c r="C528" s="157"/>
+      <c r="D528" s="157"/>
+      <c r="E528" s="157"/>
+      <c r="F528" s="157"/>
+      <c r="G528" s="167"/>
+      <c r="H528" s="157"/>
+      <c r="I528" s="168" t="s">
+        <v>1252</v>
+      </c>
+      <c r="J528" s="157"/>
+      <c r="K528" s="157"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="166" t="s">
-        <v>1252</v>
-      </c>
-      <c r="H529" s="156"/>
-      <c r="I529" s="167" t="s">
+      <c r="A529" s="167" t="s">
         <v>1253</v>
       </c>
-      <c r="J529" s="156"/>
-      <c r="K529" s="156"/>
+      <c r="H529" s="157"/>
+      <c r="I529" s="168" t="s">
+        <v>1254</v>
+      </c>
+      <c r="J529" s="157"/>
+      <c r="K529" s="157"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="166" t="s">
-        <v>1254</v>
-      </c>
-      <c r="H530" s="156"/>
-      <c r="I530" s="168" t="s">
+      <c r="A530" s="167" t="s">
         <v>1255</v>
       </c>
-      <c r="J530" s="156"/>
-      <c r="K530" s="156"/>
+      <c r="H530" s="157"/>
+      <c r="I530" s="169" t="s">
+        <v>1256</v>
+      </c>
+      <c r="J530" s="157"/>
+      <c r="K530" s="157"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="169" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B531" s="170"/>
-      <c r="C531" s="171"/>
-      <c r="D531" s="171"/>
-      <c r="E531" s="171"/>
-      <c r="F531" s="171"/>
-      <c r="G531" s="172"/>
-      <c r="H531" s="156"/>
-      <c r="I531" s="168" t="s">
+      <c r="A531" s="170" t="s">
         <v>1257</v>
       </c>
-      <c r="J531" s="156"/>
-      <c r="K531" s="156"/>
+      <c r="B531" s="171"/>
+      <c r="C531" s="172"/>
+      <c r="D531" s="172"/>
+      <c r="E531" s="172"/>
+      <c r="F531" s="172"/>
+      <c r="G531" s="173"/>
+      <c r="H531" s="157"/>
+      <c r="I531" s="169" t="s">
+        <v>1258</v>
+      </c>
+      <c r="J531" s="157"/>
+      <c r="K531" s="157"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="166" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B532" s="166"/>
-      <c r="C532" s="156"/>
-      <c r="D532" s="156"/>
-      <c r="E532" s="156"/>
-      <c r="F532" s="156"/>
-      <c r="G532" s="156"/>
-      <c r="H532" s="156"/>
-      <c r="I532" s="168" t="s">
+      <c r="A532" s="167" t="s">
         <v>1259</v>
       </c>
-      <c r="J532" s="156"/>
-      <c r="K532" s="156"/>
+      <c r="B532" s="167"/>
+      <c r="C532" s="157"/>
+      <c r="D532" s="157"/>
+      <c r="E532" s="157"/>
+      <c r="F532" s="157"/>
+      <c r="G532" s="157"/>
+      <c r="H532" s="157"/>
+      <c r="I532" s="169" t="s">
+        <v>1260</v>
+      </c>
+      <c r="J532" s="157"/>
+      <c r="K532" s="157"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="166" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B533" s="166"/>
-      <c r="C533" s="156"/>
-      <c r="D533" s="156"/>
-      <c r="E533" s="156"/>
-      <c r="F533" s="156"/>
-      <c r="G533" s="156"/>
-      <c r="H533" s="156"/>
-      <c r="I533" s="168" t="s">
+      <c r="A533" s="167" t="s">
         <v>1261</v>
       </c>
-      <c r="J533" s="156"/>
-      <c r="K533" s="156"/>
+      <c r="B533" s="167"/>
+      <c r="C533" s="157"/>
+      <c r="D533" s="157"/>
+      <c r="E533" s="157"/>
+      <c r="F533" s="157"/>
+      <c r="G533" s="157"/>
+      <c r="H533" s="157"/>
+      <c r="I533" s="169" t="s">
+        <v>1262</v>
+      </c>
+      <c r="J533" s="157"/>
+      <c r="K533" s="157"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="166" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B534" s="166"/>
-      <c r="C534" s="156"/>
-      <c r="D534" s="156"/>
-      <c r="E534" s="156"/>
-      <c r="F534" s="156"/>
-      <c r="G534" s="156"/>
-      <c r="H534" s="156"/>
-      <c r="I534" s="173" t="s">
+      <c r="A534" s="167" t="s">
         <v>1263</v>
       </c>
-      <c r="J534" s="156"/>
-      <c r="K534" s="156"/>
+      <c r="B534" s="167"/>
+      <c r="C534" s="157"/>
+      <c r="D534" s="157"/>
+      <c r="E534" s="157"/>
+      <c r="F534" s="157"/>
+      <c r="G534" s="157"/>
+      <c r="H534" s="157"/>
+      <c r="I534" s="174" t="s">
+        <v>1264</v>
+      </c>
+      <c r="J534" s="157"/>
+      <c r="K534" s="157"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="166" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B535" s="166"/>
-      <c r="C535" s="156"/>
-      <c r="D535" s="156"/>
-      <c r="E535" s="156"/>
-      <c r="F535" s="156"/>
-      <c r="G535" s="156"/>
-      <c r="H535" s="156"/>
-      <c r="I535" s="173" t="s">
+      <c r="A535" s="167" t="s">
         <v>1265</v>
       </c>
-      <c r="J535" s="156"/>
-      <c r="K535" s="156"/>
+      <c r="B535" s="167"/>
+      <c r="C535" s="157"/>
+      <c r="D535" s="157"/>
+      <c r="E535" s="157"/>
+      <c r="F535" s="157"/>
+      <c r="G535" s="157"/>
+      <c r="H535" s="157"/>
+      <c r="I535" s="174" t="s">
+        <v>1266</v>
+      </c>
+      <c r="J535" s="157"/>
+      <c r="K535" s="157"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="166" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B536" s="166"/>
-      <c r="C536" s="156"/>
-      <c r="D536" s="156"/>
-      <c r="E536" s="156"/>
-      <c r="F536" s="156"/>
-      <c r="G536" s="156"/>
-      <c r="H536" s="156"/>
-      <c r="I536" s="167" t="s">
+      <c r="A536" s="167" t="s">
         <v>1267</v>
       </c>
-      <c r="J536" s="156"/>
-      <c r="K536" s="156"/>
+      <c r="B536" s="167"/>
+      <c r="C536" s="157"/>
+      <c r="D536" s="157"/>
+      <c r="E536" s="157"/>
+      <c r="F536" s="157"/>
+      <c r="G536" s="157"/>
+      <c r="H536" s="157"/>
+      <c r="I536" s="168" t="s">
+        <v>1268</v>
+      </c>
+      <c r="J536" s="157"/>
+      <c r="K536" s="157"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="166" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B537" s="166"/>
-      <c r="C537" s="156"/>
-      <c r="D537" s="156"/>
-      <c r="E537" s="156"/>
-      <c r="F537" s="156"/>
-      <c r="G537" s="156"/>
-      <c r="H537" s="156"/>
-      <c r="I537" s="167" t="s">
+      <c r="A537" s="167" t="s">
         <v>1269</v>
       </c>
-      <c r="J537" s="156"/>
-      <c r="K537" s="156"/>
+      <c r="B537" s="167"/>
+      <c r="C537" s="157"/>
+      <c r="D537" s="157"/>
+      <c r="E537" s="157"/>
+      <c r="F537" s="157"/>
+      <c r="G537" s="157"/>
+      <c r="H537" s="157"/>
+      <c r="I537" s="168" t="s">
+        <v>1270</v>
+      </c>
+      <c r="J537" s="157"/>
+      <c r="K537" s="157"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
       <c r="A538" s="15" t="s">
-        <v>1270</v>
-      </c>
-      <c r="H538" s="156"/>
-      <c r="I538" s="174" t="s">
         <v>1271</v>
       </c>
-      <c r="J538" s="156"/>
-      <c r="K538" s="156"/>
+      <c r="H538" s="157"/>
+      <c r="I538" s="175" t="s">
+        <v>1272</v>
+      </c>
+      <c r="J538" s="157"/>
+      <c r="K538" s="157"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
       <c r="A539" s="15" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B539" s="15"/>
       <c r="C539" s="15"/>
@@ -13950,14 +13970,14 @@
       <c r="E539" s="15"/>
       <c r="F539" s="15"/>
       <c r="G539" s="15"/>
-      <c r="H539" s="156"/>
-      <c r="I539" s="174"/>
-      <c r="J539" s="156"/>
-      <c r="K539" s="156"/>
+      <c r="H539" s="157"/>
+      <c r="I539" s="175"/>
+      <c r="J539" s="157"/>
+      <c r="K539" s="157"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
       <c r="A540" s="15" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B540" s="15"/>
       <c r="C540" s="15"/>
@@ -13965,16 +13985,16 @@
       <c r="E540" s="15"/>
       <c r="F540" s="15"/>
       <c r="G540" s="15"/>
-      <c r="H540" s="156"/>
-      <c r="I540" s="167" t="s">
-        <v>1274</v>
-      </c>
-      <c r="J540" s="156"/>
-      <c r="K540" s="156"/>
+      <c r="H540" s="157"/>
+      <c r="I540" s="168" t="s">
+        <v>1275</v>
+      </c>
+      <c r="J540" s="157"/>
+      <c r="K540" s="157"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
       <c r="A541" s="15" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B541" s="15"/>
       <c r="C541" s="15"/>
@@ -13982,41 +14002,45 @@
       <c r="E541" s="15"/>
       <c r="F541" s="15"/>
       <c r="G541" s="15"/>
-      <c r="H541" s="156"/>
-      <c r="I541" s="167" t="s">
-        <v>1276</v>
-      </c>
-      <c r="J541" s="156"/>
-      <c r="K541" s="156"/>
+      <c r="H541" s="157"/>
+      <c r="I541" s="168" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J541" s="157"/>
+      <c r="K541" s="157"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
       <c r="A542" s="15" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="C542" s="15"/>
       <c r="D542" s="15"/>
       <c r="E542" s="15"/>
       <c r="F542" s="15"/>
       <c r="G542" s="15"/>
-      <c r="H542" s="156"/>
-      <c r="I542" s="168" t="s">
-        <v>1278</v>
-      </c>
-      <c r="J542" s="156"/>
-      <c r="K542" s="156"/>
+      <c r="H542" s="157"/>
+      <c r="I542" s="169" t="s">
+        <v>1279</v>
+      </c>
+      <c r="J542" s="157"/>
+      <c r="K542" s="157"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="A543" s="15"/>
+      <c r="A543" s="15" t="s">
+        <v>1280</v>
+      </c>
       <c r="B543" s="15"/>
       <c r="C543" s="15"/>
       <c r="D543" s="15"/>
       <c r="E543" s="15"/>
       <c r="F543" s="15"/>
       <c r="G543" s="15"/>
-      <c r="H543" s="156"/>
-      <c r="I543" s="174"/>
-      <c r="J543" s="156"/>
-      <c r="K543" s="156"/>
+      <c r="H543" s="157"/>
+      <c r="I543" s="168" t="s">
+        <v>1190</v>
+      </c>
+      <c r="J543" s="157"/>
+      <c r="K543" s="157"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
       <c r="A544" s="15"/>
@@ -14026,10 +14050,10 @@
       <c r="E544" s="15"/>
       <c r="F544" s="15"/>
       <c r="G544" s="15"/>
-      <c r="H544" s="156"/>
-      <c r="I544" s="174"/>
-      <c r="J544" s="156"/>
-      <c r="K544" s="156"/>
+      <c r="H544" s="157"/>
+      <c r="I544" s="175"/>
+      <c r="J544" s="157"/>
+      <c r="K544" s="157"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
       <c r="A545" s="15"/>
@@ -14039,10 +14063,10 @@
       <c r="E545" s="15"/>
       <c r="F545" s="15"/>
       <c r="G545" s="15"/>
-      <c r="H545" s="156"/>
-      <c r="I545" s="174"/>
-      <c r="J545" s="156"/>
-      <c r="K545" s="156"/>
+      <c r="H545" s="157"/>
+      <c r="I545" s="175"/>
+      <c r="J545" s="157"/>
+      <c r="K545" s="157"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
       <c r="A546" s="15"/>
@@ -14052,10 +14076,10 @@
       <c r="E546" s="15"/>
       <c r="F546" s="15"/>
       <c r="G546" s="15"/>
-      <c r="H546" s="156"/>
-      <c r="I546" s="174"/>
-      <c r="J546" s="156"/>
-      <c r="K546" s="156"/>
+      <c r="H546" s="157"/>
+      <c r="I546" s="175"/>
+      <c r="J546" s="157"/>
+      <c r="K546" s="157"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
       <c r="A547" s="15"/>
@@ -14065,10 +14089,10 @@
       <c r="E547" s="15"/>
       <c r="F547" s="15"/>
       <c r="G547" s="15"/>
-      <c r="H547" s="156"/>
-      <c r="I547" s="174"/>
-      <c r="J547" s="156"/>
-      <c r="K547" s="156"/>
+      <c r="H547" s="157"/>
+      <c r="I547" s="175"/>
+      <c r="J547" s="157"/>
+      <c r="K547" s="157"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
       <c r="A548" s="15"/>
@@ -14078,192 +14102,19 @@
       <c r="E548" s="15"/>
       <c r="F548" s="15"/>
       <c r="G548" s="15"/>
-      <c r="H548" s="156"/>
-      <c r="I548" s="174"/>
-      <c r="J548" s="156"/>
-      <c r="K548" s="156"/>
+      <c r="H548" s="157"/>
+      <c r="I548" s="175"/>
+      <c r="J548" s="157"/>
+      <c r="K548" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="515">
-    <mergeCell ref="D120:G120"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="D125:G125"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="D121:G121"/>
-    <mergeCell ref="D122:G122"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C103:G103"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="C105:G105"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="D191:G191"/>
-    <mergeCell ref="D190:G190"/>
-    <mergeCell ref="D185:G185"/>
-    <mergeCell ref="E184:G184"/>
-    <mergeCell ref="B195:G195"/>
-    <mergeCell ref="D192:G192"/>
-    <mergeCell ref="D186:G186"/>
-    <mergeCell ref="D187:G187"/>
-    <mergeCell ref="D188:G188"/>
-    <mergeCell ref="A194:G194"/>
-    <mergeCell ref="C461:G461"/>
-    <mergeCell ref="B466:G466"/>
-    <mergeCell ref="C505:G505"/>
-    <mergeCell ref="C506:G506"/>
-    <mergeCell ref="C450:G450"/>
-    <mergeCell ref="B451:G451"/>
-    <mergeCell ref="D448:G448"/>
-    <mergeCell ref="C449:G449"/>
-    <mergeCell ref="B458:G458"/>
-    <mergeCell ref="D303:G303"/>
-    <mergeCell ref="D301:G301"/>
-    <mergeCell ref="D302:G302"/>
-    <mergeCell ref="C304:G304"/>
-    <mergeCell ref="C305:G305"/>
-    <mergeCell ref="D306:G306"/>
-    <mergeCell ref="B285:G285"/>
-    <mergeCell ref="B284:G284"/>
-    <mergeCell ref="B297:G297"/>
-    <mergeCell ref="A283:G283"/>
-    <mergeCell ref="C313:G313"/>
-    <mergeCell ref="D292:G292"/>
-    <mergeCell ref="D369:G369"/>
-    <mergeCell ref="D368:G368"/>
-    <mergeCell ref="D367:G367"/>
-    <mergeCell ref="E360:G360"/>
-    <mergeCell ref="E371:G371"/>
-    <mergeCell ref="E370:G370"/>
-    <mergeCell ref="E363:G363"/>
-    <mergeCell ref="E364:G364"/>
-    <mergeCell ref="E362:G362"/>
-    <mergeCell ref="E365:G365"/>
-    <mergeCell ref="E366:G366"/>
-    <mergeCell ref="D355:G355"/>
-    <mergeCell ref="D356:G356"/>
-    <mergeCell ref="E358:G358"/>
-    <mergeCell ref="E357:G357"/>
-    <mergeCell ref="D307:G307"/>
-    <mergeCell ref="E310:G310"/>
-    <mergeCell ref="D348:G348"/>
-    <mergeCell ref="D349:G349"/>
-    <mergeCell ref="D344:G344"/>
-    <mergeCell ref="D342:G342"/>
-    <mergeCell ref="E359:G359"/>
-    <mergeCell ref="A401:G401"/>
-    <mergeCell ref="B398:G398"/>
-    <mergeCell ref="C399:G399"/>
-    <mergeCell ref="C390:G390"/>
-    <mergeCell ref="C395:G395"/>
-    <mergeCell ref="C387:G387"/>
-    <mergeCell ref="C388:G388"/>
-    <mergeCell ref="B382:G382"/>
-    <mergeCell ref="B383:G383"/>
-    <mergeCell ref="C403:G403"/>
-    <mergeCell ref="B402:G402"/>
-    <mergeCell ref="B389:G389"/>
-    <mergeCell ref="B281:G281"/>
-    <mergeCell ref="C276:G276"/>
-    <mergeCell ref="D280:G280"/>
-    <mergeCell ref="D279:G279"/>
+    <mergeCell ref="B518:G518"/>
+    <mergeCell ref="A529:G529"/>
+    <mergeCell ref="A530:G530"/>
+    <mergeCell ref="A538:G538"/>
+    <mergeCell ref="B509:G509"/>
+    <mergeCell ref="B508:G508"/>
     <mergeCell ref="B512:G512"/>
     <mergeCell ref="B513:G513"/>
     <mergeCell ref="B511:G511"/>
@@ -14271,30 +14122,15 @@
     <mergeCell ref="B515:G515"/>
     <mergeCell ref="B516:G516"/>
     <mergeCell ref="B517:G517"/>
-    <mergeCell ref="B518:G518"/>
-    <mergeCell ref="A529:G529"/>
-    <mergeCell ref="A530:G530"/>
-    <mergeCell ref="A538:G538"/>
-    <mergeCell ref="D294:G294"/>
-    <mergeCell ref="D293:G293"/>
-    <mergeCell ref="D361:G361"/>
-    <mergeCell ref="D373:G373"/>
-    <mergeCell ref="C374:G374"/>
-    <mergeCell ref="D372:G372"/>
-    <mergeCell ref="C409:G409"/>
-    <mergeCell ref="C414:G414"/>
-    <mergeCell ref="C413:G413"/>
-    <mergeCell ref="C412:G412"/>
-    <mergeCell ref="C411:G411"/>
-    <mergeCell ref="C410:G410"/>
-    <mergeCell ref="C507:G507"/>
-    <mergeCell ref="B509:G509"/>
-    <mergeCell ref="B508:G508"/>
+    <mergeCell ref="B510:G510"/>
+    <mergeCell ref="C505:G505"/>
     <mergeCell ref="C504:G504"/>
     <mergeCell ref="B502:G502"/>
     <mergeCell ref="C503:G503"/>
     <mergeCell ref="B486:G486"/>
     <mergeCell ref="C487:G487"/>
+    <mergeCell ref="C489:G489"/>
+    <mergeCell ref="C492:G492"/>
     <mergeCell ref="B485:G485"/>
     <mergeCell ref="B479:G479"/>
     <mergeCell ref="B480:G480"/>
@@ -14311,17 +14147,450 @@
     <mergeCell ref="C497:G497"/>
     <mergeCell ref="C500:G500"/>
     <mergeCell ref="C498:G498"/>
+    <mergeCell ref="C499:G499"/>
     <mergeCell ref="C501:G501"/>
-    <mergeCell ref="C499:G499"/>
     <mergeCell ref="C488:G488"/>
-    <mergeCell ref="C489:G489"/>
+    <mergeCell ref="C296:G296"/>
+    <mergeCell ref="C295:G295"/>
+    <mergeCell ref="D300:G300"/>
+    <mergeCell ref="C299:G299"/>
+    <mergeCell ref="D306:G306"/>
+    <mergeCell ref="B285:G285"/>
+    <mergeCell ref="A283:G283"/>
+    <mergeCell ref="B281:G281"/>
+    <mergeCell ref="C276:G276"/>
+    <mergeCell ref="D280:G280"/>
+    <mergeCell ref="C277:G277"/>
+    <mergeCell ref="C291:G291"/>
+    <mergeCell ref="C289:G289"/>
+    <mergeCell ref="C290:G290"/>
+    <mergeCell ref="B284:G284"/>
+    <mergeCell ref="C313:G313"/>
+    <mergeCell ref="D293:G293"/>
+    <mergeCell ref="C287:G287"/>
+    <mergeCell ref="C288:G288"/>
+    <mergeCell ref="C286:G286"/>
+    <mergeCell ref="C298:G298"/>
+    <mergeCell ref="B312:G312"/>
+    <mergeCell ref="D315:G315"/>
+    <mergeCell ref="D316:G316"/>
+    <mergeCell ref="D326:G326"/>
+    <mergeCell ref="D321:G321"/>
+    <mergeCell ref="D307:G307"/>
+    <mergeCell ref="E310:G310"/>
+    <mergeCell ref="E311:G311"/>
+    <mergeCell ref="D329:G329"/>
+    <mergeCell ref="D328:G328"/>
+    <mergeCell ref="D327:G327"/>
+    <mergeCell ref="D314:G314"/>
+    <mergeCell ref="E371:G371"/>
+    <mergeCell ref="E370:G370"/>
+    <mergeCell ref="E363:G363"/>
+    <mergeCell ref="E364:G364"/>
+    <mergeCell ref="E362:G362"/>
+    <mergeCell ref="E365:G365"/>
+    <mergeCell ref="D348:G348"/>
+    <mergeCell ref="D349:G349"/>
+    <mergeCell ref="D347:G347"/>
+    <mergeCell ref="D350:G350"/>
+    <mergeCell ref="D336:G336"/>
+    <mergeCell ref="D335:G335"/>
+    <mergeCell ref="D353:G353"/>
+    <mergeCell ref="D352:G352"/>
+    <mergeCell ref="D351:G351"/>
+    <mergeCell ref="E366:G366"/>
+    <mergeCell ref="D355:G355"/>
+    <mergeCell ref="D356:G356"/>
+    <mergeCell ref="E358:G358"/>
+    <mergeCell ref="E357:G357"/>
+    <mergeCell ref="D361:G361"/>
+    <mergeCell ref="E354:G354"/>
+    <mergeCell ref="D308:G308"/>
+    <mergeCell ref="D309:G309"/>
+    <mergeCell ref="D332:G332"/>
+    <mergeCell ref="D331:G331"/>
+    <mergeCell ref="D367:G367"/>
+    <mergeCell ref="E360:G360"/>
+    <mergeCell ref="E359:G359"/>
+    <mergeCell ref="D341:G341"/>
+    <mergeCell ref="D343:G343"/>
+    <mergeCell ref="D338:G338"/>
+    <mergeCell ref="C346:G346"/>
+    <mergeCell ref="B297:G297"/>
+    <mergeCell ref="D294:G294"/>
+    <mergeCell ref="C416:G416"/>
+    <mergeCell ref="C415:G415"/>
+    <mergeCell ref="D266:G266"/>
+    <mergeCell ref="D267:G267"/>
+    <mergeCell ref="C269:G269"/>
+    <mergeCell ref="D268:G268"/>
+    <mergeCell ref="D271:G271"/>
+    <mergeCell ref="D270:G270"/>
+    <mergeCell ref="D272:G272"/>
+    <mergeCell ref="D279:G279"/>
+    <mergeCell ref="C278:G278"/>
+    <mergeCell ref="D275:G275"/>
+    <mergeCell ref="C274:G274"/>
+    <mergeCell ref="D273:G273"/>
+    <mergeCell ref="D324:G324"/>
+    <mergeCell ref="D323:G323"/>
+    <mergeCell ref="C304:G304"/>
+    <mergeCell ref="C305:G305"/>
+    <mergeCell ref="D319:G319"/>
+    <mergeCell ref="D320:G320"/>
+    <mergeCell ref="D317:G317"/>
+    <mergeCell ref="D318:G318"/>
+    <mergeCell ref="D325:G325"/>
+    <mergeCell ref="D322:G322"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="D116:G116"/>
+    <mergeCell ref="D117:G117"/>
+    <mergeCell ref="D118:G118"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="D171:G171"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="C161:G161"/>
+    <mergeCell ref="D160:G160"/>
+    <mergeCell ref="D158:G158"/>
+    <mergeCell ref="D159:G159"/>
+    <mergeCell ref="D157:G157"/>
+    <mergeCell ref="D156:G156"/>
+    <mergeCell ref="D128:G128"/>
+    <mergeCell ref="D129:G129"/>
+    <mergeCell ref="D133:G133"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="D130:G130"/>
+    <mergeCell ref="E184:G184"/>
+    <mergeCell ref="D165:G165"/>
+    <mergeCell ref="E177:G177"/>
+    <mergeCell ref="E176:G176"/>
+    <mergeCell ref="D181:G181"/>
+    <mergeCell ref="E180:G180"/>
+    <mergeCell ref="C163:G163"/>
+    <mergeCell ref="D120:G120"/>
+    <mergeCell ref="D121:G121"/>
+    <mergeCell ref="D122:G122"/>
+    <mergeCell ref="D188:G188"/>
+    <mergeCell ref="E183:G183"/>
+    <mergeCell ref="D153:G153"/>
+    <mergeCell ref="D131:G131"/>
+    <mergeCell ref="D178:G178"/>
+    <mergeCell ref="E179:G179"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="E152:G152"/>
+    <mergeCell ref="C155:G155"/>
+    <mergeCell ref="E147:G147"/>
+    <mergeCell ref="E150:G150"/>
+    <mergeCell ref="E149:G149"/>
+    <mergeCell ref="E148:G148"/>
+    <mergeCell ref="E151:G151"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="D125:G125"/>
+    <mergeCell ref="D124:G124"/>
+    <mergeCell ref="D140:G140"/>
+    <mergeCell ref="D132:G132"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="C412:G412"/>
+    <mergeCell ref="C411:G411"/>
+    <mergeCell ref="C409:G409"/>
+    <mergeCell ref="C406:G406"/>
+    <mergeCell ref="C407:G407"/>
+    <mergeCell ref="B404:G404"/>
+    <mergeCell ref="B405:G405"/>
+    <mergeCell ref="C388:G388"/>
+    <mergeCell ref="C391:G391"/>
+    <mergeCell ref="C387:G387"/>
+    <mergeCell ref="C403:G403"/>
+    <mergeCell ref="B402:G402"/>
+    <mergeCell ref="C414:G414"/>
+    <mergeCell ref="C413:G413"/>
+    <mergeCell ref="C410:G410"/>
+    <mergeCell ref="B408:G408"/>
+    <mergeCell ref="B400:G400"/>
+    <mergeCell ref="C441:G441"/>
+    <mergeCell ref="C442:G442"/>
+    <mergeCell ref="C440:G440"/>
+    <mergeCell ref="B439:G439"/>
+    <mergeCell ref="B438:G438"/>
+    <mergeCell ref="A437:G437"/>
+    <mergeCell ref="C450:G450"/>
+    <mergeCell ref="D448:G448"/>
+    <mergeCell ref="C449:G449"/>
+    <mergeCell ref="C446:G446"/>
+    <mergeCell ref="C443:G443"/>
+    <mergeCell ref="C444:G444"/>
+    <mergeCell ref="C445:G445"/>
+    <mergeCell ref="D333:G333"/>
+    <mergeCell ref="D334:G334"/>
+    <mergeCell ref="D344:G344"/>
+    <mergeCell ref="D342:G342"/>
+    <mergeCell ref="D339:G339"/>
+    <mergeCell ref="D340:G340"/>
+    <mergeCell ref="E345:G345"/>
+    <mergeCell ref="D330:G330"/>
+    <mergeCell ref="D337:G337"/>
+    <mergeCell ref="B422:G422"/>
+    <mergeCell ref="C424:G424"/>
+    <mergeCell ref="C423:G423"/>
+    <mergeCell ref="B418:G418"/>
+    <mergeCell ref="C419:G419"/>
+    <mergeCell ref="C428:G428"/>
+    <mergeCell ref="C426:G426"/>
+    <mergeCell ref="C427:G427"/>
+    <mergeCell ref="C421:G421"/>
+    <mergeCell ref="C420:G420"/>
+    <mergeCell ref="B429:G429"/>
+    <mergeCell ref="C432:G432"/>
+    <mergeCell ref="B434:G434"/>
+    <mergeCell ref="B433:G433"/>
+    <mergeCell ref="C417:G417"/>
+    <mergeCell ref="C430:G430"/>
+    <mergeCell ref="C425:G425"/>
+    <mergeCell ref="C431:G431"/>
+    <mergeCell ref="C374:G374"/>
+    <mergeCell ref="D378:G378"/>
+    <mergeCell ref="D377:G377"/>
+    <mergeCell ref="D376:G376"/>
+    <mergeCell ref="D375:G375"/>
+    <mergeCell ref="D368:G368"/>
+    <mergeCell ref="A401:G401"/>
+    <mergeCell ref="C399:G399"/>
+    <mergeCell ref="C395:G395"/>
+    <mergeCell ref="B389:G389"/>
+    <mergeCell ref="C396:G396"/>
+    <mergeCell ref="B385:G385"/>
+    <mergeCell ref="B382:G382"/>
+    <mergeCell ref="B383:G383"/>
+    <mergeCell ref="D369:G369"/>
+    <mergeCell ref="D373:G373"/>
+    <mergeCell ref="D372:G372"/>
+    <mergeCell ref="D379:G379"/>
+    <mergeCell ref="D381:G381"/>
+    <mergeCell ref="D380:G380"/>
+    <mergeCell ref="B398:G398"/>
+    <mergeCell ref="B397:G397"/>
+    <mergeCell ref="C393:G393"/>
+    <mergeCell ref="B394:G394"/>
+    <mergeCell ref="C386:G386"/>
+    <mergeCell ref="C384:G384"/>
+    <mergeCell ref="C390:G390"/>
+    <mergeCell ref="C392:G392"/>
+    <mergeCell ref="D257:G257"/>
+    <mergeCell ref="D265:G265"/>
+    <mergeCell ref="D264:G264"/>
+    <mergeCell ref="D263:G263"/>
+    <mergeCell ref="D262:G262"/>
+    <mergeCell ref="D258:G258"/>
+    <mergeCell ref="D261:G261"/>
+    <mergeCell ref="C229:G229"/>
+    <mergeCell ref="C231:G231"/>
+    <mergeCell ref="C230:G230"/>
+    <mergeCell ref="D237:G237"/>
+    <mergeCell ref="C234:G234"/>
+    <mergeCell ref="D236:G236"/>
+    <mergeCell ref="C235:G235"/>
+    <mergeCell ref="C233:G233"/>
+    <mergeCell ref="C232:G232"/>
+    <mergeCell ref="D250:G250"/>
+    <mergeCell ref="D251:G251"/>
+    <mergeCell ref="D241:G241"/>
+    <mergeCell ref="D243:G243"/>
+    <mergeCell ref="D244:G244"/>
+    <mergeCell ref="D245:G245"/>
+    <mergeCell ref="C227:G227"/>
+    <mergeCell ref="C222:G222"/>
+    <mergeCell ref="C223:G223"/>
+    <mergeCell ref="C228:G228"/>
+    <mergeCell ref="C253:G253"/>
+    <mergeCell ref="C238:G238"/>
+    <mergeCell ref="D239:G239"/>
+    <mergeCell ref="C204:G204"/>
+    <mergeCell ref="B203:G203"/>
+    <mergeCell ref="C202:G202"/>
+    <mergeCell ref="C197:G197"/>
+    <mergeCell ref="B198:G198"/>
+    <mergeCell ref="C196:G196"/>
+    <mergeCell ref="C200:G200"/>
+    <mergeCell ref="C201:G201"/>
+    <mergeCell ref="C199:G199"/>
+    <mergeCell ref="D146:G146"/>
+    <mergeCell ref="D145:G145"/>
+    <mergeCell ref="B154:G154"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="D170:G170"/>
+    <mergeCell ref="C168:G168"/>
+    <mergeCell ref="D185:G185"/>
+    <mergeCell ref="E182:G182"/>
+    <mergeCell ref="C189:G189"/>
+    <mergeCell ref="C174:G174"/>
+    <mergeCell ref="D175:G175"/>
+    <mergeCell ref="D190:G190"/>
+    <mergeCell ref="D205:G205"/>
+    <mergeCell ref="D206:G206"/>
+    <mergeCell ref="D211:G211"/>
+    <mergeCell ref="D212:G212"/>
+    <mergeCell ref="D214:G214"/>
+    <mergeCell ref="D213:G213"/>
+    <mergeCell ref="C468:G468"/>
+    <mergeCell ref="C467:G467"/>
+    <mergeCell ref="C453:G453"/>
+    <mergeCell ref="C452:G452"/>
+    <mergeCell ref="C456:G456"/>
+    <mergeCell ref="C457:G457"/>
+    <mergeCell ref="C218:G218"/>
+    <mergeCell ref="C217:G217"/>
+    <mergeCell ref="B220:G220"/>
+    <mergeCell ref="B221:G221"/>
+    <mergeCell ref="B224:G224"/>
+    <mergeCell ref="B225:G225"/>
+    <mergeCell ref="B226:G226"/>
+    <mergeCell ref="C210:G210"/>
+    <mergeCell ref="C216:G216"/>
+    <mergeCell ref="C215:G215"/>
+    <mergeCell ref="B451:G451"/>
+    <mergeCell ref="C447:G447"/>
+    <mergeCell ref="D292:G292"/>
+    <mergeCell ref="D252:G252"/>
+    <mergeCell ref="D254:G254"/>
+    <mergeCell ref="D260:G260"/>
+    <mergeCell ref="D259:G259"/>
+    <mergeCell ref="D256:G256"/>
+    <mergeCell ref="D255:G255"/>
+    <mergeCell ref="D249:G249"/>
+    <mergeCell ref="D248:G248"/>
+    <mergeCell ref="D247:G247"/>
+    <mergeCell ref="D246:G246"/>
+    <mergeCell ref="D242:G242"/>
+    <mergeCell ref="D240:G240"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="C23:G23"/>
     <mergeCell ref="C459:G459"/>
     <mergeCell ref="C460:G460"/>
     <mergeCell ref="C454:G454"/>
     <mergeCell ref="C455:G455"/>
     <mergeCell ref="B478:G478"/>
     <mergeCell ref="B477:G477"/>
-    <mergeCell ref="C465:G465"/>
+    <mergeCell ref="A476:G476"/>
+    <mergeCell ref="C461:G461"/>
     <mergeCell ref="B462:G462"/>
     <mergeCell ref="C463:G463"/>
     <mergeCell ref="C464:G464"/>
@@ -14331,275 +14600,30 @@
     <mergeCell ref="C472:G472"/>
     <mergeCell ref="B469:G469"/>
     <mergeCell ref="C470:G470"/>
-    <mergeCell ref="C468:G468"/>
-    <mergeCell ref="C467:G467"/>
-    <mergeCell ref="C453:G453"/>
-    <mergeCell ref="C452:G452"/>
-    <mergeCell ref="C456:G456"/>
-    <mergeCell ref="C457:G457"/>
-    <mergeCell ref="C446:G446"/>
-    <mergeCell ref="A476:G476"/>
-    <mergeCell ref="C443:G443"/>
-    <mergeCell ref="C444:G444"/>
-    <mergeCell ref="C445:G445"/>
-    <mergeCell ref="B429:G429"/>
-    <mergeCell ref="C432:G432"/>
-    <mergeCell ref="B434:G434"/>
-    <mergeCell ref="B433:G433"/>
-    <mergeCell ref="C441:G441"/>
-    <mergeCell ref="C442:G442"/>
-    <mergeCell ref="C440:G440"/>
-    <mergeCell ref="C428:G428"/>
-    <mergeCell ref="B439:G439"/>
-    <mergeCell ref="B438:G438"/>
-    <mergeCell ref="A437:G437"/>
-    <mergeCell ref="D378:G378"/>
-    <mergeCell ref="D379:G379"/>
-    <mergeCell ref="D377:G377"/>
-    <mergeCell ref="E354:G354"/>
-    <mergeCell ref="D353:G353"/>
-    <mergeCell ref="D376:G376"/>
-    <mergeCell ref="D375:G375"/>
-    <mergeCell ref="D381:G381"/>
-    <mergeCell ref="D380:G380"/>
-    <mergeCell ref="D352:G352"/>
-    <mergeCell ref="D339:G339"/>
-    <mergeCell ref="D340:G340"/>
-    <mergeCell ref="D347:G347"/>
-    <mergeCell ref="E345:G345"/>
-    <mergeCell ref="D350:G350"/>
-    <mergeCell ref="D351:G351"/>
-    <mergeCell ref="D330:G330"/>
-    <mergeCell ref="D337:G337"/>
-    <mergeCell ref="D333:G333"/>
-    <mergeCell ref="D334:G334"/>
-    <mergeCell ref="D341:G341"/>
-    <mergeCell ref="D343:G343"/>
-    <mergeCell ref="D338:G338"/>
-    <mergeCell ref="C393:G393"/>
-    <mergeCell ref="B397:G397"/>
-    <mergeCell ref="C396:G396"/>
-    <mergeCell ref="B394:G394"/>
-    <mergeCell ref="C406:G406"/>
-    <mergeCell ref="B404:G404"/>
-    <mergeCell ref="B405:G405"/>
-    <mergeCell ref="B418:G418"/>
-    <mergeCell ref="C416:G416"/>
-    <mergeCell ref="C417:G417"/>
-    <mergeCell ref="C415:G415"/>
-    <mergeCell ref="B422:G422"/>
-    <mergeCell ref="C424:G424"/>
-    <mergeCell ref="C423:G423"/>
-    <mergeCell ref="C430:G430"/>
-    <mergeCell ref="C419:G419"/>
-    <mergeCell ref="C421:G421"/>
-    <mergeCell ref="C426:G426"/>
-    <mergeCell ref="C425:G425"/>
-    <mergeCell ref="C427:G427"/>
-    <mergeCell ref="C420:G420"/>
-    <mergeCell ref="C407:G407"/>
-    <mergeCell ref="B408:G408"/>
-    <mergeCell ref="C431:G431"/>
-    <mergeCell ref="C386:G386"/>
-    <mergeCell ref="C384:G384"/>
-    <mergeCell ref="B385:G385"/>
-    <mergeCell ref="C392:G392"/>
-    <mergeCell ref="C391:G391"/>
-    <mergeCell ref="B400:G400"/>
-    <mergeCell ref="D326:G326"/>
-    <mergeCell ref="E311:G311"/>
-    <mergeCell ref="D266:G266"/>
-    <mergeCell ref="D267:G267"/>
-    <mergeCell ref="D329:G329"/>
-    <mergeCell ref="D328:G328"/>
-    <mergeCell ref="D327:G327"/>
-    <mergeCell ref="D275:G275"/>
-    <mergeCell ref="C346:G346"/>
-    <mergeCell ref="D165:G165"/>
     <mergeCell ref="D167:G167"/>
+    <mergeCell ref="D169:G169"/>
+    <mergeCell ref="D191:G191"/>
+    <mergeCell ref="B195:G195"/>
+    <mergeCell ref="D192:G192"/>
+    <mergeCell ref="A194:G194"/>
     <mergeCell ref="D166:G166"/>
     <mergeCell ref="D164:G164"/>
     <mergeCell ref="D173:G173"/>
-    <mergeCell ref="D169:G169"/>
-    <mergeCell ref="D171:G171"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="D170:G170"/>
-    <mergeCell ref="E177:G177"/>
-    <mergeCell ref="E176:G176"/>
-    <mergeCell ref="D140:G140"/>
-    <mergeCell ref="D205:G205"/>
-    <mergeCell ref="D206:G206"/>
-    <mergeCell ref="D211:G211"/>
-    <mergeCell ref="D212:G212"/>
-    <mergeCell ref="D214:G214"/>
-    <mergeCell ref="D213:G213"/>
-    <mergeCell ref="D181:G181"/>
-    <mergeCell ref="E180:G180"/>
-    <mergeCell ref="C204:G204"/>
-    <mergeCell ref="B203:G203"/>
-    <mergeCell ref="C197:G197"/>
-    <mergeCell ref="B198:G198"/>
-    <mergeCell ref="C196:G196"/>
-    <mergeCell ref="C202:G202"/>
-    <mergeCell ref="C200:G200"/>
-    <mergeCell ref="C201:G201"/>
-    <mergeCell ref="C199:G199"/>
-    <mergeCell ref="D146:G146"/>
-    <mergeCell ref="D145:G145"/>
-    <mergeCell ref="C163:G163"/>
-    <mergeCell ref="C168:G168"/>
-    <mergeCell ref="D178:G178"/>
-    <mergeCell ref="E182:G182"/>
-    <mergeCell ref="C189:G189"/>
-    <mergeCell ref="C174:G174"/>
-    <mergeCell ref="D175:G175"/>
-    <mergeCell ref="E183:G183"/>
-    <mergeCell ref="E179:G179"/>
-    <mergeCell ref="C229:G229"/>
-    <mergeCell ref="C227:G227"/>
-    <mergeCell ref="C222:G222"/>
-    <mergeCell ref="C223:G223"/>
-    <mergeCell ref="C228:G228"/>
-    <mergeCell ref="E152:G152"/>
-    <mergeCell ref="E147:G147"/>
-    <mergeCell ref="E150:G150"/>
-    <mergeCell ref="E149:G149"/>
-    <mergeCell ref="E148:G148"/>
-    <mergeCell ref="E151:G151"/>
-    <mergeCell ref="B154:G154"/>
-    <mergeCell ref="D153:G153"/>
-    <mergeCell ref="C141:G141"/>
-    <mergeCell ref="C138:G138"/>
-    <mergeCell ref="C139:G139"/>
-    <mergeCell ref="B143:G143"/>
-    <mergeCell ref="C142:G142"/>
-    <mergeCell ref="C155:G155"/>
-    <mergeCell ref="C144:G144"/>
-    <mergeCell ref="C136:G136"/>
-    <mergeCell ref="C137:G137"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="D116:G116"/>
-    <mergeCell ref="D117:G117"/>
-    <mergeCell ref="D118:G118"/>
-    <mergeCell ref="D124:G124"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="D132:G132"/>
-    <mergeCell ref="D131:G131"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="D128:G128"/>
-    <mergeCell ref="D129:G129"/>
-    <mergeCell ref="D133:G133"/>
-    <mergeCell ref="C127:G127"/>
-    <mergeCell ref="C135:G135"/>
-    <mergeCell ref="C134:G134"/>
-    <mergeCell ref="D130:G130"/>
     <mergeCell ref="B162:G162"/>
-    <mergeCell ref="C161:G161"/>
-    <mergeCell ref="D160:G160"/>
-    <mergeCell ref="D158:G158"/>
-    <mergeCell ref="D159:G159"/>
-    <mergeCell ref="D157:G157"/>
-    <mergeCell ref="D156:G156"/>
-    <mergeCell ref="C218:G218"/>
-    <mergeCell ref="C217:G217"/>
-    <mergeCell ref="B220:G220"/>
-    <mergeCell ref="B221:G221"/>
-    <mergeCell ref="B224:G224"/>
-    <mergeCell ref="B225:G225"/>
-    <mergeCell ref="B226:G226"/>
+    <mergeCell ref="D186:G186"/>
+    <mergeCell ref="B466:G466"/>
+    <mergeCell ref="C506:G506"/>
+    <mergeCell ref="B458:G458"/>
+    <mergeCell ref="C507:G507"/>
+    <mergeCell ref="C465:G465"/>
+    <mergeCell ref="C219:G219"/>
+    <mergeCell ref="D187:G187"/>
+    <mergeCell ref="D303:G303"/>
+    <mergeCell ref="D301:G301"/>
+    <mergeCell ref="D302:G302"/>
     <mergeCell ref="D207:G207"/>
     <mergeCell ref="E208:G208"/>
-    <mergeCell ref="C210:G210"/>
     <mergeCell ref="D209:G209"/>
-    <mergeCell ref="C216:G216"/>
-    <mergeCell ref="C215:G215"/>
-    <mergeCell ref="C219:G219"/>
-    <mergeCell ref="C278:G278"/>
-    <mergeCell ref="C277:G277"/>
-    <mergeCell ref="C269:G269"/>
-    <mergeCell ref="D268:G268"/>
-    <mergeCell ref="C274:G274"/>
-    <mergeCell ref="D271:G271"/>
-    <mergeCell ref="D270:G270"/>
-    <mergeCell ref="D272:G272"/>
-    <mergeCell ref="D273:G273"/>
-    <mergeCell ref="C289:G289"/>
-    <mergeCell ref="C287:G287"/>
-    <mergeCell ref="C288:G288"/>
-    <mergeCell ref="C286:G286"/>
-    <mergeCell ref="C296:G296"/>
-    <mergeCell ref="C295:G295"/>
-    <mergeCell ref="D308:G308"/>
-    <mergeCell ref="D309:G309"/>
-    <mergeCell ref="D300:G300"/>
-    <mergeCell ref="C299:G299"/>
-    <mergeCell ref="C298:G298"/>
-    <mergeCell ref="C290:G290"/>
-    <mergeCell ref="C291:G291"/>
-    <mergeCell ref="C492:G492"/>
-    <mergeCell ref="C447:G447"/>
-    <mergeCell ref="D315:G315"/>
-    <mergeCell ref="D316:G316"/>
-    <mergeCell ref="D319:G319"/>
-    <mergeCell ref="D320:G320"/>
-    <mergeCell ref="D317:G317"/>
-    <mergeCell ref="D318:G318"/>
-    <mergeCell ref="D325:G325"/>
-    <mergeCell ref="D324:G324"/>
-    <mergeCell ref="D323:G323"/>
-    <mergeCell ref="D322:G322"/>
-    <mergeCell ref="D332:G332"/>
-    <mergeCell ref="D331:G331"/>
-    <mergeCell ref="D336:G336"/>
-    <mergeCell ref="D335:G335"/>
-    <mergeCell ref="B312:G312"/>
-    <mergeCell ref="B510:G510"/>
-    <mergeCell ref="D314:G314"/>
-    <mergeCell ref="D321:G321"/>
-    <mergeCell ref="D252:G252"/>
-    <mergeCell ref="D256:G256"/>
-    <mergeCell ref="D255:G255"/>
-    <mergeCell ref="D254:G254"/>
-    <mergeCell ref="D260:G260"/>
-    <mergeCell ref="D259:G259"/>
-    <mergeCell ref="D249:G249"/>
-    <mergeCell ref="D248:G248"/>
-    <mergeCell ref="D247:G247"/>
-    <mergeCell ref="D246:G246"/>
-    <mergeCell ref="D242:G242"/>
-    <mergeCell ref="D240:G240"/>
-    <mergeCell ref="D241:G241"/>
-    <mergeCell ref="D257:G257"/>
-    <mergeCell ref="C253:G253"/>
-    <mergeCell ref="D265:G265"/>
-    <mergeCell ref="D264:G264"/>
-    <mergeCell ref="D237:G237"/>
-    <mergeCell ref="C231:G231"/>
-    <mergeCell ref="C238:G238"/>
-    <mergeCell ref="C234:G234"/>
-    <mergeCell ref="C230:G230"/>
-    <mergeCell ref="C233:G233"/>
-    <mergeCell ref="C232:G232"/>
-    <mergeCell ref="D236:G236"/>
-    <mergeCell ref="C235:G235"/>
-    <mergeCell ref="D250:G250"/>
-    <mergeCell ref="D251:G251"/>
-    <mergeCell ref="D239:G239"/>
-    <mergeCell ref="D243:G243"/>
-    <mergeCell ref="D244:G244"/>
-    <mergeCell ref="D245:G245"/>
-    <mergeCell ref="D263:G263"/>
-    <mergeCell ref="D262:G262"/>
-    <mergeCell ref="D258:G258"/>
-    <mergeCell ref="D261:G261"/>
   </mergeCells>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/src/test/resources/topics/Классификатор методики МИЦИАР.xlsx
+++ b/src/test/resources/topics/Классификатор методики МИЦИАР.xlsx
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="1281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="1280">
   <si>
     <t>СТРУКТУРА МЕТОДИКИ МИЦИАР</t>
   </si>
@@ -446,19 +446,16 @@
     <t>BQ</t>
   </si>
   <si>
-    <t>Базовые понятия Ииссиидиологии.</t>
+    <t>Базовые понятия Ииссиидиологии</t>
   </si>
   <si>
     <t>HM</t>
   </si>
   <si>
-    <t>Теория Энерго-Информации.</t>
-  </si>
-  <si>
     <t>???</t>
   </si>
   <si>
-    <t>Ллууввумизм. Человеческая система ценностей.</t>
+    <t>Ллууввумизм. Человеческая система ценностей</t>
   </si>
   <si>
     <t>Любая Форма обладает самосознанием. Всё вокруг - живое</t>
@@ -2000,7 +1997,7 @@
     <t>Конфигурации ПВК (коллективного Самосознания человечества с технологическими, духовными и морально-нравственными ориентирами)</t>
   </si>
   <si>
-    <t>Отдельные моменты.</t>
+    <t>Отдельные моменты</t>
   </si>
   <si>
     <t>EY</t>
@@ -2431,7 +2428,7 @@
     <t>UA</t>
   </si>
   <si>
-    <t>Культивирование инициативности. Лидерство. Ллууввумическа харизма. О кураторстве.</t>
+    <t>Культивирование инициативности. Лидерство. Ллууввумическа харизма. О кураторстве</t>
   </si>
   <si>
     <t>HR</t>
@@ -2453,7 +2450,7 @@
 корреляция с PU</t>
   </si>
   <si>
-    <t>Устойчивость перефокусировок в ллууввумическом направлении достигается за счёт умения занимать принципиальную амплиативную позицию. Пример - позиция Ориса. Устремлённость.</t>
+    <t>Устойчивость перефокусировок в ллууввумическом направлении достигается за счёт умения занимать принципиальную амплиативную позицию. Пример - позиция Ориса. Устремлённость</t>
   </si>
   <si>
     <t>WO</t>
@@ -2513,7 +2510,7 @@
     <t>BN</t>
   </si>
   <si>
-    <t>А+Б = Совмещение двух процессов: активизация Кураторов и работа с "низами".</t>
+    <t>А+Б = Совмещение двух процессов: активизация Кураторов и работа с "низами"</t>
   </si>
   <si>
     <t>ID</t>
@@ -2921,7 +2918,7 @@
 Коммент: при работе над собой важно понимать, что есть механизм “маятника”, из Турбосуслика, Лёушкин.</t>
   </si>
   <si>
-    <t>Привычность пребывания на деплиативных Уровнях. Типовая по-Уровневая активность в социумной модели поведения.</t>
+    <t>Привычность пребывания на деплиативных Уровнях. Типовая по-Уровневая активность в социумной модели поведения</t>
   </si>
   <si>
     <t>VS</t>
@@ -2969,7 +2966,7 @@
     <t>корреляция с LV</t>
   </si>
   <si>
-    <t>О дуальности и дискретности мышления. Механизмы трансформации.</t>
+    <t>О дуальности и дискретности мышления. Механизмы трансформации</t>
   </si>
   <si>
     <t>TG</t>
@@ -3109,7 +3106,7 @@
     <t>ZE</t>
   </si>
   <si>
-    <t>Зависть.</t>
+    <t>Зависть</t>
   </si>
   <si>
     <t>BA</t>
@@ -3474,7 +3471,7 @@
     <t>HH</t>
   </si>
   <si>
-    <t>Внутренняя работа и био-форма. Влияние перефокусировок на биологию.</t>
+    <t>Внутренняя работа и био-форма. Влияние перефокусировок на биологию</t>
   </si>
   <si>
     <t>YE</t>
@@ -3726,7 +3723,7 @@
     <t>PA</t>
   </si>
   <si>
-    <t>Работа с ленью.</t>
+    <t>Работа с ленью</t>
   </si>
   <si>
     <t>TC</t>
@@ -3744,7 +3741,7 @@
     <t>LL</t>
   </si>
   <si>
-    <t>Позитивные аспекты физической работы.</t>
+    <t>Позитивные аспекты физической работы</t>
   </si>
   <si>
     <t>LK</t>
@@ -6040,10 +6037,10 @@
       <c r="A17" s="24"/>
       <c r="B17" s="32"/>
       <c r="C17" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="40" t="s">
         <v>42</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>43</v>
       </c>
       <c r="I17" s="37"/>
       <c r="J17" s="36"/>
@@ -6054,10 +6051,10 @@
       <c r="A18" s="24"/>
       <c r="B18" s="32"/>
       <c r="C18" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I18" s="47"/>
       <c r="J18" s="21"/>
@@ -6104,13 +6101,13 @@
       <c r="A22" s="24"/>
       <c r="B22" s="32"/>
       <c r="C22" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="I22" s="48" t="s">
         <v>46</v>
-      </c>
-      <c r="I22" s="48" t="s">
-        <v>47</v>
       </c>
       <c r="J22" s="21"/>
       <c r="K22" s="22"/>
@@ -6120,13 +6117,13 @@
       <c r="A23" s="24"/>
       <c r="B23" s="28"/>
       <c r="C23" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="I23" s="48" t="s">
         <v>49</v>
-      </c>
-      <c r="I23" s="48" t="s">
-        <v>50</v>
       </c>
       <c r="J23" s="21"/>
       <c r="K23" s="22"/>
@@ -6137,11 +6134,11 @@
       <c r="B24" s="28"/>
       <c r="C24" s="49"/>
       <c r="D24" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H24" s="51"/>
       <c r="I24" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J24" s="21"/>
       <c r="K24" s="22"/>
@@ -6152,11 +6149,11 @@
       <c r="B25" s="28"/>
       <c r="C25" s="49"/>
       <c r="D25" s="50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H25" s="51"/>
       <c r="I25" s="48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J25" s="21"/>
       <c r="K25" s="22"/>
@@ -6167,13 +6164,13 @@
       <c r="B26" s="24"/>
       <c r="C26" s="49"/>
       <c r="D26" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="19" t="s">
+      <c r="I26" s="48" t="s">
         <v>56</v>
-      </c>
-      <c r="I26" s="48" t="s">
-        <v>57</v>
       </c>
       <c r="J26" s="21"/>
       <c r="K26" s="22"/>
@@ -6183,13 +6180,13 @@
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="I27" s="52" t="s">
         <v>59</v>
-      </c>
-      <c r="I27" s="52" t="s">
-        <v>60</v>
       </c>
       <c r="J27" s="21"/>
       <c r="K27" s="22"/>
@@ -6200,10 +6197,10 @@
       <c r="B28" s="24"/>
       <c r="C28" s="49"/>
       <c r="D28" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="44" t="s">
         <v>61</v>
-      </c>
-      <c r="H28" s="44" t="s">
-        <v>62</v>
       </c>
       <c r="I28" s="37"/>
       <c r="J28" s="36"/>
@@ -6215,13 +6212,13 @@
       <c r="B29" s="24"/>
       <c r="C29" s="49"/>
       <c r="D29" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="H29" s="44" t="s">
+      <c r="I29" s="48" t="s">
         <v>64</v>
-      </c>
-      <c r="I29" s="48" t="s">
-        <v>65</v>
       </c>
       <c r="J29" s="36"/>
       <c r="K29" s="22"/>
@@ -6232,13 +6229,13 @@
       <c r="B30" s="24"/>
       <c r="C30" s="49"/>
       <c r="D30" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="44" t="s">
+      <c r="I30" s="48" t="s">
         <v>67</v>
-      </c>
-      <c r="I30" s="48" t="s">
-        <v>68</v>
       </c>
       <c r="J30" s="36"/>
       <c r="K30" s="22"/>
@@ -6249,10 +6246,10 @@
       <c r="B31" s="24"/>
       <c r="C31" s="29"/>
       <c r="D31" s="50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H31" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I31" s="37"/>
       <c r="J31" s="36"/>
@@ -6263,10 +6260,10 @@
       <c r="A32" s="24"/>
       <c r="B32" s="24"/>
       <c r="C32" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="19" t="s">
         <v>70</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>71</v>
       </c>
       <c r="I32" s="53"/>
       <c r="K32" s="22"/>
@@ -6276,10 +6273,10 @@
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
       <c r="C33" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="19" t="s">
         <v>72</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>73</v>
       </c>
       <c r="I33" s="53"/>
       <c r="K33" s="22"/>
@@ -6289,13 +6286,13 @@
       <c r="A34" s="24"/>
       <c r="B34" s="24"/>
       <c r="C34" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H34" s="19" t="s">
+      <c r="I34" s="54" t="s">
         <v>75</v>
-      </c>
-      <c r="I34" s="54" t="s">
-        <v>76</v>
       </c>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
@@ -6304,10 +6301,10 @@
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
       <c r="C35" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" s="33" t="s">
         <v>77</v>
-      </c>
-      <c r="H35" s="33" t="s">
-        <v>78</v>
       </c>
       <c r="I35" s="55"/>
       <c r="K35" s="22"/>
@@ -6317,13 +6314,13 @@
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H36" s="19" t="s">
+      <c r="I36" s="56" t="s">
         <v>80</v>
-      </c>
-      <c r="I36" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
@@ -6332,13 +6329,13 @@
       <c r="A37" s="24"/>
       <c r="B37" s="24"/>
       <c r="C37" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="H37" s="19" t="s">
+      <c r="I37" s="57" t="s">
         <v>83</v>
-      </c>
-      <c r="I37" s="57" t="s">
-        <v>84</v>
       </c>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
@@ -6348,11 +6345,11 @@
       <c r="B38" s="24"/>
       <c r="C38" s="49"/>
       <c r="D38" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J38" s="21"/>
       <c r="K38" s="22"/>
@@ -6363,11 +6360,11 @@
       <c r="B39" s="24"/>
       <c r="C39" s="49"/>
       <c r="D39" s="58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J39" s="21"/>
       <c r="K39" s="22"/>
@@ -6377,13 +6374,13 @@
       <c r="A40" s="24"/>
       <c r="B40" s="24"/>
       <c r="C40" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H40" s="19" t="s">
+      <c r="I40" s="48" t="s">
         <v>90</v>
-      </c>
-      <c r="I40" s="48" t="s">
-        <v>91</v>
       </c>
       <c r="J40" s="21"/>
       <c r="K40" s="22"/>
@@ -6393,10 +6390,10 @@
       <c r="A41" s="24"/>
       <c r="B41" s="24"/>
       <c r="C41" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="H41" s="19" t="s">
         <v>92</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>93</v>
       </c>
       <c r="I41" s="47"/>
       <c r="J41" s="21"/>
@@ -6407,13 +6404,13 @@
       <c r="A42" s="24"/>
       <c r="B42" s="24"/>
       <c r="C42" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="H42" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="H42" s="19" t="s">
+      <c r="I42" s="48" t="s">
         <v>95</v>
-      </c>
-      <c r="I42" s="48" t="s">
-        <v>96</v>
       </c>
       <c r="J42" s="21"/>
       <c r="K42" s="22"/>
@@ -6423,10 +6420,10 @@
       <c r="A43" s="24"/>
       <c r="B43" s="24"/>
       <c r="C43" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="H43" s="19" t="s">
         <v>97</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>98</v>
       </c>
       <c r="I43" s="47"/>
       <c r="J43" s="21"/>
@@ -6437,13 +6434,13 @@
       <c r="A44" s="24"/>
       <c r="B44" s="24"/>
       <c r="C44" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="H44" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H44" s="19" t="s">
+      <c r="I44" s="48" t="s">
         <v>100</v>
-      </c>
-      <c r="I44" s="48" t="s">
-        <v>101</v>
       </c>
       <c r="J44" s="21"/>
       <c r="K44" s="22"/>
@@ -6465,13 +6462,13 @@
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="24"/>
       <c r="B45" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="H45" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H45" s="19" t="s">
+      <c r="I45" s="63" t="s">
         <v>103</v>
-      </c>
-      <c r="I45" s="63" t="s">
-        <v>104</v>
       </c>
       <c r="J45" s="64"/>
       <c r="K45" s="22"/>
@@ -6481,13 +6478,13 @@
       <c r="A46" s="24"/>
       <c r="B46" s="28"/>
       <c r="C46" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H46" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H46" s="19" t="s">
+      <c r="I46" s="65" t="s">
         <v>106</v>
-      </c>
-      <c r="I46" s="65" t="s">
-        <v>107</v>
       </c>
       <c r="J46" s="66"/>
       <c r="K46" s="22"/>
@@ -6498,13 +6495,13 @@
       <c r="B47" s="24"/>
       <c r="C47" s="49"/>
       <c r="D47" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="H47" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="H47" s="67" t="s">
+      <c r="I47" s="48" t="s">
         <v>109</v>
-      </c>
-      <c r="I47" s="48" t="s">
-        <v>110</v>
       </c>
       <c r="J47" s="21"/>
       <c r="K47" s="22"/>
@@ -6515,13 +6512,13 @@
       <c r="B48" s="24"/>
       <c r="C48" s="49"/>
       <c r="D48" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="H48" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="H48" s="67" t="s">
+      <c r="I48" s="68" t="s">
         <v>112</v>
-      </c>
-      <c r="I48" s="68" t="s">
-        <v>113</v>
       </c>
       <c r="J48" s="69"/>
       <c r="K48" s="22"/>
@@ -6532,13 +6529,13 @@
       <c r="B49" s="24"/>
       <c r="C49" s="49"/>
       <c r="D49" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="H49" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="H49" s="67" t="s">
+      <c r="I49" s="48" t="s">
         <v>115</v>
-      </c>
-      <c r="I49" s="48" t="s">
-        <v>116</v>
       </c>
       <c r="J49" s="21"/>
       <c r="K49" s="22"/>
@@ -6548,10 +6545,10 @@
       <c r="A50" s="24"/>
       <c r="B50" s="24"/>
       <c r="C50" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="H50" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="H50" s="19" t="s">
-        <v>118</v>
       </c>
       <c r="I50" s="47"/>
       <c r="J50" s="21"/>
@@ -6563,10 +6560,10 @@
       <c r="B51" s="24"/>
       <c r="C51" s="49"/>
       <c r="D51" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="H51" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="H51" s="19" t="s">
-        <v>120</v>
       </c>
       <c r="I51" s="47"/>
       <c r="J51" s="21"/>
@@ -6578,13 +6575,13 @@
       <c r="B52" s="24"/>
       <c r="C52" s="49"/>
       <c r="D52" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="H52" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="H52" s="19" t="s">
+      <c r="I52" s="70" t="s">
         <v>122</v>
-      </c>
-      <c r="I52" s="70" t="s">
-        <v>123</v>
       </c>
       <c r="J52" s="71"/>
       <c r="K52" s="22"/>
@@ -6595,17 +6592,17 @@
       <c r="B53" s="24"/>
       <c r="C53" s="49"/>
       <c r="D53" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="H53" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="H53" s="19" t="s">
+      <c r="I53" s="72" t="s">
         <v>125</v>
-      </c>
-      <c r="I53" s="72" t="s">
-        <v>126</v>
       </c>
       <c r="J53" s="73"/>
       <c r="K53" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L53" s="23"/>
     </row>
@@ -6614,10 +6611,10 @@
       <c r="B54" s="28"/>
       <c r="C54" s="49"/>
       <c r="D54" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="H54" s="19" t="s">
         <v>128</v>
-      </c>
-      <c r="H54" s="19" t="s">
-        <v>129</v>
       </c>
       <c r="I54" s="37"/>
       <c r="J54" s="36"/>
@@ -6628,13 +6625,13 @@
       <c r="A55" s="24"/>
       <c r="B55" s="28"/>
       <c r="C55" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="H55" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="H55" s="19" t="s">
+      <c r="I55" s="70" t="s">
         <v>131</v>
-      </c>
-      <c r="I55" s="70" t="s">
-        <v>132</v>
       </c>
       <c r="J55" s="71"/>
       <c r="K55" s="22"/>
@@ -6643,10 +6640,10 @@
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="24"/>
       <c r="B56" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="H56" s="40" t="s">
         <v>133</v>
-      </c>
-      <c r="H56" s="40" t="s">
-        <v>134</v>
       </c>
       <c r="I56" s="37"/>
       <c r="J56" s="36"/>
@@ -6657,13 +6654,13 @@
       <c r="A57" s="24"/>
       <c r="B57" s="28"/>
       <c r="C57" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="H57" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H57" s="19" t="s">
+      <c r="I57" s="74" t="s">
         <v>136</v>
-      </c>
-      <c r="I57" s="74" t="s">
-        <v>137</v>
       </c>
       <c r="J57" s="75"/>
       <c r="K57" s="22"/>
@@ -6673,10 +6670,10 @@
       <c r="A58" s="24"/>
       <c r="B58" s="28"/>
       <c r="C58" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H58" s="19" t="s">
         <v>138</v>
-      </c>
-      <c r="H58" s="19" t="s">
-        <v>139</v>
       </c>
       <c r="I58" s="76"/>
       <c r="J58" s="77"/>
@@ -6687,13 +6684,13 @@
       <c r="A59" s="24"/>
       <c r="B59" s="28"/>
       <c r="C59" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="H59" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="H59" s="19" t="s">
+      <c r="I59" s="78" t="s">
         <v>141</v>
-      </c>
-      <c r="I59" s="78" t="s">
-        <v>142</v>
       </c>
       <c r="J59" s="79"/>
       <c r="K59" s="22"/>
@@ -6703,13 +6700,13 @@
       <c r="A60" s="24"/>
       <c r="B60" s="28"/>
       <c r="C60" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="H60" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="H60" s="33" t="s">
+      <c r="I60" s="76" t="s">
         <v>144</v>
-      </c>
-      <c r="I60" s="76" t="s">
-        <v>145</v>
       </c>
       <c r="J60" s="80"/>
       <c r="K60" s="22"/>
@@ -6720,10 +6717,10 @@
       <c r="B61" s="28"/>
       <c r="C61" s="49"/>
       <c r="D61" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="H61" s="33" t="s">
         <v>146</v>
-      </c>
-      <c r="H61" s="33" t="s">
-        <v>147</v>
       </c>
       <c r="I61" s="81"/>
       <c r="J61" s="80"/>
@@ -6735,10 +6732,10 @@
       <c r="B62" s="28"/>
       <c r="C62" s="49"/>
       <c r="D62" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="H62" s="33" t="s">
         <v>148</v>
-      </c>
-      <c r="H62" s="33" t="s">
-        <v>149</v>
       </c>
       <c r="I62" s="81"/>
       <c r="J62" s="80"/>
@@ -6750,10 +6747,10 @@
       <c r="B63" s="28"/>
       <c r="C63" s="49"/>
       <c r="D63" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="H63" s="33" t="s">
         <v>150</v>
-      </c>
-      <c r="H63" s="33" t="s">
-        <v>151</v>
       </c>
       <c r="I63" s="81"/>
       <c r="J63" s="80"/>
@@ -6765,13 +6762,13 @@
       <c r="B64" s="28"/>
       <c r="C64" s="49"/>
       <c r="D64" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="H64" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="H64" s="33" t="s">
+      <c r="I64" s="39" t="s">
         <v>153</v>
-      </c>
-      <c r="I64" s="39" t="s">
-        <v>154</v>
       </c>
       <c r="J64" s="80"/>
       <c r="K64" s="22"/>
@@ -6782,10 +6779,10 @@
       <c r="B65" s="28"/>
       <c r="C65" s="49"/>
       <c r="D65" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="H65" s="40" t="s">
         <v>155</v>
-      </c>
-      <c r="H65" s="40" t="s">
-        <v>156</v>
       </c>
       <c r="I65" s="82"/>
       <c r="J65" s="80"/>
@@ -6797,10 +6794,10 @@
       <c r="B66" s="28"/>
       <c r="C66" s="49"/>
       <c r="D66" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="H66" s="40" t="s">
         <v>157</v>
-      </c>
-      <c r="H66" s="40" t="s">
-        <v>158</v>
       </c>
       <c r="I66" s="82"/>
       <c r="J66" s="80"/>
@@ -6812,10 +6809,10 @@
       <c r="B67" s="28"/>
       <c r="C67" s="49"/>
       <c r="D67" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="H67" s="40" t="s">
         <v>159</v>
-      </c>
-      <c r="H67" s="40" t="s">
-        <v>160</v>
       </c>
       <c r="I67" s="82"/>
       <c r="J67" s="80"/>
@@ -6827,13 +6824,13 @@
       <c r="B68" s="28"/>
       <c r="C68" s="49"/>
       <c r="D68" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="H68" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="H68" s="40" t="s">
+      <c r="I68" s="41" t="s">
         <v>162</v>
-      </c>
-      <c r="I68" s="41" t="s">
-        <v>163</v>
       </c>
       <c r="J68" s="80"/>
       <c r="K68" s="22"/>
@@ -6843,13 +6840,13 @@
       <c r="A69" s="24"/>
       <c r="B69" s="28"/>
       <c r="C69" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="H69" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="H69" s="19" t="s">
+      <c r="I69" s="78" t="s">
         <v>165</v>
-      </c>
-      <c r="I69" s="78" t="s">
-        <v>166</v>
       </c>
       <c r="J69" s="80"/>
       <c r="K69" s="22"/>
@@ -6859,13 +6856,13 @@
       <c r="A70" s="24"/>
       <c r="B70" s="28"/>
       <c r="C70" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="H70" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="H70" s="19" t="s">
+      <c r="I70" s="39" t="s">
         <v>168</v>
-      </c>
-      <c r="I70" s="39" t="s">
-        <v>169</v>
       </c>
       <c r="J70" s="27"/>
       <c r="K70" s="22"/>
@@ -6876,11 +6873,11 @@
       <c r="B71" s="28"/>
       <c r="C71" s="29"/>
       <c r="D71" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H71" s="83"/>
       <c r="I71" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J71" s="27"/>
       <c r="K71" s="22"/>
@@ -6891,7 +6888,7 @@
       <c r="B72" s="28"/>
       <c r="C72" s="29"/>
       <c r="D72" s="50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H72" s="83"/>
       <c r="I72" s="39"/>
@@ -6904,13 +6901,13 @@
       <c r="B73" s="28"/>
       <c r="C73" s="49"/>
       <c r="D73" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="H73" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="H73" s="19" t="s">
+      <c r="I73" s="84" t="s">
         <v>174</v>
-      </c>
-      <c r="I73" s="84" t="s">
-        <v>175</v>
       </c>
       <c r="J73" s="80"/>
       <c r="K73" s="22"/>
@@ -6921,10 +6918,10 @@
       <c r="B74" s="28"/>
       <c r="C74" s="49"/>
       <c r="D74" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="H74" s="19" t="s">
         <v>176</v>
-      </c>
-      <c r="H74" s="19" t="s">
-        <v>177</v>
       </c>
       <c r="I74" s="82"/>
       <c r="J74" s="80"/>
@@ -6937,11 +6934,11 @@
       <c r="C75" s="49"/>
       <c r="D75" s="50"/>
       <c r="E75" s="85" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H75" s="83"/>
       <c r="I75" s="84" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J75" s="80"/>
       <c r="K75" s="22"/>
@@ -6953,7 +6950,7 @@
       <c r="C76" s="49"/>
       <c r="D76" s="50"/>
       <c r="E76" s="85" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H76" s="83"/>
       <c r="I76" s="82"/>
@@ -6965,10 +6962,10 @@
       <c r="A77" s="24"/>
       <c r="B77" s="28"/>
       <c r="C77" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="H77" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="H77" s="19" t="s">
-        <v>182</v>
       </c>
       <c r="I77" s="82"/>
       <c r="J77" s="80"/>
@@ -6979,10 +6976,10 @@
       <c r="A78" s="24"/>
       <c r="B78" s="28"/>
       <c r="C78" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="H78" s="19" t="s">
         <v>183</v>
-      </c>
-      <c r="H78" s="19" t="s">
-        <v>184</v>
       </c>
       <c r="I78" s="82"/>
       <c r="J78" s="80"/>
@@ -6993,13 +6990,13 @@
       <c r="A79" s="24"/>
       <c r="B79" s="28"/>
       <c r="C79" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="H79" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="H79" s="19" t="s">
+      <c r="I79" s="84" t="s">
         <v>186</v>
-      </c>
-      <c r="I79" s="84" t="s">
-        <v>187</v>
       </c>
       <c r="J79" s="80"/>
       <c r="K79" s="22"/>
@@ -7009,13 +7006,13 @@
       <c r="A80" s="24"/>
       <c r="B80" s="28"/>
       <c r="C80" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="H80" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="H80" s="19" t="s">
+      <c r="I80" s="86" t="s">
         <v>189</v>
-      </c>
-      <c r="I80" s="86" t="s">
-        <v>190</v>
       </c>
       <c r="J80" s="80"/>
       <c r="K80" s="22"/>
@@ -7025,13 +7022,13 @@
       <c r="A81" s="24"/>
       <c r="B81" s="28"/>
       <c r="C81" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="H81" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="H81" s="19" t="s">
+      <c r="I81" s="84" t="s">
         <v>192</v>
-      </c>
-      <c r="I81" s="84" t="s">
-        <v>193</v>
       </c>
       <c r="J81" s="80"/>
       <c r="K81" s="22"/>
@@ -7041,13 +7038,13 @@
       <c r="A82" s="24"/>
       <c r="B82" s="28"/>
       <c r="C82" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="H82" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="H82" s="19" t="s">
+      <c r="I82" s="39" t="s">
         <v>195</v>
-      </c>
-      <c r="I82" s="39" t="s">
-        <v>196</v>
       </c>
       <c r="J82" s="27"/>
       <c r="K82" s="22"/>
@@ -7057,13 +7054,13 @@
       <c r="A83" s="24"/>
       <c r="B83" s="28"/>
       <c r="C83" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="H83" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="H83" s="19" t="s">
+      <c r="I83" s="39" t="s">
         <v>198</v>
-      </c>
-      <c r="I83" s="39" t="s">
-        <v>199</v>
       </c>
       <c r="J83" s="27"/>
       <c r="K83" s="22"/>
@@ -7072,10 +7069,10 @@
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="24"/>
       <c r="B84" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="H84" s="19" t="s">
         <v>200</v>
-      </c>
-      <c r="H84" s="19" t="s">
-        <v>201</v>
       </c>
       <c r="I84" s="82"/>
       <c r="J84" s="80"/>
@@ -7086,13 +7083,13 @@
       <c r="A85" s="24"/>
       <c r="B85" s="28"/>
       <c r="C85" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="H85" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="H85" s="19" t="s">
+      <c r="I85" s="41" t="s">
         <v>203</v>
-      </c>
-      <c r="I85" s="41" t="s">
-        <v>204</v>
       </c>
       <c r="J85" s="77"/>
       <c r="K85" s="22"/>
@@ -7102,10 +7099,10 @@
       <c r="A86" s="24"/>
       <c r="B86" s="28"/>
       <c r="C86" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="H86" s="19" t="s">
         <v>205</v>
-      </c>
-      <c r="H86" s="19" t="s">
-        <v>206</v>
       </c>
       <c r="I86" s="82"/>
       <c r="J86" s="80"/>
@@ -7116,13 +7113,13 @@
       <c r="A87" s="24"/>
       <c r="B87" s="28"/>
       <c r="C87" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="H87" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="H87" s="19" t="s">
+      <c r="I87" s="84" t="s">
         <v>208</v>
-      </c>
-      <c r="I87" s="84" t="s">
-        <v>209</v>
       </c>
       <c r="J87" s="80"/>
       <c r="K87" s="22"/>
@@ -7133,13 +7130,13 @@
       <c r="B88" s="28"/>
       <c r="C88" s="49"/>
       <c r="D88" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="H88" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="H88" s="19" t="s">
+      <c r="I88" s="84" t="s">
         <v>211</v>
-      </c>
-      <c r="I88" s="84" t="s">
-        <v>212</v>
       </c>
       <c r="J88" s="80"/>
       <c r="K88" s="22"/>
@@ -7149,10 +7146,10 @@
       <c r="A89" s="24"/>
       <c r="B89" s="28"/>
       <c r="C89" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="H89" s="19" t="s">
         <v>213</v>
-      </c>
-      <c r="H89" s="19" t="s">
-        <v>214</v>
       </c>
       <c r="I89" s="82"/>
       <c r="J89" s="80"/>
@@ -7163,13 +7160,13 @@
       <c r="A90" s="24"/>
       <c r="B90" s="28"/>
       <c r="C90" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="H90" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="H90" s="19" t="s">
+      <c r="I90" s="86" t="s">
         <v>216</v>
-      </c>
-      <c r="I90" s="86" t="s">
-        <v>217</v>
       </c>
       <c r="J90" s="80"/>
       <c r="K90" s="22"/>
@@ -7179,13 +7176,13 @@
       <c r="A91" s="24"/>
       <c r="B91" s="28"/>
       <c r="C91" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="H91" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="H91" s="19" t="s">
+      <c r="I91" s="86" t="s">
         <v>219</v>
-      </c>
-      <c r="I91" s="86" t="s">
-        <v>220</v>
       </c>
       <c r="J91" s="80"/>
       <c r="K91" s="22"/>
@@ -7195,13 +7192,13 @@
       <c r="A92" s="24"/>
       <c r="B92" s="28"/>
       <c r="C92" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="H92" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="H92" s="19" t="s">
+      <c r="I92" s="41" t="s">
         <v>222</v>
-      </c>
-      <c r="I92" s="41" t="s">
-        <v>223</v>
       </c>
       <c r="J92" s="80"/>
       <c r="K92" s="22"/>
@@ -7210,13 +7207,13 @@
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="24"/>
       <c r="B93" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="H93" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="H93" s="19" t="s">
+      <c r="I93" s="56" t="s">
         <v>225</v>
-      </c>
-      <c r="I93" s="56" t="s">
-        <v>226</v>
       </c>
       <c r="J93" s="77"/>
       <c r="K93" s="22"/>
@@ -7226,10 +7223,10 @@
       <c r="A94" s="24"/>
       <c r="B94" s="28"/>
       <c r="C94" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="H94" s="19" t="s">
         <v>227</v>
-      </c>
-      <c r="H94" s="19" t="s">
-        <v>228</v>
       </c>
       <c r="I94" s="41"/>
       <c r="J94" s="77"/>
@@ -7240,13 +7237,13 @@
       <c r="A95" s="24"/>
       <c r="B95" s="28"/>
       <c r="C95" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="H95" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="H95" s="19" t="s">
+      <c r="I95" s="84" t="s">
         <v>230</v>
-      </c>
-      <c r="I95" s="84" t="s">
-        <v>231</v>
       </c>
       <c r="J95" s="80"/>
       <c r="K95" s="22"/>
@@ -7257,13 +7254,13 @@
       <c r="B96" s="28"/>
       <c r="C96" s="49"/>
       <c r="D96" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="H96" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="H96" s="19" t="s">
+      <c r="I96" s="84" t="s">
         <v>233</v>
-      </c>
-      <c r="I96" s="84" t="s">
-        <v>234</v>
       </c>
       <c r="J96" s="80"/>
       <c r="K96" s="22"/>
@@ -7274,13 +7271,13 @@
       <c r="B97" s="28"/>
       <c r="C97" s="29"/>
       <c r="D97" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="H97" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="H97" s="19" t="s">
+      <c r="I97" s="84" t="s">
         <v>236</v>
-      </c>
-      <c r="I97" s="84" t="s">
-        <v>237</v>
       </c>
       <c r="J97" s="80"/>
       <c r="K97" s="22"/>
@@ -7290,10 +7287,10 @@
       <c r="A98" s="24"/>
       <c r="B98" s="28"/>
       <c r="C98" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="H98" s="40" t="s">
         <v>238</v>
-      </c>
-      <c r="H98" s="40" t="s">
-        <v>239</v>
       </c>
       <c r="I98" s="82"/>
       <c r="J98" s="80"/>
@@ -7304,10 +7301,10 @@
       <c r="A99" s="24"/>
       <c r="B99" s="24"/>
       <c r="C99" s="87" t="s">
+        <v>239</v>
+      </c>
+      <c r="H99" s="19" t="s">
         <v>240</v>
-      </c>
-      <c r="H99" s="19" t="s">
-        <v>241</v>
       </c>
       <c r="I99" s="82"/>
       <c r="J99" s="80"/>
@@ -7318,10 +7315,10 @@
       <c r="A100" s="24"/>
       <c r="B100" s="24"/>
       <c r="C100" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="H100" s="19" t="s">
         <v>242</v>
-      </c>
-      <c r="H100" s="19" t="s">
-        <v>243</v>
       </c>
       <c r="I100" s="82"/>
       <c r="J100" s="80"/>
@@ -7331,13 +7328,13 @@
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="24"/>
       <c r="B101" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="H101" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="H101" s="19" t="s">
+      <c r="I101" s="84" t="s">
         <v>245</v>
-      </c>
-      <c r="I101" s="84" t="s">
-        <v>246</v>
       </c>
       <c r="J101" s="80"/>
       <c r="K101" s="22"/>
@@ -7347,13 +7344,13 @@
       <c r="A102" s="24"/>
       <c r="B102" s="24"/>
       <c r="C102" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="H102" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="H102" s="19" t="s">
+      <c r="I102" s="84" t="s">
         <v>248</v>
-      </c>
-      <c r="I102" s="84" t="s">
-        <v>249</v>
       </c>
       <c r="J102" s="80"/>
       <c r="K102" s="22"/>
@@ -7363,13 +7360,13 @@
       <c r="A103" s="24"/>
       <c r="B103" s="24"/>
       <c r="C103" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="H103" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="H103" s="19" t="s">
+      <c r="I103" s="39" t="s">
         <v>251</v>
-      </c>
-      <c r="I103" s="39" t="s">
-        <v>252</v>
       </c>
       <c r="J103" s="27"/>
       <c r="K103" s="22"/>
@@ -7379,10 +7376,10 @@
       <c r="A104" s="24"/>
       <c r="B104" s="24"/>
       <c r="C104" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="H104" s="19" t="s">
         <v>253</v>
-      </c>
-      <c r="H104" s="19" t="s">
-        <v>254</v>
       </c>
       <c r="I104" s="82"/>
       <c r="J104" s="80"/>
@@ -7393,17 +7390,17 @@
       <c r="A105" s="24"/>
       <c r="B105" s="24"/>
       <c r="C105" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="H105" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="H105" s="19" t="s">
+      <c r="I105" s="84" t="s">
         <v>256</v>
-      </c>
-      <c r="I105" s="84" t="s">
-        <v>257</v>
       </c>
       <c r="J105" s="80"/>
       <c r="K105" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L105" s="23"/>
     </row>
@@ -7411,10 +7408,10 @@
       <c r="A106" s="24"/>
       <c r="B106" s="28"/>
       <c r="C106" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="H106" s="19" t="s">
         <v>259</v>
-      </c>
-      <c r="H106" s="19" t="s">
-        <v>260</v>
       </c>
       <c r="I106" s="82"/>
       <c r="J106" s="80"/>
@@ -7424,17 +7421,17 @@
     <row r="107" ht="22.5" customHeight="1">
       <c r="A107" s="24"/>
       <c r="B107" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="H107" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="H107" s="19" t="s">
+      <c r="I107" s="41" t="s">
         <v>262</v>
-      </c>
-      <c r="I107" s="41" t="s">
-        <v>263</v>
       </c>
       <c r="J107" s="77"/>
       <c r="K107" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L107" s="23"/>
     </row>
@@ -7442,13 +7439,13 @@
       <c r="A108" s="24"/>
       <c r="B108" s="24"/>
       <c r="C108" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="H108" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="H108" s="19" t="s">
+      <c r="I108" s="84" t="s">
         <v>266</v>
-      </c>
-      <c r="I108" s="84" t="s">
-        <v>267</v>
       </c>
       <c r="J108" s="80"/>
       <c r="K108" s="22"/>
@@ -7458,10 +7455,10 @@
       <c r="A109" s="24"/>
       <c r="B109" s="24"/>
       <c r="C109" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="H109" s="19" t="s">
         <v>268</v>
-      </c>
-      <c r="H109" s="19" t="s">
-        <v>269</v>
       </c>
       <c r="I109" s="82"/>
       <c r="J109" s="80"/>
@@ -7472,13 +7469,13 @@
       <c r="A110" s="24"/>
       <c r="B110" s="24"/>
       <c r="C110" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H110" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="H110" s="19" t="s">
+      <c r="I110" s="86" t="s">
         <v>271</v>
-      </c>
-      <c r="I110" s="86" t="s">
-        <v>272</v>
       </c>
       <c r="J110" s="80"/>
       <c r="K110" s="22"/>
@@ -7488,10 +7485,10 @@
       <c r="A111" s="24"/>
       <c r="B111" s="24"/>
       <c r="C111" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="H111" s="19" t="s">
         <v>273</v>
-      </c>
-      <c r="H111" s="19" t="s">
-        <v>274</v>
       </c>
       <c r="I111" s="82"/>
       <c r="J111" s="80"/>
@@ -7502,13 +7499,13 @@
       <c r="A112" s="24"/>
       <c r="B112" s="28"/>
       <c r="C112" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="H112" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="H112" s="19" t="s">
+      <c r="I112" s="84" t="s">
         <v>276</v>
-      </c>
-      <c r="I112" s="84" t="s">
-        <v>277</v>
       </c>
       <c r="J112" s="80"/>
       <c r="K112" s="22"/>
@@ -7517,13 +7514,13 @@
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="24"/>
       <c r="B113" s="62" t="s">
+        <v>277</v>
+      </c>
+      <c r="H113" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="H113" s="19" t="s">
+      <c r="I113" s="41" t="s">
         <v>279</v>
-      </c>
-      <c r="I113" s="41" t="s">
-        <v>280</v>
       </c>
       <c r="J113" s="77"/>
       <c r="K113" s="22"/>
@@ -7533,10 +7530,10 @@
       <c r="A114" s="24"/>
       <c r="B114" s="28"/>
       <c r="C114" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="H114" s="19" t="s">
         <v>281</v>
-      </c>
-      <c r="H114" s="19" t="s">
-        <v>282</v>
       </c>
       <c r="I114" s="82"/>
       <c r="J114" s="80"/>
@@ -7547,13 +7544,13 @@
       <c r="A115" s="24"/>
       <c r="B115" s="24"/>
       <c r="C115" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="H115" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="H115" s="19" t="s">
+      <c r="I115" s="86" t="s">
         <v>284</v>
-      </c>
-      <c r="I115" s="86" t="s">
-        <v>285</v>
       </c>
       <c r="J115" s="80"/>
       <c r="K115" s="22"/>
@@ -7564,13 +7561,13 @@
       <c r="B116" s="24"/>
       <c r="C116" s="24"/>
       <c r="D116" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="H116" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="H116" s="19" t="s">
+      <c r="I116" s="86" t="s">
         <v>287</v>
-      </c>
-      <c r="I116" s="86" t="s">
-        <v>288</v>
       </c>
       <c r="J116" s="80"/>
       <c r="K116" s="22"/>
@@ -7581,13 +7578,13 @@
       <c r="B117" s="24"/>
       <c r="C117" s="49"/>
       <c r="D117" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="H117" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="H117" s="19" t="s">
+      <c r="I117" s="86" t="s">
         <v>290</v>
-      </c>
-      <c r="I117" s="86" t="s">
-        <v>291</v>
       </c>
       <c r="J117" s="80"/>
       <c r="K117" s="22"/>
@@ -7598,10 +7595,10 @@
       <c r="B118" s="24"/>
       <c r="C118" s="49"/>
       <c r="D118" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="H118" s="19" t="s">
         <v>292</v>
-      </c>
-      <c r="H118" s="19" t="s">
-        <v>293</v>
       </c>
       <c r="I118" s="82"/>
       <c r="J118" s="80"/>
@@ -7612,10 +7609,10 @@
       <c r="A119" s="24"/>
       <c r="B119" s="24"/>
       <c r="C119" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="H119" s="19" t="s">
         <v>294</v>
-      </c>
-      <c r="H119" s="19" t="s">
-        <v>295</v>
       </c>
       <c r="I119" s="82"/>
       <c r="J119" s="80"/>
@@ -7627,13 +7624,13 @@
       <c r="B120" s="24"/>
       <c r="C120" s="49"/>
       <c r="D120" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="H120" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="H120" s="19" t="s">
+      <c r="I120" s="84" t="s">
         <v>297</v>
-      </c>
-      <c r="I120" s="84" t="s">
-        <v>298</v>
       </c>
       <c r="J120" s="80"/>
       <c r="K120" s="22"/>
@@ -7644,10 +7641,10 @@
       <c r="B121" s="24"/>
       <c r="C121" s="49"/>
       <c r="D121" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="H121" s="19" t="s">
         <v>299</v>
-      </c>
-      <c r="H121" s="19" t="s">
-        <v>300</v>
       </c>
       <c r="I121" s="88"/>
       <c r="J121" s="80"/>
@@ -7659,17 +7656,17 @@
       <c r="B122" s="24"/>
       <c r="C122" s="49"/>
       <c r="D122" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="H122" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="H122" s="19" t="s">
+      <c r="I122" s="84" t="s">
         <v>302</v>
-      </c>
-      <c r="I122" s="84" t="s">
-        <v>303</v>
       </c>
       <c r="J122" s="80"/>
       <c r="K122" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L122" s="23"/>
     </row>
@@ -7678,13 +7675,13 @@
       <c r="B123" s="24"/>
       <c r="C123" s="49"/>
       <c r="D123" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="H123" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="H123" s="19" t="s">
+      <c r="I123" s="86" t="s">
         <v>306</v>
-      </c>
-      <c r="I123" s="86" t="s">
-        <v>307</v>
       </c>
       <c r="J123" s="80"/>
       <c r="K123" s="22"/>
@@ -7695,15 +7692,15 @@
       <c r="B124" s="24"/>
       <c r="C124" s="49"/>
       <c r="D124" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="H124" s="19" t="s">
         <v>308</v>
-      </c>
-      <c r="H124" s="19" t="s">
-        <v>309</v>
       </c>
       <c r="I124" s="82"/>
       <c r="J124" s="80"/>
       <c r="K124" s="22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L124" s="23"/>
     </row>
@@ -7712,10 +7709,10 @@
       <c r="B125" s="24"/>
       <c r="C125" s="24"/>
       <c r="D125" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="H125" s="19" t="s">
         <v>311</v>
-      </c>
-      <c r="H125" s="19" t="s">
-        <v>312</v>
       </c>
       <c r="I125" s="82"/>
       <c r="J125" s="80"/>
@@ -7727,13 +7724,13 @@
       <c r="B126" s="28"/>
       <c r="C126" s="49"/>
       <c r="D126" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="H126" s="89" t="s">
         <v>313</v>
       </c>
-      <c r="H126" s="89" t="s">
+      <c r="I126" s="84" t="s">
         <v>314</v>
-      </c>
-      <c r="I126" s="84" t="s">
-        <v>315</v>
       </c>
       <c r="J126" s="80"/>
       <c r="K126" s="22"/>
@@ -7743,10 +7740,10 @@
       <c r="A127" s="24"/>
       <c r="B127" s="28"/>
       <c r="C127" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="H127" s="19" t="s">
         <v>316</v>
-      </c>
-      <c r="H127" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="I127" s="82"/>
       <c r="J127" s="80"/>
@@ -7758,13 +7755,13 @@
       <c r="B128" s="28"/>
       <c r="C128" s="49"/>
       <c r="D128" s="50" t="s">
+        <v>317</v>
+      </c>
+      <c r="H128" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="H128" s="19" t="s">
+      <c r="I128" s="41" t="s">
         <v>319</v>
-      </c>
-      <c r="I128" s="41" t="s">
-        <v>320</v>
       </c>
       <c r="J128" s="77"/>
       <c r="K128" s="22"/>
@@ -7775,13 +7772,13 @@
       <c r="B129" s="28"/>
       <c r="C129" s="49"/>
       <c r="D129" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="H129" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="H129" s="19" t="s">
+      <c r="I129" s="84" t="s">
         <v>322</v>
-      </c>
-      <c r="I129" s="84" t="s">
-        <v>323</v>
       </c>
       <c r="J129" s="80"/>
       <c r="K129" s="22"/>
@@ -7792,15 +7789,15 @@
       <c r="B130" s="28"/>
       <c r="C130" s="49"/>
       <c r="D130" s="50" t="s">
+        <v>323</v>
+      </c>
+      <c r="H130" s="19" t="s">
         <v>324</v>
-      </c>
-      <c r="H130" s="19" t="s">
-        <v>325</v>
       </c>
       <c r="I130" s="82"/>
       <c r="J130" s="80"/>
       <c r="K130" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L130" s="23"/>
     </row>
@@ -7809,13 +7806,13 @@
       <c r="B131" s="28"/>
       <c r="C131" s="49"/>
       <c r="D131" s="50" t="s">
+        <v>326</v>
+      </c>
+      <c r="H131" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="H131" s="19" t="s">
+      <c r="I131" s="86" t="s">
         <v>328</v>
-      </c>
-      <c r="I131" s="86" t="s">
-        <v>329</v>
       </c>
       <c r="J131" s="80"/>
       <c r="K131" s="22"/>
@@ -7826,13 +7823,13 @@
       <c r="B132" s="28"/>
       <c r="C132" s="49"/>
       <c r="D132" s="50" t="s">
+        <v>329</v>
+      </c>
+      <c r="H132" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="H132" s="19" t="s">
+      <c r="I132" s="84" t="s">
         <v>331</v>
-      </c>
-      <c r="I132" s="84" t="s">
-        <v>332</v>
       </c>
       <c r="J132" s="80"/>
       <c r="K132" s="22"/>
@@ -7843,15 +7840,15 @@
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
       <c r="D133" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="H133" s="19" t="s">
         <v>333</v>
-      </c>
-      <c r="H133" s="19" t="s">
-        <v>334</v>
       </c>
       <c r="I133" s="82"/>
       <c r="J133" s="80"/>
       <c r="K133" s="90" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L133" s="23"/>
     </row>
@@ -7859,15 +7856,15 @@
       <c r="A134" s="24"/>
       <c r="B134" s="24"/>
       <c r="C134" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="H134" s="19" t="s">
         <v>336</v>
-      </c>
-      <c r="H134" s="19" t="s">
-        <v>337</v>
       </c>
       <c r="I134" s="82"/>
       <c r="J134" s="80"/>
       <c r="K134" s="22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L134" s="23"/>
     </row>
@@ -7875,10 +7872,10 @@
       <c r="A135" s="24"/>
       <c r="B135" s="24"/>
       <c r="C135" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="H135" s="19" t="s">
         <v>339</v>
-      </c>
-      <c r="H135" s="19" t="s">
-        <v>340</v>
       </c>
       <c r="I135" s="82"/>
       <c r="J135" s="80"/>
@@ -7889,10 +7886,10 @@
       <c r="A136" s="24"/>
       <c r="B136" s="24"/>
       <c r="C136" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="H136" s="19" t="s">
         <v>341</v>
-      </c>
-      <c r="H136" s="19" t="s">
-        <v>342</v>
       </c>
       <c r="I136" s="82"/>
       <c r="J136" s="80"/>
@@ -7903,10 +7900,10 @@
       <c r="A137" s="24"/>
       <c r="B137" s="24"/>
       <c r="C137" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="H137" s="19" t="s">
         <v>343</v>
-      </c>
-      <c r="H137" s="19" t="s">
-        <v>344</v>
       </c>
       <c r="I137" s="82"/>
       <c r="J137" s="80"/>
@@ -7917,13 +7914,13 @@
       <c r="A138" s="24"/>
       <c r="B138" s="24"/>
       <c r="C138" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="H138" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="H138" s="19" t="s">
+      <c r="I138" s="41" t="s">
         <v>346</v>
-      </c>
-      <c r="I138" s="41" t="s">
-        <v>347</v>
       </c>
       <c r="J138" s="77"/>
       <c r="K138" s="22"/>
@@ -7933,17 +7930,17 @@
       <c r="A139" s="24"/>
       <c r="B139" s="24"/>
       <c r="C139" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="H139" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="H139" s="19" t="s">
+      <c r="I139" s="84" t="s">
         <v>349</v>
-      </c>
-      <c r="I139" s="84" t="s">
-        <v>350</v>
       </c>
       <c r="J139" s="80"/>
       <c r="K139" s="22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L139" s="23"/>
     </row>
@@ -7952,10 +7949,10 @@
       <c r="B140" s="24"/>
       <c r="C140" s="49"/>
       <c r="D140" s="50" t="s">
+        <v>350</v>
+      </c>
+      <c r="H140" s="19" t="s">
         <v>351</v>
-      </c>
-      <c r="H140" s="19" t="s">
-        <v>352</v>
       </c>
       <c r="I140" s="82"/>
       <c r="J140" s="80"/>
@@ -7966,10 +7963,10 @@
       <c r="A141" s="24"/>
       <c r="B141" s="24"/>
       <c r="C141" s="49" t="s">
+        <v>352</v>
+      </c>
+      <c r="H141" s="19" t="s">
         <v>353</v>
-      </c>
-      <c r="H141" s="19" t="s">
-        <v>354</v>
       </c>
       <c r="I141" s="82"/>
       <c r="J141" s="80"/>
@@ -7980,13 +7977,13 @@
       <c r="A142" s="24"/>
       <c r="B142" s="28"/>
       <c r="C142" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="H142" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="H142" s="19" t="s">
+      <c r="I142" s="84" t="s">
         <v>356</v>
-      </c>
-      <c r="I142" s="84" t="s">
-        <v>357</v>
       </c>
       <c r="J142" s="80"/>
       <c r="K142" s="90"/>
@@ -7995,13 +7992,13 @@
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="24"/>
       <c r="B143" s="62" t="s">
+        <v>357</v>
+      </c>
+      <c r="H143" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="H143" s="19" t="s">
+      <c r="I143" s="41" t="s">
         <v>359</v>
-      </c>
-      <c r="I143" s="41" t="s">
-        <v>360</v>
       </c>
       <c r="J143" s="77"/>
       <c r="K143" s="22"/>
@@ -8011,15 +8008,15 @@
       <c r="A144" s="24"/>
       <c r="B144" s="24"/>
       <c r="C144" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="H144" s="19" t="s">
         <v>361</v>
-      </c>
-      <c r="H144" s="19" t="s">
-        <v>362</v>
       </c>
       <c r="I144" s="82"/>
       <c r="J144" s="80"/>
       <c r="K144" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L144" s="23"/>
     </row>
@@ -8028,13 +8025,13 @@
       <c r="B145" s="24"/>
       <c r="C145" s="49"/>
       <c r="D145" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="H145" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="H145" s="19" t="s">
+      <c r="I145" s="86" t="s">
         <v>365</v>
-      </c>
-      <c r="I145" s="86" t="s">
-        <v>366</v>
       </c>
       <c r="J145" s="80"/>
       <c r="K145" s="22"/>
@@ -8045,17 +8042,17 @@
       <c r="B146" s="24"/>
       <c r="C146" s="49"/>
       <c r="D146" s="50" t="s">
+        <v>366</v>
+      </c>
+      <c r="H146" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="H146" s="19" t="s">
+      <c r="I146" s="84" t="s">
         <v>368</v>
-      </c>
-      <c r="I146" s="84" t="s">
-        <v>369</v>
       </c>
       <c r="J146" s="80"/>
       <c r="K146" s="91" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L146" s="23"/>
     </row>
@@ -8065,13 +8062,13 @@
       <c r="C147" s="49"/>
       <c r="D147" s="58"/>
       <c r="E147" s="92" t="s">
+        <v>370</v>
+      </c>
+      <c r="H147" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="H147" s="19" t="s">
+      <c r="I147" s="41" t="s">
         <v>372</v>
-      </c>
-      <c r="I147" s="41" t="s">
-        <v>373</v>
       </c>
       <c r="J147" s="77"/>
       <c r="K147" s="22"/>
@@ -8083,10 +8080,10 @@
       <c r="C148" s="49"/>
       <c r="D148" s="58"/>
       <c r="E148" s="92" t="s">
+        <v>373</v>
+      </c>
+      <c r="H148" s="19" t="s">
         <v>374</v>
-      </c>
-      <c r="H148" s="19" t="s">
-        <v>375</v>
       </c>
       <c r="I148" s="82"/>
       <c r="J148" s="80"/>
@@ -8099,13 +8096,13 @@
       <c r="C149" s="49"/>
       <c r="D149" s="58"/>
       <c r="E149" s="92" t="s">
+        <v>375</v>
+      </c>
+      <c r="H149" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="H149" s="19" t="s">
+      <c r="I149" s="39" t="s">
         <v>377</v>
-      </c>
-      <c r="I149" s="39" t="s">
-        <v>378</v>
       </c>
       <c r="J149" s="27"/>
       <c r="K149" s="22"/>
@@ -8117,10 +8114,10 @@
       <c r="C150" s="49"/>
       <c r="D150" s="58"/>
       <c r="E150" s="92" t="s">
+        <v>378</v>
+      </c>
+      <c r="H150" s="19" t="s">
         <v>379</v>
-      </c>
-      <c r="H150" s="19" t="s">
-        <v>380</v>
       </c>
       <c r="I150" s="82"/>
       <c r="J150" s="80"/>
@@ -8133,13 +8130,13 @@
       <c r="C151" s="49"/>
       <c r="D151" s="58"/>
       <c r="E151" s="92" t="s">
+        <v>380</v>
+      </c>
+      <c r="H151" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="H151" s="19" t="s">
+      <c r="I151" s="86" t="s">
         <v>382</v>
-      </c>
-      <c r="I151" s="86" t="s">
-        <v>383</v>
       </c>
       <c r="J151" s="80"/>
       <c r="K151" s="22"/>
@@ -8151,10 +8148,10 @@
       <c r="C152" s="28"/>
       <c r="D152" s="58"/>
       <c r="E152" s="92" t="s">
+        <v>383</v>
+      </c>
+      <c r="H152" s="19" t="s">
         <v>384</v>
-      </c>
-      <c r="H152" s="19" t="s">
-        <v>385</v>
       </c>
       <c r="I152" s="82"/>
       <c r="J152" s="80"/>
@@ -8166,10 +8163,10 @@
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
       <c r="D153" s="50" t="s">
+        <v>385</v>
+      </c>
+      <c r="H153" s="19" t="s">
         <v>386</v>
-      </c>
-      <c r="H153" s="19" t="s">
-        <v>387</v>
       </c>
       <c r="I153" s="82"/>
       <c r="J153" s="80"/>
@@ -8179,10 +8176,10 @@
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="24"/>
       <c r="B154" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="H154" s="19" t="s">
         <v>388</v>
-      </c>
-      <c r="H154" s="19" t="s">
-        <v>389</v>
       </c>
       <c r="I154" s="82"/>
       <c r="J154" s="80"/>
@@ -8193,13 +8190,13 @@
       <c r="A155" s="24"/>
       <c r="B155" s="24"/>
       <c r="C155" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="H155" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="H155" s="19" t="s">
+      <c r="I155" s="41" t="s">
         <v>391</v>
-      </c>
-      <c r="I155" s="41" t="s">
-        <v>392</v>
       </c>
       <c r="J155" s="27"/>
       <c r="K155" s="22"/>
@@ -8210,10 +8207,10 @@
       <c r="B156" s="24"/>
       <c r="C156" s="29"/>
       <c r="D156" s="50" t="s">
+        <v>392</v>
+      </c>
+      <c r="H156" s="93" t="s">
         <v>393</v>
-      </c>
-      <c r="H156" s="93" t="s">
-        <v>394</v>
       </c>
       <c r="I156" s="41"/>
       <c r="J156" s="27"/>
@@ -8225,10 +8222,10 @@
       <c r="B157" s="24"/>
       <c r="C157" s="29"/>
       <c r="D157" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H157" s="93" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I157" s="41"/>
       <c r="J157" s="27"/>
@@ -8240,10 +8237,10 @@
       <c r="B158" s="24"/>
       <c r="C158" s="29"/>
       <c r="D158" s="50" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H158" s="93" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I158" s="78"/>
       <c r="J158" s="27"/>
@@ -8255,10 +8252,10 @@
       <c r="B159" s="24"/>
       <c r="C159" s="29"/>
       <c r="D159" s="50" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H159" s="93" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I159" s="41"/>
       <c r="J159" s="27"/>
@@ -8270,10 +8267,10 @@
       <c r="B160" s="24"/>
       <c r="C160" s="29"/>
       <c r="D160" s="50" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H160" s="93" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I160" s="41"/>
       <c r="J160" s="27"/>
@@ -8284,10 +8281,10 @@
       <c r="A161" s="94"/>
       <c r="B161" s="94"/>
       <c r="C161" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="H161" s="19" t="s">
         <v>399</v>
-      </c>
-      <c r="H161" s="19" t="s">
-        <v>400</v>
       </c>
       <c r="I161" s="95"/>
       <c r="J161" s="96"/>
@@ -8297,10 +8294,10 @@
     <row r="162" ht="27.75" customHeight="1">
       <c r="A162" s="24"/>
       <c r="B162" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="H162" s="19" t="s">
         <v>401</v>
-      </c>
-      <c r="H162" s="19" t="s">
-        <v>402</v>
       </c>
       <c r="I162" s="82"/>
       <c r="J162" s="80"/>
@@ -8311,15 +8308,15 @@
       <c r="A163" s="24"/>
       <c r="B163" s="24"/>
       <c r="C163" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="H163" s="19" t="s">
         <v>403</v>
-      </c>
-      <c r="H163" s="19" t="s">
-        <v>404</v>
       </c>
       <c r="I163" s="82"/>
       <c r="J163" s="80"/>
       <c r="K163" s="99" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L163" s="23"/>
     </row>
@@ -8328,17 +8325,17 @@
       <c r="B164" s="28"/>
       <c r="C164" s="28"/>
       <c r="D164" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H164" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="H164" s="19" t="s">
+      <c r="I164" s="41" t="s">
         <v>407</v>
-      </c>
-      <c r="I164" s="41" t="s">
-        <v>408</v>
       </c>
       <c r="J164" s="77"/>
       <c r="K164" s="22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L164" s="23"/>
     </row>
@@ -8347,13 +8344,13 @@
       <c r="B165" s="28"/>
       <c r="C165" s="28"/>
       <c r="D165" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="H165" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="H165" s="19" t="s">
-        <v>411</v>
-      </c>
       <c r="I165" s="100" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J165" s="101"/>
       <c r="K165" s="22"/>
@@ -8364,13 +8361,13 @@
       <c r="B166" s="28"/>
       <c r="C166" s="28"/>
       <c r="D166" s="58" t="s">
+        <v>411</v>
+      </c>
+      <c r="H166" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="H166" s="19" t="s">
-        <v>413</v>
-      </c>
       <c r="I166" s="100" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J166" s="101"/>
       <c r="K166" s="22"/>
@@ -8381,10 +8378,10 @@
       <c r="B167" s="28"/>
       <c r="C167" s="28"/>
       <c r="D167" s="50" t="s">
+        <v>413</v>
+      </c>
+      <c r="H167" s="19" t="s">
         <v>414</v>
-      </c>
-      <c r="H167" s="19" t="s">
-        <v>415</v>
       </c>
       <c r="I167" s="82"/>
       <c r="J167" s="80"/>
@@ -8395,13 +8392,13 @@
       <c r="A168" s="24"/>
       <c r="B168" s="28"/>
       <c r="C168" s="29" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H168" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="I168" s="41" t="s">
         <v>416</v>
-      </c>
-      <c r="I168" s="41" t="s">
-        <v>417</v>
       </c>
       <c r="J168" s="77"/>
       <c r="K168" s="22"/>
@@ -8412,10 +8409,10 @@
       <c r="B169" s="24"/>
       <c r="C169" s="49"/>
       <c r="D169" s="50" t="s">
+        <v>417</v>
+      </c>
+      <c r="H169" s="19" t="s">
         <v>418</v>
-      </c>
-      <c r="H169" s="19" t="s">
-        <v>419</v>
       </c>
       <c r="I169" s="82"/>
       <c r="J169" s="80"/>
@@ -8427,10 +8424,10 @@
       <c r="B170" s="24"/>
       <c r="C170" s="49"/>
       <c r="D170" s="50" t="s">
+        <v>419</v>
+      </c>
+      <c r="H170" s="19" t="s">
         <v>420</v>
-      </c>
-      <c r="H170" s="19" t="s">
-        <v>421</v>
       </c>
       <c r="I170" s="82"/>
       <c r="J170" s="80"/>
@@ -8442,13 +8439,13 @@
       <c r="B171" s="24"/>
       <c r="C171" s="49"/>
       <c r="D171" s="50" t="s">
+        <v>421</v>
+      </c>
+      <c r="H171" s="19" t="s">
         <v>422</v>
       </c>
-      <c r="H171" s="19" t="s">
+      <c r="I171" s="84" t="s">
         <v>423</v>
-      </c>
-      <c r="I171" s="84" t="s">
-        <v>424</v>
       </c>
       <c r="J171" s="80"/>
       <c r="K171" s="22"/>
@@ -8460,10 +8457,10 @@
       <c r="C172" s="24"/>
       <c r="D172" s="58"/>
       <c r="E172" s="92" t="s">
+        <v>424</v>
+      </c>
+      <c r="H172" s="19" t="s">
         <v>425</v>
-      </c>
-      <c r="H172" s="19" t="s">
-        <v>426</v>
       </c>
       <c r="I172" s="82"/>
       <c r="J172" s="80"/>
@@ -8475,10 +8472,10 @@
       <c r="B173" s="24"/>
       <c r="C173" s="24"/>
       <c r="D173" s="50" t="s">
+        <v>426</v>
+      </c>
+      <c r="H173" s="19" t="s">
         <v>427</v>
-      </c>
-      <c r="H173" s="19" t="s">
-        <v>428</v>
       </c>
       <c r="I173" s="82"/>
       <c r="J173" s="80"/>
@@ -8489,17 +8486,17 @@
       <c r="A174" s="24"/>
       <c r="B174" s="24"/>
       <c r="C174" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="H174" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="H174" s="19" t="s">
+      <c r="I174" s="41" t="s">
         <v>430</v>
-      </c>
-      <c r="I174" s="41" t="s">
-        <v>431</v>
       </c>
       <c r="J174" s="77"/>
       <c r="K174" s="102" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L174" s="23"/>
     </row>
@@ -8508,10 +8505,10 @@
       <c r="B175" s="24"/>
       <c r="C175" s="24"/>
       <c r="D175" s="50" t="s">
+        <v>432</v>
+      </c>
+      <c r="H175" s="19" t="s">
         <v>433</v>
-      </c>
-      <c r="H175" s="19" t="s">
-        <v>434</v>
       </c>
       <c r="I175" s="82"/>
       <c r="J175" s="80"/>
@@ -8524,10 +8521,10 @@
       <c r="C176" s="49"/>
       <c r="D176" s="49"/>
       <c r="E176" s="92" t="s">
+        <v>434</v>
+      </c>
+      <c r="H176" s="19" t="s">
         <v>435</v>
-      </c>
-      <c r="H176" s="19" t="s">
-        <v>436</v>
       </c>
       <c r="I176" s="82"/>
       <c r="J176" s="80"/>
@@ -8540,10 +8537,10 @@
       <c r="C177" s="49"/>
       <c r="D177" s="49"/>
       <c r="E177" s="92" t="s">
+        <v>436</v>
+      </c>
+      <c r="H177" s="19" t="s">
         <v>437</v>
-      </c>
-      <c r="H177" s="19" t="s">
-        <v>438</v>
       </c>
       <c r="I177" s="82"/>
       <c r="J177" s="80"/>
@@ -8555,10 +8552,10 @@
       <c r="B178" s="24"/>
       <c r="C178" s="49"/>
       <c r="D178" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="H178" s="19" t="s">
         <v>439</v>
-      </c>
-      <c r="H178" s="19" t="s">
-        <v>440</v>
       </c>
       <c r="I178" s="82"/>
       <c r="J178" s="80"/>
@@ -8571,7 +8568,7 @@
       <c r="C179" s="49"/>
       <c r="D179" s="58"/>
       <c r="E179" s="92" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="82"/>
@@ -8585,7 +8582,7 @@
       <c r="C180" s="49"/>
       <c r="D180" s="58"/>
       <c r="E180" s="92" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="82"/>
@@ -8598,10 +8595,10 @@
       <c r="B181" s="24"/>
       <c r="C181" s="49"/>
       <c r="D181" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="H181" s="19" t="s">
         <v>443</v>
-      </c>
-      <c r="H181" s="19" t="s">
-        <v>444</v>
       </c>
       <c r="I181" s="82"/>
       <c r="J181" s="80"/>
@@ -8614,13 +8611,13 @@
       <c r="C182" s="49"/>
       <c r="D182" s="58"/>
       <c r="E182" s="92" t="s">
+        <v>444</v>
+      </c>
+      <c r="H182" s="19" t="s">
         <v>445</v>
       </c>
-      <c r="H182" s="19" t="s">
+      <c r="I182" s="86" t="s">
         <v>446</v>
-      </c>
-      <c r="I182" s="86" t="s">
-        <v>447</v>
       </c>
       <c r="J182" s="80"/>
       <c r="K182" s="22"/>
@@ -8632,13 +8629,13 @@
       <c r="C183" s="49"/>
       <c r="D183" s="58"/>
       <c r="E183" s="92" t="s">
+        <v>447</v>
+      </c>
+      <c r="H183" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="H183" s="19" t="s">
-        <v>449</v>
-      </c>
       <c r="I183" s="86" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J183" s="80"/>
       <c r="K183" s="22"/>
@@ -8650,10 +8647,10 @@
       <c r="C184" s="24"/>
       <c r="D184" s="58"/>
       <c r="E184" s="92" t="s">
+        <v>449</v>
+      </c>
+      <c r="H184" s="19" t="s">
         <v>450</v>
-      </c>
-      <c r="H184" s="19" t="s">
-        <v>451</v>
       </c>
       <c r="I184" s="82"/>
       <c r="J184" s="80"/>
@@ -8665,17 +8662,17 @@
       <c r="B185" s="24"/>
       <c r="C185" s="24"/>
       <c r="D185" s="50" t="s">
+        <v>451</v>
+      </c>
+      <c r="H185" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="H185" s="19" t="s">
+      <c r="I185" s="39" t="s">
         <v>453</v>
-      </c>
-      <c r="I185" s="39" t="s">
-        <v>454</v>
       </c>
       <c r="J185" s="27"/>
       <c r="K185" s="22" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L185" s="23"/>
     </row>
@@ -8684,10 +8681,10 @@
       <c r="B186" s="24"/>
       <c r="C186" s="24"/>
       <c r="D186" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="H186" s="19" t="s">
         <v>456</v>
-      </c>
-      <c r="H186" s="19" t="s">
-        <v>457</v>
       </c>
       <c r="I186" s="82"/>
       <c r="J186" s="80"/>
@@ -8699,10 +8696,10 @@
       <c r="B187" s="24"/>
       <c r="C187" s="24"/>
       <c r="D187" s="50" t="s">
+        <v>457</v>
+      </c>
+      <c r="H187" s="19" t="s">
         <v>458</v>
-      </c>
-      <c r="H187" s="19" t="s">
-        <v>459</v>
       </c>
       <c r="I187" s="82"/>
       <c r="J187" s="80"/>
@@ -8714,15 +8711,15 @@
       <c r="B188" s="24"/>
       <c r="C188" s="24"/>
       <c r="D188" s="50" t="s">
+        <v>459</v>
+      </c>
+      <c r="H188" s="19" t="s">
         <v>460</v>
-      </c>
-      <c r="H188" s="19" t="s">
-        <v>461</v>
       </c>
       <c r="I188" s="82"/>
       <c r="J188" s="80"/>
       <c r="K188" s="22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L188" s="23"/>
     </row>
@@ -8730,10 +8727,10 @@
       <c r="A189" s="6"/>
       <c r="B189" s="28"/>
       <c r="C189" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="H189" s="103" t="s">
         <v>463</v>
-      </c>
-      <c r="H189" s="103" t="s">
-        <v>464</v>
       </c>
       <c r="I189" s="95"/>
       <c r="J189" s="96"/>
@@ -8745,13 +8742,13 @@
       <c r="B190" s="24"/>
       <c r="C190" s="49"/>
       <c r="D190" s="50" t="s">
+        <v>464</v>
+      </c>
+      <c r="H190" s="103" t="s">
         <v>465</v>
       </c>
-      <c r="H190" s="103" t="s">
+      <c r="I190" s="105" t="s">
         <v>466</v>
-      </c>
-      <c r="I190" s="105" t="s">
-        <v>467</v>
       </c>
       <c r="J190" s="96"/>
       <c r="K190" s="97"/>
@@ -8762,17 +8759,17 @@
       <c r="B191" s="24"/>
       <c r="C191" s="49"/>
       <c r="D191" s="50" t="s">
+        <v>467</v>
+      </c>
+      <c r="H191" s="103" t="s">
         <v>468</v>
       </c>
-      <c r="H191" s="103" t="s">
-        <v>469</v>
-      </c>
       <c r="I191" s="106" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J191" s="107"/>
       <c r="K191" s="97" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L191" s="104"/>
     </row>
@@ -8781,10 +8778,10 @@
       <c r="B192" s="24"/>
       <c r="C192" s="49"/>
       <c r="D192" s="50" t="s">
+        <v>470</v>
+      </c>
+      <c r="H192" s="103" t="s">
         <v>471</v>
-      </c>
-      <c r="H192" s="103" t="s">
-        <v>472</v>
       </c>
       <c r="I192" s="95"/>
       <c r="J192" s="96"/>
@@ -8807,16 +8804,16 @@
     </row>
     <row r="194" ht="18.75" customHeight="1">
       <c r="A194" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="H194" s="108" t="s">
         <v>473</v>
       </c>
-      <c r="H194" s="108" t="s">
+      <c r="I194" s="109" t="s">
         <v>474</v>
       </c>
-      <c r="I194" s="109" t="s">
+      <c r="J194" s="110" t="s">
         <v>475</v>
-      </c>
-      <c r="J194" s="110" t="s">
-        <v>476</v>
       </c>
       <c r="K194" s="111"/>
       <c r="L194" s="104"/>
@@ -8824,13 +8821,13 @@
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="112"/>
       <c r="B195" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="H195" s="113" t="s">
         <v>477</v>
       </c>
-      <c r="H195" s="113" t="s">
+      <c r="I195" s="114" t="s">
         <v>478</v>
-      </c>
-      <c r="I195" s="114" t="s">
-        <v>479</v>
       </c>
       <c r="J195" s="96"/>
       <c r="K195" s="97"/>
@@ -8840,10 +8837,10 @@
       <c r="A196" s="112"/>
       <c r="B196" s="28"/>
       <c r="C196" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="H196" s="113" t="s">
         <v>480</v>
-      </c>
-      <c r="H196" s="113" t="s">
-        <v>481</v>
       </c>
       <c r="I196" s="95"/>
       <c r="J196" s="96"/>
@@ -8854,10 +8851,10 @@
       <c r="A197" s="112"/>
       <c r="B197" s="28"/>
       <c r="C197" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="H197" s="113" t="s">
         <v>482</v>
-      </c>
-      <c r="H197" s="113" t="s">
-        <v>483</v>
       </c>
       <c r="I197" s="95"/>
       <c r="J197" s="96"/>
@@ -8867,17 +8864,17 @@
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="112"/>
       <c r="B198" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="H198" s="108" t="s">
         <v>484</v>
       </c>
-      <c r="H198" s="108" t="s">
+      <c r="I198" s="115" t="s">
         <v>485</v>
-      </c>
-      <c r="I198" s="115" t="s">
-        <v>486</v>
       </c>
       <c r="J198" s="96"/>
       <c r="K198" s="97" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L198" s="104"/>
     </row>
@@ -8885,13 +8882,13 @@
       <c r="A199" s="112"/>
       <c r="B199" s="28"/>
       <c r="C199" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="H199" s="108" t="s">
         <v>488</v>
       </c>
-      <c r="H199" s="108" t="s">
+      <c r="I199" s="109" t="s">
         <v>489</v>
-      </c>
-      <c r="I199" s="109" t="s">
-        <v>490</v>
       </c>
       <c r="J199" s="96"/>
       <c r="K199" s="111"/>
@@ -8901,13 +8898,13 @@
       <c r="A200" s="112"/>
       <c r="B200" s="28"/>
       <c r="C200" s="49" t="s">
+        <v>490</v>
+      </c>
+      <c r="H200" s="108" t="s">
         <v>491</v>
       </c>
-      <c r="H200" s="108" t="s">
+      <c r="I200" s="105" t="s">
         <v>492</v>
-      </c>
-      <c r="I200" s="105" t="s">
-        <v>493</v>
       </c>
       <c r="J200" s="96"/>
       <c r="K200" s="111"/>
@@ -8917,17 +8914,17 @@
       <c r="A201" s="112"/>
       <c r="B201" s="28"/>
       <c r="C201" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="H201" s="108" t="s">
         <v>494</v>
       </c>
-      <c r="H201" s="108" t="s">
+      <c r="I201" s="109" t="s">
         <v>495</v>
-      </c>
-      <c r="I201" s="109" t="s">
-        <v>496</v>
       </c>
       <c r="J201" s="96"/>
       <c r="K201" s="111" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L201" s="104"/>
     </row>
@@ -8935,13 +8932,13 @@
       <c r="A202" s="112"/>
       <c r="B202" s="28"/>
       <c r="C202" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="H202" s="108" t="s">
         <v>498</v>
       </c>
-      <c r="H202" s="108" t="s">
+      <c r="I202" s="116" t="s">
         <v>499</v>
-      </c>
-      <c r="I202" s="116" t="s">
-        <v>500</v>
       </c>
       <c r="J202" s="96"/>
       <c r="K202" s="111"/>
@@ -8950,10 +8947,10 @@
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="112"/>
       <c r="B203" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="H203" s="108" t="s">
         <v>501</v>
-      </c>
-      <c r="H203" s="108" t="s">
-        <v>502</v>
       </c>
       <c r="I203" s="95"/>
       <c r="J203" s="96"/>
@@ -8964,13 +8961,13 @@
       <c r="A204" s="112"/>
       <c r="B204" s="23"/>
       <c r="C204" s="29" t="s">
+        <v>502</v>
+      </c>
+      <c r="H204" s="108" t="s">
         <v>503</v>
       </c>
-      <c r="H204" s="108" t="s">
+      <c r="I204" s="116" t="s">
         <v>504</v>
-      </c>
-      <c r="I204" s="116" t="s">
-        <v>505</v>
       </c>
       <c r="J204" s="96"/>
       <c r="K204" s="111"/>
@@ -8981,11 +8978,11 @@
       <c r="B205" s="23"/>
       <c r="C205" s="28"/>
       <c r="D205" s="50" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H205" s="117"/>
       <c r="I205" s="118" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J205" s="96"/>
       <c r="K205" s="111"/>
@@ -8996,10 +8993,10 @@
       <c r="B206" s="23"/>
       <c r="C206" s="28"/>
       <c r="D206" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="H206" s="108" t="s">
         <v>508</v>
-      </c>
-      <c r="H206" s="108" t="s">
-        <v>509</v>
       </c>
       <c r="I206" s="95"/>
       <c r="J206" s="96"/>
@@ -9011,10 +9008,10 @@
       <c r="B207" s="23"/>
       <c r="C207" s="28"/>
       <c r="D207" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="H207" s="108" t="s">
         <v>510</v>
-      </c>
-      <c r="H207" s="108" t="s">
-        <v>511</v>
       </c>
       <c r="I207" s="95"/>
       <c r="J207" s="96"/>
@@ -9027,13 +9024,13 @@
       <c r="C208" s="119"/>
       <c r="D208" s="58"/>
       <c r="E208" s="120" t="s">
+        <v>511</v>
+      </c>
+      <c r="H208" s="108" t="s">
         <v>512</v>
       </c>
-      <c r="H208" s="108" t="s">
+      <c r="I208" s="109" t="s">
         <v>513</v>
-      </c>
-      <c r="I208" s="109" t="s">
-        <v>514</v>
       </c>
       <c r="J208" s="96"/>
       <c r="K208" s="111"/>
@@ -9044,10 +9041,10 @@
       <c r="B209" s="23"/>
       <c r="C209" s="119"/>
       <c r="D209" s="50" t="s">
+        <v>514</v>
+      </c>
+      <c r="H209" s="108" t="s">
         <v>515</v>
-      </c>
-      <c r="H209" s="108" t="s">
-        <v>516</v>
       </c>
       <c r="I209" s="95"/>
       <c r="J209" s="96"/>
@@ -9058,10 +9055,10 @@
       <c r="A210" s="112"/>
       <c r="B210" s="23"/>
       <c r="C210" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="H210" s="108" t="s">
         <v>517</v>
-      </c>
-      <c r="H210" s="108" t="s">
-        <v>518</v>
       </c>
       <c r="I210" s="95"/>
       <c r="J210" s="96"/>
@@ -9073,15 +9070,15 @@
       <c r="B211" s="49"/>
       <c r="C211" s="49"/>
       <c r="D211" s="50" t="s">
+        <v>518</v>
+      </c>
+      <c r="H211" s="108" t="s">
         <v>519</v>
-      </c>
-      <c r="H211" s="108" t="s">
-        <v>520</v>
       </c>
       <c r="I211" s="95"/>
       <c r="J211" s="96"/>
       <c r="K211" s="121" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L211" s="104"/>
     </row>
@@ -9090,10 +9087,10 @@
       <c r="B212" s="49"/>
       <c r="C212" s="49"/>
       <c r="D212" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="H212" s="108" t="s">
         <v>522</v>
-      </c>
-      <c r="H212" s="108" t="s">
-        <v>523</v>
       </c>
       <c r="I212" s="122"/>
       <c r="J212" s="96"/>
@@ -9105,10 +9102,10 @@
       <c r="B213" s="49"/>
       <c r="C213" s="49"/>
       <c r="D213" s="50" t="s">
+        <v>523</v>
+      </c>
+      <c r="H213" s="108" t="s">
         <v>524</v>
-      </c>
-      <c r="H213" s="108" t="s">
-        <v>525</v>
       </c>
       <c r="I213" s="95"/>
       <c r="J213" s="96"/>
@@ -9120,13 +9117,13 @@
       <c r="B214" s="49"/>
       <c r="C214" s="49"/>
       <c r="D214" s="50" t="s">
+        <v>525</v>
+      </c>
+      <c r="H214" s="108" t="s">
         <v>526</v>
       </c>
-      <c r="H214" s="108" t="s">
+      <c r="I214" s="116" t="s">
         <v>527</v>
-      </c>
-      <c r="I214" s="116" t="s">
-        <v>528</v>
       </c>
       <c r="J214" s="96"/>
       <c r="K214" s="111"/>
@@ -9136,17 +9133,17 @@
       <c r="A215" s="112"/>
       <c r="B215" s="28"/>
       <c r="C215" s="29" t="s">
+        <v>528</v>
+      </c>
+      <c r="H215" s="108" t="s">
         <v>529</v>
       </c>
-      <c r="H215" s="108" t="s">
+      <c r="I215" s="109" t="s">
         <v>530</v>
-      </c>
-      <c r="I215" s="109" t="s">
-        <v>531</v>
       </c>
       <c r="J215" s="96"/>
       <c r="K215" s="111" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L215" s="104"/>
     </row>
@@ -9154,13 +9151,13 @@
       <c r="A216" s="112"/>
       <c r="B216" s="62"/>
       <c r="C216" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="H216" s="113" t="s">
         <v>533</v>
       </c>
-      <c r="H216" s="113" t="s">
+      <c r="I216" s="123" t="s">
         <v>534</v>
-      </c>
-      <c r="I216" s="123" t="s">
-        <v>535</v>
       </c>
       <c r="J216" s="96"/>
       <c r="K216" s="111"/>
@@ -9170,13 +9167,13 @@
       <c r="A217" s="112"/>
       <c r="B217" s="62"/>
       <c r="C217" s="29" t="s">
+        <v>535</v>
+      </c>
+      <c r="H217" s="113" t="s">
         <v>536</v>
       </c>
-      <c r="H217" s="113" t="s">
+      <c r="I217" s="123" t="s">
         <v>537</v>
-      </c>
-      <c r="I217" s="123" t="s">
-        <v>538</v>
       </c>
       <c r="J217" s="96"/>
       <c r="K217" s="111"/>
@@ -9186,7 +9183,7 @@
       <c r="A218" s="112"/>
       <c r="B218" s="62"/>
       <c r="C218" s="29" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H218" s="124"/>
       <c r="I218" s="123"/>
@@ -9198,7 +9195,7 @@
       <c r="A219" s="112"/>
       <c r="B219" s="62"/>
       <c r="C219" s="29" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H219" s="124"/>
       <c r="I219" s="123"/>
@@ -9209,10 +9206,10 @@
     <row r="220" ht="30.0" customHeight="1">
       <c r="A220" s="112"/>
       <c r="B220" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="H220" s="108" t="s">
         <v>541</v>
-      </c>
-      <c r="H220" s="108" t="s">
-        <v>542</v>
       </c>
       <c r="I220" s="95"/>
       <c r="J220" s="96"/>
@@ -9222,10 +9219,10 @@
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="112"/>
       <c r="B221" s="25" t="s">
+        <v>542</v>
+      </c>
+      <c r="H221" s="108" t="s">
         <v>543</v>
-      </c>
-      <c r="H221" s="108" t="s">
-        <v>544</v>
       </c>
       <c r="I221" s="95"/>
       <c r="J221" s="96"/>
@@ -9236,10 +9233,10 @@
       <c r="A222" s="112"/>
       <c r="B222" s="49"/>
       <c r="C222" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="H222" s="108" t="s">
         <v>545</v>
-      </c>
-      <c r="H222" s="108" t="s">
-        <v>546</v>
       </c>
       <c r="I222" s="95"/>
       <c r="J222" s="96"/>
@@ -9250,10 +9247,10 @@
       <c r="A223" s="112"/>
       <c r="B223" s="49"/>
       <c r="C223" s="29" t="s">
+        <v>546</v>
+      </c>
+      <c r="H223" s="108" t="s">
         <v>547</v>
-      </c>
-      <c r="H223" s="108" t="s">
-        <v>548</v>
       </c>
       <c r="I223" s="95"/>
       <c r="J223" s="96"/>
@@ -9263,10 +9260,10 @@
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="119"/>
       <c r="B224" s="25" t="s">
+        <v>548</v>
+      </c>
+      <c r="H224" s="108" t="s">
         <v>549</v>
-      </c>
-      <c r="H224" s="108" t="s">
-        <v>550</v>
       </c>
       <c r="I224" s="95"/>
       <c r="J224" s="96"/>
@@ -9276,32 +9273,32 @@
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="119"/>
       <c r="B225" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="H225" s="108" t="s">
         <v>551</v>
       </c>
-      <c r="H225" s="108" t="s">
+      <c r="I225" s="123" t="s">
         <v>552</v>
-      </c>
-      <c r="I225" s="123" t="s">
-        <v>553</v>
       </c>
       <c r="J225" s="96"/>
       <c r="K225" s="97" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L225" s="104"/>
     </row>
     <row r="226" ht="22.5" customHeight="1">
       <c r="A226" s="119"/>
       <c r="B226" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="H226" s="108" t="s">
         <v>555</v>
-      </c>
-      <c r="H226" s="108" t="s">
-        <v>556</v>
       </c>
       <c r="I226" s="125"/>
       <c r="J226" s="96"/>
       <c r="K226" s="97" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L226" s="104"/>
     </row>
@@ -9309,13 +9306,13 @@
       <c r="A227" s="119"/>
       <c r="B227" s="28"/>
       <c r="C227" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="H227" s="108" t="s">
         <v>558</v>
       </c>
-      <c r="H227" s="108" t="s">
+      <c r="I227" s="109" t="s">
         <v>559</v>
-      </c>
-      <c r="I227" s="109" t="s">
-        <v>560</v>
       </c>
       <c r="J227" s="96"/>
       <c r="K227" s="111"/>
@@ -9325,13 +9322,13 @@
       <c r="A228" s="119"/>
       <c r="B228" s="28"/>
       <c r="C228" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="H228" s="108" t="s">
         <v>561</v>
       </c>
-      <c r="H228" s="108" t="s">
+      <c r="I228" s="109" t="s">
         <v>562</v>
-      </c>
-      <c r="I228" s="109" t="s">
-        <v>563</v>
       </c>
       <c r="J228" s="96"/>
       <c r="K228" s="111"/>
@@ -9341,17 +9338,17 @@
       <c r="A229" s="119"/>
       <c r="B229" s="28"/>
       <c r="C229" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="H229" s="108" t="s">
         <v>564</v>
       </c>
-      <c r="H229" s="108" t="s">
+      <c r="I229" s="116" t="s">
         <v>565</v>
-      </c>
-      <c r="I229" s="116" t="s">
-        <v>566</v>
       </c>
       <c r="J229" s="96"/>
       <c r="K229" s="111" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L229" s="104"/>
     </row>
@@ -9359,10 +9356,10 @@
       <c r="A230" s="119"/>
       <c r="B230" s="28"/>
       <c r="C230" s="29" t="s">
+        <v>567</v>
+      </c>
+      <c r="H230" s="108" t="s">
         <v>568</v>
-      </c>
-      <c r="H230" s="108" t="s">
-        <v>569</v>
       </c>
       <c r="I230" s="95"/>
       <c r="J230" s="96"/>
@@ -9372,14 +9369,14 @@
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="119"/>
       <c r="B231" s="28"/>
-      <c r="C231" s="49" t="s">
+      <c r="C231" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="H231" s="108" t="s">
         <v>570</v>
       </c>
-      <c r="H231" s="108" t="s">
+      <c r="I231" s="114" t="s">
         <v>571</v>
-      </c>
-      <c r="I231" s="114" t="s">
-        <v>572</v>
       </c>
       <c r="J231" s="96"/>
       <c r="K231" s="97"/>
@@ -9389,28 +9386,28 @@
       <c r="A232" s="119"/>
       <c r="B232" s="28"/>
       <c r="C232" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="H232" s="108" t="s">
         <v>573</v>
       </c>
-      <c r="H232" s="108" t="s">
+      <c r="I232" s="114" t="s">
         <v>574</v>
-      </c>
-      <c r="I232" s="114" t="s">
-        <v>575</v>
       </c>
       <c r="J232" s="96"/>
       <c r="K232" s="97" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L232" s="104"/>
     </row>
     <row r="233" ht="28.5" customHeight="1">
       <c r="A233" s="119"/>
       <c r="B233" s="28"/>
-      <c r="C233" s="49" t="s">
+      <c r="C233" s="29" t="s">
+        <v>576</v>
+      </c>
+      <c r="H233" s="108" t="s">
         <v>577</v>
-      </c>
-      <c r="H233" s="108" t="s">
-        <v>578</v>
       </c>
       <c r="I233" s="95"/>
       <c r="J233" s="96"/>
@@ -9421,13 +9418,13 @@
       <c r="A234" s="119"/>
       <c r="B234" s="28"/>
       <c r="C234" s="29" t="s">
+        <v>578</v>
+      </c>
+      <c r="H234" s="108" t="s">
         <v>579</v>
       </c>
-      <c r="H234" s="108" t="s">
+      <c r="I234" s="86" t="s">
         <v>580</v>
-      </c>
-      <c r="I234" s="86" t="s">
-        <v>581</v>
       </c>
       <c r="J234" s="96"/>
       <c r="K234" s="111"/>
@@ -9437,17 +9434,17 @@
       <c r="A235" s="119"/>
       <c r="B235" s="28"/>
       <c r="C235" s="29" t="s">
+        <v>581</v>
+      </c>
+      <c r="H235" s="108" t="s">
         <v>582</v>
       </c>
-      <c r="H235" s="108" t="s">
+      <c r="I235" s="116" t="s">
         <v>583</v>
-      </c>
-      <c r="I235" s="116" t="s">
-        <v>584</v>
       </c>
       <c r="J235" s="96"/>
       <c r="K235" s="111" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L235" s="104"/>
     </row>
@@ -9456,13 +9453,13 @@
       <c r="B236" s="28"/>
       <c r="C236" s="28"/>
       <c r="D236" s="50" t="s">
+        <v>585</v>
+      </c>
+      <c r="H236" s="108" t="s">
         <v>586</v>
       </c>
-      <c r="H236" s="108" t="s">
+      <c r="I236" s="123" t="s">
         <v>587</v>
-      </c>
-      <c r="I236" s="123" t="s">
-        <v>588</v>
       </c>
       <c r="J236" s="96"/>
       <c r="K236" s="111"/>
@@ -9473,7 +9470,7 @@
       <c r="B237" s="28"/>
       <c r="C237" s="28"/>
       <c r="D237" s="50" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H237" s="117"/>
       <c r="I237" s="95"/>
@@ -9485,15 +9482,15 @@
       <c r="A238" s="119"/>
       <c r="B238" s="28"/>
       <c r="C238" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="H238" s="108" t="s">
         <v>590</v>
-      </c>
-      <c r="H238" s="108" t="s">
-        <v>591</v>
       </c>
       <c r="I238" s="95"/>
       <c r="J238" s="96"/>
       <c r="K238" s="111" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L238" s="104"/>
     </row>
@@ -9502,10 +9499,10 @@
       <c r="B239" s="28"/>
       <c r="C239" s="49"/>
       <c r="D239" s="50" t="s">
+        <v>592</v>
+      </c>
+      <c r="H239" s="108" t="s">
         <v>593</v>
-      </c>
-      <c r="H239" s="108" t="s">
-        <v>594</v>
       </c>
       <c r="I239" s="95"/>
       <c r="J239" s="96"/>
@@ -9517,10 +9514,10 @@
       <c r="B240" s="28"/>
       <c r="C240" s="49"/>
       <c r="D240" s="50" t="s">
+        <v>594</v>
+      </c>
+      <c r="H240" s="108" t="s">
         <v>595</v>
-      </c>
-      <c r="H240" s="108" t="s">
-        <v>596</v>
       </c>
       <c r="I240" s="95"/>
       <c r="J240" s="96"/>
@@ -9531,11 +9528,11 @@
       <c r="A241" s="119"/>
       <c r="B241" s="28"/>
       <c r="C241" s="49"/>
-      <c r="D241" s="58" t="s">
+      <c r="D241" s="50" t="s">
+        <v>596</v>
+      </c>
+      <c r="H241" s="108" t="s">
         <v>597</v>
-      </c>
-      <c r="H241" s="108" t="s">
-        <v>598</v>
       </c>
       <c r="I241" s="95"/>
       <c r="J241" s="96"/>
@@ -9547,15 +9544,15 @@
       <c r="B242" s="119"/>
       <c r="C242" s="119"/>
       <c r="D242" s="50" t="s">
+        <v>598</v>
+      </c>
+      <c r="H242" s="108" t="s">
         <v>599</v>
-      </c>
-      <c r="H242" s="108" t="s">
-        <v>600</v>
       </c>
       <c r="I242" s="95"/>
       <c r="J242" s="96"/>
       <c r="K242" s="111" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L242" s="104"/>
     </row>
@@ -9564,13 +9561,13 @@
       <c r="B243" s="119"/>
       <c r="C243" s="119"/>
       <c r="D243" s="50" t="s">
+        <v>601</v>
+      </c>
+      <c r="H243" s="108" t="s">
         <v>602</v>
       </c>
-      <c r="H243" s="108" t="s">
+      <c r="I243" s="116" t="s">
         <v>603</v>
-      </c>
-      <c r="I243" s="116" t="s">
-        <v>604</v>
       </c>
       <c r="J243" s="96"/>
       <c r="K243" s="111"/>
@@ -9581,10 +9578,10 @@
       <c r="B244" s="49"/>
       <c r="C244" s="126"/>
       <c r="D244" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="H244" s="108" t="s">
         <v>605</v>
-      </c>
-      <c r="H244" s="108" t="s">
-        <v>606</v>
       </c>
       <c r="I244" s="95"/>
       <c r="J244" s="96"/>
@@ -9596,10 +9593,10 @@
       <c r="B245" s="28"/>
       <c r="C245" s="119"/>
       <c r="D245" s="50" t="s">
+        <v>606</v>
+      </c>
+      <c r="H245" s="108" t="s">
         <v>607</v>
-      </c>
-      <c r="H245" s="108" t="s">
-        <v>608</v>
       </c>
       <c r="I245" s="95"/>
       <c r="J245" s="96"/>
@@ -9611,10 +9608,10 @@
       <c r="B246" s="28"/>
       <c r="C246" s="119"/>
       <c r="D246" s="50" t="s">
+        <v>608</v>
+      </c>
+      <c r="H246" s="108" t="s">
         <v>609</v>
-      </c>
-      <c r="H246" s="108" t="s">
-        <v>610</v>
       </c>
       <c r="I246" s="116"/>
       <c r="J246" s="96"/>
@@ -9626,10 +9623,10 @@
       <c r="B247" s="28"/>
       <c r="C247" s="119"/>
       <c r="D247" s="50" t="s">
+        <v>610</v>
+      </c>
+      <c r="H247" s="108" t="s">
         <v>611</v>
-      </c>
-      <c r="H247" s="108" t="s">
-        <v>612</v>
       </c>
       <c r="I247" s="95"/>
       <c r="J247" s="96"/>
@@ -9641,10 +9638,10 @@
       <c r="B248" s="28"/>
       <c r="C248" s="119"/>
       <c r="D248" s="50" t="s">
+        <v>612</v>
+      </c>
+      <c r="H248" s="108" t="s">
         <v>613</v>
-      </c>
-      <c r="H248" s="108" t="s">
-        <v>614</v>
       </c>
       <c r="I248" s="95"/>
       <c r="J248" s="96"/>
@@ -9656,15 +9653,15 @@
       <c r="B249" s="28"/>
       <c r="C249" s="119"/>
       <c r="D249" s="50" t="s">
+        <v>614</v>
+      </c>
+      <c r="H249" s="108" t="s">
         <v>615</v>
-      </c>
-      <c r="H249" s="108" t="s">
-        <v>616</v>
       </c>
       <c r="I249" s="95"/>
       <c r="J249" s="96"/>
       <c r="K249" s="111" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L249" s="104"/>
     </row>
@@ -9673,10 +9670,10 @@
       <c r="B250" s="119"/>
       <c r="C250" s="119"/>
       <c r="D250" s="50" t="s">
+        <v>617</v>
+      </c>
+      <c r="H250" s="108" t="s">
         <v>618</v>
-      </c>
-      <c r="H250" s="108" t="s">
-        <v>619</v>
       </c>
       <c r="I250" s="122"/>
       <c r="J250" s="96"/>
@@ -9688,10 +9685,10 @@
       <c r="B251" s="49"/>
       <c r="C251" s="49"/>
       <c r="D251" s="50" t="s">
+        <v>619</v>
+      </c>
+      <c r="H251" s="108" t="s">
         <v>620</v>
-      </c>
-      <c r="H251" s="108" t="s">
-        <v>621</v>
       </c>
       <c r="I251" s="95"/>
       <c r="J251" s="96"/>
@@ -9703,15 +9700,15 @@
       <c r="B252" s="49"/>
       <c r="C252" s="49"/>
       <c r="D252" s="50" t="s">
+        <v>621</v>
+      </c>
+      <c r="H252" s="108" t="s">
         <v>622</v>
-      </c>
-      <c r="H252" s="108" t="s">
-        <v>623</v>
       </c>
       <c r="I252" s="95"/>
       <c r="J252" s="96"/>
       <c r="K252" s="111" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L252" s="104"/>
     </row>
@@ -9719,10 +9716,10 @@
       <c r="A253" s="112"/>
       <c r="B253" s="49"/>
       <c r="C253" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="H253" s="108" t="s">
         <v>625</v>
-      </c>
-      <c r="H253" s="108" t="s">
-        <v>626</v>
       </c>
       <c r="I253" s="95"/>
       <c r="J253" s="96"/>
@@ -9734,10 +9731,10 @@
       <c r="B254" s="49"/>
       <c r="C254" s="119"/>
       <c r="D254" s="50" t="s">
+        <v>626</v>
+      </c>
+      <c r="H254" s="108" t="s">
         <v>627</v>
-      </c>
-      <c r="H254" s="108" t="s">
-        <v>628</v>
       </c>
       <c r="I254" s="122"/>
       <c r="J254" s="96"/>
@@ -9749,10 +9746,10 @@
       <c r="B255" s="49"/>
       <c r="C255" s="119"/>
       <c r="D255" s="50" t="s">
+        <v>628</v>
+      </c>
+      <c r="H255" s="108" t="s">
         <v>629</v>
-      </c>
-      <c r="H255" s="108" t="s">
-        <v>630</v>
       </c>
       <c r="I255" s="122"/>
       <c r="J255" s="96"/>
@@ -9764,10 +9761,10 @@
       <c r="B256" s="49"/>
       <c r="C256" s="119"/>
       <c r="D256" s="50" t="s">
+        <v>630</v>
+      </c>
+      <c r="H256" s="108" t="s">
         <v>631</v>
-      </c>
-      <c r="H256" s="108" t="s">
-        <v>632</v>
       </c>
       <c r="I256" s="95"/>
       <c r="J256" s="96"/>
@@ -9779,10 +9776,10 @@
       <c r="B257" s="49"/>
       <c r="C257" s="119"/>
       <c r="D257" s="50" t="s">
+        <v>632</v>
+      </c>
+      <c r="H257" s="108" t="s">
         <v>633</v>
-      </c>
-      <c r="H257" s="108" t="s">
-        <v>634</v>
       </c>
       <c r="I257" s="95"/>
       <c r="J257" s="96"/>
@@ -9794,10 +9791,10 @@
       <c r="B258" s="49"/>
       <c r="C258" s="119"/>
       <c r="D258" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="H258" s="108" t="s">
         <v>635</v>
-      </c>
-      <c r="H258" s="108" t="s">
-        <v>636</v>
       </c>
       <c r="I258" s="95"/>
       <c r="J258" s="96"/>
@@ -9809,13 +9806,13 @@
       <c r="B259" s="49"/>
       <c r="C259" s="119"/>
       <c r="D259" s="50" t="s">
+        <v>636</v>
+      </c>
+      <c r="H259" s="108" t="s">
         <v>637</v>
       </c>
-      <c r="H259" s="108" t="s">
+      <c r="I259" s="105" t="s">
         <v>638</v>
-      </c>
-      <c r="I259" s="105" t="s">
-        <v>639</v>
       </c>
       <c r="J259" s="96"/>
       <c r="K259" s="111"/>
@@ -9826,15 +9823,15 @@
       <c r="B260" s="49"/>
       <c r="C260" s="119"/>
       <c r="D260" s="50" t="s">
+        <v>639</v>
+      </c>
+      <c r="H260" s="108" t="s">
         <v>640</v>
-      </c>
-      <c r="H260" s="108" t="s">
-        <v>641</v>
       </c>
       <c r="I260" s="125"/>
       <c r="J260" s="96"/>
       <c r="K260" s="97" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L260" s="104"/>
     </row>
@@ -9843,10 +9840,10 @@
       <c r="B261" s="49"/>
       <c r="C261" s="119"/>
       <c r="D261" s="50" t="s">
+        <v>642</v>
+      </c>
+      <c r="H261" s="108" t="s">
         <v>643</v>
-      </c>
-      <c r="H261" s="108" t="s">
-        <v>644</v>
       </c>
       <c r="I261" s="95"/>
       <c r="J261" s="96"/>
@@ -9858,10 +9855,10 @@
       <c r="B262" s="49"/>
       <c r="C262" s="119"/>
       <c r="D262" s="50" t="s">
+        <v>644</v>
+      </c>
+      <c r="H262" s="108" t="s">
         <v>645</v>
-      </c>
-      <c r="H262" s="108" t="s">
-        <v>646</v>
       </c>
       <c r="I262" s="122"/>
       <c r="J262" s="96"/>
@@ -9873,15 +9870,15 @@
       <c r="B263" s="49"/>
       <c r="C263" s="119"/>
       <c r="D263" s="50" t="s">
+        <v>646</v>
+      </c>
+      <c r="H263" s="108" t="s">
         <v>647</v>
-      </c>
-      <c r="H263" s="108" t="s">
-        <v>648</v>
       </c>
       <c r="I263" s="95"/>
       <c r="J263" s="96"/>
       <c r="K263" s="127" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L263" s="104"/>
     </row>
@@ -9890,10 +9887,10 @@
       <c r="B264" s="119"/>
       <c r="C264" s="49"/>
       <c r="D264" s="50" t="s">
+        <v>649</v>
+      </c>
+      <c r="H264" s="108" t="s">
         <v>650</v>
-      </c>
-      <c r="H264" s="108" t="s">
-        <v>651</v>
       </c>
       <c r="I264" s="95"/>
       <c r="J264" s="96"/>
@@ -9905,10 +9902,10 @@
       <c r="B265" s="119"/>
       <c r="C265" s="49"/>
       <c r="D265" s="50" t="s">
+        <v>651</v>
+      </c>
+      <c r="H265" s="108" t="s">
         <v>652</v>
-      </c>
-      <c r="H265" s="108" t="s">
-        <v>653</v>
       </c>
       <c r="I265" s="95"/>
       <c r="J265" s="96"/>
@@ -9920,10 +9917,10 @@
       <c r="B266" s="119"/>
       <c r="C266" s="49"/>
       <c r="D266" s="50" t="s">
+        <v>653</v>
+      </c>
+      <c r="H266" s="108" t="s">
         <v>654</v>
-      </c>
-      <c r="H266" s="108" t="s">
-        <v>655</v>
       </c>
       <c r="I266" s="95"/>
       <c r="J266" s="96"/>
@@ -9935,10 +9932,10 @@
       <c r="B267" s="119"/>
       <c r="C267" s="49"/>
       <c r="D267" s="50" t="s">
+        <v>655</v>
+      </c>
+      <c r="H267" s="108" t="s">
         <v>656</v>
-      </c>
-      <c r="H267" s="108" t="s">
-        <v>657</v>
       </c>
       <c r="I267" s="95"/>
       <c r="J267" s="96"/>
@@ -9950,7 +9947,7 @@
       <c r="B268" s="119"/>
       <c r="C268" s="49"/>
       <c r="D268" s="50" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H268" s="117"/>
       <c r="I268" s="95"/>
@@ -9962,17 +9959,17 @@
       <c r="A269" s="119"/>
       <c r="B269" s="119"/>
       <c r="C269" s="29" t="s">
+        <v>658</v>
+      </c>
+      <c r="H269" s="108" t="s">
         <v>659</v>
       </c>
-      <c r="H269" s="108" t="s">
+      <c r="I269" s="116" t="s">
         <v>660</v>
-      </c>
-      <c r="I269" s="116" t="s">
-        <v>661</v>
       </c>
       <c r="J269" s="96"/>
       <c r="K269" s="111" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="L269" s="104"/>
     </row>
@@ -9981,13 +9978,13 @@
       <c r="B270" s="119"/>
       <c r="C270" s="49"/>
       <c r="D270" s="50" t="s">
+        <v>662</v>
+      </c>
+      <c r="H270" s="108" t="s">
         <v>663</v>
       </c>
-      <c r="H270" s="108" t="s">
+      <c r="I270" s="116" t="s">
         <v>664</v>
-      </c>
-      <c r="I270" s="116" t="s">
-        <v>665</v>
       </c>
       <c r="J270" s="96"/>
       <c r="K270" s="111"/>
@@ -9998,13 +9995,13 @@
       <c r="B271" s="119"/>
       <c r="C271" s="49"/>
       <c r="D271" s="50" t="s">
+        <v>665</v>
+      </c>
+      <c r="H271" s="108" t="s">
         <v>666</v>
       </c>
-      <c r="H271" s="108" t="s">
+      <c r="I271" s="109" t="s">
         <v>667</v>
-      </c>
-      <c r="I271" s="109" t="s">
-        <v>668</v>
       </c>
       <c r="J271" s="96"/>
       <c r="K271" s="111"/>
@@ -10015,15 +10012,15 @@
       <c r="B272" s="28"/>
       <c r="C272" s="49"/>
       <c r="D272" s="50" t="s">
+        <v>668</v>
+      </c>
+      <c r="H272" s="108" t="s">
         <v>669</v>
-      </c>
-      <c r="H272" s="108" t="s">
-        <v>670</v>
       </c>
       <c r="I272" s="95"/>
       <c r="J272" s="96"/>
       <c r="K272" s="111" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="L272" s="104"/>
     </row>
@@ -10032,10 +10029,10 @@
       <c r="B273" s="28"/>
       <c r="C273" s="49"/>
       <c r="D273" s="50" t="s">
+        <v>671</v>
+      </c>
+      <c r="H273" s="108" t="s">
         <v>672</v>
-      </c>
-      <c r="H273" s="108" t="s">
-        <v>673</v>
       </c>
       <c r="I273" s="95"/>
       <c r="J273" s="96"/>
@@ -10046,10 +10043,10 @@
       <c r="A274" s="119"/>
       <c r="B274" s="28"/>
       <c r="C274" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="H274" s="108" t="s">
         <v>674</v>
-      </c>
-      <c r="H274" s="108" t="s">
-        <v>675</v>
       </c>
       <c r="I274" s="95"/>
       <c r="J274" s="96"/>
@@ -10061,13 +10058,13 @@
       <c r="B275" s="28"/>
       <c r="C275" s="49"/>
       <c r="D275" s="50" t="s">
+        <v>675</v>
+      </c>
+      <c r="H275" s="108" t="s">
         <v>676</v>
       </c>
-      <c r="H275" s="108" t="s">
+      <c r="I275" s="86" t="s">
         <v>677</v>
-      </c>
-      <c r="I275" s="86" t="s">
-        <v>678</v>
       </c>
       <c r="J275" s="96"/>
       <c r="K275" s="111"/>
@@ -10077,10 +10074,10 @@
       <c r="A276" s="119"/>
       <c r="B276" s="28"/>
       <c r="C276" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="H276" s="108" t="s">
         <v>679</v>
-      </c>
-      <c r="H276" s="108" t="s">
-        <v>680</v>
       </c>
       <c r="I276" s="95"/>
       <c r="J276" s="96"/>
@@ -10091,10 +10088,10 @@
       <c r="A277" s="119"/>
       <c r="B277" s="28"/>
       <c r="C277" s="29" t="s">
+        <v>680</v>
+      </c>
+      <c r="H277" s="108" t="s">
         <v>681</v>
-      </c>
-      <c r="H277" s="108" t="s">
-        <v>682</v>
       </c>
       <c r="I277" s="95"/>
       <c r="J277" s="96"/>
@@ -10105,10 +10102,10 @@
       <c r="A278" s="112"/>
       <c r="B278" s="28"/>
       <c r="C278" s="29" t="s">
+        <v>682</v>
+      </c>
+      <c r="H278" s="108" t="s">
         <v>683</v>
-      </c>
-      <c r="H278" s="108" t="s">
-        <v>684</v>
       </c>
       <c r="I278" s="95"/>
       <c r="J278" s="96"/>
@@ -10120,10 +10117,10 @@
       <c r="B279" s="28"/>
       <c r="C279" s="119"/>
       <c r="D279" s="50" t="s">
+        <v>684</v>
+      </c>
+      <c r="H279" s="108" t="s">
         <v>685</v>
-      </c>
-      <c r="H279" s="108" t="s">
-        <v>686</v>
       </c>
       <c r="I279" s="95"/>
       <c r="J279" s="96"/>
@@ -10135,10 +10132,10 @@
       <c r="B280" s="28"/>
       <c r="C280" s="28"/>
       <c r="D280" s="50" t="s">
+        <v>686</v>
+      </c>
+      <c r="H280" s="108" t="s">
         <v>687</v>
-      </c>
-      <c r="H280" s="108" t="s">
-        <v>688</v>
       </c>
       <c r="I280" s="95"/>
       <c r="J280" s="96"/>
@@ -10148,15 +10145,15 @@
     <row r="281" ht="51.75" customHeight="1">
       <c r="A281" s="112"/>
       <c r="B281" s="25" t="s">
+        <v>688</v>
+      </c>
+      <c r="H281" s="108" t="s">
         <v>689</v>
-      </c>
-      <c r="H281" s="108" t="s">
-        <v>690</v>
       </c>
       <c r="I281" s="95"/>
       <c r="J281" s="96"/>
       <c r="K281" s="97" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L281" s="104"/>
     </row>
@@ -10176,10 +10173,10 @@
     </row>
     <row r="283" ht="24.0" customHeight="1">
       <c r="A283" s="18" t="s">
+        <v>691</v>
+      </c>
+      <c r="H283" s="108" t="s">
         <v>692</v>
-      </c>
-      <c r="H283" s="108" t="s">
-        <v>693</v>
       </c>
       <c r="I283" s="95"/>
       <c r="J283" s="96"/>
@@ -10189,11 +10186,11 @@
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="119"/>
       <c r="B284" s="32" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H284" s="108"/>
       <c r="I284" s="116" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J284" s="96"/>
       <c r="K284" s="111"/>
@@ -10202,10 +10199,10 @@
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="119"/>
       <c r="B285" s="32" t="s">
+        <v>695</v>
+      </c>
+      <c r="H285" s="108" t="s">
         <v>696</v>
-      </c>
-      <c r="H285" s="108" t="s">
-        <v>697</v>
       </c>
       <c r="I285" s="95"/>
       <c r="J285" s="96"/>
@@ -10216,15 +10213,15 @@
       <c r="A286" s="119"/>
       <c r="B286" s="28"/>
       <c r="C286" s="29" t="s">
+        <v>697</v>
+      </c>
+      <c r="H286" s="108" t="s">
         <v>698</v>
-      </c>
-      <c r="H286" s="108" t="s">
-        <v>699</v>
       </c>
       <c r="I286" s="95"/>
       <c r="J286" s="96"/>
       <c r="K286" s="97" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L286" s="104"/>
     </row>
@@ -10232,13 +10229,13 @@
       <c r="A287" s="119"/>
       <c r="B287" s="28"/>
       <c r="C287" s="49" t="s">
+        <v>700</v>
+      </c>
+      <c r="H287" s="108" t="s">
         <v>701</v>
       </c>
-      <c r="H287" s="108" t="s">
+      <c r="I287" s="116" t="s">
         <v>702</v>
-      </c>
-      <c r="I287" s="116" t="s">
-        <v>703</v>
       </c>
       <c r="J287" s="96"/>
       <c r="K287" s="111"/>
@@ -10248,10 +10245,10 @@
       <c r="A288" s="112"/>
       <c r="B288" s="28"/>
       <c r="C288" s="29" t="s">
+        <v>703</v>
+      </c>
+      <c r="H288" s="108" t="s">
         <v>704</v>
-      </c>
-      <c r="H288" s="108" t="s">
-        <v>705</v>
       </c>
       <c r="I288" s="95"/>
       <c r="J288" s="96"/>
@@ -10262,10 +10259,10 @@
       <c r="A289" s="119"/>
       <c r="B289" s="28"/>
       <c r="C289" s="29" t="s">
+        <v>705</v>
+      </c>
+      <c r="H289" s="108" t="s">
         <v>706</v>
-      </c>
-      <c r="H289" s="108" t="s">
-        <v>707</v>
       </c>
       <c r="I289" s="95"/>
       <c r="J289" s="96"/>
@@ -10276,13 +10273,13 @@
       <c r="A290" s="119"/>
       <c r="B290" s="28"/>
       <c r="C290" s="29" t="s">
+        <v>707</v>
+      </c>
+      <c r="H290" s="108" t="s">
         <v>708</v>
       </c>
-      <c r="H290" s="108" t="s">
+      <c r="I290" s="114" t="s">
         <v>709</v>
-      </c>
-      <c r="I290" s="114" t="s">
-        <v>710</v>
       </c>
       <c r="J290" s="96"/>
       <c r="K290" s="97"/>
@@ -10292,15 +10289,15 @@
       <c r="A291" s="119"/>
       <c r="B291" s="28"/>
       <c r="C291" s="29" t="s">
+        <v>710</v>
+      </c>
+      <c r="H291" s="108" t="s">
         <v>711</v>
-      </c>
-      <c r="H291" s="108" t="s">
-        <v>712</v>
       </c>
       <c r="I291" s="95"/>
       <c r="J291" s="96"/>
       <c r="K291" s="97" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="L291" s="104"/>
     </row>
@@ -10309,10 +10306,10 @@
       <c r="B292" s="28"/>
       <c r="C292" s="49"/>
       <c r="D292" s="50" t="s">
+        <v>713</v>
+      </c>
+      <c r="H292" s="108" t="s">
         <v>714</v>
-      </c>
-      <c r="H292" s="108" t="s">
-        <v>715</v>
       </c>
       <c r="I292" s="95"/>
       <c r="J292" s="96"/>
@@ -10324,7 +10321,7 @@
       <c r="B293" s="28"/>
       <c r="C293" s="49"/>
       <c r="D293" s="50" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H293" s="108"/>
       <c r="I293" s="95"/>
@@ -10337,7 +10334,7 @@
       <c r="B294" s="28"/>
       <c r="C294" s="49"/>
       <c r="D294" s="50" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H294" s="108"/>
       <c r="I294" s="95"/>
@@ -10349,44 +10346,44 @@
       <c r="A295" s="119"/>
       <c r="B295" s="28"/>
       <c r="C295" s="29" t="s">
+        <v>717</v>
+      </c>
+      <c r="H295" s="108" t="s">
         <v>718</v>
-      </c>
-      <c r="H295" s="108" t="s">
-        <v>719</v>
       </c>
       <c r="I295" s="95"/>
       <c r="J295" s="96"/>
       <c r="K295" s="97" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="L295" s="104"/>
     </row>
     <row r="296" ht="35.25" customHeight="1">
       <c r="A296" s="119"/>
       <c r="B296" s="28"/>
-      <c r="C296" s="49" t="s">
+      <c r="C296" s="29" t="s">
+        <v>720</v>
+      </c>
+      <c r="H296" s="108" t="s">
         <v>721</v>
-      </c>
-      <c r="H296" s="108" t="s">
-        <v>722</v>
       </c>
       <c r="I296" s="95"/>
       <c r="J296" s="96"/>
       <c r="K296" s="97" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="L296" s="104"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="112"/>
       <c r="B297" s="32" t="s">
+        <v>723</v>
+      </c>
+      <c r="H297" s="108" t="s">
         <v>724</v>
       </c>
-      <c r="H297" s="108" t="s">
+      <c r="I297" s="123" t="s">
         <v>725</v>
-      </c>
-      <c r="I297" s="123" t="s">
-        <v>726</v>
       </c>
       <c r="J297" s="96"/>
       <c r="K297" s="97"/>
@@ -10396,10 +10393,10 @@
       <c r="A298" s="112"/>
       <c r="B298" s="49"/>
       <c r="C298" s="29" t="s">
+        <v>726</v>
+      </c>
+      <c r="H298" s="108" t="s">
         <v>727</v>
-      </c>
-      <c r="H298" s="108" t="s">
-        <v>728</v>
       </c>
       <c r="I298" s="95"/>
       <c r="J298" s="96"/>
@@ -10410,10 +10407,10 @@
       <c r="A299" s="112"/>
       <c r="B299" s="49"/>
       <c r="C299" s="29" t="s">
+        <v>728</v>
+      </c>
+      <c r="H299" s="108" t="s">
         <v>729</v>
-      </c>
-      <c r="H299" s="108" t="s">
-        <v>730</v>
       </c>
       <c r="I299" s="95"/>
       <c r="J299" s="96"/>
@@ -10425,15 +10422,15 @@
       <c r="B300" s="49"/>
       <c r="C300" s="49"/>
       <c r="D300" s="58" t="s">
+        <v>730</v>
+      </c>
+      <c r="H300" s="108" t="s">
         <v>731</v>
-      </c>
-      <c r="H300" s="108" t="s">
-        <v>732</v>
       </c>
       <c r="I300" s="95"/>
       <c r="J300" s="96"/>
       <c r="K300" s="97" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L300" s="104"/>
     </row>
@@ -10442,15 +10439,15 @@
       <c r="B301" s="49"/>
       <c r="C301" s="49"/>
       <c r="D301" s="50" t="s">
+        <v>733</v>
+      </c>
+      <c r="H301" s="108" t="s">
         <v>734</v>
-      </c>
-      <c r="H301" s="108" t="s">
-        <v>735</v>
       </c>
       <c r="I301" s="95"/>
       <c r="J301" s="96"/>
       <c r="K301" s="97" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L301" s="104"/>
     </row>
@@ -10458,11 +10455,11 @@
       <c r="A302" s="112"/>
       <c r="B302" s="49"/>
       <c r="C302" s="49"/>
-      <c r="D302" s="58" t="s">
+      <c r="D302" s="50" t="s">
+        <v>736</v>
+      </c>
+      <c r="H302" s="108" t="s">
         <v>737</v>
-      </c>
-      <c r="H302" s="108" t="s">
-        <v>738</v>
       </c>
       <c r="I302" s="95"/>
       <c r="J302" s="96"/>
@@ -10474,10 +10471,10 @@
       <c r="B303" s="49"/>
       <c r="C303" s="49"/>
       <c r="D303" s="50" t="s">
+        <v>738</v>
+      </c>
+      <c r="H303" s="108" t="s">
         <v>739</v>
-      </c>
-      <c r="H303" s="108" t="s">
-        <v>740</v>
       </c>
       <c r="I303" s="95"/>
       <c r="J303" s="96"/>
@@ -10488,15 +10485,15 @@
       <c r="A304" s="112"/>
       <c r="B304" s="49"/>
       <c r="C304" s="29" t="s">
+        <v>740</v>
+      </c>
+      <c r="H304" s="108" t="s">
         <v>741</v>
-      </c>
-      <c r="H304" s="108" t="s">
-        <v>742</v>
       </c>
       <c r="I304" s="95"/>
       <c r="J304" s="96"/>
       <c r="K304" s="97" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L304" s="104"/>
     </row>
@@ -10504,10 +10501,10 @@
       <c r="A305" s="112"/>
       <c r="B305" s="49"/>
       <c r="C305" s="49" t="s">
+        <v>743</v>
+      </c>
+      <c r="H305" s="108" t="s">
         <v>744</v>
-      </c>
-      <c r="H305" s="108" t="s">
-        <v>745</v>
       </c>
       <c r="I305" s="95"/>
       <c r="J305" s="96"/>
@@ -10519,15 +10516,15 @@
       <c r="B306" s="49"/>
       <c r="C306" s="119"/>
       <c r="D306" s="50" t="s">
+        <v>745</v>
+      </c>
+      <c r="H306" s="108" t="s">
         <v>746</v>
-      </c>
-      <c r="H306" s="108" t="s">
-        <v>747</v>
       </c>
       <c r="I306" s="95"/>
       <c r="J306" s="96"/>
       <c r="K306" s="97" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="L306" s="104"/>
     </row>
@@ -10536,10 +10533,10 @@
       <c r="B307" s="49"/>
       <c r="C307" s="126"/>
       <c r="D307" s="50" t="s">
+        <v>748</v>
+      </c>
+      <c r="H307" s="108" t="s">
         <v>749</v>
-      </c>
-      <c r="H307" s="108" t="s">
-        <v>750</v>
       </c>
       <c r="I307" s="95"/>
       <c r="J307" s="96"/>
@@ -10551,10 +10548,10 @@
       <c r="B308" s="49"/>
       <c r="C308" s="126"/>
       <c r="D308" s="50" t="s">
+        <v>750</v>
+      </c>
+      <c r="H308" s="108" t="s">
         <v>751</v>
-      </c>
-      <c r="H308" s="108" t="s">
-        <v>752</v>
       </c>
       <c r="I308" s="95"/>
       <c r="J308" s="96"/>
@@ -10566,13 +10563,13 @@
       <c r="B309" s="49"/>
       <c r="C309" s="126"/>
       <c r="D309" s="50" t="s">
+        <v>752</v>
+      </c>
+      <c r="H309" s="108" t="s">
         <v>753</v>
       </c>
-      <c r="H309" s="108" t="s">
+      <c r="I309" s="116" t="s">
         <v>754</v>
-      </c>
-      <c r="I309" s="116" t="s">
-        <v>755</v>
       </c>
       <c r="J309" s="96"/>
       <c r="K309" s="111"/>
@@ -10584,11 +10581,11 @@
       <c r="C310" s="126"/>
       <c r="D310" s="58"/>
       <c r="E310" s="120" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H310" s="108"/>
       <c r="I310" s="116" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J310" s="96"/>
       <c r="K310" s="111"/>
@@ -10600,7 +10597,7 @@
       <c r="C311" s="126"/>
       <c r="D311" s="58"/>
       <c r="E311" s="120" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H311" s="108"/>
       <c r="I311" s="95"/>
@@ -10611,15 +10608,15 @@
     <row r="312" ht="22.5" customHeight="1">
       <c r="A312" s="112"/>
       <c r="B312" s="32" t="s">
+        <v>757</v>
+      </c>
+      <c r="H312" s="108" t="s">
         <v>758</v>
-      </c>
-      <c r="H312" s="108" t="s">
-        <v>759</v>
       </c>
       <c r="I312" s="95"/>
       <c r="J312" s="96"/>
       <c r="K312" s="97" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L312" s="104"/>
     </row>
@@ -10627,15 +10624,15 @@
       <c r="A313" s="112"/>
       <c r="B313" s="49"/>
       <c r="C313" s="29" t="s">
+        <v>760</v>
+      </c>
+      <c r="H313" s="108" t="s">
         <v>761</v>
-      </c>
-      <c r="H313" s="108" t="s">
-        <v>762</v>
       </c>
       <c r="I313" s="95"/>
       <c r="J313" s="96"/>
       <c r="K313" s="97" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L313" s="104"/>
     </row>
@@ -10644,10 +10641,10 @@
       <c r="B314" s="49"/>
       <c r="C314" s="126"/>
       <c r="D314" s="50" t="s">
+        <v>763</v>
+      </c>
+      <c r="H314" s="108" t="s">
         <v>764</v>
-      </c>
-      <c r="H314" s="108" t="s">
-        <v>765</v>
       </c>
       <c r="I314" s="95"/>
       <c r="J314" s="96"/>
@@ -10659,10 +10656,10 @@
       <c r="B315" s="49"/>
       <c r="C315" s="126"/>
       <c r="D315" s="50" t="s">
+        <v>765</v>
+      </c>
+      <c r="H315" s="108" t="s">
         <v>766</v>
-      </c>
-      <c r="H315" s="108" t="s">
-        <v>767</v>
       </c>
       <c r="I315" s="95"/>
       <c r="J315" s="96"/>
@@ -10674,13 +10671,13 @@
       <c r="B316" s="49"/>
       <c r="C316" s="126"/>
       <c r="D316" s="50" t="s">
+        <v>767</v>
+      </c>
+      <c r="H316" s="108" t="s">
         <v>768</v>
       </c>
-      <c r="H316" s="108" t="s">
+      <c r="I316" s="123" t="s">
         <v>769</v>
-      </c>
-      <c r="I316" s="123" t="s">
-        <v>770</v>
       </c>
       <c r="J316" s="96"/>
       <c r="K316" s="111"/>
@@ -10691,15 +10688,15 @@
       <c r="B317" s="49"/>
       <c r="C317" s="126"/>
       <c r="D317" s="50" t="s">
+        <v>770</v>
+      </c>
+      <c r="H317" s="108" t="s">
         <v>771</v>
-      </c>
-      <c r="H317" s="108" t="s">
-        <v>772</v>
       </c>
       <c r="I317" s="95"/>
       <c r="J317" s="96"/>
       <c r="K317" s="97" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="L317" s="104"/>
     </row>
@@ -10708,10 +10705,10 @@
       <c r="B318" s="49"/>
       <c r="C318" s="126"/>
       <c r="D318" s="50" t="s">
+        <v>773</v>
+      </c>
+      <c r="H318" s="108" t="s">
         <v>774</v>
-      </c>
-      <c r="H318" s="108" t="s">
-        <v>775</v>
       </c>
       <c r="I318" s="95"/>
       <c r="J318" s="96"/>
@@ -10723,10 +10720,10 @@
       <c r="B319" s="49"/>
       <c r="C319" s="126"/>
       <c r="D319" s="50" t="s">
+        <v>775</v>
+      </c>
+      <c r="H319" s="108" t="s">
         <v>776</v>
-      </c>
-      <c r="H319" s="108" t="s">
-        <v>777</v>
       </c>
       <c r="I319" s="95"/>
       <c r="J319" s="96"/>
@@ -10738,13 +10735,13 @@
       <c r="B320" s="49"/>
       <c r="C320" s="126"/>
       <c r="D320" s="50" t="s">
+        <v>777</v>
+      </c>
+      <c r="H320" s="108" t="s">
         <v>778</v>
       </c>
-      <c r="H320" s="108" t="s">
+      <c r="I320" s="116" t="s">
         <v>779</v>
-      </c>
-      <c r="I320" s="116" t="s">
-        <v>780</v>
       </c>
       <c r="J320" s="96"/>
       <c r="K320" s="111"/>
@@ -10755,10 +10752,10 @@
       <c r="B321" s="49"/>
       <c r="C321" s="126"/>
       <c r="D321" s="50" t="s">
+        <v>780</v>
+      </c>
+      <c r="H321" s="108" t="s">
         <v>781</v>
-      </c>
-      <c r="H321" s="108" t="s">
-        <v>782</v>
       </c>
       <c r="I321" s="95"/>
       <c r="J321" s="96"/>
@@ -10769,11 +10766,11 @@
       <c r="A322" s="112"/>
       <c r="B322" s="49"/>
       <c r="C322" s="126"/>
-      <c r="D322" s="58" t="s">
+      <c r="D322" s="50" t="s">
+        <v>782</v>
+      </c>
+      <c r="H322" s="108" t="s">
         <v>783</v>
-      </c>
-      <c r="H322" s="108" t="s">
-        <v>784</v>
       </c>
       <c r="I322" s="95"/>
       <c r="J322" s="96"/>
@@ -10785,10 +10782,10 @@
       <c r="B323" s="49"/>
       <c r="C323" s="126"/>
       <c r="D323" s="50" t="s">
+        <v>784</v>
+      </c>
+      <c r="H323" s="108" t="s">
         <v>785</v>
-      </c>
-      <c r="H323" s="108" t="s">
-        <v>786</v>
       </c>
       <c r="I323" s="95"/>
       <c r="J323" s="96"/>
@@ -10800,10 +10797,10 @@
       <c r="B324" s="49"/>
       <c r="C324" s="126"/>
       <c r="D324" s="50" t="s">
+        <v>786</v>
+      </c>
+      <c r="H324" s="108" t="s">
         <v>787</v>
-      </c>
-      <c r="H324" s="108" t="s">
-        <v>788</v>
       </c>
       <c r="I324" s="95"/>
       <c r="J324" s="96"/>
@@ -10815,10 +10812,10 @@
       <c r="B325" s="49"/>
       <c r="C325" s="126"/>
       <c r="D325" s="50" t="s">
+        <v>788</v>
+      </c>
+      <c r="H325" s="108" t="s">
         <v>789</v>
-      </c>
-      <c r="H325" s="108" t="s">
-        <v>790</v>
       </c>
       <c r="I325" s="95"/>
       <c r="J325" s="96"/>
@@ -10830,10 +10827,10 @@
       <c r="B326" s="49"/>
       <c r="C326" s="126"/>
       <c r="D326" s="50" t="s">
+        <v>790</v>
+      </c>
+      <c r="H326" s="108" t="s">
         <v>791</v>
-      </c>
-      <c r="H326" s="108" t="s">
-        <v>792</v>
       </c>
       <c r="I326" s="95"/>
       <c r="J326" s="96"/>
@@ -10845,10 +10842,10 @@
       <c r="B327" s="49"/>
       <c r="C327" s="126"/>
       <c r="D327" s="50" t="s">
+        <v>792</v>
+      </c>
+      <c r="H327" s="108" t="s">
         <v>793</v>
-      </c>
-      <c r="H327" s="108" t="s">
-        <v>794</v>
       </c>
       <c r="I327" s="95"/>
       <c r="J327" s="96"/>
@@ -10860,10 +10857,10 @@
       <c r="B328" s="49"/>
       <c r="C328" s="126"/>
       <c r="D328" s="50" t="s">
+        <v>794</v>
+      </c>
+      <c r="H328" s="108" t="s">
         <v>795</v>
-      </c>
-      <c r="H328" s="108" t="s">
-        <v>796</v>
       </c>
       <c r="I328" s="95"/>
       <c r="J328" s="96"/>
@@ -10875,10 +10872,10 @@
       <c r="B329" s="49"/>
       <c r="C329" s="126"/>
       <c r="D329" s="50" t="s">
+        <v>796</v>
+      </c>
+      <c r="H329" s="108" t="s">
         <v>797</v>
-      </c>
-      <c r="H329" s="108" t="s">
-        <v>798</v>
       </c>
       <c r="I329" s="95"/>
       <c r="J329" s="96"/>
@@ -10890,10 +10887,10 @@
       <c r="B330" s="49"/>
       <c r="C330" s="126"/>
       <c r="D330" s="50" t="s">
+        <v>798</v>
+      </c>
+      <c r="H330" s="108" t="s">
         <v>799</v>
-      </c>
-      <c r="H330" s="108" t="s">
-        <v>800</v>
       </c>
       <c r="I330" s="95"/>
       <c r="J330" s="96"/>
@@ -10905,13 +10902,13 @@
       <c r="B331" s="49"/>
       <c r="C331" s="126"/>
       <c r="D331" s="50" t="s">
+        <v>800</v>
+      </c>
+      <c r="H331" s="108" t="s">
         <v>801</v>
       </c>
-      <c r="H331" s="108" t="s">
+      <c r="I331" s="123" t="s">
         <v>802</v>
-      </c>
-      <c r="I331" s="123" t="s">
-        <v>803</v>
       </c>
       <c r="J331" s="96"/>
       <c r="K331" s="111"/>
@@ -10922,10 +10919,10 @@
       <c r="B332" s="49"/>
       <c r="C332" s="126"/>
       <c r="D332" s="50" t="s">
+        <v>803</v>
+      </c>
+      <c r="H332" s="108" t="s">
         <v>804</v>
-      </c>
-      <c r="H332" s="108" t="s">
-        <v>805</v>
       </c>
       <c r="I332" s="95"/>
       <c r="J332" s="96"/>
@@ -10937,15 +10934,15 @@
       <c r="B333" s="49"/>
       <c r="C333" s="126"/>
       <c r="D333" s="50" t="s">
+        <v>805</v>
+      </c>
+      <c r="H333" s="108" t="s">
         <v>806</v>
-      </c>
-      <c r="H333" s="108" t="s">
-        <v>807</v>
       </c>
       <c r="I333" s="95"/>
       <c r="J333" s="96"/>
       <c r="K333" s="97" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L333" s="104"/>
     </row>
@@ -10954,10 +10951,10 @@
       <c r="B334" s="49"/>
       <c r="C334" s="126"/>
       <c r="D334" s="50" t="s">
+        <v>808</v>
+      </c>
+      <c r="H334" s="108" t="s">
         <v>809</v>
-      </c>
-      <c r="H334" s="108" t="s">
-        <v>810</v>
       </c>
       <c r="I334" s="95"/>
       <c r="J334" s="96"/>
@@ -10969,10 +10966,10 @@
       <c r="B335" s="49"/>
       <c r="C335" s="126"/>
       <c r="D335" s="50" t="s">
+        <v>810</v>
+      </c>
+      <c r="H335" s="108" t="s">
         <v>811</v>
-      </c>
-      <c r="H335" s="108" t="s">
-        <v>812</v>
       </c>
       <c r="I335" s="95"/>
       <c r="J335" s="96"/>
@@ -10984,10 +10981,10 @@
       <c r="B336" s="49"/>
       <c r="C336" s="126"/>
       <c r="D336" s="50" t="s">
+        <v>812</v>
+      </c>
+      <c r="H336" s="108" t="s">
         <v>813</v>
-      </c>
-      <c r="H336" s="108" t="s">
-        <v>814</v>
       </c>
       <c r="I336" s="95"/>
       <c r="J336" s="96"/>
@@ -10999,10 +10996,10 @@
       <c r="B337" s="49"/>
       <c r="C337" s="126"/>
       <c r="D337" s="50" t="s">
+        <v>814</v>
+      </c>
+      <c r="H337" s="108" t="s">
         <v>815</v>
-      </c>
-      <c r="H337" s="108" t="s">
-        <v>816</v>
       </c>
       <c r="I337" s="95"/>
       <c r="J337" s="96"/>
@@ -11014,10 +11011,10 @@
       <c r="B338" s="49"/>
       <c r="C338" s="126"/>
       <c r="D338" s="50" t="s">
+        <v>816</v>
+      </c>
+      <c r="H338" s="108" t="s">
         <v>817</v>
-      </c>
-      <c r="H338" s="108" t="s">
-        <v>818</v>
       </c>
       <c r="I338" s="95"/>
       <c r="J338" s="96"/>
@@ -11029,10 +11026,10 @@
       <c r="B339" s="49"/>
       <c r="C339" s="126"/>
       <c r="D339" s="50" t="s">
+        <v>818</v>
+      </c>
+      <c r="H339" s="108" t="s">
         <v>819</v>
-      </c>
-      <c r="H339" s="108" t="s">
-        <v>820</v>
       </c>
       <c r="I339" s="95"/>
       <c r="J339" s="96"/>
@@ -11044,10 +11041,10 @@
       <c r="B340" s="49"/>
       <c r="C340" s="126"/>
       <c r="D340" s="50" t="s">
+        <v>820</v>
+      </c>
+      <c r="H340" s="108" t="s">
         <v>821</v>
-      </c>
-      <c r="H340" s="108" t="s">
-        <v>822</v>
       </c>
       <c r="I340" s="95"/>
       <c r="J340" s="96"/>
@@ -11059,10 +11056,10 @@
       <c r="B341" s="49"/>
       <c r="C341" s="126"/>
       <c r="D341" s="50" t="s">
+        <v>822</v>
+      </c>
+      <c r="H341" s="108" t="s">
         <v>823</v>
-      </c>
-      <c r="H341" s="108" t="s">
-        <v>824</v>
       </c>
       <c r="I341" s="95"/>
       <c r="J341" s="96"/>
@@ -11075,7 +11072,7 @@
       <c r="C342" s="126"/>
       <c r="D342" s="58"/>
       <c r="H342" s="108" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I342" s="95"/>
       <c r="J342" s="96"/>
@@ -11087,10 +11084,10 @@
       <c r="B343" s="49"/>
       <c r="C343" s="126"/>
       <c r="D343" s="50" t="s">
+        <v>825</v>
+      </c>
+      <c r="H343" s="108" t="s">
         <v>826</v>
-      </c>
-      <c r="H343" s="108" t="s">
-        <v>827</v>
       </c>
       <c r="I343" s="95"/>
       <c r="J343" s="96"/>
@@ -11102,10 +11099,10 @@
       <c r="B344" s="49"/>
       <c r="C344" s="126"/>
       <c r="D344" s="50" t="s">
+        <v>827</v>
+      </c>
+      <c r="H344" s="108" t="s">
         <v>828</v>
-      </c>
-      <c r="H344" s="108" t="s">
-        <v>829</v>
       </c>
       <c r="I344" s="95"/>
       <c r="J344" s="96"/>
@@ -11118,13 +11115,13 @@
       <c r="C345" s="119"/>
       <c r="D345" s="119"/>
       <c r="E345" s="120" t="s">
+        <v>829</v>
+      </c>
+      <c r="H345" s="108" t="s">
         <v>830</v>
       </c>
-      <c r="H345" s="108" t="s">
+      <c r="I345" s="105" t="s">
         <v>831</v>
-      </c>
-      <c r="I345" s="105" t="s">
-        <v>832</v>
       </c>
       <c r="J345" s="96"/>
       <c r="K345" s="111"/>
@@ -11134,10 +11131,10 @@
       <c r="A346" s="112"/>
       <c r="B346" s="49"/>
       <c r="C346" s="29" t="s">
+        <v>832</v>
+      </c>
+      <c r="H346" s="108" t="s">
         <v>833</v>
-      </c>
-      <c r="H346" s="108" t="s">
-        <v>834</v>
       </c>
       <c r="I346" s="95"/>
       <c r="J346" s="96"/>
@@ -11149,7 +11146,7 @@
       <c r="B347" s="49"/>
       <c r="C347" s="126"/>
       <c r="D347" s="50" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H347" s="108"/>
       <c r="I347" s="95"/>
@@ -11162,15 +11159,15 @@
       <c r="B348" s="49"/>
       <c r="C348" s="126"/>
       <c r="D348" s="58" t="s">
+        <v>835</v>
+      </c>
+      <c r="H348" s="108" t="s">
         <v>836</v>
-      </c>
-      <c r="H348" s="108" t="s">
-        <v>837</v>
       </c>
       <c r="I348" s="95"/>
       <c r="J348" s="96"/>
       <c r="K348" s="111" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="L348" s="104"/>
     </row>
@@ -11179,10 +11176,10 @@
       <c r="B349" s="49"/>
       <c r="C349" s="126"/>
       <c r="D349" s="50" t="s">
+        <v>838</v>
+      </c>
+      <c r="H349" s="108" t="s">
         <v>839</v>
-      </c>
-      <c r="H349" s="108" t="s">
-        <v>840</v>
       </c>
       <c r="I349" s="95"/>
       <c r="J349" s="96"/>
@@ -11194,10 +11191,10 @@
       <c r="B350" s="49"/>
       <c r="C350" s="126"/>
       <c r="D350" s="50" t="s">
+        <v>840</v>
+      </c>
+      <c r="H350" s="108" t="s">
         <v>841</v>
-      </c>
-      <c r="H350" s="108" t="s">
-        <v>842</v>
       </c>
       <c r="I350" s="95"/>
       <c r="J350" s="96"/>
@@ -11209,10 +11206,10 @@
       <c r="B351" s="49"/>
       <c r="C351" s="126"/>
       <c r="D351" s="58" t="s">
+        <v>842</v>
+      </c>
+      <c r="H351" s="108" t="s">
         <v>843</v>
-      </c>
-      <c r="H351" s="108" t="s">
-        <v>844</v>
       </c>
       <c r="I351" s="95"/>
       <c r="J351" s="96"/>
@@ -11224,15 +11221,15 @@
       <c r="B352" s="49"/>
       <c r="C352" s="126"/>
       <c r="D352" s="50" t="s">
+        <v>844</v>
+      </c>
+      <c r="H352" s="108" t="s">
         <v>845</v>
-      </c>
-      <c r="H352" s="108" t="s">
-        <v>846</v>
       </c>
       <c r="I352" s="95"/>
       <c r="J352" s="96"/>
       <c r="K352" s="97" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="L352" s="104"/>
     </row>
@@ -11241,15 +11238,15 @@
       <c r="B353" s="49"/>
       <c r="C353" s="126"/>
       <c r="D353" s="50" t="s">
+        <v>847</v>
+      </c>
+      <c r="H353" s="108" t="s">
         <v>848</v>
-      </c>
-      <c r="H353" s="108" t="s">
-        <v>849</v>
       </c>
       <c r="I353" s="95"/>
       <c r="J353" s="96"/>
       <c r="K353" s="129" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="L353" s="104"/>
     </row>
@@ -11259,7 +11256,7 @@
       <c r="C354" s="126"/>
       <c r="D354" s="58"/>
       <c r="E354" s="130" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H354" s="117"/>
       <c r="I354" s="95"/>
@@ -11272,10 +11269,10 @@
       <c r="B355" s="49"/>
       <c r="C355" s="126"/>
       <c r="D355" s="50" t="s">
+        <v>851</v>
+      </c>
+      <c r="H355" s="108" t="s">
         <v>852</v>
-      </c>
-      <c r="H355" s="108" t="s">
-        <v>853</v>
       </c>
       <c r="I355" s="95"/>
       <c r="J355" s="96"/>
@@ -11287,10 +11284,10 @@
       <c r="B356" s="49"/>
       <c r="C356" s="126"/>
       <c r="D356" s="50" t="s">
+        <v>853</v>
+      </c>
+      <c r="H356" s="108" t="s">
         <v>854</v>
-      </c>
-      <c r="H356" s="108" t="s">
-        <v>855</v>
       </c>
       <c r="I356" s="95"/>
       <c r="J356" s="96"/>
@@ -11303,10 +11300,10 @@
       <c r="C357" s="49"/>
       <c r="D357" s="49"/>
       <c r="E357" s="120" t="s">
+        <v>855</v>
+      </c>
+      <c r="H357" s="108" t="s">
         <v>856</v>
-      </c>
-      <c r="H357" s="108" t="s">
-        <v>857</v>
       </c>
       <c r="I357" s="95"/>
       <c r="J357" s="96"/>
@@ -11319,10 +11316,10 @@
       <c r="C358" s="49"/>
       <c r="D358" s="49"/>
       <c r="E358" s="120" t="s">
+        <v>857</v>
+      </c>
+      <c r="H358" s="108" t="s">
         <v>858</v>
-      </c>
-      <c r="H358" s="108" t="s">
-        <v>859</v>
       </c>
       <c r="I358" s="95"/>
       <c r="J358" s="96"/>
@@ -11335,10 +11332,10 @@
       <c r="C359" s="49"/>
       <c r="D359" s="49"/>
       <c r="E359" s="120" t="s">
+        <v>859</v>
+      </c>
+      <c r="H359" s="108" t="s">
         <v>860</v>
-      </c>
-      <c r="H359" s="108" t="s">
-        <v>861</v>
       </c>
       <c r="I359" s="95"/>
       <c r="J359" s="96"/>
@@ -11351,10 +11348,10 @@
       <c r="C360" s="119"/>
       <c r="D360" s="119"/>
       <c r="E360" s="120" t="s">
+        <v>861</v>
+      </c>
+      <c r="H360" s="108" t="s">
         <v>862</v>
-      </c>
-      <c r="H360" s="108" t="s">
-        <v>863</v>
       </c>
       <c r="I360" s="95"/>
       <c r="J360" s="96"/>
@@ -11366,15 +11363,15 @@
       <c r="B361" s="49"/>
       <c r="C361" s="126"/>
       <c r="D361" s="50" t="s">
+        <v>863</v>
+      </c>
+      <c r="H361" s="108" t="s">
         <v>864</v>
-      </c>
-      <c r="H361" s="108" t="s">
-        <v>865</v>
       </c>
       <c r="I361" s="95"/>
       <c r="J361" s="96"/>
       <c r="K361" s="97" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="L361" s="104"/>
     </row>
@@ -11384,10 +11381,10 @@
       <c r="C362" s="126"/>
       <c r="D362" s="131"/>
       <c r="E362" s="120" t="s">
+        <v>866</v>
+      </c>
+      <c r="H362" s="108" t="s">
         <v>867</v>
-      </c>
-      <c r="H362" s="108" t="s">
-        <v>868</v>
       </c>
       <c r="I362" s="95"/>
       <c r="J362" s="96"/>
@@ -11400,10 +11397,10 @@
       <c r="C363" s="126"/>
       <c r="D363" s="131"/>
       <c r="E363" s="120" t="s">
+        <v>868</v>
+      </c>
+      <c r="H363" s="108" t="s">
         <v>869</v>
-      </c>
-      <c r="H363" s="108" t="s">
-        <v>870</v>
       </c>
       <c r="I363" s="95"/>
       <c r="J363" s="96"/>
@@ -11416,15 +11413,15 @@
       <c r="C364" s="126"/>
       <c r="D364" s="131"/>
       <c r="E364" s="120" t="s">
+        <v>870</v>
+      </c>
+      <c r="H364" s="108" t="s">
         <v>871</v>
-      </c>
-      <c r="H364" s="108" t="s">
-        <v>872</v>
       </c>
       <c r="I364" s="95"/>
       <c r="J364" s="96"/>
       <c r="K364" s="111" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L364" s="104"/>
     </row>
@@ -11434,10 +11431,10 @@
       <c r="C365" s="126"/>
       <c r="D365" s="131"/>
       <c r="E365" s="120" t="s">
+        <v>873</v>
+      </c>
+      <c r="H365" s="108" t="s">
         <v>874</v>
-      </c>
-      <c r="H365" s="108" t="s">
-        <v>875</v>
       </c>
       <c r="I365" s="95"/>
       <c r="J365" s="96"/>
@@ -11450,10 +11447,10 @@
       <c r="C366" s="126"/>
       <c r="D366" s="131"/>
       <c r="E366" s="120" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H366" s="108" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I366" s="95"/>
       <c r="J366" s="96"/>
@@ -11465,13 +11462,13 @@
       <c r="B367" s="49"/>
       <c r="C367" s="126"/>
       <c r="D367" s="50" t="s">
+        <v>876</v>
+      </c>
+      <c r="H367" s="108" t="s">
         <v>877</v>
       </c>
-      <c r="H367" s="108" t="s">
+      <c r="I367" s="116" t="s">
         <v>878</v>
-      </c>
-      <c r="I367" s="116" t="s">
-        <v>879</v>
       </c>
       <c r="J367" s="96"/>
       <c r="K367" s="111"/>
@@ -11482,10 +11479,10 @@
       <c r="B368" s="49"/>
       <c r="C368" s="126"/>
       <c r="D368" s="50" t="s">
+        <v>879</v>
+      </c>
+      <c r="H368" s="108" t="s">
         <v>880</v>
-      </c>
-      <c r="H368" s="108" t="s">
-        <v>881</v>
       </c>
       <c r="I368" s="95"/>
       <c r="J368" s="96"/>
@@ -11497,15 +11494,15 @@
       <c r="B369" s="49"/>
       <c r="C369" s="126"/>
       <c r="D369" s="50" t="s">
+        <v>881</v>
+      </c>
+      <c r="H369" s="108" t="s">
         <v>882</v>
-      </c>
-      <c r="H369" s="108" t="s">
-        <v>883</v>
       </c>
       <c r="I369" s="95"/>
       <c r="J369" s="96"/>
       <c r="K369" s="111" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="L369" s="104"/>
     </row>
@@ -11515,10 +11512,10 @@
       <c r="C370" s="126"/>
       <c r="D370" s="131"/>
       <c r="E370" s="120" t="s">
+        <v>884</v>
+      </c>
+      <c r="H370" s="108" t="s">
         <v>885</v>
-      </c>
-      <c r="H370" s="108" t="s">
-        <v>886</v>
       </c>
       <c r="I370" s="95"/>
       <c r="J370" s="96"/>
@@ -11531,10 +11528,10 @@
       <c r="C371" s="126"/>
       <c r="D371" s="131"/>
       <c r="E371" s="120" t="s">
+        <v>886</v>
+      </c>
+      <c r="H371" s="108" t="s">
         <v>887</v>
-      </c>
-      <c r="H371" s="108" t="s">
-        <v>888</v>
       </c>
       <c r="I371" s="95"/>
       <c r="J371" s="96"/>
@@ -11546,15 +11543,15 @@
       <c r="B372" s="49"/>
       <c r="C372" s="126"/>
       <c r="D372" s="50" t="s">
+        <v>888</v>
+      </c>
+      <c r="H372" s="108" t="s">
         <v>889</v>
-      </c>
-      <c r="H372" s="108" t="s">
-        <v>890</v>
       </c>
       <c r="I372" s="95"/>
       <c r="J372" s="96"/>
       <c r="K372" s="111" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="L372" s="104"/>
     </row>
@@ -11563,15 +11560,15 @@
       <c r="B373" s="49"/>
       <c r="C373" s="126"/>
       <c r="D373" s="50" t="s">
+        <v>891</v>
+      </c>
+      <c r="H373" s="108" t="s">
         <v>892</v>
-      </c>
-      <c r="H373" s="108" t="s">
-        <v>893</v>
       </c>
       <c r="I373" s="95"/>
       <c r="J373" s="96"/>
       <c r="K373" s="97" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="L373" s="104"/>
     </row>
@@ -11579,15 +11576,15 @@
       <c r="A374" s="112"/>
       <c r="B374" s="119"/>
       <c r="C374" s="29" t="s">
+        <v>894</v>
+      </c>
+      <c r="H374" s="108" t="s">
         <v>895</v>
-      </c>
-      <c r="H374" s="108" t="s">
-        <v>896</v>
       </c>
       <c r="I374" s="95"/>
       <c r="J374" s="96"/>
       <c r="K374" s="97" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="L374" s="104"/>
     </row>
@@ -11596,10 +11593,10 @@
       <c r="B375" s="119"/>
       <c r="C375" s="119"/>
       <c r="D375" s="50" t="s">
+        <v>897</v>
+      </c>
+      <c r="H375" s="108" t="s">
         <v>898</v>
-      </c>
-      <c r="H375" s="108" t="s">
-        <v>899</v>
       </c>
       <c r="I375" s="95"/>
       <c r="J375" s="96"/>
@@ -11611,10 +11608,10 @@
       <c r="B376" s="119"/>
       <c r="C376" s="119"/>
       <c r="D376" s="58" t="s">
+        <v>899</v>
+      </c>
+      <c r="H376" s="108" t="s">
         <v>900</v>
-      </c>
-      <c r="H376" s="108" t="s">
-        <v>901</v>
       </c>
       <c r="I376" s="95"/>
       <c r="J376" s="96"/>
@@ -11626,10 +11623,10 @@
       <c r="B377" s="119"/>
       <c r="C377" s="119"/>
       <c r="D377" s="50" t="s">
+        <v>901</v>
+      </c>
+      <c r="H377" s="108" t="s">
         <v>902</v>
-      </c>
-      <c r="H377" s="108" t="s">
-        <v>903</v>
       </c>
       <c r="I377" s="95"/>
       <c r="J377" s="96"/>
@@ -11640,11 +11637,11 @@
       <c r="A378" s="112"/>
       <c r="B378" s="28"/>
       <c r="C378" s="28"/>
-      <c r="D378" s="58" t="s">
+      <c r="D378" s="50" t="s">
+        <v>903</v>
+      </c>
+      <c r="H378" s="108" t="s">
         <v>904</v>
-      </c>
-      <c r="H378" s="108" t="s">
-        <v>905</v>
       </c>
       <c r="I378" s="95"/>
       <c r="J378" s="96"/>
@@ -11656,10 +11653,10 @@
       <c r="B379" s="28"/>
       <c r="C379" s="28"/>
       <c r="D379" s="50" t="s">
+        <v>905</v>
+      </c>
+      <c r="H379" s="108" t="s">
         <v>906</v>
-      </c>
-      <c r="H379" s="108" t="s">
-        <v>907</v>
       </c>
       <c r="I379" s="95"/>
       <c r="J379" s="96"/>
@@ -11671,10 +11668,10 @@
       <c r="B380" s="28"/>
       <c r="C380" s="28"/>
       <c r="D380" s="50" t="s">
+        <v>907</v>
+      </c>
+      <c r="H380" s="108" t="s">
         <v>908</v>
-      </c>
-      <c r="H380" s="108" t="s">
-        <v>909</v>
       </c>
       <c r="I380" s="95"/>
       <c r="J380" s="96"/>
@@ -11686,10 +11683,10 @@
       <c r="B381" s="28"/>
       <c r="C381" s="28"/>
       <c r="D381" s="58" t="s">
+        <v>909</v>
+      </c>
+      <c r="H381" s="108" t="s">
         <v>910</v>
-      </c>
-      <c r="H381" s="108" t="s">
-        <v>911</v>
       </c>
       <c r="I381" s="95"/>
       <c r="J381" s="96"/>
@@ -11699,34 +11696,34 @@
     <row r="382" ht="15.75" customHeight="1">
       <c r="A382" s="112"/>
       <c r="B382" s="32" t="s">
+        <v>911</v>
+      </c>
+      <c r="H382" s="108" t="s">
         <v>912</v>
       </c>
-      <c r="H382" s="108" t="s">
+      <c r="I382" s="105" t="s">
         <v>913</v>
-      </c>
-      <c r="I382" s="105" t="s">
-        <v>914</v>
       </c>
       <c r="J382" s="96"/>
       <c r="K382" s="97" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L382" s="104"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
       <c r="A383" s="112"/>
       <c r="B383" s="32" t="s">
+        <v>915</v>
+      </c>
+      <c r="H383" s="108" t="s">
         <v>916</v>
       </c>
-      <c r="H383" s="108" t="s">
-        <v>917</v>
-      </c>
       <c r="I383" s="86" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J383" s="96"/>
       <c r="K383" s="97" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L383" s="104"/>
     </row>
@@ -11734,13 +11731,13 @@
       <c r="A384" s="112"/>
       <c r="B384" s="28"/>
       <c r="C384" s="29" t="s">
+        <v>918</v>
+      </c>
+      <c r="H384" s="108" t="s">
         <v>919</v>
       </c>
-      <c r="H384" s="108" t="s">
+      <c r="I384" s="116" t="s">
         <v>920</v>
-      </c>
-      <c r="I384" s="116" t="s">
-        <v>921</v>
       </c>
       <c r="J384" s="96"/>
       <c r="K384" s="111"/>
@@ -11749,10 +11746,10 @@
     <row r="385" ht="15.75" customHeight="1">
       <c r="A385" s="112"/>
       <c r="B385" s="32" t="s">
+        <v>921</v>
+      </c>
+      <c r="H385" s="108" t="s">
         <v>922</v>
-      </c>
-      <c r="H385" s="108" t="s">
-        <v>923</v>
       </c>
       <c r="I385" s="95"/>
       <c r="J385" s="96"/>
@@ -11763,10 +11760,10 @@
       <c r="A386" s="112"/>
       <c r="B386" s="49"/>
       <c r="C386" s="29" t="s">
+        <v>923</v>
+      </c>
+      <c r="H386" s="108" t="s">
         <v>924</v>
-      </c>
-      <c r="H386" s="108" t="s">
-        <v>925</v>
       </c>
       <c r="I386" s="95"/>
       <c r="J386" s="96"/>
@@ -11777,15 +11774,15 @@
       <c r="A387" s="112"/>
       <c r="B387" s="49"/>
       <c r="C387" s="29" t="s">
+        <v>925</v>
+      </c>
+      <c r="H387" s="108" t="s">
         <v>926</v>
-      </c>
-      <c r="H387" s="108" t="s">
-        <v>927</v>
       </c>
       <c r="I387" s="95"/>
       <c r="J387" s="96"/>
       <c r="K387" s="97" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L387" s="104"/>
     </row>
@@ -11793,10 +11790,10 @@
       <c r="A388" s="112"/>
       <c r="B388" s="49"/>
       <c r="C388" s="29" t="s">
+        <v>928</v>
+      </c>
+      <c r="H388" s="108" t="s">
         <v>929</v>
-      </c>
-      <c r="H388" s="108" t="s">
-        <v>930</v>
       </c>
       <c r="I388" s="95"/>
       <c r="J388" s="96"/>
@@ -11806,10 +11803,10 @@
     <row r="389" ht="15.75" customHeight="1">
       <c r="A389" s="112"/>
       <c r="B389" s="32" t="s">
+        <v>930</v>
+      </c>
+      <c r="H389" s="108" t="s">
         <v>931</v>
-      </c>
-      <c r="H389" s="108" t="s">
-        <v>932</v>
       </c>
       <c r="I389" s="95"/>
       <c r="J389" s="96"/>
@@ -11820,10 +11817,10 @@
       <c r="A390" s="112"/>
       <c r="B390" s="49"/>
       <c r="C390" s="29" t="s">
+        <v>932</v>
+      </c>
+      <c r="H390" s="108" t="s">
         <v>933</v>
-      </c>
-      <c r="H390" s="108" t="s">
-        <v>934</v>
       </c>
       <c r="I390" s="95"/>
       <c r="J390" s="96"/>
@@ -11834,15 +11831,15 @@
       <c r="A391" s="112"/>
       <c r="B391" s="49"/>
       <c r="C391" s="29" t="s">
+        <v>934</v>
+      </c>
+      <c r="H391" s="108" t="s">
         <v>935</v>
-      </c>
-      <c r="H391" s="108" t="s">
-        <v>936</v>
       </c>
       <c r="I391" s="95"/>
       <c r="J391" s="96"/>
       <c r="K391" s="97" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="L391" s="104"/>
     </row>
@@ -11850,13 +11847,13 @@
       <c r="A392" s="112"/>
       <c r="B392" s="119"/>
       <c r="C392" s="29" t="s">
+        <v>937</v>
+      </c>
+      <c r="H392" s="108" t="s">
         <v>938</v>
       </c>
-      <c r="H392" s="108" t="s">
+      <c r="I392" s="86" t="s">
         <v>939</v>
-      </c>
-      <c r="I392" s="86" t="s">
-        <v>940</v>
       </c>
       <c r="J392" s="96"/>
       <c r="K392" s="111"/>
@@ -11866,10 +11863,10 @@
       <c r="A393" s="112"/>
       <c r="B393" s="119"/>
       <c r="C393" s="29" t="s">
+        <v>940</v>
+      </c>
+      <c r="H393" s="108" t="s">
         <v>941</v>
-      </c>
-      <c r="H393" s="108" t="s">
-        <v>942</v>
       </c>
       <c r="I393" s="95"/>
       <c r="J393" s="96"/>
@@ -11879,19 +11876,19 @@
     <row r="394" ht="33.75" customHeight="1">
       <c r="A394" s="112"/>
       <c r="B394" s="32" t="s">
+        <v>942</v>
+      </c>
+      <c r="H394" s="108" t="s">
         <v>943</v>
       </c>
-      <c r="H394" s="108" t="s">
+      <c r="I394" s="132" t="s">
         <v>944</v>
       </c>
-      <c r="I394" s="132" t="s">
+      <c r="J394" s="110" t="s">
         <v>945</v>
       </c>
-      <c r="J394" s="110" t="s">
+      <c r="K394" s="97" t="s">
         <v>946</v>
-      </c>
-      <c r="K394" s="97" t="s">
-        <v>947</v>
       </c>
       <c r="L394" s="104"/>
     </row>
@@ -11899,10 +11896,10 @@
       <c r="A395" s="112"/>
       <c r="B395" s="28"/>
       <c r="C395" s="29" t="s">
+        <v>947</v>
+      </c>
+      <c r="H395" s="108" t="s">
         <v>948</v>
-      </c>
-      <c r="H395" s="108" t="s">
-        <v>949</v>
       </c>
       <c r="I395" s="133"/>
       <c r="J395" s="134"/>
@@ -11913,10 +11910,10 @@
       <c r="A396" s="112"/>
       <c r="B396" s="28"/>
       <c r="C396" s="29" t="s">
+        <v>949</v>
+      </c>
+      <c r="H396" s="108" t="s">
         <v>950</v>
-      </c>
-      <c r="H396" s="108" t="s">
-        <v>951</v>
       </c>
       <c r="I396" s="133"/>
       <c r="J396" s="134"/>
@@ -11926,10 +11923,10 @@
     <row r="397" ht="15.75" customHeight="1">
       <c r="A397" s="119"/>
       <c r="B397" s="32" t="s">
+        <v>951</v>
+      </c>
+      <c r="H397" s="108" t="s">
         <v>952</v>
-      </c>
-      <c r="H397" s="108" t="s">
-        <v>953</v>
       </c>
       <c r="I397" s="20"/>
       <c r="J397" s="110"/>
@@ -11939,10 +11936,10 @@
     <row r="398" ht="15.75" customHeight="1">
       <c r="A398" s="119"/>
       <c r="B398" s="32" t="s">
+        <v>953</v>
+      </c>
+      <c r="H398" s="108" t="s">
         <v>954</v>
-      </c>
-      <c r="H398" s="108" t="s">
-        <v>955</v>
       </c>
       <c r="I398" s="135"/>
       <c r="J398" s="110"/>
@@ -11953,10 +11950,10 @@
       <c r="A399" s="119"/>
       <c r="B399" s="119"/>
       <c r="C399" s="29" t="s">
+        <v>955</v>
+      </c>
+      <c r="H399" s="108" t="s">
         <v>956</v>
-      </c>
-      <c r="H399" s="108" t="s">
-        <v>957</v>
       </c>
       <c r="I399" s="135"/>
       <c r="J399" s="110"/>
@@ -11966,7 +11963,7 @@
     <row r="400" ht="18.75" customHeight="1">
       <c r="A400" s="128"/>
       <c r="B400" s="32" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H400" s="117"/>
       <c r="I400" s="135"/>
@@ -11976,31 +11973,31 @@
     </row>
     <row r="401" ht="33.75" customHeight="1">
       <c r="A401" s="18" t="s">
+        <v>958</v>
+      </c>
+      <c r="H401" s="108" t="s">
         <v>959</v>
-      </c>
-      <c r="H401" s="108" t="s">
-        <v>960</v>
       </c>
       <c r="I401" s="135"/>
       <c r="J401" s="110" t="s">
+        <v>960</v>
+      </c>
+      <c r="K401" s="97" t="s">
         <v>961</v>
-      </c>
-      <c r="K401" s="97" t="s">
-        <v>962</v>
       </c>
       <c r="L401" s="104"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
       <c r="A402" s="112"/>
       <c r="B402" s="32" t="s">
+        <v>962</v>
+      </c>
+      <c r="H402" s="108" t="s">
         <v>963</v>
-      </c>
-      <c r="H402" s="108" t="s">
-        <v>964</v>
       </c>
       <c r="I402" s="136"/>
       <c r="J402" s="110" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="K402" s="111"/>
       <c r="L402" s="104"/>
@@ -12009,7 +12006,7 @@
       <c r="A403" s="112"/>
       <c r="B403" s="28"/>
       <c r="C403" s="49" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H403" s="117"/>
       <c r="I403" s="136"/>
@@ -12020,32 +12017,32 @@
     <row r="404" ht="15.75" customHeight="1">
       <c r="A404" s="112"/>
       <c r="B404" s="32" t="s">
+        <v>966</v>
+      </c>
+      <c r="H404" s="108" t="s">
         <v>967</v>
       </c>
-      <c r="H404" s="108" t="s">
+      <c r="I404" s="115" t="s">
         <v>968</v>
-      </c>
-      <c r="I404" s="115" t="s">
-        <v>969</v>
       </c>
       <c r="J404" s="110"/>
       <c r="K404" s="97" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="L404" s="104"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
       <c r="A405" s="112"/>
       <c r="B405" s="32" t="s">
+        <v>970</v>
+      </c>
+      <c r="H405" s="108" t="s">
         <v>971</v>
-      </c>
-      <c r="H405" s="108" t="s">
-        <v>972</v>
       </c>
       <c r="I405" s="135"/>
       <c r="J405" s="110"/>
       <c r="K405" s="97" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="L405" s="104"/>
     </row>
@@ -12053,15 +12050,15 @@
       <c r="A406" s="112"/>
       <c r="B406" s="28"/>
       <c r="C406" s="49" t="s">
+        <v>973</v>
+      </c>
+      <c r="H406" s="108" t="s">
         <v>974</v>
-      </c>
-      <c r="H406" s="108" t="s">
-        <v>975</v>
       </c>
       <c r="I406" s="135"/>
       <c r="J406" s="110"/>
       <c r="K406" s="111" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="L406" s="104"/>
     </row>
@@ -12069,10 +12066,10 @@
       <c r="A407" s="112"/>
       <c r="B407" s="28"/>
       <c r="C407" s="29" t="s">
+        <v>976</v>
+      </c>
+      <c r="H407" s="108" t="s">
         <v>977</v>
-      </c>
-      <c r="H407" s="108" t="s">
-        <v>978</v>
       </c>
       <c r="I407" s="135"/>
       <c r="J407" s="110"/>
@@ -12082,15 +12079,15 @@
     <row r="408" ht="33.75" customHeight="1">
       <c r="A408" s="112"/>
       <c r="B408" s="32" t="s">
+        <v>978</v>
+      </c>
+      <c r="H408" s="108" t="s">
         <v>979</v>
-      </c>
-      <c r="H408" s="108" t="s">
-        <v>980</v>
       </c>
       <c r="I408" s="135"/>
       <c r="J408" s="110"/>
       <c r="K408" s="97" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="L408" s="104"/>
     </row>
@@ -12098,10 +12095,10 @@
       <c r="A409" s="112"/>
       <c r="B409" s="49"/>
       <c r="C409" s="29" t="s">
+        <v>981</v>
+      </c>
+      <c r="H409" s="108" t="s">
         <v>982</v>
-      </c>
-      <c r="H409" s="108" t="s">
-        <v>983</v>
       </c>
       <c r="I409" s="135"/>
       <c r="J409" s="110"/>
@@ -12112,10 +12109,10 @@
       <c r="A410" s="112"/>
       <c r="B410" s="49"/>
       <c r="C410" s="29" t="s">
+        <v>983</v>
+      </c>
+      <c r="H410" s="108" t="s">
         <v>984</v>
-      </c>
-      <c r="H410" s="108" t="s">
-        <v>985</v>
       </c>
       <c r="I410" s="135"/>
       <c r="J410" s="110"/>
@@ -12126,10 +12123,10 @@
       <c r="A411" s="112"/>
       <c r="B411" s="49"/>
       <c r="C411" s="29" t="s">
+        <v>985</v>
+      </c>
+      <c r="H411" s="108" t="s">
         <v>986</v>
-      </c>
-      <c r="H411" s="108" t="s">
-        <v>987</v>
       </c>
       <c r="I411" s="135"/>
       <c r="J411" s="110"/>
@@ -12139,11 +12136,11 @@
     <row r="412" ht="15.75" customHeight="1">
       <c r="A412" s="112"/>
       <c r="B412" s="49"/>
-      <c r="C412" s="49" t="s">
+      <c r="C412" s="29" t="s">
+        <v>987</v>
+      </c>
+      <c r="H412" s="108" t="s">
         <v>988</v>
-      </c>
-      <c r="H412" s="108" t="s">
-        <v>989</v>
       </c>
       <c r="I412" s="135"/>
       <c r="J412" s="110"/>
@@ -12154,10 +12151,10 @@
       <c r="A413" s="112"/>
       <c r="B413" s="49"/>
       <c r="C413" s="49" t="s">
+        <v>989</v>
+      </c>
+      <c r="H413" s="108" t="s">
         <v>990</v>
-      </c>
-      <c r="H413" s="108" t="s">
-        <v>991</v>
       </c>
       <c r="I413" s="135"/>
       <c r="J413" s="110"/>
@@ -12168,10 +12165,10 @@
       <c r="A414" s="112"/>
       <c r="B414" s="49"/>
       <c r="C414" s="29" t="s">
+        <v>991</v>
+      </c>
+      <c r="H414" s="108" t="s">
         <v>992</v>
-      </c>
-      <c r="H414" s="108" t="s">
-        <v>993</v>
       </c>
       <c r="I414" s="135"/>
       <c r="J414" s="110"/>
@@ -12181,16 +12178,16 @@
     <row r="415" ht="22.5" customHeight="1">
       <c r="A415" s="112"/>
       <c r="B415" s="49"/>
-      <c r="C415" s="49" t="s">
+      <c r="C415" s="29" t="s">
+        <v>993</v>
+      </c>
+      <c r="H415" s="108" t="s">
         <v>994</v>
-      </c>
-      <c r="H415" s="108" t="s">
-        <v>995</v>
       </c>
       <c r="I415" s="135"/>
       <c r="J415" s="110"/>
       <c r="K415" s="97" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L415" s="104"/>
     </row>
@@ -12198,10 +12195,10 @@
       <c r="A416" s="112"/>
       <c r="B416" s="49"/>
       <c r="C416" s="29" t="s">
+        <v>996</v>
+      </c>
+      <c r="H416" s="108" t="s">
         <v>997</v>
-      </c>
-      <c r="H416" s="108" t="s">
-        <v>998</v>
       </c>
       <c r="I416" s="135"/>
       <c r="J416" s="110"/>
@@ -12212,10 +12209,10 @@
       <c r="A417" s="112"/>
       <c r="B417" s="49"/>
       <c r="C417" s="29" t="s">
+        <v>998</v>
+      </c>
+      <c r="H417" s="108" t="s">
         <v>999</v>
-      </c>
-      <c r="H417" s="108" t="s">
-        <v>1000</v>
       </c>
       <c r="I417" s="135"/>
       <c r="J417" s="110"/>
@@ -12225,13 +12222,13 @@
     <row r="418" ht="15.75" customHeight="1">
       <c r="A418" s="112"/>
       <c r="B418" s="32" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H418" s="108" t="s">
         <v>1001</v>
       </c>
-      <c r="H418" s="108" t="s">
+      <c r="I418" s="137" t="s">
         <v>1002</v>
-      </c>
-      <c r="I418" s="137" t="s">
-        <v>1003</v>
       </c>
       <c r="J418" s="110"/>
       <c r="K418" s="111"/>
@@ -12241,10 +12238,10 @@
       <c r="A419" s="112"/>
       <c r="B419" s="49"/>
       <c r="C419" s="29" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H419" s="108" t="s">
         <v>1004</v>
-      </c>
-      <c r="H419" s="108" t="s">
-        <v>1005</v>
       </c>
       <c r="I419" s="135"/>
       <c r="J419" s="110"/>
@@ -12255,10 +12252,10 @@
       <c r="A420" s="112"/>
       <c r="B420" s="49"/>
       <c r="C420" s="29" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H420" s="108" t="s">
         <v>1006</v>
-      </c>
-      <c r="H420" s="108" t="s">
-        <v>1007</v>
       </c>
       <c r="I420" s="135"/>
       <c r="J420" s="110"/>
@@ -12269,10 +12266,10 @@
       <c r="A421" s="112"/>
       <c r="B421" s="49"/>
       <c r="C421" s="29" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H421" s="108" t="s">
         <v>1008</v>
-      </c>
-      <c r="H421" s="108" t="s">
-        <v>1009</v>
       </c>
       <c r="I421" s="135"/>
       <c r="J421" s="110"/>
@@ -12282,13 +12279,13 @@
     <row r="422" ht="15.75" customHeight="1">
       <c r="A422" s="112"/>
       <c r="B422" s="32" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H422" s="108" t="s">
         <v>1010</v>
       </c>
-      <c r="H422" s="108" t="s">
+      <c r="I422" s="138" t="s">
         <v>1011</v>
-      </c>
-      <c r="I422" s="138" t="s">
-        <v>1012</v>
       </c>
       <c r="J422" s="110"/>
       <c r="K422" s="111"/>
@@ -12298,10 +12295,10 @@
       <c r="A423" s="112"/>
       <c r="B423" s="49"/>
       <c r="C423" s="29" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H423" s="108" t="s">
         <v>1013</v>
-      </c>
-      <c r="H423" s="108" t="s">
-        <v>1014</v>
       </c>
       <c r="I423" s="135"/>
       <c r="J423" s="110"/>
@@ -12312,10 +12309,10 @@
       <c r="A424" s="112"/>
       <c r="B424" s="49"/>
       <c r="C424" s="29" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H424" s="108" t="s">
         <v>1015</v>
-      </c>
-      <c r="H424" s="108" t="s">
-        <v>1016</v>
       </c>
       <c r="I424" s="135"/>
       <c r="J424" s="110"/>
@@ -12326,10 +12323,10 @@
       <c r="A425" s="112"/>
       <c r="B425" s="49"/>
       <c r="C425" s="29" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H425" s="108" t="s">
         <v>1017</v>
-      </c>
-      <c r="H425" s="108" t="s">
-        <v>1018</v>
       </c>
       <c r="I425" s="135"/>
       <c r="J425" s="110"/>
@@ -12340,10 +12337,10 @@
       <c r="A426" s="112"/>
       <c r="B426" s="49"/>
       <c r="C426" s="29" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H426" s="108" t="s">
         <v>1019</v>
-      </c>
-      <c r="H426" s="108" t="s">
-        <v>1020</v>
       </c>
       <c r="I426" s="135"/>
       <c r="J426" s="110"/>
@@ -12354,10 +12351,10 @@
       <c r="A427" s="112"/>
       <c r="B427" s="49"/>
       <c r="C427" s="29" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H427" s="108" t="s">
         <v>1021</v>
-      </c>
-      <c r="H427" s="108" t="s">
-        <v>1022</v>
       </c>
       <c r="I427" s="135"/>
       <c r="J427" s="110"/>
@@ -12368,10 +12365,10 @@
       <c r="A428" s="112"/>
       <c r="B428" s="49"/>
       <c r="C428" s="29" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H428" s="108" t="s">
         <v>1023</v>
-      </c>
-      <c r="H428" s="108" t="s">
-        <v>1024</v>
       </c>
       <c r="I428" s="135"/>
       <c r="J428" s="110"/>
@@ -12381,13 +12378,13 @@
     <row r="429" ht="15.75" customHeight="1">
       <c r="A429" s="112"/>
       <c r="B429" s="32" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H429" s="108" t="s">
         <v>1025</v>
       </c>
-      <c r="H429" s="108" t="s">
+      <c r="I429" s="116" t="s">
         <v>1026</v>
-      </c>
-      <c r="I429" s="116" t="s">
-        <v>1027</v>
       </c>
       <c r="J429" s="110"/>
       <c r="K429" s="111"/>
@@ -12397,10 +12394,10 @@
       <c r="A430" s="128"/>
       <c r="B430" s="128"/>
       <c r="C430" s="29" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H430" s="108" t="s">
         <v>1028</v>
-      </c>
-      <c r="H430" s="108" t="s">
-        <v>1029</v>
       </c>
       <c r="I430" s="135"/>
       <c r="J430" s="110"/>
@@ -12411,13 +12408,13 @@
       <c r="A431" s="128"/>
       <c r="B431" s="28"/>
       <c r="C431" s="29" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H431" s="108" t="s">
         <v>1030</v>
       </c>
-      <c r="H431" s="108" t="s">
+      <c r="I431" s="139" t="s">
         <v>1031</v>
-      </c>
-      <c r="I431" s="139" t="s">
-        <v>1032</v>
       </c>
       <c r="J431" s="110"/>
       <c r="K431" s="111"/>
@@ -12427,10 +12424,10 @@
       <c r="A432" s="128"/>
       <c r="B432" s="28"/>
       <c r="C432" s="29" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H432" s="108" t="s">
         <v>1033</v>
-      </c>
-      <c r="H432" s="108" t="s">
-        <v>1034</v>
       </c>
       <c r="I432" s="135"/>
       <c r="J432" s="110"/>
@@ -12440,22 +12437,22 @@
     <row r="433" ht="18.75" customHeight="1">
       <c r="A433" s="128"/>
       <c r="B433" s="32" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H433" s="108" t="s">
         <v>1035</v>
-      </c>
-      <c r="H433" s="108" t="s">
-        <v>1036</v>
       </c>
       <c r="I433" s="135"/>
       <c r="J433" s="110"/>
       <c r="K433" s="111" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="L433" s="104"/>
     </row>
     <row r="434" ht="18.75" customHeight="1">
       <c r="A434" s="128"/>
       <c r="B434" s="32" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H434" s="117"/>
       <c r="I434" s="135"/>
@@ -12465,10 +12462,10 @@
     </row>
     <row r="437" ht="18.75" customHeight="1">
       <c r="A437" s="18" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H437" s="108" t="s">
         <v>1039</v>
-      </c>
-      <c r="H437" s="108" t="s">
-        <v>1040</v>
       </c>
       <c r="I437" s="116"/>
       <c r="J437" s="110"/>
@@ -12478,11 +12475,11 @@
     <row r="438" ht="15.75" customHeight="1">
       <c r="A438" s="128"/>
       <c r="B438" s="32" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H438" s="108"/>
       <c r="I438" s="140" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="J438" s="110"/>
       <c r="K438" s="111"/>
@@ -12491,13 +12488,13 @@
     <row r="439" ht="15.75" customHeight="1">
       <c r="A439" s="128"/>
       <c r="B439" s="32" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H439" s="108" t="s">
         <v>1043</v>
       </c>
-      <c r="H439" s="108" t="s">
+      <c r="I439" s="109" t="s">
         <v>1044</v>
-      </c>
-      <c r="I439" s="109" t="s">
-        <v>1045</v>
       </c>
       <c r="J439" s="110"/>
       <c r="K439" s="111"/>
@@ -12507,13 +12504,13 @@
       <c r="A440" s="112"/>
       <c r="B440" s="49"/>
       <c r="C440" s="49" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H440" s="108" t="s">
         <v>1046</v>
       </c>
-      <c r="H440" s="108" t="s">
+      <c r="I440" s="122" t="s">
         <v>1047</v>
-      </c>
-      <c r="I440" s="122" t="s">
-        <v>1048</v>
       </c>
       <c r="J440" s="110"/>
       <c r="K440" s="111"/>
@@ -12523,10 +12520,10 @@
       <c r="A441" s="112"/>
       <c r="B441" s="119"/>
       <c r="C441" s="29" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H441" s="108" t="s">
         <v>1049</v>
-      </c>
-      <c r="H441" s="108" t="s">
-        <v>1050</v>
       </c>
       <c r="I441" s="135"/>
       <c r="J441" s="110"/>
@@ -12537,13 +12534,13 @@
       <c r="A442" s="112"/>
       <c r="B442" s="119"/>
       <c r="C442" s="29" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H442" s="108" t="s">
         <v>1051</v>
       </c>
-      <c r="H442" s="108" t="s">
+      <c r="I442" s="141" t="s">
         <v>1052</v>
-      </c>
-      <c r="I442" s="141" t="s">
-        <v>1053</v>
       </c>
       <c r="J442" s="110"/>
       <c r="K442" s="111"/>
@@ -12553,13 +12550,13 @@
       <c r="A443" s="112"/>
       <c r="B443" s="49"/>
       <c r="C443" s="29" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H443" s="108" t="s">
         <v>1054</v>
       </c>
-      <c r="H443" s="108" t="s">
+      <c r="I443" s="142" t="s">
         <v>1055</v>
-      </c>
-      <c r="I443" s="142" t="s">
-        <v>1056</v>
       </c>
       <c r="J443" s="110"/>
       <c r="K443" s="111"/>
@@ -12569,16 +12566,16 @@
       <c r="A444" s="112"/>
       <c r="B444" s="49"/>
       <c r="C444" s="29" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H444" s="108" t="s">
         <v>1057</v>
       </c>
-      <c r="H444" s="108" t="s">
+      <c r="I444" s="109" t="s">
         <v>1058</v>
       </c>
-      <c r="I444" s="109" t="s">
+      <c r="J444" s="110" t="s">
         <v>1059</v>
-      </c>
-      <c r="J444" s="110" t="s">
-        <v>1060</v>
       </c>
       <c r="K444" s="111"/>
       <c r="L444" s="104"/>
@@ -12587,13 +12584,13 @@
       <c r="A445" s="128"/>
       <c r="B445" s="28"/>
       <c r="C445" s="29" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H445" s="108" t="s">
         <v>1061</v>
       </c>
-      <c r="H445" s="108" t="s">
+      <c r="I445" s="116" t="s">
         <v>1062</v>
-      </c>
-      <c r="I445" s="116" t="s">
-        <v>1063</v>
       </c>
       <c r="J445" s="110"/>
       <c r="K445" s="111"/>
@@ -12603,10 +12600,10 @@
       <c r="A446" s="128"/>
       <c r="B446" s="28"/>
       <c r="C446" s="29" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H446" s="108" t="s">
         <v>1064</v>
-      </c>
-      <c r="H446" s="108" t="s">
-        <v>1065</v>
       </c>
       <c r="I446" s="135"/>
       <c r="J446" s="110"/>
@@ -12617,13 +12614,13 @@
       <c r="A447" s="119"/>
       <c r="B447" s="28"/>
       <c r="C447" s="29" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H447" s="108" t="s">
         <v>1066</v>
       </c>
-      <c r="H447" s="108" t="s">
+      <c r="I447" s="116" t="s">
         <v>1067</v>
-      </c>
-      <c r="I447" s="116" t="s">
-        <v>1068</v>
       </c>
       <c r="J447" s="110"/>
       <c r="K447" s="111"/>
@@ -12634,13 +12631,13 @@
       <c r="B448" s="28"/>
       <c r="C448" s="49"/>
       <c r="D448" s="50" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H448" s="108" t="s">
         <v>1069</v>
       </c>
-      <c r="H448" s="108" t="s">
-        <v>1070</v>
-      </c>
       <c r="I448" s="116" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J448" s="110"/>
       <c r="K448" s="111"/>
@@ -12650,17 +12647,17 @@
       <c r="A449" s="119"/>
       <c r="B449" s="28"/>
       <c r="C449" s="29" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H449" s="108" t="s">
         <v>1071</v>
       </c>
-      <c r="H449" s="108" t="s">
+      <c r="I449" s="115" t="s">
         <v>1072</v>
-      </c>
-      <c r="I449" s="115" t="s">
-        <v>1073</v>
       </c>
       <c r="J449" s="110"/>
       <c r="K449" s="97" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="L449" s="104"/>
     </row>
@@ -12668,10 +12665,10 @@
       <c r="A450" s="119"/>
       <c r="B450" s="28"/>
       <c r="C450" s="29" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H450" s="108" t="s">
         <v>1075</v>
-      </c>
-      <c r="H450" s="108" t="s">
-        <v>1076</v>
       </c>
       <c r="I450" s="122"/>
       <c r="J450" s="110"/>
@@ -12681,13 +12678,13 @@
     <row r="451" ht="15.75" customHeight="1">
       <c r="A451" s="112"/>
       <c r="B451" s="28" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H451" s="108" t="s">
         <v>1077</v>
       </c>
-      <c r="H451" s="108" t="s">
+      <c r="I451" s="122" t="s">
         <v>1078</v>
-      </c>
-      <c r="I451" s="122" t="s">
-        <v>1079</v>
       </c>
       <c r="J451" s="110"/>
       <c r="K451" s="111"/>
@@ -12697,13 +12694,13 @@
       <c r="A452" s="112"/>
       <c r="B452" s="49"/>
       <c r="C452" s="29" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H452" s="108" t="s">
         <v>1080</v>
       </c>
-      <c r="H452" s="108" t="s">
+      <c r="I452" s="116" t="s">
         <v>1081</v>
-      </c>
-      <c r="I452" s="116" t="s">
-        <v>1082</v>
       </c>
       <c r="J452" s="110"/>
       <c r="K452" s="111"/>
@@ -12713,13 +12710,13 @@
       <c r="A453" s="112"/>
       <c r="B453" s="49"/>
       <c r="C453" s="29" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H453" s="108" t="s">
         <v>1083</v>
       </c>
-      <c r="H453" s="108" t="s">
+      <c r="I453" s="116" t="s">
         <v>1084</v>
-      </c>
-      <c r="I453" s="116" t="s">
-        <v>1085</v>
       </c>
       <c r="J453" s="110"/>
       <c r="K453" s="111"/>
@@ -12729,13 +12726,13 @@
       <c r="A454" s="112"/>
       <c r="B454" s="49"/>
       <c r="C454" s="49" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H454" s="108" t="s">
         <v>1086</v>
       </c>
-      <c r="H454" s="108" t="s">
+      <c r="I454" s="122" t="s">
         <v>1087</v>
-      </c>
-      <c r="I454" s="122" t="s">
-        <v>1088</v>
       </c>
       <c r="J454" s="110"/>
       <c r="K454" s="111"/>
@@ -12745,13 +12742,13 @@
       <c r="A455" s="112"/>
       <c r="B455" s="49"/>
       <c r="C455" s="49" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H455" s="108" t="s">
         <v>1089</v>
       </c>
-      <c r="H455" s="108" t="s">
-        <v>1090</v>
-      </c>
       <c r="I455" s="143" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="J455" s="110"/>
       <c r="K455" s="111"/>
@@ -12761,13 +12758,13 @@
       <c r="A456" s="112"/>
       <c r="B456" s="49"/>
       <c r="C456" s="49" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H456" s="108" t="s">
         <v>1091</v>
       </c>
-      <c r="H456" s="108" t="s">
+      <c r="I456" s="116" t="s">
         <v>1092</v>
-      </c>
-      <c r="I456" s="116" t="s">
-        <v>1093</v>
       </c>
       <c r="J456" s="110"/>
       <c r="K456" s="111"/>
@@ -12777,13 +12774,13 @@
       <c r="A457" s="112"/>
       <c r="B457" s="49"/>
       <c r="C457" s="29" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H457" s="108" t="s">
         <v>1094</v>
       </c>
-      <c r="H457" s="108" t="s">
+      <c r="I457" s="116" t="s">
         <v>1095</v>
-      </c>
-      <c r="I457" s="116" t="s">
-        <v>1096</v>
       </c>
       <c r="J457" s="110"/>
       <c r="K457" s="111"/>
@@ -12792,17 +12789,17 @@
     <row r="458" ht="15.75" customHeight="1">
       <c r="A458" s="112"/>
       <c r="B458" s="32" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H458" s="108" t="s">
         <v>1097</v>
       </c>
-      <c r="H458" s="108" t="s">
+      <c r="I458" s="114" t="s">
         <v>1098</v>
-      </c>
-      <c r="I458" s="114" t="s">
-        <v>1099</v>
       </c>
       <c r="J458" s="110"/>
       <c r="K458" s="97" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="L458" s="104"/>
     </row>
@@ -12810,10 +12807,10 @@
       <c r="A459" s="112"/>
       <c r="B459" s="49"/>
       <c r="C459" s="29" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H459" s="108" t="s">
         <v>1101</v>
-      </c>
-      <c r="H459" s="108" t="s">
-        <v>1102</v>
       </c>
       <c r="I459" s="135"/>
       <c r="J459" s="110"/>
@@ -12824,10 +12821,10 @@
       <c r="A460" s="112"/>
       <c r="B460" s="49"/>
       <c r="C460" s="49" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H460" s="108" t="s">
         <v>1103</v>
-      </c>
-      <c r="H460" s="108" t="s">
-        <v>1104</v>
       </c>
       <c r="I460" s="135"/>
       <c r="J460" s="110"/>
@@ -12838,13 +12835,13 @@
       <c r="A461" s="112"/>
       <c r="B461" s="49"/>
       <c r="C461" s="29" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H461" s="108" t="s">
         <v>1105</v>
       </c>
-      <c r="H461" s="108" t="s">
+      <c r="I461" s="116" t="s">
         <v>1106</v>
-      </c>
-      <c r="I461" s="116" t="s">
-        <v>1107</v>
       </c>
       <c r="J461" s="110"/>
       <c r="K461" s="111"/>
@@ -12853,10 +12850,10 @@
     <row r="462" ht="15.75" customHeight="1">
       <c r="A462" s="112"/>
       <c r="B462" s="32" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H462" s="108" t="s">
         <v>1108</v>
-      </c>
-      <c r="H462" s="108" t="s">
-        <v>1109</v>
       </c>
       <c r="I462" s="122"/>
       <c r="J462" s="110"/>
@@ -12867,10 +12864,10 @@
       <c r="A463" s="112"/>
       <c r="B463" s="49"/>
       <c r="C463" s="29" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H463" s="108" t="s">
         <v>1110</v>
-      </c>
-      <c r="H463" s="108" t="s">
-        <v>1111</v>
       </c>
       <c r="I463" s="135"/>
       <c r="J463" s="110"/>
@@ -12881,10 +12878,10 @@
       <c r="A464" s="112"/>
       <c r="B464" s="49"/>
       <c r="C464" s="29" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H464" s="108" t="s">
         <v>1112</v>
-      </c>
-      <c r="H464" s="108" t="s">
-        <v>1113</v>
       </c>
       <c r="I464" s="135"/>
       <c r="J464" s="110"/>
@@ -12895,10 +12892,10 @@
       <c r="A465" s="112"/>
       <c r="B465" s="49"/>
       <c r="C465" s="29" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H465" s="108" t="s">
         <v>1114</v>
-      </c>
-      <c r="H465" s="108" t="s">
-        <v>1115</v>
       </c>
       <c r="I465" s="135"/>
       <c r="J465" s="110"/>
@@ -12908,17 +12905,17 @@
     <row r="466" ht="33.75" customHeight="1">
       <c r="A466" s="112"/>
       <c r="B466" s="32" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H466" s="108" t="s">
         <v>1116</v>
       </c>
-      <c r="H466" s="108" t="s">
+      <c r="I466" s="114" t="s">
         <v>1117</v>
-      </c>
-      <c r="I466" s="114" t="s">
-        <v>1118</v>
       </c>
       <c r="J466" s="110"/>
       <c r="K466" s="97" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="L466" s="104"/>
     </row>
@@ -12926,10 +12923,10 @@
       <c r="A467" s="112"/>
       <c r="B467" s="49"/>
       <c r="C467" s="29" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H467" s="108" t="s">
         <v>1120</v>
-      </c>
-      <c r="H467" s="108" t="s">
-        <v>1121</v>
       </c>
       <c r="I467" s="135"/>
       <c r="J467" s="110"/>
@@ -12940,10 +12937,10 @@
       <c r="A468" s="112"/>
       <c r="B468" s="49"/>
       <c r="C468" s="29" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H468" s="108" t="s">
         <v>1122</v>
-      </c>
-      <c r="H468" s="108" t="s">
-        <v>1123</v>
       </c>
       <c r="I468" s="135"/>
       <c r="J468" s="110"/>
@@ -12953,10 +12950,10 @@
     <row r="469" ht="15.75" customHeight="1">
       <c r="A469" s="112"/>
       <c r="B469" s="32" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H469" s="108" t="s">
         <v>1124</v>
-      </c>
-      <c r="H469" s="108" t="s">
-        <v>1125</v>
       </c>
       <c r="I469" s="135"/>
       <c r="J469" s="110"/>
@@ -12967,10 +12964,10 @@
       <c r="A470" s="112"/>
       <c r="B470" s="49"/>
       <c r="C470" s="29" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H470" s="108" t="s">
         <v>1126</v>
-      </c>
-      <c r="H470" s="108" t="s">
-        <v>1127</v>
       </c>
       <c r="I470" s="135"/>
       <c r="J470" s="110"/>
@@ -12981,10 +12978,10 @@
       <c r="A471" s="112"/>
       <c r="B471" s="49"/>
       <c r="C471" s="29" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H471" s="108" t="s">
         <v>1128</v>
-      </c>
-      <c r="H471" s="108" t="s">
-        <v>1129</v>
       </c>
       <c r="I471" s="135"/>
       <c r="J471" s="110"/>
@@ -12995,10 +12992,10 @@
       <c r="A472" s="112"/>
       <c r="B472" s="49"/>
       <c r="C472" s="49" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H472" s="108" t="s">
         <v>1130</v>
-      </c>
-      <c r="H472" s="108" t="s">
-        <v>1131</v>
       </c>
       <c r="I472" s="135"/>
       <c r="J472" s="110"/>
@@ -13008,10 +13005,10 @@
     <row r="473" ht="15.75" customHeight="1">
       <c r="A473" s="112"/>
       <c r="B473" s="32" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H473" s="108" t="s">
         <v>1132</v>
-      </c>
-      <c r="H473" s="108" t="s">
-        <v>1133</v>
       </c>
       <c r="I473" s="135"/>
       <c r="J473" s="110"/>
@@ -13021,10 +13018,10 @@
     <row r="474" ht="15.75" customHeight="1">
       <c r="A474" s="119"/>
       <c r="B474" s="32" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H474" s="108" t="s">
         <v>1134</v>
-      </c>
-      <c r="H474" s="108" t="s">
-        <v>1135</v>
       </c>
       <c r="I474" s="135"/>
       <c r="J474" s="110"/>
@@ -13047,10 +13044,10 @@
     </row>
     <row r="476" ht="15.75" customHeight="1">
       <c r="A476" s="144" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H476" s="108" t="s">
         <v>1136</v>
-      </c>
-      <c r="H476" s="108" t="s">
-        <v>1137</v>
       </c>
       <c r="I476" s="135"/>
       <c r="J476" s="110"/>
@@ -13060,10 +13057,10 @@
     <row r="477" ht="15.75" customHeight="1">
       <c r="A477" s="112"/>
       <c r="B477" s="32" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H477" s="108" t="s">
         <v>1138</v>
-      </c>
-      <c r="H477" s="108" t="s">
-        <v>1139</v>
       </c>
       <c r="I477" s="135"/>
       <c r="J477" s="110"/>
@@ -13073,13 +13070,13 @@
     <row r="478" ht="15.75" customHeight="1">
       <c r="A478" s="112"/>
       <c r="B478" s="32" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H478" s="108" t="s">
         <v>1140</v>
       </c>
-      <c r="H478" s="108" t="s">
+      <c r="I478" s="141" t="s">
         <v>1141</v>
-      </c>
-      <c r="I478" s="141" t="s">
-        <v>1142</v>
       </c>
       <c r="J478" s="110"/>
       <c r="K478" s="111"/>
@@ -13088,10 +13085,10 @@
     <row r="479" ht="15.75" customHeight="1">
       <c r="A479" s="112"/>
       <c r="B479" s="32" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H479" s="108" t="s">
         <v>1143</v>
-      </c>
-      <c r="H479" s="108" t="s">
-        <v>1144</v>
       </c>
       <c r="I479" s="135"/>
       <c r="J479" s="110"/>
@@ -13101,10 +13098,10 @@
     <row r="480" ht="15.75" customHeight="1">
       <c r="A480" s="112"/>
       <c r="B480" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H480" s="108" t="s">
         <v>1145</v>
-      </c>
-      <c r="H480" s="108" t="s">
-        <v>1146</v>
       </c>
       <c r="I480" s="135"/>
       <c r="J480" s="110"/>
@@ -13114,10 +13111,10 @@
     <row r="481" ht="15.75" customHeight="1">
       <c r="A481" s="112"/>
       <c r="B481" s="28" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H481" s="108" t="s">
         <v>1147</v>
-      </c>
-      <c r="H481" s="108" t="s">
-        <v>1148</v>
       </c>
       <c r="I481" s="135"/>
       <c r="J481" s="110"/>
@@ -13127,10 +13124,10 @@
     <row r="482" ht="15.75" customHeight="1">
       <c r="A482" s="112"/>
       <c r="B482" s="28" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H482" s="108" t="s">
         <v>1149</v>
-      </c>
-      <c r="H482" s="108" t="s">
-        <v>1150</v>
       </c>
       <c r="I482" s="135"/>
       <c r="J482" s="110"/>
@@ -13140,13 +13137,13 @@
     <row r="483" ht="15.75" customHeight="1">
       <c r="A483" s="112"/>
       <c r="B483" s="32" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H483" s="108" t="s">
         <v>1151</v>
       </c>
-      <c r="H483" s="108" t="s">
+      <c r="I483" s="109" t="s">
         <v>1152</v>
-      </c>
-      <c r="I483" s="109" t="s">
-        <v>1153</v>
       </c>
       <c r="J483" s="110"/>
       <c r="K483" s="111"/>
@@ -13155,13 +13152,13 @@
     <row r="484" ht="15.75" customHeight="1">
       <c r="A484" s="112"/>
       <c r="B484" s="32" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H484" s="108" t="s">
         <v>1154</v>
       </c>
-      <c r="H484" s="108" t="s">
-        <v>1155</v>
-      </c>
       <c r="I484" s="109" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J484" s="110"/>
       <c r="K484" s="111"/>
@@ -13170,13 +13167,13 @@
     <row r="485" ht="15.75" customHeight="1">
       <c r="A485" s="112"/>
       <c r="B485" s="32" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H485" s="108" t="s">
         <v>1156</v>
       </c>
-      <c r="H485" s="108" t="s">
+      <c r="I485" s="109" t="s">
         <v>1157</v>
-      </c>
-      <c r="I485" s="109" t="s">
-        <v>1158</v>
       </c>
       <c r="J485" s="110"/>
       <c r="K485" s="111"/>
@@ -13185,10 +13182,10 @@
     <row r="486" ht="15.75" customHeight="1">
       <c r="A486" s="112"/>
       <c r="B486" s="32" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H486" s="108" t="s">
         <v>1159</v>
-      </c>
-      <c r="H486" s="108" t="s">
-        <v>1160</v>
       </c>
       <c r="I486" s="135"/>
       <c r="J486" s="110"/>
@@ -13199,13 +13196,13 @@
       <c r="A487" s="112"/>
       <c r="B487" s="28"/>
       <c r="C487" s="29" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H487" s="108" t="s">
         <v>1161</v>
       </c>
-      <c r="H487" s="108" t="s">
+      <c r="I487" s="145" t="s">
         <v>1162</v>
-      </c>
-      <c r="I487" s="145" t="s">
-        <v>1163</v>
       </c>
       <c r="J487" s="110"/>
       <c r="K487" s="111"/>
@@ -13215,10 +13212,10 @@
       <c r="A488" s="112"/>
       <c r="B488" s="28"/>
       <c r="C488" s="29" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H488" s="108" t="s">
         <v>1164</v>
-      </c>
-      <c r="H488" s="108" t="s">
-        <v>1165</v>
       </c>
       <c r="I488" s="135"/>
       <c r="J488" s="110"/>
@@ -13229,13 +13226,13 @@
       <c r="A489" s="112"/>
       <c r="B489" s="28"/>
       <c r="C489" s="29" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H489" s="108" t="s">
         <v>1166</v>
       </c>
-      <c r="H489" s="108" t="s">
+      <c r="I489" s="146" t="s">
         <v>1167</v>
-      </c>
-      <c r="I489" s="146" t="s">
-        <v>1168</v>
       </c>
       <c r="J489" s="110"/>
       <c r="K489" s="111"/>
@@ -13244,25 +13241,25 @@
     <row r="490" ht="15.75" customHeight="1">
       <c r="A490" s="112"/>
       <c r="B490" s="32" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H490" s="108" t="s">
         <v>1169</v>
-      </c>
-      <c r="H490" s="108" t="s">
-        <v>1170</v>
       </c>
       <c r="I490" s="135"/>
       <c r="J490" s="110"/>
       <c r="K490" s="111" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="L490" s="104"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
       <c r="A491" s="112"/>
       <c r="B491" s="32" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H491" s="108" t="s">
         <v>1172</v>
-      </c>
-      <c r="H491" s="108" t="s">
-        <v>1173</v>
       </c>
       <c r="I491" s="135"/>
       <c r="J491" s="110"/>
@@ -13273,10 +13270,10 @@
       <c r="A492" s="112"/>
       <c r="B492" s="28"/>
       <c r="C492" s="29" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H492" s="108" t="s">
         <v>1174</v>
-      </c>
-      <c r="H492" s="108" t="s">
-        <v>1175</v>
       </c>
       <c r="I492" s="135"/>
       <c r="J492" s="110"/>
@@ -13287,10 +13284,10 @@
       <c r="A493" s="112"/>
       <c r="B493" s="28"/>
       <c r="C493" s="29" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H493" s="108" t="s">
         <v>1176</v>
-      </c>
-      <c r="H493" s="108" t="s">
-        <v>1177</v>
       </c>
       <c r="I493" s="135"/>
       <c r="J493" s="110"/>
@@ -13301,13 +13298,13 @@
       <c r="A494" s="112"/>
       <c r="B494" s="28"/>
       <c r="C494" s="29" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H494" s="108" t="s">
         <v>1178</v>
       </c>
-      <c r="H494" s="108" t="s">
+      <c r="I494" s="145" t="s">
         <v>1179</v>
-      </c>
-      <c r="I494" s="145" t="s">
-        <v>1180</v>
       </c>
       <c r="J494" s="110"/>
       <c r="K494" s="111"/>
@@ -13317,10 +13314,10 @@
       <c r="A495" s="112"/>
       <c r="B495" s="28"/>
       <c r="C495" s="29" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H495" s="108" t="s">
         <v>1181</v>
-      </c>
-      <c r="H495" s="108" t="s">
-        <v>1182</v>
       </c>
       <c r="I495" s="135"/>
       <c r="J495" s="110"/>
@@ -13331,10 +13328,10 @@
       <c r="A496" s="112"/>
       <c r="B496" s="28"/>
       <c r="C496" s="29" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H496" s="108" t="s">
         <v>1183</v>
-      </c>
-      <c r="H496" s="108" t="s">
-        <v>1184</v>
       </c>
       <c r="I496" s="135"/>
       <c r="J496" s="110"/>
@@ -13345,13 +13342,13 @@
       <c r="A497" s="112"/>
       <c r="B497" s="28"/>
       <c r="C497" s="29" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H497" s="108" t="s">
         <v>1185</v>
       </c>
-      <c r="H497" s="108" t="s">
+      <c r="I497" s="145" t="s">
         <v>1186</v>
-      </c>
-      <c r="I497" s="145" t="s">
-        <v>1187</v>
       </c>
       <c r="J497" s="110"/>
       <c r="K497" s="111"/>
@@ -13361,13 +13358,13 @@
       <c r="A498" s="112"/>
       <c r="B498" s="28"/>
       <c r="C498" s="29" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H498" s="108" t="s">
         <v>1188</v>
       </c>
-      <c r="H498" s="108" t="s">
+      <c r="I498" s="147" t="s">
         <v>1189</v>
-      </c>
-      <c r="I498" s="147" t="s">
-        <v>1190</v>
       </c>
       <c r="J498" s="110"/>
       <c r="K498" s="111"/>
@@ -13377,10 +13374,10 @@
       <c r="A499" s="112"/>
       <c r="B499" s="28"/>
       <c r="C499" s="29" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H499" s="108" t="s">
         <v>1191</v>
-      </c>
-      <c r="H499" s="108" t="s">
-        <v>1192</v>
       </c>
       <c r="I499" s="135"/>
       <c r="J499" s="110"/>
@@ -13391,10 +13388,10 @@
       <c r="A500" s="112"/>
       <c r="B500" s="28"/>
       <c r="C500" s="29" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H500" s="108" t="s">
         <v>1193</v>
-      </c>
-      <c r="H500" s="108" t="s">
-        <v>1194</v>
       </c>
       <c r="I500" s="135"/>
       <c r="J500" s="110"/>
@@ -13405,10 +13402,10 @@
       <c r="A501" s="112"/>
       <c r="B501" s="28"/>
       <c r="C501" s="49" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H501" s="108" t="s">
         <v>1195</v>
-      </c>
-      <c r="H501" s="108" t="s">
-        <v>1196</v>
       </c>
       <c r="I501" s="135"/>
       <c r="J501" s="110"/>
@@ -13418,13 +13415,13 @@
     <row r="502" ht="15.75" customHeight="1">
       <c r="A502" s="112"/>
       <c r="B502" s="32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H502" s="108" t="s">
         <v>1197</v>
       </c>
-      <c r="H502" s="108" t="s">
+      <c r="I502" s="148" t="s">
         <v>1198</v>
-      </c>
-      <c r="I502" s="148" t="s">
-        <v>1199</v>
       </c>
       <c r="J502" s="110"/>
       <c r="K502" s="111"/>
@@ -13434,10 +13431,10 @@
       <c r="A503" s="112"/>
       <c r="B503" s="28"/>
       <c r="C503" s="29" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H503" s="108" t="s">
         <v>1200</v>
-      </c>
-      <c r="H503" s="108" t="s">
-        <v>1201</v>
       </c>
       <c r="I503" s="149"/>
       <c r="J503" s="110"/>
@@ -13448,10 +13445,10 @@
       <c r="A504" s="112"/>
       <c r="B504" s="28"/>
       <c r="C504" s="29" t="s">
+        <v>1201</v>
+      </c>
+      <c r="H504" s="108" t="s">
         <v>1202</v>
-      </c>
-      <c r="H504" s="108" t="s">
-        <v>1203</v>
       </c>
       <c r="I504" s="135"/>
       <c r="J504" s="110"/>
@@ -13462,10 +13459,10 @@
       <c r="A505" s="112"/>
       <c r="B505" s="28"/>
       <c r="C505" s="29" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H505" s="108" t="s">
         <v>1204</v>
-      </c>
-      <c r="H505" s="108" t="s">
-        <v>1205</v>
       </c>
       <c r="I505" s="135"/>
       <c r="J505" s="110"/>
@@ -13476,13 +13473,13 @@
       <c r="A506" s="112"/>
       <c r="B506" s="28"/>
       <c r="C506" s="29" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H506" s="108" t="s">
         <v>1206</v>
       </c>
-      <c r="H506" s="108" t="s">
+      <c r="I506" s="141" t="s">
         <v>1207</v>
-      </c>
-      <c r="I506" s="141" t="s">
-        <v>1208</v>
       </c>
       <c r="J506" s="110"/>
       <c r="K506" s="111"/>
@@ -13492,28 +13489,28 @@
       <c r="A507" s="112"/>
       <c r="B507" s="28"/>
       <c r="C507" s="29" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H507" s="108" t="s">
         <v>1209</v>
-      </c>
-      <c r="H507" s="108" t="s">
-        <v>1210</v>
       </c>
       <c r="I507" s="135"/>
       <c r="J507" s="110"/>
       <c r="K507" s="111" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="L507" s="104"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
       <c r="A508" s="112"/>
       <c r="B508" s="32" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H508" s="108" t="s">
         <v>1212</v>
       </c>
-      <c r="H508" s="108" t="s">
+      <c r="I508" s="116" t="s">
         <v>1213</v>
-      </c>
-      <c r="I508" s="116" t="s">
-        <v>1214</v>
       </c>
       <c r="J508" s="110"/>
       <c r="K508" s="111"/>
@@ -13522,10 +13519,10 @@
     <row r="509" ht="15.75" customHeight="1">
       <c r="A509" s="112"/>
       <c r="B509" s="32" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H509" s="108" t="s">
         <v>1215</v>
-      </c>
-      <c r="H509" s="108" t="s">
-        <v>1216</v>
       </c>
       <c r="I509" s="135"/>
       <c r="J509" s="110"/>
@@ -13535,10 +13532,10 @@
     <row r="510" ht="15.75" customHeight="1">
       <c r="A510" s="119"/>
       <c r="B510" s="32" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H510" s="108" t="s">
         <v>1217</v>
-      </c>
-      <c r="H510" s="108" t="s">
-        <v>1218</v>
       </c>
       <c r="I510" s="135"/>
       <c r="J510" s="110"/>
@@ -13548,13 +13545,13 @@
     <row r="511" ht="15.75" customHeight="1">
       <c r="A511" s="112"/>
       <c r="B511" s="32" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H511" s="108" t="s">
         <v>1219</v>
       </c>
-      <c r="H511" s="108" t="s">
+      <c r="I511" s="137" t="s">
         <v>1220</v>
-      </c>
-      <c r="I511" s="137" t="s">
-        <v>1221</v>
       </c>
       <c r="J511" s="110"/>
       <c r="K511" s="111"/>
@@ -13563,10 +13560,10 @@
     <row r="512" ht="15.75" customHeight="1">
       <c r="A512" s="112"/>
       <c r="B512" s="32" t="s">
+        <v>1221</v>
+      </c>
+      <c r="H512" s="108" t="s">
         <v>1222</v>
-      </c>
-      <c r="H512" s="108" t="s">
-        <v>1223</v>
       </c>
       <c r="I512" s="135"/>
       <c r="J512" s="110"/>
@@ -13576,10 +13573,10 @@
     <row r="513" ht="15.75" customHeight="1">
       <c r="A513" s="112"/>
       <c r="B513" s="32" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H513" s="108" t="s">
         <v>1224</v>
-      </c>
-      <c r="H513" s="108" t="s">
-        <v>1225</v>
       </c>
       <c r="I513" s="133"/>
       <c r="J513" s="134"/>
@@ -13589,10 +13586,10 @@
     <row r="514" ht="15.75" customHeight="1">
       <c r="A514" s="112"/>
       <c r="B514" s="32" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H514" s="108" t="s">
         <v>1226</v>
-      </c>
-      <c r="H514" s="108" t="s">
-        <v>1227</v>
       </c>
       <c r="I514" s="133"/>
       <c r="J514" s="134"/>
@@ -13602,13 +13599,13 @@
     <row r="515" ht="15.75" customHeight="1">
       <c r="A515" s="112"/>
       <c r="B515" s="32" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H515" s="108" t="s">
         <v>1228</v>
       </c>
-      <c r="H515" s="108" t="s">
+      <c r="I515" s="145" t="s">
         <v>1229</v>
-      </c>
-      <c r="I515" s="145" t="s">
-        <v>1230</v>
       </c>
       <c r="J515" s="134"/>
       <c r="K515" s="111"/>
@@ -13617,10 +13614,10 @@
     <row r="516" ht="15.75" customHeight="1">
       <c r="A516" s="112"/>
       <c r="B516" s="32" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H516" s="108" t="s">
         <v>1231</v>
-      </c>
-      <c r="H516" s="108" t="s">
-        <v>1232</v>
       </c>
       <c r="I516" s="134"/>
       <c r="J516" s="134"/>
@@ -13630,7 +13627,7 @@
     <row r="517" ht="15.75" customHeight="1">
       <c r="A517" s="112"/>
       <c r="B517" s="32" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H517" s="117"/>
       <c r="I517" s="134"/>
@@ -13649,7 +13646,7 @@
     </row>
     <row r="519" ht="15.75" customHeight="1">
       <c r="A519" s="150" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B519" s="151"/>
       <c r="C519" s="151"/>
@@ -13665,7 +13662,7 @@
     </row>
     <row r="520" ht="15.75" customHeight="1">
       <c r="A520" s="153" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B520" s="154"/>
       <c r="C520" s="155"/>
@@ -13674,14 +13671,14 @@
       <c r="F520" s="155"/>
       <c r="G520" s="155"/>
       <c r="I520" s="156" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="J520" s="157"/>
       <c r="K520" s="157"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
       <c r="A521" s="158" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B521" s="154"/>
       <c r="C521" s="155"/>
@@ -13690,14 +13687,14 @@
       <c r="F521" s="155"/>
       <c r="G521" s="155"/>
       <c r="I521" s="159" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="J521" s="157"/>
       <c r="K521" s="157"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
       <c r="A522" s="158" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B522" s="154"/>
       <c r="C522" s="155"/>
@@ -13706,14 +13703,14 @@
       <c r="F522" s="155"/>
       <c r="G522" s="155"/>
       <c r="I522" s="160" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="J522" s="157"/>
       <c r="K522" s="157"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
       <c r="A523" s="158" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B523" s="154"/>
       <c r="C523" s="155"/>
@@ -13722,14 +13719,14 @@
       <c r="F523" s="155"/>
       <c r="G523" s="155"/>
       <c r="I523" s="161" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="J523" s="157"/>
       <c r="K523" s="157"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
       <c r="A524" s="158" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B524" s="154"/>
       <c r="C524" s="155"/>
@@ -13738,14 +13735,14 @@
       <c r="F524" s="155"/>
       <c r="G524" s="155"/>
       <c r="I524" s="162" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="J524" s="157"/>
       <c r="K524" s="157"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
       <c r="A525" s="158" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B525" s="154"/>
       <c r="C525" s="155"/>
@@ -13754,14 +13751,14 @@
       <c r="F525" s="155"/>
       <c r="G525" s="155"/>
       <c r="I525" s="163" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="J525" s="157"/>
       <c r="K525" s="157"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
       <c r="A526" s="164" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B526" s="154"/>
       <c r="C526" s="155"/>
@@ -13770,14 +13767,14 @@
       <c r="F526" s="155"/>
       <c r="G526" s="155"/>
       <c r="I526" s="165" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="J526" s="157"/>
       <c r="K526" s="157"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
       <c r="A527" s="158" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B527" s="154"/>
       <c r="C527" s="155"/>
@@ -13786,14 +13783,14 @@
       <c r="F527" s="155"/>
       <c r="G527" s="155"/>
       <c r="I527" s="166" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="J527" s="157"/>
       <c r="K527" s="157"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
       <c r="A528" s="167" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B528" s="167"/>
       <c r="C528" s="157"/>
@@ -13803,36 +13800,36 @@
       <c r="G528" s="167"/>
       <c r="H528" s="157"/>
       <c r="I528" s="168" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="J528" s="157"/>
       <c r="K528" s="157"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
       <c r="A529" s="167" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H529" s="157"/>
       <c r="I529" s="168" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="J529" s="157"/>
       <c r="K529" s="157"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
       <c r="A530" s="167" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H530" s="157"/>
       <c r="I530" s="169" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="J530" s="157"/>
       <c r="K530" s="157"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
       <c r="A531" s="170" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B531" s="171"/>
       <c r="C531" s="172"/>
@@ -13842,14 +13839,14 @@
       <c r="G531" s="173"/>
       <c r="H531" s="157"/>
       <c r="I531" s="169" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="J531" s="157"/>
       <c r="K531" s="157"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
       <c r="A532" s="167" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B532" s="167"/>
       <c r="C532" s="157"/>
@@ -13859,14 +13856,14 @@
       <c r="G532" s="157"/>
       <c r="H532" s="157"/>
       <c r="I532" s="169" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="J532" s="157"/>
       <c r="K532" s="157"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
       <c r="A533" s="167" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B533" s="167"/>
       <c r="C533" s="157"/>
@@ -13876,14 +13873,14 @@
       <c r="G533" s="157"/>
       <c r="H533" s="157"/>
       <c r="I533" s="169" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="J533" s="157"/>
       <c r="K533" s="157"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
       <c r="A534" s="167" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B534" s="167"/>
       <c r="C534" s="157"/>
@@ -13893,14 +13890,14 @@
       <c r="G534" s="157"/>
       <c r="H534" s="157"/>
       <c r="I534" s="174" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="J534" s="157"/>
       <c r="K534" s="157"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
       <c r="A535" s="167" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B535" s="167"/>
       <c r="C535" s="157"/>
@@ -13910,14 +13907,14 @@
       <c r="G535" s="157"/>
       <c r="H535" s="157"/>
       <c r="I535" s="174" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="J535" s="157"/>
       <c r="K535" s="157"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
       <c r="A536" s="167" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B536" s="167"/>
       <c r="C536" s="157"/>
@@ -13927,14 +13924,14 @@
       <c r="G536" s="157"/>
       <c r="H536" s="157"/>
       <c r="I536" s="168" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="J536" s="157"/>
       <c r="K536" s="157"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
       <c r="A537" s="167" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B537" s="167"/>
       <c r="C537" s="157"/>
@@ -13944,25 +13941,25 @@
       <c r="G537" s="157"/>
       <c r="H537" s="157"/>
       <c r="I537" s="168" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="J537" s="157"/>
       <c r="K537" s="157"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
       <c r="A538" s="15" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H538" s="157"/>
       <c r="I538" s="175" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="J538" s="157"/>
       <c r="K538" s="157"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
       <c r="A539" s="15" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B539" s="15"/>
       <c r="C539" s="15"/>
@@ -13977,7 +13974,7 @@
     </row>
     <row r="540" ht="15.75" customHeight="1">
       <c r="A540" s="15" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B540" s="15"/>
       <c r="C540" s="15"/>
@@ -13987,14 +13984,14 @@
       <c r="G540" s="15"/>
       <c r="H540" s="157"/>
       <c r="I540" s="168" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="J540" s="157"/>
       <c r="K540" s="157"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
       <c r="A541" s="15" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B541" s="15"/>
       <c r="C541" s="15"/>
@@ -14004,14 +14001,14 @@
       <c r="G541" s="15"/>
       <c r="H541" s="157"/>
       <c r="I541" s="168" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="J541" s="157"/>
       <c r="K541" s="157"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
       <c r="A542" s="15" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C542" s="15"/>
       <c r="D542" s="15"/>
@@ -14020,14 +14017,14 @@
       <c r="G542" s="15"/>
       <c r="H542" s="157"/>
       <c r="I542" s="169" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="J542" s="157"/>
       <c r="K542" s="157"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
       <c r="A543" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B543" s="15"/>
       <c r="C543" s="15"/>
@@ -14037,7 +14034,7 @@
       <c r="G543" s="15"/>
       <c r="H543" s="157"/>
       <c r="I543" s="168" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="J543" s="157"/>
       <c r="K543" s="157"/>
